--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="61">
   <si>
     <t>420. Count and Say</t>
   </si>
@@ -129,12 +129,6 @@
     <t>Frequence</t>
   </si>
   <si>
-    <t>++</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>93. Balanced Binary Tree</t>
   </si>
   <si>
@@ -142,6 +136,78 @@
   </si>
   <si>
     <t>174. Remove Nth Node From End of List </t>
+  </si>
+  <si>
+    <t>30. Insert Interva</t>
+  </si>
+  <si>
+    <t>156. Merge Intervals</t>
+  </si>
+  <si>
+    <t>173. Insertion Sort List</t>
+  </si>
+  <si>
+    <t>389. Valid Sudoku</t>
+  </si>
+  <si>
+    <t>433. Number of Islands</t>
+  </si>
+  <si>
+    <t>112. Remove Duplicates from Sorted List</t>
+  </si>
+  <si>
+    <t>109. Triangle</t>
+  </si>
+  <si>
+    <t>422. Length of Last Word</t>
+  </si>
+  <si>
+    <t>451. Swap Nodes in Pairs</t>
+  </si>
+  <si>
+    <t>114. Unique Paths</t>
+  </si>
+  <si>
+    <t>60. Search Insert Position</t>
+  </si>
+  <si>
+    <t>66. Binary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>155. Minimum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>28. Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>67. Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>110. Minimum Path Sum</t>
+  </si>
+  <si>
+    <t>453. Flatten Binary Tree to Linked List</t>
+  </si>
+  <si>
+    <t>68. Binary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>96. Partition List</t>
+  </si>
+  <si>
+    <t>101. Remove Duplicates from Sorted Array II</t>
+  </si>
+  <si>
+    <t>480. Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>+++</t>
+  </si>
+  <si>
+    <t>+++++</t>
+  </si>
+  <si>
+    <t>++++</t>
   </si>
 </sst>
 </file>
@@ -163,7 +229,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +248,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -195,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -203,6 +281,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -488,13 +570,13 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="1" customWidth="1"/>
     <col min="5" max="10" width="16.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -536,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -553,7 +635,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -570,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -587,7 +669,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -605,7 +687,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -622,7 +704,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -639,7 +721,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -656,7 +738,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -673,7 +755,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -687,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -701,7 +783,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -715,7 +797,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -729,7 +811,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -743,7 +825,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -757,7 +839,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -771,7 +853,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -785,7 +867,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -799,7 +881,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -813,7 +895,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -827,7 +909,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -841,7 +923,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -855,7 +937,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
@@ -869,10 +951,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1">
         <v>42596</v>
@@ -883,10 +965,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
         <v>35</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
       </c>
       <c r="D25" s="1">
         <v>42596</v>
@@ -897,13 +979,321 @@
         <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="1">
+        <v>42596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="1">
-        <v>42596</v>
+      <c r="D27" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="1">
+        <v>42597</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -214,19 +214,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF555555"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -273,10 +267,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,7 +563,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +610,7 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C2" t="s">
@@ -629,12 +622,15 @@
       <c r="E2" s="1">
         <v>42596</v>
       </c>
+      <c r="F2" s="1">
+        <v>42597</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C3" t="s">
@@ -646,12 +642,15 @@
       <c r="E3" s="1">
         <v>42596</v>
       </c>
+      <c r="F3" s="1">
+        <v>42597</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C4" t="s">
@@ -663,12 +662,15 @@
       <c r="E4" s="1">
         <v>42596</v>
       </c>
+      <c r="F4" s="1">
+        <v>42597</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C5" t="s">
@@ -680,13 +682,15 @@
       <c r="E5" s="1">
         <v>42596</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="1">
+        <v>42597</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C6" t="s">
@@ -698,12 +702,15 @@
       <c r="E6" s="1">
         <v>42596</v>
       </c>
+      <c r="F6" s="1">
+        <v>42597</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C7" t="s">
@@ -715,12 +722,15 @@
       <c r="E7" s="1">
         <v>42596</v>
       </c>
+      <c r="F7" s="1">
+        <v>42597</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C8" t="s">
@@ -732,12 +742,15 @@
       <c r="E8" s="1">
         <v>42596</v>
       </c>
+      <c r="F8" s="1">
+        <v>42597</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C9" t="s">
@@ -749,12 +762,15 @@
       <c r="E9" s="1">
         <v>42596</v>
       </c>
+      <c r="F9" s="1">
+        <v>42597</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C10" t="s">
@@ -763,12 +779,15 @@
       <c r="D10" s="1">
         <v>42596</v>
       </c>
+      <c r="E10" s="1">
+        <v>42597</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C11" t="s">
@@ -777,12 +796,15 @@
       <c r="D11" s="1">
         <v>42596</v>
       </c>
+      <c r="E11" s="1">
+        <v>42597</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C12" t="s">
@@ -791,12 +813,15 @@
       <c r="D12" s="1">
         <v>42596</v>
       </c>
+      <c r="E12" s="1">
+        <v>42597</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C13" t="s">
@@ -805,12 +830,15 @@
       <c r="D13" s="1">
         <v>42596</v>
       </c>
+      <c r="E13" s="1">
+        <v>42597</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C14" t="s">
@@ -819,12 +847,15 @@
       <c r="D14" s="1">
         <v>42596</v>
       </c>
+      <c r="E14" s="1">
+        <v>42597</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C15" t="s">
@@ -833,12 +864,15 @@
       <c r="D15" s="1">
         <v>42596</v>
       </c>
+      <c r="E15" s="1">
+        <v>42597</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C16" t="s">
@@ -847,12 +881,15 @@
       <c r="D16" s="1">
         <v>42596</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C17" t="s">
@@ -861,12 +898,15 @@
       <c r="D17" s="1">
         <v>42596</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C18" t="s">
@@ -875,12 +915,15 @@
       <c r="D18" s="1">
         <v>42596</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C19" t="s">
@@ -889,12 +932,15 @@
       <c r="D19" s="1">
         <v>42596</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C20" t="s">
@@ -903,12 +949,15 @@
       <c r="D20" s="1">
         <v>42596</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C21" t="s">
@@ -917,12 +966,15 @@
       <c r="D21" s="1">
         <v>42596</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C22" t="s">
@@ -931,12 +983,15 @@
       <c r="D22" s="1">
         <v>42596</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C23" t="s">
@@ -945,12 +1000,15 @@
       <c r="D23" s="1">
         <v>42596</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C24" t="s">
@@ -959,12 +1017,15 @@
       <c r="D24" s="1">
         <v>42596</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C25" t="s">
@@ -973,12 +1034,15 @@
       <c r="D25" s="1">
         <v>42596</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C26" t="s">
@@ -987,26 +1051,29 @@
       <c r="D26" s="1">
         <v>42596</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="1">
         <v>42597</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C28" t="s">
@@ -1016,11 +1083,11 @@
         <v>42597</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C29" t="s">
@@ -1030,11 +1097,11 @@
         <v>42597</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C30" t="s">
@@ -1044,11 +1111,11 @@
         <v>42597</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C31" t="s">
@@ -1058,11 +1125,11 @@
         <v>42597</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C32" t="s">
@@ -1076,7 +1143,7 @@
       <c r="A33" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C33" t="s">
@@ -1090,7 +1157,7 @@
       <c r="A34" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C34" t="s">
@@ -1104,7 +1171,7 @@
       <c r="A35" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C35" t="s">
@@ -1118,7 +1185,7 @@
       <c r="A36" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C36" t="s">
@@ -1132,7 +1199,7 @@
       <c r="A37" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C37" t="s">
@@ -1146,7 +1213,7 @@
       <c r="A38" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C38" t="s">
@@ -1160,7 +1227,7 @@
       <c r="A39" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C39" t="s">
@@ -1174,7 +1241,7 @@
       <c r="A40" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C40" t="s">
@@ -1188,7 +1255,7 @@
       <c r="A41" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C41" t="s">
@@ -1202,7 +1269,7 @@
       <c r="A42" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C42" t="s">
@@ -1216,7 +1283,7 @@
       <c r="A43" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C43" t="s">
@@ -1230,7 +1297,7 @@
       <c r="A44" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C44" t="s">
@@ -1244,7 +1311,7 @@
       <c r="A45" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C45" t="s">
@@ -1258,7 +1325,7 @@
       <c r="A46" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C46" t="s">
@@ -1272,7 +1339,7 @@
       <c r="A47" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C47" t="s">
@@ -1286,7 +1353,7 @@
       <c r="A48" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C48" t="s">

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -138,9 +138,6 @@
     <t>174. Remove Nth Node From End of List </t>
   </si>
   <si>
-    <t>30. Insert Interva</t>
-  </si>
-  <si>
     <t>156. Merge Intervals</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>++++</t>
+  </si>
+  <si>
+    <t>30. Insert Interval</t>
   </si>
 </sst>
 </file>
@@ -267,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
@@ -280,6 +280,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +613,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -631,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -651,7 +653,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -671,7 +673,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -691,7 +693,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -711,7 +713,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -731,7 +733,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -751,7 +753,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -771,7 +773,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -788,7 +790,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -805,7 +807,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -822,7 +824,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -839,7 +841,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -873,7 +875,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -890,7 +892,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -907,7 +909,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -924,7 +926,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -941,7 +943,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -958,7 +960,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -975,7 +977,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -992,7 +994,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
@@ -1009,7 +1011,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
@@ -1026,7 +1028,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -1043,7 +1045,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -1060,10 +1062,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>38</v>
+        <v>59</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="D27" s="1">
         <v>42597</v>
@@ -1074,10 +1076,10 @@
         <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
+        <v>59</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D28" s="1">
         <v>42597</v>
@@ -1088,10 +1090,10 @@
         <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" s="1">
         <v>42597</v>
@@ -1102,10 +1104,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="1">
         <v>42597</v>
@@ -1116,10 +1118,10 @@
         <v>22</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="1">
         <v>42597</v>
@@ -1130,10 +1132,10 @@
         <v>22</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="1">
         <v>42597</v>
@@ -1144,10 +1146,10 @@
         <v>22</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="1">
         <v>42597</v>
@@ -1158,10 +1160,10 @@
         <v>22</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="1">
         <v>42597</v>
@@ -1172,10 +1174,10 @@
         <v>22</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="1">
         <v>42597</v>
@@ -1186,10 +1188,10 @@
         <v>22</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" s="1">
         <v>42597</v>
@@ -1200,10 +1202,10 @@
         <v>22</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" s="1">
         <v>42597</v>
@@ -1214,10 +1216,10 @@
         <v>22</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="1">
         <v>42597</v>
@@ -1228,7 +1230,7 @@
         <v>22</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -1242,10 +1244,10 @@
         <v>22</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D40" s="1">
         <v>42597</v>
@@ -1256,10 +1258,10 @@
         <v>22</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" s="1">
         <v>42597</v>
@@ -1270,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D42" s="1">
         <v>42597</v>
@@ -1284,10 +1286,10 @@
         <v>22</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="D43" s="1">
         <v>42597</v>
@@ -1298,10 +1300,10 @@
         <v>22</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44" s="1">
         <v>42597</v>
@@ -1312,10 +1314,10 @@
         <v>22</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45" s="1">
         <v>42597</v>
@@ -1326,10 +1328,10 @@
         <v>22</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46" s="1">
         <v>42597</v>
@@ -1340,10 +1342,10 @@
         <v>22</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" s="1">
         <v>42597</v>
@@ -1354,10 +1356,10 @@
         <v>22</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D48" s="1">
         <v>42597</v>

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11835" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11835" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="datelist" sheetId="2" state="hidden" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="153">
   <si>
     <t>420. Count and Say</t>
   </si>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t>56. Two sum</t>
+  </si>
+  <si>
+    <t>544. Top K largest numbers</t>
   </si>
 </sst>
 </file>
@@ -950,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +964,7 @@
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="15.7109375" customWidth="1"/>
+    <col min="4" max="10" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1002,6 +1005,14 @@
       </c>
       <c r="D2" s="1">
         <v>42595</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1026,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,6 +1100,12 @@
       <c r="F2" s="1">
         <v>42597</v>
       </c>
+      <c r="G2" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H2" s="1">
+        <v>42599</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1109,6 +1126,12 @@
       <c r="F3" s="1">
         <v>42597</v>
       </c>
+      <c r="G3" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H3" s="1">
+        <v>42599</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1129,6 +1152,12 @@
       <c r="F4" s="1">
         <v>42597</v>
       </c>
+      <c r="G4" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H4" s="1">
+        <v>42599</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1149,6 +1178,12 @@
       <c r="F5" s="1">
         <v>42597</v>
       </c>
+      <c r="G5" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H5" s="1">
+        <v>42599</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1169,6 +1204,12 @@
       <c r="F6" s="1">
         <v>42597</v>
       </c>
+      <c r="G6" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H6" s="1">
+        <v>42599</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1189,6 +1230,12 @@
       <c r="F7" s="1">
         <v>42597</v>
       </c>
+      <c r="G7" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H7" s="1">
+        <v>42599</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1209,6 +1256,12 @@
       <c r="F8" s="1">
         <v>42597</v>
       </c>
+      <c r="G8" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H8" s="1">
+        <v>42599</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1229,6 +1282,12 @@
       <c r="F9" s="1">
         <v>42597</v>
       </c>
+      <c r="G9" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H9" s="1">
+        <v>42599</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1246,6 +1305,12 @@
       <c r="E10" s="1">
         <v>42597</v>
       </c>
+      <c r="F10" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H10" s="1">
+        <v>42599</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1263,6 +1328,12 @@
       <c r="E11" s="1">
         <v>42597</v>
       </c>
+      <c r="F11" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H11" s="1">
+        <v>42599</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1280,6 +1351,12 @@
       <c r="E12" s="1">
         <v>42597</v>
       </c>
+      <c r="F12" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H12" s="1">
+        <v>42599</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1297,6 +1374,12 @@
       <c r="E13" s="1">
         <v>42597</v>
       </c>
+      <c r="F13" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H13" s="1">
+        <v>42599</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1314,6 +1397,12 @@
       <c r="E14" s="1">
         <v>42597</v>
       </c>
+      <c r="F14" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H14" s="1">
+        <v>42599</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1331,6 +1420,12 @@
       <c r="E15" s="1">
         <v>42597</v>
       </c>
+      <c r="F15" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H15" s="1">
+        <v>42599</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1348,8 +1443,14 @@
       <c r="E16" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H16" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1365,8 +1466,14 @@
       <c r="E17" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H17" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1382,8 +1489,14 @@
       <c r="E18" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H18" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1399,8 +1512,14 @@
       <c r="E19" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H19" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1416,8 +1535,14 @@
       <c r="E20" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H20" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1433,8 +1558,14 @@
       <c r="E21" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H21" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1450,8 +1581,14 @@
       <c r="E22" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H22" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1467,8 +1604,14 @@
       <c r="E23" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H23" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1484,8 +1627,14 @@
       <c r="E24" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H24" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1501,8 +1650,14 @@
       <c r="E25" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H25" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1518,8 +1673,14 @@
       <c r="E26" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H26" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1532,8 +1693,17 @@
       <c r="D27" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F27" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H27" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1546,8 +1716,17 @@
       <c r="D28" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F28" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H28" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1560,8 +1739,17 @@
       <c r="D29" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F29" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H29" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1574,8 +1762,17 @@
       <c r="D30" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F30" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H30" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1588,8 +1785,17 @@
       <c r="D31" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F31" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H31" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1602,8 +1808,17 @@
       <c r="D32" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F32" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H32" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1616,8 +1831,17 @@
       <c r="D33" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F33" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H33" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -1630,8 +1854,17 @@
       <c r="D34" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F34" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H34" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -1644,8 +1877,17 @@
       <c r="D35" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F35" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H35" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1658,8 +1900,17 @@
       <c r="D36" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F36" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H36" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -1672,8 +1923,17 @@
       <c r="D37" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F37" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H37" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -1686,8 +1946,17 @@
       <c r="D38" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F38" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H38" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -1700,8 +1969,17 @@
       <c r="D39" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F39" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H39" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -1714,8 +1992,17 @@
       <c r="D40" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F40" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H40" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -1728,8 +2015,17 @@
       <c r="D41" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F41" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H41" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -1742,8 +2038,17 @@
       <c r="D42" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F42" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H42" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -1756,8 +2061,17 @@
       <c r="D43" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F43" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H43" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -1770,8 +2084,17 @@
       <c r="D44" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F44" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H44" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -1784,8 +2107,17 @@
       <c r="D45" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F45" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H45" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -1798,8 +2130,17 @@
       <c r="D46" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F46" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H46" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -1812,8 +2153,17 @@
       <c r="D47" s="1">
         <v>42597</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F47" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H47" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -1825,6 +2175,15 @@
       </c>
       <c r="D48" s="1">
         <v>42597</v>
+      </c>
+      <c r="E48" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F48" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H48" s="1">
+        <v>42599</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
@@ -1854,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,11 +2327,11 @@
       <c r="B8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="1">
-        <v>42598</v>
+        <v>42599</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1983,7 +2342,7 @@
         <v>68</v>
       </c>
       <c r="D9" s="1">
-        <v>42598</v>
+        <v>42599</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1994,7 +2353,7 @@
         <v>69</v>
       </c>
       <c r="D10" s="1">
-        <v>42598</v>
+        <v>42599</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2005,7 +2364,7 @@
         <v>70</v>
       </c>
       <c r="D11" s="1">
-        <v>42598</v>
+        <v>42599</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2016,7 +2375,7 @@
         <v>71</v>
       </c>
       <c r="D12" s="1">
-        <v>42598</v>
+        <v>42599</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2027,7 +2386,7 @@
         <v>72</v>
       </c>
       <c r="D13" s="1">
-        <v>42598</v>
+        <v>42599</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2038,7 +2397,7 @@
         <v>73</v>
       </c>
       <c r="D14" s="1">
-        <v>42598</v>
+        <v>42599</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2049,7 +2408,7 @@
         <v>74</v>
       </c>
       <c r="D15" s="1">
-        <v>42598</v>
+        <v>42599</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2060,7 +2419,7 @@
         <v>75</v>
       </c>
       <c r="D16" s="1">
-        <v>42598</v>
+        <v>42599</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -2071,7 +2430,7 @@
         <v>76</v>
       </c>
       <c r="D17" s="1">
-        <v>42598</v>
+        <v>42600</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -2082,7 +2441,7 @@
         <v>77</v>
       </c>
       <c r="D18" s="1">
-        <v>42598</v>
+        <v>42600</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -2093,7 +2452,7 @@
         <v>78</v>
       </c>
       <c r="D19" s="1">
-        <v>42598</v>
+        <v>42600</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -2104,7 +2463,7 @@
         <v>79</v>
       </c>
       <c r="D20" s="1">
-        <v>42598</v>
+        <v>42600</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -2115,7 +2474,7 @@
         <v>80</v>
       </c>
       <c r="D21" s="1">
-        <v>42598</v>
+        <v>42600</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11835" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11835" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="datelist" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="Special" sheetId="3" r:id="rId2"/>
     <sheet name="EASY" sheetId="1" r:id="rId3"/>
     <sheet name="Medium" sheetId="4" r:id="rId4"/>
+    <sheet name="Microsoft" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="278">
   <si>
     <t>420. Count and Say</t>
   </si>
@@ -486,16 +487,443 @@
   </si>
   <si>
     <t>544. Top K largest numbers</t>
+  </si>
+  <si>
+    <t>437. Copy books</t>
+  </si>
+  <si>
+    <t>hashheap</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Acceptance</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>Reverse Words in a String</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>String to Integer (atoi)</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Sort Colors </t>
+  </si>
+  <si>
+    <t>Add Two Numbers</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>Excel Sheet Column Number</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>Maximum Subarray </t>
+  </si>
+  <si>
+    <t>Delete Node in a Linked List</t>
+  </si>
+  <si>
+    <t>Integer to English Words</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Rotate Image</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Tree </t>
+  </si>
+  <si>
+    <t>Excel Sheet Column Title</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node II</t>
+  </si>
+  <si>
+    <t>Swap Nodes in Pairs</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
+  <si>
+    <t>Roman to Integer</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <t>Intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>The Skyline Problem</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Count Primes</t>
+  </si>
+  <si>
+    <t>Rotate Array</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Dungeon Game</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Zigzag Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Word Search II</t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>Word Search</t>
+  </si>
+  <si>
+    <t>Implement Queue using Stacks</t>
+  </si>
+  <si>
+    <t>Symmetric Tree</t>
+  </si>
+  <si>
+    <t>Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Inorder and Postorder Traversal</t>
+  </si>
+  <si>
+    <t>Reverse Words in a String II </t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Compare Version Numbers</t>
+  </si>
+  <si>
+    <t>Reverse Nodes in k-Group</t>
+  </si>
+  <si>
+    <t>Simplify Path</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>Add Digits</t>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>Path Sum</t>
+  </si>
+  <si>
+    <t>Permutations</t>
+  </si>
+  <si>
+    <t>Decode Ways </t>
+  </si>
+  <si>
+    <t>Implement strStr()</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Design Tic-Tac-Toe </t>
+  </si>
+  <si>
+    <t>Permutations II</t>
+  </si>
+  <si>
+    <t>Inorder Successor in BST </t>
+  </si>
+  <si>
+    <t>Water and Jug Problem</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value </t>
+  </si>
+  <si>
+    <t>Largest BST Subtree </t>
+  </si>
+  <si>
+    <t>House Robber II</t>
+  </si>
+  <si>
+    <t>Flatten Binary Tree to Linked List</t>
+  </si>
+  <si>
+    <t>Jump Game</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>基础数据结构</t>
+  </si>
+  <si>
+    <t>HEAP</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>ARRAYLIST</t>
+  </si>
+  <si>
+    <t>QUEUE</t>
+  </si>
+  <si>
+    <t>STACK and QUEUE each implement</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>RedBlackTree</t>
+  </si>
+  <si>
+    <t>AVL Tree</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>1.  INT2STRING-&gt; n--
+2. STRING2INT-&gt; Math.pow</t>
+  </si>
+  <si>
+    <t>BUCKET or quickselect(pivot=1)</t>
+  </si>
+  <si>
+    <t>1. Recursive using long.min and long.max as left and right bound
+2. Stack, using pre to track last node, and condition is pre!=nll &amp;&amp; pre.val &lt;= curt.val</t>
+  </si>
+  <si>
+    <t>findkth: odd and even</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>1. recursion: if no parent nodes
+2. add path into list, compare two paths</t>
+  </si>
+  <si>
+    <t>MAP; LinkedList for store last access;
+remove and sethead</t>
+  </si>
+  <si>
+    <t>from left to right, from right to bottom, for right to left, from bottom to top;
+iterate until result size get m*n
+using top, left, right, bottom to tracking last postion which has visited</t>
+  </si>
+  <si>
+    <t>minsum: max of previous plus iTh elem or iTh elem
+max: tracking maximum value</t>
+  </si>
+  <si>
+    <t>1.loop in num &gt;0; num % 1000 get every part; num /= 1000 to computing next part
+2.using string array to mapping every part
+3.using "" to fill align position</t>
+  </si>
+  <si>
+    <t>dfs: left--,right add "(", left, right-- add ")"</t>
+  </si>
+  <si>
+    <t>需要练习</t>
+  </si>
+  <si>
+    <t>matrix[i][j] = matrix[length - j - 1][i],clockwise to swap adjacent elem
+row: [0-&gt;length /2); column [0-&gt;(length + 1) / 2)</t>
+  </si>
+  <si>
+    <t>BST inorder is sorted; Three cases</t>
+  </si>
+  <si>
+    <t>ADDING PRE TO TRACKING FIRST NOT OF EVERY LEVEL
+Level iterate by node = dumm.next, means next level from first node of current level;</t>
+  </si>
+  <si>
+    <t>curr for set next of two children, loop by curr = curr.next;</t>
+  </si>
+  <si>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t>slow and fast, ++slow = fast</t>
+  </si>
+  <si>
+    <t>n&amp;(n-1) != 0 when n!=0</t>
+  </si>
+  <si>
+    <t>Scramble String</t>
+  </si>
+  <si>
+    <t>Find min, return max=Pi - min</t>
+  </si>
+  <si>
+    <t>bit: x^[0-n] then x^nums[0-n)</t>
+  </si>
+  <si>
+    <t>Compare with start, then compare in which area, most left and most right</t>
+  </si>
+  <si>
+    <t>map, from right to left, compare i &lt; i +1 for plus, i &gt; i+1 subtract</t>
+  </si>
+  <si>
+    <t>link 1 and 2, then find cycle in new list.</t>
+  </si>
+  <si>
+    <t>original split to edge,sort, priorityqueue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF337AB7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -542,10 +970,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
@@ -560,8 +989,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -953,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,6 +1467,21 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2213,7 +2682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8:D16"/>
     </sheetView>
   </sheetViews>
@@ -3052,4 +3521,1261 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.7109375" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C2" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <v>206</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C4" s="9">
+        <v>151</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C6" s="9">
+        <v>138</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C7" s="9">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="9">
+        <v>235</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C9" s="9">
+        <v>75</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C11" s="9">
+        <v>141</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="C12" s="9">
+        <v>171</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C13" s="9">
+        <v>88</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="3:7" ht="81" x14ac:dyDescent="0.25">
+      <c r="C14" s="9">
+        <v>98</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C15" s="9">
+        <v>4</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C16" s="9">
+        <v>200</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C17" s="9">
+        <v>21</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="C18" s="9">
+        <v>146</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="C19" s="9">
+        <v>54</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="9">
+        <v>53</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C21" s="9">
+        <v>237</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="3:7" ht="81" x14ac:dyDescent="0.25">
+      <c r="C22" s="9">
+        <v>273</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C23" s="9">
+        <v>20</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" ht="81" x14ac:dyDescent="0.25">
+      <c r="C24" s="9">
+        <v>48</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="C25" s="9">
+        <v>116</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="C26" s="9">
+        <v>236</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="C27" s="9">
+        <v>168</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="81" x14ac:dyDescent="0.25">
+      <c r="C28" s="9">
+        <v>117</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C29" s="9">
+        <v>24</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C30" s="9">
+        <v>26</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C31" s="9">
+        <v>191</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C32" s="9">
+        <v>121</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C33" s="9">
+        <v>15</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="C34" s="9">
+        <v>13</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C35" s="9">
+        <v>268</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C36" s="9">
+        <v>160</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="C37" s="9">
+        <v>33</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C38" s="9">
+        <v>218</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C39" s="9">
+        <v>5</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C40" s="9">
+        <v>215</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C41" s="9">
+        <v>238</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C42" s="9">
+        <v>73</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C43" s="9">
+        <v>102</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C44" s="9">
+        <v>204</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C45" s="9">
+        <v>189</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C46" s="9">
+        <v>153</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C47" s="9">
+        <v>208</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G47" s="14"/>
+    </row>
+    <row r="48" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C48" s="9">
+        <v>174</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C49" s="9">
+        <v>297</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G49" s="14"/>
+    </row>
+    <row r="50" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C50" s="9">
+        <v>103</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C51" s="9">
+        <v>212</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G51" s="14"/>
+    </row>
+    <row r="52" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C52" s="9">
+        <v>23</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C53" s="9">
+        <v>79</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C54" s="9">
+        <v>232</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="14"/>
+    </row>
+    <row r="55" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C55" s="9">
+        <v>101</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="14"/>
+    </row>
+    <row r="56" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C56" s="9">
+        <v>173</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C57" s="9">
+        <v>106</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G57" s="14"/>
+    </row>
+    <row r="58" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C58" s="9">
+        <v>186</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E58" s="11"/>
+      <c r="F58" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G58" s="14"/>
+    </row>
+    <row r="59" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C59" s="9">
+        <v>125</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E59" s="11"/>
+      <c r="F59" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="14"/>
+    </row>
+    <row r="60" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C60" s="9">
+        <v>165</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E60" s="11"/>
+      <c r="F60" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="14"/>
+    </row>
+    <row r="61" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C61" s="9">
+        <v>25</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E61" s="11"/>
+      <c r="F61" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G61" s="14"/>
+    </row>
+    <row r="62" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C62" s="9">
+        <v>71</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E62" s="11"/>
+      <c r="F62" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G62" s="14"/>
+    </row>
+    <row r="63" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C63" s="9">
+        <v>162</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E63" s="11"/>
+      <c r="F63" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G63" s="14"/>
+    </row>
+    <row r="64" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C64" s="9">
+        <v>258</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="14"/>
+    </row>
+    <row r="65" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C65" s="9">
+        <v>94</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G65" s="14"/>
+    </row>
+    <row r="66" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C66" s="9">
+        <v>112</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E66" s="11"/>
+      <c r="F66" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="14"/>
+    </row>
+    <row r="67" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C67" s="9">
+        <v>46</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E67" s="11"/>
+      <c r="F67" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G67" s="14"/>
+    </row>
+    <row r="68" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C68" s="9">
+        <v>91</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G68" s="14"/>
+    </row>
+    <row r="69" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C69" s="9">
+        <v>28</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="14"/>
+    </row>
+    <row r="70" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C70" s="9">
+        <v>124</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G70" s="14"/>
+    </row>
+    <row r="71" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C71" s="9">
+        <v>56</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E71" s="11"/>
+      <c r="F71" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G71" s="14"/>
+    </row>
+    <row r="72" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C72" s="9">
+        <v>348</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E72" s="11"/>
+      <c r="F72" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G72" s="14"/>
+    </row>
+    <row r="73" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C73" s="9">
+        <v>47</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E73" s="11"/>
+      <c r="F73" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G73" s="14"/>
+    </row>
+    <row r="74" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C74" s="9">
+        <v>285</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E74" s="11"/>
+      <c r="F74" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G74" s="14"/>
+    </row>
+    <row r="75" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C75" s="9">
+        <v>365</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C76" s="9">
+        <v>270</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="14"/>
+    </row>
+    <row r="77" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C77" s="9">
+        <v>333</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E77" s="11"/>
+      <c r="F77" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G77" s="14"/>
+    </row>
+    <row r="78" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C78" s="9">
+        <v>213</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E78" s="11"/>
+      <c r="F78" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G78" s="14"/>
+    </row>
+    <row r="79" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C79" s="9">
+        <v>114</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E79" s="11"/>
+      <c r="F79" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G79" s="14"/>
+    </row>
+    <row r="80" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C80" s="9">
+        <v>55</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E80" s="11"/>
+      <c r="F80" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G80" s="14"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C81" s="9">
+        <v>300</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E81" s="11"/>
+      <c r="F81" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>240</v>
+      </c>
+      <c r="D84" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://leetcode.com/problems/reverse-linked-list/"/>
+    <hyperlink ref="D4" r:id="rId2" display="https://leetcode.com/problems/reverse-words-in-a-string/"/>
+    <hyperlink ref="D5" r:id="rId3" display="https://leetcode.com/problems/two-sum/"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://leetcode.com/problems/copy-list-with-random-pointer/"/>
+    <hyperlink ref="D7" r:id="rId5" display="https://leetcode.com/problems/string-to-integer-atoi/"/>
+    <hyperlink ref="D8" r:id="rId6" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/"/>
+    <hyperlink ref="D9" r:id="rId7" display="https://leetcode.com/problems/sort-colors/"/>
+    <hyperlink ref="D10" r:id="rId8" display="https://leetcode.com/problems/add-two-numbers/"/>
+    <hyperlink ref="D11" r:id="rId9" display="https://leetcode.com/problems/linked-list-cycle/"/>
+    <hyperlink ref="D12" r:id="rId10" display="https://leetcode.com/problems/excel-sheet-column-number/"/>
+    <hyperlink ref="D13" r:id="rId11" display="https://leetcode.com/problems/merge-sorted-array/"/>
+    <hyperlink ref="D14" r:id="rId12" display="https://leetcode.com/problems/validate-binary-search-tree/"/>
+    <hyperlink ref="D15" r:id="rId13" display="https://leetcode.com/problems/median-of-two-sorted-arrays/"/>
+    <hyperlink ref="D16" r:id="rId14" display="https://leetcode.com/problems/number-of-islands/"/>
+    <hyperlink ref="D17" r:id="rId15" display="https://leetcode.com/problems/merge-two-sorted-lists/"/>
+    <hyperlink ref="D18" r:id="rId16" display="https://leetcode.com/problems/lru-cache/"/>
+    <hyperlink ref="D19" r:id="rId17" display="https://leetcode.com/problems/spiral-matrix/"/>
+    <hyperlink ref="D20" r:id="rId18" display="https://leetcode.com/problems/maximum-subarray/"/>
+    <hyperlink ref="D21" r:id="rId19" display="https://leetcode.com/problems/delete-node-in-a-linked-list/"/>
+    <hyperlink ref="D22" r:id="rId20" display="https://leetcode.com/problems/integer-to-english-words/"/>
+    <hyperlink ref="D23" r:id="rId21" display="https://leetcode.com/problems/valid-parentheses/"/>
+    <hyperlink ref="D24" r:id="rId22" display="https://leetcode.com/problems/rotate-image/"/>
+    <hyperlink ref="D25" r:id="rId23" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node/"/>
+    <hyperlink ref="D26" r:id="rId24" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/"/>
+    <hyperlink ref="D27" r:id="rId25" display="https://leetcode.com/problems/excel-sheet-column-title/"/>
+    <hyperlink ref="D28" r:id="rId26" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii/"/>
+    <hyperlink ref="D29" r:id="rId27" display="https://leetcode.com/problems/swap-nodes-in-pairs/"/>
+    <hyperlink ref="D30" r:id="rId28" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array/"/>
+    <hyperlink ref="D31" r:id="rId29" display="https://leetcode.com/problems/number-of-1-bits/"/>
+    <hyperlink ref="D32" r:id="rId30" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/"/>
+    <hyperlink ref="D33" r:id="rId31" display="https://leetcode.com/problems/3sum/"/>
+    <hyperlink ref="D34" r:id="rId32" display="https://leetcode.com/problems/roman-to-integer/"/>
+    <hyperlink ref="D35" r:id="rId33" display="https://leetcode.com/problems/missing-number/"/>
+    <hyperlink ref="D36" r:id="rId34" display="https://leetcode.com/problems/intersection-of-two-linked-lists/"/>
+    <hyperlink ref="D37" r:id="rId35" display="https://leetcode.com/problems/search-in-rotated-sorted-array/"/>
+    <hyperlink ref="D38" r:id="rId36" display="https://leetcode.com/problems/the-skyline-problem/"/>
+    <hyperlink ref="D39" r:id="rId37" display="https://leetcode.com/problems/longest-palindromic-substring/"/>
+    <hyperlink ref="D40" r:id="rId38" display="https://leetcode.com/problems/kth-largest-element-in-an-array/"/>
+    <hyperlink ref="D41" r:id="rId39" display="https://leetcode.com/problems/product-of-array-except-self/"/>
+    <hyperlink ref="D42" r:id="rId40" display="https://leetcode.com/problems/set-matrix-zeroes/"/>
+    <hyperlink ref="D43" r:id="rId41" display="https://leetcode.com/problems/binary-tree-level-order-traversal/"/>
+    <hyperlink ref="D44" r:id="rId42" display="https://leetcode.com/problems/count-primes/"/>
+    <hyperlink ref="D45" r:id="rId43" display="https://leetcode.com/problems/rotate-array/"/>
+    <hyperlink ref="D46" r:id="rId44" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/"/>
+    <hyperlink ref="D47" r:id="rId45" display="https://leetcode.com/problems/implement-trie-prefix-tree/"/>
+    <hyperlink ref="D48" r:id="rId46" display="https://leetcode.com/problems/dungeon-game/"/>
+    <hyperlink ref="D49" r:id="rId47" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree/"/>
+    <hyperlink ref="D50" r:id="rId48" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/"/>
+    <hyperlink ref="D51" r:id="rId49" display="https://leetcode.com/problems/word-search-ii/"/>
+    <hyperlink ref="D52" r:id="rId50" display="https://leetcode.com/problems/merge-k-sorted-lists/"/>
+    <hyperlink ref="D53" r:id="rId51" display="https://leetcode.com/problems/word-search/"/>
+    <hyperlink ref="D54" r:id="rId52" display="https://leetcode.com/problems/implement-queue-using-stacks/"/>
+    <hyperlink ref="D55" r:id="rId53" display="https://leetcode.com/problems/symmetric-tree/"/>
+    <hyperlink ref="D56" r:id="rId54" display="https://leetcode.com/problems/binary-search-tree-iterator/"/>
+    <hyperlink ref="D57" r:id="rId55" display="https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/"/>
+    <hyperlink ref="D58" r:id="rId56" display="https://leetcode.com/problems/reverse-words-in-a-string-ii/"/>
+    <hyperlink ref="D59" r:id="rId57" display="https://leetcode.com/problems/valid-palindrome/"/>
+    <hyperlink ref="D60" r:id="rId58" display="https://leetcode.com/problems/compare-version-numbers/"/>
+    <hyperlink ref="D61" r:id="rId59" display="https://leetcode.com/problems/reverse-nodes-in-k-group/"/>
+    <hyperlink ref="D62" r:id="rId60" display="https://leetcode.com/problems/simplify-path/"/>
+    <hyperlink ref="D63" r:id="rId61" display="https://leetcode.com/problems/find-peak-element/"/>
+    <hyperlink ref="D64" r:id="rId62" display="https://leetcode.com/problems/add-digits/"/>
+    <hyperlink ref="D65" r:id="rId63" display="https://leetcode.com/problems/binary-tree-inorder-traversal/"/>
+    <hyperlink ref="D66" r:id="rId64" display="https://leetcode.com/problems/path-sum/"/>
+    <hyperlink ref="D67" r:id="rId65" display="https://leetcode.com/problems/permutations/"/>
+    <hyperlink ref="D68" r:id="rId66" display="https://leetcode.com/problems/decode-ways/"/>
+    <hyperlink ref="D69" r:id="rId67" display="https://leetcode.com/problems/implement-strstr/"/>
+    <hyperlink ref="D70" r:id="rId68" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/"/>
+    <hyperlink ref="D71" r:id="rId69" display="https://leetcode.com/problems/merge-intervals/"/>
+    <hyperlink ref="D72" r:id="rId70" display="https://leetcode.com/problems/design-tic-tac-toe/"/>
+    <hyperlink ref="D73" r:id="rId71" display="https://leetcode.com/problems/permutations-ii/"/>
+    <hyperlink ref="D74" r:id="rId72" display="https://leetcode.com/problems/inorder-successor-in-bst/"/>
+    <hyperlink ref="D75" r:id="rId73" display="https://leetcode.com/problems/water-and-jug-problem/"/>
+    <hyperlink ref="D76" r:id="rId74" display="https://leetcode.com/problems/closest-binary-search-tree-value/"/>
+    <hyperlink ref="D77" r:id="rId75" display="https://leetcode.com/problems/largest-bst-subtree/"/>
+    <hyperlink ref="D78" r:id="rId76" display="https://leetcode.com/problems/house-robber-ii/"/>
+    <hyperlink ref="D79" r:id="rId77" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list/"/>
+    <hyperlink ref="D80" r:id="rId78" display="https://leetcode.com/problems/jump-game/"/>
+    <hyperlink ref="D81" r:id="rId79" display="https://leetcode.com/problems/longest-increasing-subsequence/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId80"/>
+</worksheet>
 </file>
--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -9,14 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11835" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11835" tabRatio="561" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="datelist" sheetId="2" state="hidden" r:id="rId1"/>
-    <sheet name="Special" sheetId="3" r:id="rId2"/>
-    <sheet name="EASY" sheetId="1" r:id="rId3"/>
-    <sheet name="Medium" sheetId="4" r:id="rId4"/>
-    <sheet name="Microsoft" sheetId="5" r:id="rId5"/>
+    <sheet name="lintcode-Special" sheetId="3" r:id="rId2"/>
+    <sheet name="lintcode-EASY" sheetId="1" r:id="rId3"/>
+    <sheet name="lintcode-Medium" sheetId="4" r:id="rId4"/>
+    <sheet name="leetcode-Medium" sheetId="7" r:id="rId5"/>
+    <sheet name="leetcode-Easy" sheetId="8" r:id="rId6"/>
+    <sheet name="leetcode-Hard" sheetId="6" r:id="rId7"/>
+    <sheet name="Microsoft" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="580">
   <si>
     <t>420. Count and Say</t>
   </si>
@@ -873,13 +876,936 @@
   </si>
   <si>
     <t>original split to edge,sort, priorityqueue</t>
+  </si>
+  <si>
+    <t>Maximum gap</t>
+  </si>
+  <si>
+    <t>DP odd or even, i: i-j was p and longest
+Simple: from i as center, do i - count and i + count for find maximum count</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">quickselect: 1. n - k +1 2.pivot, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>not nums[mid]</t>
+    </r>
+  </si>
+  <si>
+    <t>from left to right, then from right to left; p=1 as initial value
+Recursive: nums, forwardproduct, index, len</t>
+  </si>
+  <si>
+    <t>1. two variables mark first row and column exist 0
+2. from对角线 to update first row and column
+3. from first row and colum to update对角线
+4. according to two variables to update first row and column</t>
+  </si>
+  <si>
+    <t>Editorial</t>
+  </si>
+  <si>
+    <t>Valid Number</t>
+  </si>
+  <si>
+    <t>Word Ladder II</t>
+  </si>
+  <si>
+    <t>Max Points on a Line</t>
+  </si>
+  <si>
+    <t>Text Justification</t>
+  </si>
+  <si>
+    <t>Wildcard Matching</t>
+  </si>
+  <si>
+    <t>Word Break II</t>
+  </si>
+  <si>
+    <t>Range Sum Query 2D - Mutable </t>
+  </si>
+  <si>
+    <t>Shortest Palindrome</t>
+  </si>
+  <si>
+    <t>Substring with Concatenation of All Words</t>
+  </si>
+  <si>
+    <t>Self Crossing</t>
+  </si>
+  <si>
+    <t>Palindrome Pairs</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>Create Maximum Number</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning II</t>
+  </si>
+  <si>
+    <t>Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>Regular Expression Matching</t>
+  </si>
+  <si>
+    <t>Longest Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock IV</t>
+  </si>
+  <si>
+    <t>Interleaving String</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>Basic Calculator</t>
+  </si>
+  <si>
+    <t>Read N Characters Given Read4 II - Call multiple times </t>
+  </si>
+  <si>
+    <t>First Missing Positive</t>
+  </si>
+  <si>
+    <t>Maximal Rectangle</t>
+  </si>
+  <si>
+    <t>Alien Dictionary </t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>Jump Game II</t>
+  </si>
+  <si>
+    <t>Number of Digit One</t>
+  </si>
+  <si>
+    <t>Sudoku Solver</t>
+  </si>
+  <si>
+    <t>Expression Add Operators</t>
+  </si>
+  <si>
+    <t>Remove Duplicate Letters</t>
+  </si>
+  <si>
+    <t>N-Queens</t>
+  </si>
+  <si>
+    <t>Count of Range Sum</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock III</t>
+  </si>
+  <si>
+    <t>Recover Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Maximum Gap</t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number III </t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Rearrange String k Distance Apart </t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>Distinct Subsequences</t>
+  </si>
+  <si>
+    <t>Max Sum of Rectangle No Larger Than K</t>
+  </si>
+  <si>
+    <t>Russian Doll Envelopes</t>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1) - Duplicates allowed</t>
+  </si>
+  <si>
+    <t>Patching Array</t>
+  </si>
+  <si>
+    <t>Count of Smaller Numbers After Self</t>
+  </si>
+  <si>
+    <t>Shortest Distance from All Buildings </t>
+  </si>
+  <si>
+    <t>Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>Longest Increasing Path in a Matrix</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value II </t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>Number of Islands II </t>
+  </si>
+  <si>
+    <t>Word Pattern II </t>
+  </si>
+  <si>
+    <t>Paint House II </t>
+  </si>
+  <si>
+    <t>Longest Substring with At Most Two Distinct Characters </t>
+  </si>
+  <si>
+    <t>Binary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>Data Stream as Disjoint Intervals</t>
+  </si>
+  <si>
+    <t>Longest Substring with At Most K Distinct Characters </t>
+  </si>
+  <si>
+    <t>Burst Balloons</t>
+  </si>
+  <si>
+    <t>Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t>N-Queens II</t>
+  </si>
+  <si>
+    <t>Smallest Rectangle Enclosing Black Pixels </t>
+  </si>
+  <si>
+    <t>Best Meeting Point </t>
+  </si>
+  <si>
+    <t>Divide Two Integers</t>
+  </si>
+  <si>
+    <t>Fraction to Recurring Decimal</t>
+  </si>
+  <si>
+    <t>Surrounded Regions</t>
+  </si>
+  <si>
+    <t>Decode Ways</t>
+  </si>
+  <si>
+    <t>Range Sum Query - Mutable</t>
+  </si>
+  <si>
+    <t>Contains Duplicate III</t>
+  </si>
+  <si>
+    <t>Word Ladder</t>
+  </si>
+  <si>
+    <t>Add and Search Word - Data structure design</t>
+  </si>
+  <si>
+    <t>Largest Number</t>
+  </si>
+  <si>
+    <t>Course Schedule II</t>
+  </si>
+  <si>
+    <t>Range Sum Query 2D - Immutable</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>Design Twitter</t>
+  </si>
+  <si>
+    <t>Rotate List</t>
+  </si>
+  <si>
+    <t>Reorder List</t>
+  </si>
+  <si>
+    <t>Design Snake Game </t>
+  </si>
+  <si>
+    <t>Wiggle Sort II</t>
+  </si>
+  <si>
+    <t>Restore IP Addresses</t>
+  </si>
+  <si>
+    <t>Multiply Strings</t>
+  </si>
+  <si>
+    <t>Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>4Sum</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Maximal Square</t>
+  </si>
+  <si>
+    <t>Coin Change</t>
+  </si>
+  <si>
+    <t>Summary Ranges</t>
+  </si>
+  <si>
+    <t>Design Phone Directory </t>
+  </si>
+  <si>
+    <t>Sort List</t>
+  </si>
+  <si>
+    <t>Permutation Sequence</t>
+  </si>
+  <si>
+    <t>Sqrt(x)</t>
+  </si>
+  <si>
+    <t>Count Complete Tree Nodes</t>
+  </si>
+  <si>
+    <t>Reconstruct Itinerary</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>Basic Calculator II</t>
+  </si>
+  <si>
+    <t>Majority Element II</t>
+  </si>
+  <si>
+    <t>Mini Parser</t>
+  </si>
+  <si>
+    <t>Additive Number</t>
+  </si>
+  <si>
+    <t>Find K Pairs with Smallest Sums</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Repeated DNA Sequences</t>
+  </si>
+  <si>
+    <t>Encode and Decode Strings </t>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+  </si>
+  <si>
+    <t>Minimum Height Trees</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List II</t>
+  </si>
+  <si>
+    <t>Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>Gas Station</t>
+  </si>
+  <si>
+    <t>Line Reflection </t>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+  </si>
+  <si>
+    <t>Reverse Linked List II</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Combination Sum II</t>
+  </si>
+  <si>
+    <t>One Edit Distance </t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>Palindrome Permutation II </t>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees II</t>
+  </si>
+  <si>
+    <t>Path Sum II</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>3Sum Closest</t>
+  </si>
+  <si>
+    <t>Search for a Range</t>
+  </si>
+  <si>
+    <t>Unique Paths II</t>
+  </si>
+  <si>
+    <t>Ugly Number II</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>Missing Ranges </t>
+  </si>
+  <si>
+    <t>Partition List</t>
+  </si>
+  <si>
+    <t>Insertion Sort List</t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower II</t>
+  </si>
+  <si>
+    <t>H-Index</t>
+  </si>
+  <si>
+    <t>Super Pow</t>
+  </si>
+  <si>
+    <t>Linked List Cycle II</t>
+  </si>
+  <si>
+    <t>Largest Divisible Subset</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t>Convert Sorted List to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Bitwise AND of Numbers Range</t>
+  </si>
+  <si>
+    <t>Subsets II</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>Binary Tree Vertical Order Traversal </t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+  </si>
+  <si>
+    <t>H-Index II</t>
+  </si>
+  <si>
+    <t>Verify Preorder Serialization of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Subsets</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array II</t>
+  </si>
+  <si>
+    <t>Flatten Nested List Iterator</t>
+  </si>
+  <si>
+    <t>Sum Root to Leaf Numbers</t>
+  </si>
+  <si>
+    <t>Perfect Squares</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree </t>
+  </si>
+  <si>
+    <t>Wiggle Subsequence</t>
+  </si>
+  <si>
+    <t>Peeking Iterator</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>Shortest Word Distance II </t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>Find the Celebrity </t>
+  </si>
+  <si>
+    <t>Bomb Enemy </t>
+  </si>
+  <si>
+    <t>Sort Colors</t>
+  </si>
+  <si>
+    <t>Game of Life</t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number II </t>
+  </si>
+  <si>
+    <t>Flatten 2D Vector </t>
+  </si>
+  <si>
+    <t>Increasing Triplet Subsequence</t>
+  </si>
+  <si>
+    <t>Super Ugly Number</t>
+  </si>
+  <si>
+    <t>Minimum Path Sum</t>
+  </si>
+  <si>
+    <t>Combinations</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II </t>
+  </si>
+  <si>
+    <t>Spiral Matrix II</t>
+  </si>
+  <si>
+    <t>Valid Perfect Square</t>
+  </si>
+  <si>
+    <t>Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t>Factor Combinations </t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+  </si>
+  <si>
+    <t>Unique Paths</t>
+  </si>
+  <si>
+    <t>Verify Preorder Sequence in Binary Search Tree </t>
+  </si>
+  <si>
+    <t>Gray Code</t>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence </t>
+  </si>
+  <si>
+    <t>Android Unlock Patterns </t>
+  </si>
+  <si>
+    <t>Different Ways to Add Parentheses</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>Count Univalue Subtrees </t>
+  </si>
+  <si>
+    <t>Unique Binary Search Trees</t>
+  </si>
+  <si>
+    <t>Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Combination Sum III</t>
+  </si>
+  <si>
+    <t>Single Number II</t>
+  </si>
+  <si>
+    <t>Walls and Gates </t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>3Sum Smaller </t>
+  </si>
+  <si>
+    <t>Combination Sum IV</t>
+  </si>
+  <si>
+    <t>House Robber III</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>Binary Tree Upside Down </t>
+  </si>
+  <si>
+    <t>Odd Even Linked List</t>
+  </si>
+  <si>
+    <t>Maximum Product of Word Lengths</t>
+  </si>
+  <si>
+    <t>Integer to Roman</t>
+  </si>
+  <si>
+    <t>Maximum Size Subarray Sum Equals k </t>
+  </si>
+  <si>
+    <t>Sort Transformed Array </t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>Bulb Switcher</t>
+  </si>
+  <si>
+    <t>Binary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>Generalized Abbreviation </t>
+  </si>
+  <si>
+    <t>Flip Game II </t>
+  </si>
+  <si>
+    <t>Integer Break</t>
+  </si>
+  <si>
+    <t>Count Numbers with Unique Digits</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock II</t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>Number of Connected Components in an Undirected Graph </t>
+  </si>
+  <si>
+    <t>Paint House </t>
+  </si>
+  <si>
+    <t>Zigzag Iterator </t>
+  </si>
+  <si>
+    <t>Shuffle an Array</t>
+  </si>
+  <si>
+    <t>Single Number III</t>
+  </si>
+  <si>
+    <t>Linked List Random Node</t>
+  </si>
+  <si>
+    <t>Shortest Word Distance III </t>
+  </si>
+  <si>
+    <t>Nested List Weight Sum II </t>
+  </si>
+  <si>
+    <t>Sparse Matrix Multiplication </t>
+  </si>
+  <si>
+    <t>Two Sum II - Input array is sorted</t>
+  </si>
+  <si>
+    <t>Design Hit Counter </t>
+  </si>
+  <si>
+    <t>Plus One Linked List </t>
+  </si>
+  <si>
+    <t>Range Addition </t>
+  </si>
+  <si>
+    <t>Single Number</t>
+  </si>
+  <si>
+    <t>Wiggle Sort </t>
+  </si>
+  <si>
+    <t>Find Leaves of Binary Tree </t>
+  </si>
+  <si>
+    <t>Counting Bits</t>
+  </si>
+  <si>
+    <t>Unique Word Abbreviation </t>
+  </si>
+  <si>
+    <t>Two Sum III - Data structure design </t>
+  </si>
+  <si>
+    <t>First Bad Version</t>
+  </si>
+  <si>
+    <t>Reverse Integer</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>ZigZag Conversion</t>
+  </si>
+  <si>
+    <t>Range Sum Query - Immutable</t>
+  </si>
+  <si>
+    <t>Add Binary</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>Reverse Bits</t>
+  </si>
+  <si>
+    <t>Read N Characters Given Read4 </t>
+  </si>
+  <si>
+    <t>Remove Linked List Elements</t>
+  </si>
+  <si>
+    <t>Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>Length of Last Word</t>
+  </si>
+  <si>
+    <t>Count and Say</t>
+  </si>
+  <si>
+    <t>Contains Duplicate II</t>
+  </si>
+  <si>
+    <t>Word Pattern</t>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>Implement Stack using Queues</t>
+  </si>
+  <si>
+    <t>Rectangle Area</t>
+  </si>
+  <si>
+    <t>Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>Minimum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower</t>
+  </si>
+  <si>
+    <t>Bulls and Cows</t>
+  </si>
+  <si>
+    <t>Valid Sudoku</t>
+  </si>
+  <si>
+    <t>Paint Fence </t>
+  </si>
+  <si>
+    <t>Palindrome Number</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle II</t>
+  </si>
+  <si>
+    <t>Factorial Trailing Zeroes</t>
+  </si>
+  <si>
+    <t>Group Shifted Strings </t>
+  </si>
+  <si>
+    <t>Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>Remove Element</t>
+  </si>
+  <si>
+    <t>Plus One</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal II</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t>Power of Four</t>
+  </si>
+  <si>
+    <t>Reverse Vowels of a String</t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number </t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>Ugly Number</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List</t>
+  </si>
+  <si>
+    <t>Happy Number</t>
+  </si>
+  <si>
+    <t>Power of Two</t>
+  </si>
+  <si>
+    <t>Power of Three</t>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays II</t>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
+  </si>
+  <si>
+    <t>Meeting Rooms </t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>Ransom Note</t>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays</t>
+  </si>
+  <si>
+    <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>Shortest Word Distance </t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Flip Game </t>
+  </si>
+  <si>
+    <t>Sum of Two Integers</t>
+  </si>
+  <si>
+    <t>Palindrome Permutation </t>
+  </si>
+  <si>
+    <t>Nim Game</t>
+  </si>
+  <si>
+    <t>Moving Average from Data Stream </t>
+  </si>
+  <si>
+    <t>Logger Rate Limiter </t>
+  </si>
+  <si>
+    <t>Nested List Weight Sum </t>
+  </si>
+  <si>
+    <t>Reverse String</t>
+  </si>
+  <si>
+    <t>queue is not empty, iterate elem of queue to add list and offer children of per node</t>
+  </si>
+  <si>
+    <t>&lt;=2-&gt;0; boolean array to tracking which is prime, iterate i:[0-&gt;sqrt(n-1)], if current i is prime then all of multiple set non-prime; last check boolean array to count</t>
+  </si>
+  <si>
+    <t>k %= nums.length, three steps to reverse</t>
+  </si>
+  <si>
+    <t>target = nums[end]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -928,8 +1854,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="FontAwesome"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -960,12 +1897,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -974,7 +1941,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
@@ -1012,6 +1979,34 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1300,102 +2295,102 @@
       <selection sqref="A1:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1">
         <v>42595</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="1">
         <v>42596</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="1">
         <v>42597</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="1">
         <v>42598</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="1">
         <v>42599</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="1">
         <v>42600</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="1">
         <v>42601</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="1">
         <v>42602</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="1">
         <v>42603</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="1">
         <v>42604</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="1">
         <v>42605</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="1">
         <v>42606</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="1">
         <v>42607</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="1">
         <v>42608</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="1">
         <v>42609</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="1">
         <v>42610</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="1">
         <v>42611</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="1">
         <v>42612</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="1">
         <v>42613</v>
       </c>
@@ -1407,13 +2402,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -1421,7 +2416,7 @@
     <col min="4" max="10" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1453,7 +2448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="C2" t="s">
         <v>61</v>
       </c>
@@ -1464,24 +2459,29 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="C3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="C4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="C5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="C6" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -1510,7 +2510,7 @@
       <selection activeCell="H2" sqref="H2:H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1"/>
@@ -1518,7 +2518,7 @@
     <col min="5" max="10" width="16.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1550,7 +2550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1576,7 +2576,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1602,7 +2602,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1628,7 +2628,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1654,7 +2654,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1680,7 +2680,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1706,7 +2706,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1732,7 +2732,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1758,7 +2758,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1781,7 +2781,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1804,7 +2804,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1827,7 +2827,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1850,7 +2850,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1873,7 +2873,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1896,7 +2896,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1919,7 +2919,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1942,7 +2942,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1965,7 +2965,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1988,7 +2988,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2011,7 +3011,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2034,7 +3034,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2057,7 +3057,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2080,7 +3080,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2103,7 +3103,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2126,7 +3126,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -2149,7 +3149,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -2172,7 +3172,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -2195,7 +3195,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -2218,7 +3218,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -2241,7 +3241,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2264,7 +3264,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -2287,7 +3287,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2310,7 +3310,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -2333,7 +3333,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -2356,7 +3356,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -2379,7 +3379,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -2402,7 +3402,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2425,7 +3425,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2448,7 +3448,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -2471,7 +3471,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -2494,7 +3494,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2517,7 +3517,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2540,7 +3540,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -2563,7 +3563,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2586,7 +3586,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2609,7 +3609,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -2632,7 +3632,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -2655,7 +3655,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3">
       <c r="C57" t="s">
         <v>27</v>
       </c>
@@ -2686,7 +3686,7 @@
       <selection activeCell="D8" sqref="D8:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -2694,7 +3694,7 @@
     <col min="4" max="10" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -2726,7 +3726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" s="2" t="s">
         <v>58</v>
       </c>
@@ -2737,7 +3737,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
@@ -2748,7 +3748,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" s="2" t="s">
         <v>58</v>
       </c>
@@ -2759,7 +3759,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="2" t="s">
         <v>58</v>
       </c>
@@ -2770,7 +3770,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="2" t="s">
         <v>58</v>
       </c>
@@ -2781,7 +3781,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="2" t="s">
         <v>58</v>
       </c>
@@ -2792,7 +3792,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="2" t="s">
         <v>58</v>
       </c>
@@ -2803,7 +3803,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="2" t="s">
         <v>58</v>
       </c>
@@ -2814,7 +3814,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" s="2" t="s">
         <v>58</v>
       </c>
@@ -2825,7 +3825,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
@@ -2836,7 +3836,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" s="2" t="s">
         <v>58</v>
       </c>
@@ -2847,7 +3847,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" s="2" t="s">
         <v>58</v>
       </c>
@@ -2858,7 +3858,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" s="2" t="s">
         <v>58</v>
       </c>
@@ -2869,7 +3869,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="2" t="s">
         <v>58</v>
       </c>
@@ -2880,7 +3880,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" s="2" t="s">
         <v>58</v>
       </c>
@@ -2891,7 +3891,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
         <v>58</v>
       </c>
@@ -2902,7 +3902,7 @@
         <v>42600</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
         <v>58</v>
       </c>
@@ -2913,7 +3913,7 @@
         <v>42600</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
         <v>58</v>
       </c>
@@ -2924,7 +3924,7 @@
         <v>42600</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
@@ -2935,7 +3935,7 @@
         <v>42600</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4">
       <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
@@ -2946,7 +3946,7 @@
         <v>42600</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
         <v>58</v>
       </c>
@@ -2954,7 +3954,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
         <v>59</v>
       </c>
@@ -2962,7 +3962,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4">
       <c r="B24" s="3" t="s">
         <v>59</v>
       </c>
@@ -2970,7 +3970,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4">
       <c r="B25" s="3" t="s">
         <v>59</v>
       </c>
@@ -2978,7 +3978,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
         <v>59</v>
       </c>
@@ -2986,7 +3986,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4">
       <c r="B27" s="3" t="s">
         <v>59</v>
       </c>
@@ -2994,7 +3994,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
         <v>59</v>
       </c>
@@ -3002,7 +4002,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4">
       <c r="B29" s="3" t="s">
         <v>59</v>
       </c>
@@ -3010,7 +4010,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4">
       <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
@@ -3018,7 +4018,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4">
       <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
@@ -3026,7 +4026,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4">
       <c r="B32" s="3" t="s">
         <v>59</v>
       </c>
@@ -3034,7 +4034,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3">
       <c r="B33" s="3" t="s">
         <v>59</v>
       </c>
@@ -3042,7 +4042,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3">
       <c r="B34" s="3" t="s">
         <v>59</v>
       </c>
@@ -3050,7 +4050,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3">
       <c r="B35" s="3" t="s">
         <v>59</v>
       </c>
@@ -3058,7 +4058,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3">
       <c r="B36" s="3" t="s">
         <v>59</v>
       </c>
@@ -3066,7 +4066,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3">
       <c r="B37" s="3" t="s">
         <v>59</v>
       </c>
@@ -3074,7 +4074,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3">
       <c r="B38" s="3" t="s">
         <v>59</v>
       </c>
@@ -3082,7 +4082,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3">
       <c r="B39" s="3" t="s">
         <v>59</v>
       </c>
@@ -3090,7 +4090,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3">
       <c r="B40" s="3" t="s">
         <v>59</v>
       </c>
@@ -3098,7 +4098,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3">
       <c r="B41" s="3" t="s">
         <v>59</v>
       </c>
@@ -3106,7 +4106,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3">
       <c r="B42" s="3" t="s">
         <v>59</v>
       </c>
@@ -3114,7 +4114,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3">
       <c r="B43" s="3" t="s">
         <v>59</v>
       </c>
@@ -3122,7 +4122,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3">
       <c r="B44" s="3" t="s">
         <v>59</v>
       </c>
@@ -3130,7 +4130,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3">
       <c r="B45" s="5" t="s">
         <v>57</v>
       </c>
@@ -3138,7 +4138,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3">
       <c r="B46" s="5" t="s">
         <v>57</v>
       </c>
@@ -3146,7 +4146,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3">
       <c r="B47" s="5" t="s">
         <v>57</v>
       </c>
@@ -3154,7 +4154,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3">
       <c r="B48" s="5" t="s">
         <v>57</v>
       </c>
@@ -3162,7 +4162,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3">
       <c r="B49" s="5" t="s">
         <v>57</v>
       </c>
@@ -3170,7 +4170,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="B50" s="5" t="s">
         <v>57</v>
       </c>
@@ -3178,7 +4178,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3">
       <c r="B51" s="5" t="s">
         <v>57</v>
       </c>
@@ -3186,7 +4186,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3">
       <c r="B52" s="5" t="s">
         <v>57</v>
       </c>
@@ -3194,7 +4194,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3">
       <c r="B53" s="5" t="s">
         <v>57</v>
       </c>
@@ -3202,7 +4202,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3">
       <c r="B54" s="5" t="s">
         <v>57</v>
       </c>
@@ -3210,7 +4210,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3">
       <c r="B55" s="5" t="s">
         <v>57</v>
       </c>
@@ -3218,7 +4218,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3">
       <c r="B56" s="5" t="s">
         <v>57</v>
       </c>
@@ -3226,7 +4226,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3">
       <c r="B57" s="5" t="s">
         <v>57</v>
       </c>
@@ -3234,7 +4234,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3">
       <c r="B58" s="5" t="s">
         <v>57</v>
       </c>
@@ -3242,7 +4242,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3">
       <c r="B59" s="5" t="s">
         <v>57</v>
       </c>
@@ -3250,7 +4250,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3">
       <c r="B60" s="5" t="s">
         <v>57</v>
       </c>
@@ -3258,7 +4258,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3">
       <c r="B61" s="5" t="s">
         <v>57</v>
       </c>
@@ -3266,7 +4266,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3">
       <c r="B62" s="5" t="s">
         <v>57</v>
       </c>
@@ -3274,7 +4274,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3">
       <c r="B63" s="5" t="s">
         <v>57</v>
       </c>
@@ -3282,7 +4282,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3">
       <c r="B64" s="5" t="s">
         <v>57</v>
       </c>
@@ -3290,7 +4290,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3">
       <c r="B65" s="5" t="s">
         <v>57</v>
       </c>
@@ -3298,7 +4298,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3">
       <c r="B66" s="5" t="s">
         <v>57</v>
       </c>
@@ -3306,7 +4306,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3">
       <c r="B67" s="5" t="s">
         <v>57</v>
       </c>
@@ -3314,7 +4314,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3">
       <c r="B68" s="5" t="s">
         <v>57</v>
       </c>
@@ -3322,7 +4322,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3">
       <c r="B69" s="5" t="s">
         <v>57</v>
       </c>
@@ -3330,7 +4330,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3">
       <c r="B70" s="5" t="s">
         <v>57</v>
       </c>
@@ -3338,7 +4338,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3">
       <c r="B71" s="5" t="s">
         <v>57</v>
       </c>
@@ -3346,7 +4346,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3">
       <c r="B72" s="5" t="s">
         <v>57</v>
       </c>
@@ -3354,7 +4354,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3">
       <c r="B73" s="5" t="s">
         <v>57</v>
       </c>
@@ -3362,7 +4362,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3">
       <c r="B74" s="5" t="s">
         <v>57</v>
       </c>
@@ -3370,7 +4370,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3">
       <c r="B75" s="5" t="s">
         <v>57</v>
       </c>
@@ -3378,7 +4378,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3">
       <c r="B76" s="5" t="s">
         <v>57</v>
       </c>
@@ -3386,7 +4386,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3">
       <c r="B77" s="5" t="s">
         <v>57</v>
       </c>
@@ -3394,7 +4394,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3">
       <c r="B78" s="5" t="s">
         <v>57</v>
       </c>
@@ -3402,7 +4402,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3">
       <c r="B79" s="5" t="s">
         <v>57</v>
       </c>
@@ -3410,7 +4410,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3">
       <c r="B80" s="5" t="s">
         <v>57</v>
       </c>
@@ -3418,7 +4418,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3">
       <c r="B81" s="5" t="s">
         <v>57</v>
       </c>
@@ -3426,7 +4426,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3">
       <c r="B82" s="5" t="s">
         <v>57</v>
       </c>
@@ -3434,7 +4434,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3">
       <c r="B83" s="5" t="s">
         <v>57</v>
       </c>
@@ -3442,7 +4442,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3">
       <c r="B84" s="5" t="s">
         <v>57</v>
       </c>
@@ -3450,7 +4450,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3">
       <c r="B85" s="5" t="s">
         <v>57</v>
       </c>
@@ -3458,7 +4458,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3">
       <c r="B86" s="5" t="s">
         <v>57</v>
       </c>
@@ -3466,7 +4466,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3">
       <c r="B87" s="5" t="s">
         <v>57</v>
       </c>
@@ -3474,7 +4474,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3">
       <c r="B88" s="5" t="s">
         <v>57</v>
       </c>
@@ -3482,7 +4482,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3">
       <c r="B89" s="5" t="s">
         <v>57</v>
       </c>
@@ -3490,7 +4490,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3">
       <c r="B90" s="5" t="s">
         <v>57</v>
       </c>
@@ -3498,7 +4498,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3">
       <c r="B91" s="5" t="s">
         <v>57</v>
       </c>
@@ -3525,13 +4525,6354 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:I194"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="52.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:9" ht="15.75" thickBot="1"/>
+    <row r="3" spans="3:9" ht="15.75" thickBot="1">
+      <c r="D3" s="18">
+        <v>151</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="20">
+        <v>0.158</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="3:9" ht="15.75" thickBot="1">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21">
+        <v>29</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0.159</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="15.75" thickBot="1">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18">
+        <v>166</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0.16</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="15.75" thickBot="1">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21">
+        <v>130</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="15.75" thickBot="1">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18">
+        <v>91</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" ht="15.75" thickBot="1">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21">
+        <v>307</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0.184</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="15.75" thickBot="1">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18">
+        <v>220</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0.192</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="15.75" thickBot="1">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21">
+        <v>15</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="15.75" thickBot="1">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18">
+        <v>127</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="15.75" thickBot="1">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21">
+        <v>211</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="15.75" thickBot="1">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18">
+        <v>179</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="15.75" thickBot="1">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21">
+        <v>98</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0.215</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="15.75" thickBot="1">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18">
+        <v>210</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="15.75" thickBot="1">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21">
+        <v>304</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="F16" s="23">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18">
+        <v>3</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="F17" s="20">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21">
+        <v>71</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18" s="23">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18">
+        <v>152</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="F19" s="20">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21">
+        <v>355</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="F20" s="23">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18">
+        <v>61</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="F21" s="20">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21">
+        <v>365</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="F22" s="23">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18">
+        <v>54</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="20">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21">
+        <v>5</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" s="23">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18">
+        <v>143</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="F25" s="20">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21">
+        <v>353</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="F26" s="23">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C27" s="18"/>
+      <c r="D27" s="18">
+        <v>324</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="F27" s="20">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21">
+        <v>79</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" s="23">
+        <v>0.24</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C29" s="18"/>
+      <c r="D29" s="18">
+        <v>93</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="F29" s="20">
+        <v>0.246</v>
+      </c>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21">
+        <v>2</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="23">
+        <v>0.246</v>
+      </c>
+      <c r="G30" s="24"/>
+      <c r="H30" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18">
+        <v>43</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="F31" s="20">
+        <v>0.246</v>
+      </c>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C32" s="21"/>
+      <c r="D32" s="21">
+        <v>150</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="F32" s="23">
+        <v>0.247</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C33" s="18"/>
+      <c r="D33" s="18">
+        <v>18</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="F33" s="20">
+        <v>0.247</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21">
+        <v>133</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="F34" s="23">
+        <v>0.249</v>
+      </c>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C35" s="18"/>
+      <c r="D35" s="18">
+        <v>221</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="F35" s="20">
+        <v>0.251</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="H35" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21">
+        <v>208</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" s="23">
+        <v>0.255</v>
+      </c>
+      <c r="G36" s="24"/>
+      <c r="H36" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C37" s="18"/>
+      <c r="D37" s="18">
+        <v>322</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="F37" s="20">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C38" s="21"/>
+      <c r="D38" s="21">
+        <v>228</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F38" s="23">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="G38" s="24"/>
+      <c r="H38" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C39" s="18"/>
+      <c r="D39" s="18">
+        <v>379</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="F39" s="20">
+        <v>0.26</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C40" s="21"/>
+      <c r="D40" s="21">
+        <v>148</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="F40" s="23">
+        <v>0.26</v>
+      </c>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C41" s="18"/>
+      <c r="D41" s="18">
+        <v>60</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="F41" s="20">
+        <v>0.26</v>
+      </c>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21">
+        <v>69</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="F42" s="23">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C43" s="18"/>
+      <c r="D43" s="18">
+        <v>222</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F43" s="20">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C44" s="21"/>
+      <c r="D44" s="21">
+        <v>332</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="F44" s="23">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C45" s="18"/>
+      <c r="D45" s="18">
+        <v>139</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="F45" s="20">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C46" s="21"/>
+      <c r="D46" s="21">
+        <v>227</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="F46" s="23">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C47" s="18"/>
+      <c r="D47" s="18">
+        <v>229</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="F47" s="20">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C48" s="21"/>
+      <c r="D48" s="21">
+        <v>385</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="F48" s="23">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C49" s="18"/>
+      <c r="D49" s="18">
+        <v>306</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="F49" s="20">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C50" s="21"/>
+      <c r="D50" s="21">
+        <v>373</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="F50" s="23">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C51" s="18"/>
+      <c r="D51" s="18">
+        <v>31</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="F51" s="20">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="G51" s="25"/>
+      <c r="H51" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C52" s="21"/>
+      <c r="D52" s="21">
+        <v>187</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="F52" s="23">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C53" s="18"/>
+      <c r="D53" s="18">
+        <v>271</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="F53" s="20">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C54" s="21"/>
+      <c r="D54" s="21">
+        <v>50</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="F54" s="23">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C55" s="18"/>
+      <c r="D55" s="18">
+        <v>310</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="F55" s="20">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C56" s="21"/>
+      <c r="D56" s="21">
+        <v>82</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="F56" s="23">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C57" s="18"/>
+      <c r="D57" s="18">
+        <v>209</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="F57" s="20">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C58" s="21"/>
+      <c r="D58" s="21">
+        <v>134</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="F58" s="23">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C59" s="18"/>
+      <c r="D59" s="18">
+        <v>333</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F59" s="20">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C60" s="21"/>
+      <c r="D60" s="21">
+        <v>356</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="F60" s="23">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C61" s="18"/>
+      <c r="D61" s="18">
+        <v>207</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="F61" s="20">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C62" s="21"/>
+      <c r="D62" s="21">
+        <v>92</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="F62" s="23">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C63" s="18"/>
+      <c r="D63" s="18">
+        <v>55</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F63" s="20">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="G63" s="25"/>
+      <c r="H63" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C64" s="21"/>
+      <c r="D64" s="21">
+        <v>131</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="F64" s="23">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C65" s="18"/>
+      <c r="D65" s="18">
+        <v>186</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="F65" s="20">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C66" s="21"/>
+      <c r="D66" s="21">
+        <v>236</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="F66" s="23">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C67" s="18"/>
+      <c r="D67" s="18">
+        <v>40</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="F67" s="20">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C68" s="21"/>
+      <c r="D68" s="21">
+        <v>161</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="F68" s="23">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C69" s="18"/>
+      <c r="D69" s="18">
+        <v>47</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="F69" s="20">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C70" s="21"/>
+      <c r="D70" s="21">
+        <v>49</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="F70" s="23">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C71" s="18"/>
+      <c r="D71" s="18">
+        <v>267</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="F71" s="20">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C72" s="21"/>
+      <c r="D72" s="21">
+        <v>200</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F72" s="23">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C73" s="18"/>
+      <c r="D73" s="18">
+        <v>95</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="F73" s="20">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C74" s="21"/>
+      <c r="D74" s="21">
+        <v>113</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="F74" s="23">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" ht="30.75" thickBot="1">
+      <c r="C75" s="18"/>
+      <c r="D75" s="18">
+        <v>105</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="F75" s="20">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C76" s="21"/>
+      <c r="D76" s="21">
+        <v>16</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="F76" s="23">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C77" s="18"/>
+      <c r="D77" s="18">
+        <v>34</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="F77" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" ht="30.75" thickBot="1">
+      <c r="C78" s="21"/>
+      <c r="D78" s="21">
+        <v>106</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="F78" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C79" s="18"/>
+      <c r="D79" s="18">
+        <v>63</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="F79" s="20">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C80" s="21"/>
+      <c r="D80" s="21">
+        <v>264</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="F80" s="23">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C81" s="18"/>
+      <c r="D81" s="18">
+        <v>103</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F81" s="20">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C82" s="21"/>
+      <c r="D82" s="21">
+        <v>17</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="F82" s="23">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C83" s="18"/>
+      <c r="D83" s="18">
+        <v>163</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="F83" s="20">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C84" s="21"/>
+      <c r="D84" s="21">
+        <v>86</v>
+      </c>
+      <c r="E84" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="F84" s="23">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C85" s="18"/>
+      <c r="D85" s="18">
+        <v>147</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="F85" s="20">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C86" s="21"/>
+      <c r="D86" s="21">
+        <v>375</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="F86" s="23">
+        <v>0.307</v>
+      </c>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C87" s="18"/>
+      <c r="D87" s="18">
+        <v>274</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="F87" s="20">
+        <v>0.307</v>
+      </c>
+      <c r="G87" s="25"/>
+      <c r="H87" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C88" s="21"/>
+      <c r="D88" s="21">
+        <v>372</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="F88" s="23">
+        <v>0.308</v>
+      </c>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C89" s="18"/>
+      <c r="D89" s="18">
+        <v>142</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="F89" s="20">
+        <v>0.313</v>
+      </c>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C90" s="21"/>
+      <c r="D90" s="21">
+        <v>368</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="F90" s="23">
+        <v>0.313</v>
+      </c>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C91" s="18"/>
+      <c r="D91" s="18">
+        <v>120</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="F91" s="20">
+        <v>0.313</v>
+      </c>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C92" s="21"/>
+      <c r="D92" s="21">
+        <v>109</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="F92" s="23">
+        <v>0.316</v>
+      </c>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C93" s="18"/>
+      <c r="D93" s="18">
+        <v>213</v>
+      </c>
+      <c r="E93" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="F93" s="20">
+        <v>0.32</v>
+      </c>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C94" s="21"/>
+      <c r="D94" s="21">
+        <v>201</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="F94" s="23">
+        <v>0.32</v>
+      </c>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C95" s="18"/>
+      <c r="D95" s="18">
+        <v>90</v>
+      </c>
+      <c r="E95" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="F95" s="20">
+        <v>0.32</v>
+      </c>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C96" s="21"/>
+      <c r="D96" s="21">
+        <v>114</v>
+      </c>
+      <c r="E96" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="F96" s="23">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C97" s="18"/>
+      <c r="D97" s="18">
+        <v>81</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="F97" s="20">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C98" s="21"/>
+      <c r="D98" s="21">
+        <v>314</v>
+      </c>
+      <c r="E98" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="F98" s="23">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C99" s="18"/>
+      <c r="D99" s="18">
+        <v>39</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="F99" s="20">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C100" s="21"/>
+      <c r="D100" s="21">
+        <v>275</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="F100" s="23">
+        <v>0.33</v>
+      </c>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C101" s="18"/>
+      <c r="D101" s="18">
+        <v>331</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="F101" s="20">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C102" s="21"/>
+      <c r="D102" s="21">
+        <v>78</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="F102" s="23">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C103" s="18"/>
+      <c r="D103" s="18">
+        <v>80</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="F103" s="20">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C104" s="21"/>
+      <c r="D104" s="21">
+        <v>341</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="F104" s="23">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C105" s="18"/>
+      <c r="D105" s="18">
+        <v>129</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="F105" s="20">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C106" s="21"/>
+      <c r="D106" s="21">
+        <v>279</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="F106" s="23">
+        <v>0.34</v>
+      </c>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C107" s="18"/>
+      <c r="D107" s="18">
+        <v>162</v>
+      </c>
+      <c r="E107" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="F107" s="20">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C108" s="21"/>
+      <c r="D108" s="21">
+        <v>261</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="F108" s="23">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C109" s="18"/>
+      <c r="D109" s="18">
+        <v>73</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="F109" s="20">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C110" s="21"/>
+      <c r="D110" s="21">
+        <v>376</v>
+      </c>
+      <c r="E110" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="F110" s="23">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="G110" s="24"/>
+      <c r="H110" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C111" s="18"/>
+      <c r="D111" s="18">
+        <v>284</v>
+      </c>
+      <c r="E111" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="F111" s="20">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C112" s="21"/>
+      <c r="D112" s="21">
+        <v>74</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="F112" s="23">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C113" s="18"/>
+      <c r="D113" s="18">
+        <v>215</v>
+      </c>
+      <c r="E113" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F113" s="20">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C114" s="21"/>
+      <c r="D114" s="21">
+        <v>244</v>
+      </c>
+      <c r="E114" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="F114" s="23">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C115" s="18"/>
+      <c r="D115" s="18">
+        <v>11</v>
+      </c>
+      <c r="E115" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="F115" s="20">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="G115" s="25"/>
+      <c r="H115" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C116" s="21"/>
+      <c r="D116" s="21">
+        <v>277</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="F116" s="23">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="G116" s="21"/>
+      <c r="H116" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C117" s="18"/>
+      <c r="D117" s="18">
+        <v>361</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="F117" s="20">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C118" s="21"/>
+      <c r="D118" s="21">
+        <v>75</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="F118" s="23">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="G118" s="21"/>
+      <c r="H118" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C119" s="18"/>
+      <c r="D119" s="18">
+        <v>289</v>
+      </c>
+      <c r="E119" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="F119" s="20">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C120" s="21"/>
+      <c r="D120" s="21">
+        <v>48</v>
+      </c>
+      <c r="E120" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="F120" s="23">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="G120" s="21"/>
+      <c r="H120" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C121" s="18"/>
+      <c r="D121" s="18">
+        <v>247</v>
+      </c>
+      <c r="E121" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="F121" s="20">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="G121" s="18"/>
+      <c r="H121" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C122" s="21"/>
+      <c r="D122" s="21">
+        <v>251</v>
+      </c>
+      <c r="E122" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="F122" s="23">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="G122" s="21"/>
+      <c r="H122" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C123" s="18"/>
+      <c r="D123" s="18">
+        <v>300</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="F123" s="20">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C124" s="21"/>
+      <c r="D124" s="21">
+        <v>334</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="F124" s="23">
+        <v>0.36</v>
+      </c>
+      <c r="G124" s="21"/>
+      <c r="H124" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C125" s="18"/>
+      <c r="D125" s="18">
+        <v>313</v>
+      </c>
+      <c r="E125" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="F125" s="20">
+        <v>0.36</v>
+      </c>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C126" s="21"/>
+      <c r="D126" s="21">
+        <v>64</v>
+      </c>
+      <c r="E126" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="F126" s="23">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="G126" s="21"/>
+      <c r="H126" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C127" s="18"/>
+      <c r="D127" s="18">
+        <v>77</v>
+      </c>
+      <c r="E127" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="F127" s="20">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="G127" s="18"/>
+      <c r="H127" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C128" s="21"/>
+      <c r="D128" s="21">
+        <v>240</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="F128" s="23">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="G128" s="21"/>
+      <c r="H128" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C129" s="18"/>
+      <c r="D129" s="18">
+        <v>253</v>
+      </c>
+      <c r="E129" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="F129" s="20">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G129" s="18"/>
+      <c r="H129" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C130" s="21"/>
+      <c r="D130" s="21">
+        <v>59</v>
+      </c>
+      <c r="E130" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="F130" s="23">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="G130" s="21"/>
+      <c r="H130" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C131" s="18"/>
+      <c r="D131" s="18">
+        <v>285</v>
+      </c>
+      <c r="E131" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F131" s="20">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C132" s="21"/>
+      <c r="D132" s="21">
+        <v>173</v>
+      </c>
+      <c r="E132" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="F132" s="23">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G132" s="21"/>
+      <c r="H132" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C133" s="18"/>
+      <c r="D133" s="18">
+        <v>367</v>
+      </c>
+      <c r="E133" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="F133" s="20">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="G133" s="18"/>
+      <c r="H133" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C134" s="21"/>
+      <c r="D134" s="21">
+        <v>199</v>
+      </c>
+      <c r="E134" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="F134" s="23">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="G134" s="21"/>
+      <c r="H134" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C135" s="18"/>
+      <c r="D135" s="18">
+        <v>116</v>
+      </c>
+      <c r="E135" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F135" s="20">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="G135" s="18"/>
+      <c r="H135" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C136" s="21"/>
+      <c r="D136" s="21">
+        <v>254</v>
+      </c>
+      <c r="E136" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="F136" s="23">
+        <v>0.37</v>
+      </c>
+      <c r="G136" s="21"/>
+      <c r="H136" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C137" s="18"/>
+      <c r="D137" s="18">
+        <v>153</v>
+      </c>
+      <c r="E137" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F137" s="20">
+        <v>0.374</v>
+      </c>
+      <c r="G137" s="18"/>
+      <c r="H137" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C138" s="21"/>
+      <c r="D138" s="21">
+        <v>53</v>
+      </c>
+      <c r="E138" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="F138" s="23">
+        <v>0.374</v>
+      </c>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C139" s="18"/>
+      <c r="D139" s="18">
+        <v>62</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="F139" s="20">
+        <v>0.376</v>
+      </c>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C140" s="21"/>
+      <c r="D140" s="21">
+        <v>255</v>
+      </c>
+      <c r="E140" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="F140" s="23">
+        <v>0.377</v>
+      </c>
+      <c r="G140" s="21"/>
+      <c r="H140" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C141" s="18"/>
+      <c r="D141" s="18">
+        <v>46</v>
+      </c>
+      <c r="E141" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="F141" s="20">
+        <v>0.377</v>
+      </c>
+      <c r="G141" s="18"/>
+      <c r="H141" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C142" s="21"/>
+      <c r="D142" s="21">
+        <v>89</v>
+      </c>
+      <c r="E142" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="F142" s="23">
+        <v>0.378</v>
+      </c>
+      <c r="G142" s="21"/>
+      <c r="H142" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C143" s="18"/>
+      <c r="D143" s="18">
+        <v>35</v>
+      </c>
+      <c r="E143" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="F143" s="20">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="G143" s="18"/>
+      <c r="H143" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C144" s="21"/>
+      <c r="D144" s="21">
+        <v>298</v>
+      </c>
+      <c r="E144" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="F144" s="23">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="G144" s="24"/>
+      <c r="H144" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C145" s="18"/>
+      <c r="D145" s="18">
+        <v>351</v>
+      </c>
+      <c r="E145" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="F145" s="20">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="G145" s="25"/>
+      <c r="H145" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="146" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C146" s="21"/>
+      <c r="D146" s="21">
+        <v>241</v>
+      </c>
+      <c r="E146" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="F146" s="23">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="G146" s="21"/>
+      <c r="H146" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C147" s="18"/>
+      <c r="D147" s="18">
+        <v>309</v>
+      </c>
+      <c r="E147" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="F147" s="20">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="G147" s="18"/>
+      <c r="H147" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C148" s="21"/>
+      <c r="D148" s="21">
+        <v>250</v>
+      </c>
+      <c r="E148" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="F148" s="23">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="G148" s="21"/>
+      <c r="H148" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C149" s="18"/>
+      <c r="D149" s="18">
+        <v>96</v>
+      </c>
+      <c r="E149" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="F149" s="20">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="G149" s="18"/>
+      <c r="H149" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C150" s="21"/>
+      <c r="D150" s="21">
+        <v>108</v>
+      </c>
+      <c r="E150" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="F150" s="23">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="G150" s="21"/>
+      <c r="H150" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C151" s="18"/>
+      <c r="D151" s="18">
+        <v>216</v>
+      </c>
+      <c r="E151" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="F151" s="20">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C152" s="21"/>
+      <c r="D152" s="21">
+        <v>137</v>
+      </c>
+      <c r="E152" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="F152" s="23">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="G152" s="21"/>
+      <c r="H152" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C153" s="18"/>
+      <c r="D153" s="18">
+        <v>286</v>
+      </c>
+      <c r="E153" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="F153" s="20">
+        <v>0.39</v>
+      </c>
+      <c r="G153" s="25"/>
+      <c r="H153" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="154" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C154" s="21"/>
+      <c r="D154" s="21">
+        <v>22</v>
+      </c>
+      <c r="E154" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="F154" s="23">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="G154" s="21"/>
+      <c r="H154" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C155" s="18"/>
+      <c r="D155" s="18">
+        <v>259</v>
+      </c>
+      <c r="E155" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="F155" s="20">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="G155" s="25"/>
+      <c r="H155" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C156" s="21"/>
+      <c r="D156" s="21">
+        <v>377</v>
+      </c>
+      <c r="E156" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="F156" s="23">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="G156" s="21"/>
+      <c r="H156" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C157" s="18"/>
+      <c r="D157" s="18">
+        <v>337</v>
+      </c>
+      <c r="E157" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="F157" s="20">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="G157" s="18"/>
+      <c r="H157" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="158" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C158" s="21"/>
+      <c r="D158" s="21">
+        <v>230</v>
+      </c>
+      <c r="E158" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="F158" s="23">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="G158" s="21"/>
+      <c r="H158" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C159" s="18"/>
+      <c r="D159" s="18">
+        <v>156</v>
+      </c>
+      <c r="E159" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="F159" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="G159" s="18"/>
+      <c r="H159" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C160" s="21"/>
+      <c r="D160" s="21">
+        <v>328</v>
+      </c>
+      <c r="E160" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="F160" s="23">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="G160" s="24"/>
+      <c r="H160" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="161" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C161" s="18"/>
+      <c r="D161" s="18">
+        <v>318</v>
+      </c>
+      <c r="E161" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="F161" s="20">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="G161" s="18"/>
+      <c r="H161" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C162" s="21"/>
+      <c r="D162" s="21">
+        <v>12</v>
+      </c>
+      <c r="E162" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="F162" s="23">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="G162" s="21"/>
+      <c r="H162" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C163" s="18"/>
+      <c r="D163" s="18">
+        <v>325</v>
+      </c>
+      <c r="E163" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="F163" s="20">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="G163" s="18"/>
+      <c r="H163" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C164" s="21"/>
+      <c r="D164" s="21">
+        <v>360</v>
+      </c>
+      <c r="E164" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="F164" s="23">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="G164" s="21"/>
+      <c r="H164" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C165" s="18"/>
+      <c r="D165" s="18">
+        <v>378</v>
+      </c>
+      <c r="E165" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="F165" s="20">
+        <v>0.41</v>
+      </c>
+      <c r="G165" s="18"/>
+      <c r="H165" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="166" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C166" s="21"/>
+      <c r="D166" s="21">
+        <v>319</v>
+      </c>
+      <c r="E166" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="F166" s="23">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="G166" s="21"/>
+      <c r="H166" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="167" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C167" s="18"/>
+      <c r="D167" s="18">
+        <v>94</v>
+      </c>
+      <c r="E167" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="F167" s="20">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="G167" s="18"/>
+      <c r="H167" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="168" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C168" s="21"/>
+      <c r="D168" s="21">
+        <v>144</v>
+      </c>
+      <c r="E168" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="F168" s="23">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="G168" s="21"/>
+      <c r="H168" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="169" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C169" s="18"/>
+      <c r="D169" s="18">
+        <v>320</v>
+      </c>
+      <c r="E169" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="F169" s="20">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="G169" s="18"/>
+      <c r="H169" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="170" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C170" s="21"/>
+      <c r="D170" s="21">
+        <v>268</v>
+      </c>
+      <c r="E170" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="F170" s="23">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="G170" s="21"/>
+      <c r="H170" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="171" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C171" s="18"/>
+      <c r="D171" s="18">
+        <v>294</v>
+      </c>
+      <c r="E171" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="F171" s="20">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="G171" s="18"/>
+      <c r="H171" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="172" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C172" s="21"/>
+      <c r="D172" s="21">
+        <v>343</v>
+      </c>
+      <c r="E172" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="F172" s="23">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="G172" s="21"/>
+      <c r="H172" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="173" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C173" s="18"/>
+      <c r="D173" s="18">
+        <v>357</v>
+      </c>
+      <c r="E173" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="F173" s="20">
+        <v>0.434</v>
+      </c>
+      <c r="G173" s="18"/>
+      <c r="H173" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="174" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C174" s="21"/>
+      <c r="D174" s="21">
+        <v>122</v>
+      </c>
+      <c r="E174" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="F174" s="23">
+        <v>0.437</v>
+      </c>
+      <c r="G174" s="24"/>
+      <c r="H174" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="175" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C175" s="18"/>
+      <c r="D175" s="18">
+        <v>347</v>
+      </c>
+      <c r="E175" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="F175" s="20">
+        <v>0.438</v>
+      </c>
+      <c r="G175" s="18"/>
+      <c r="H175" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="176" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C176" s="21"/>
+      <c r="D176" s="21">
+        <v>348</v>
+      </c>
+      <c r="E176" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="F176" s="23">
+        <v>0.44</v>
+      </c>
+      <c r="G176" s="21"/>
+      <c r="H176" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="177" spans="3:8" ht="30.75" thickBot="1">
+      <c r="C177" s="18"/>
+      <c r="D177" s="18">
+        <v>323</v>
+      </c>
+      <c r="E177" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="F177" s="20">
+        <v>0.441</v>
+      </c>
+      <c r="G177" s="18"/>
+      <c r="H177" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="178" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C178" s="21"/>
+      <c r="D178" s="21">
+        <v>256</v>
+      </c>
+      <c r="E178" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="F178" s="23">
+        <v>0.442</v>
+      </c>
+      <c r="G178" s="21"/>
+      <c r="H178" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="179" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C179" s="18"/>
+      <c r="D179" s="18">
+        <v>238</v>
+      </c>
+      <c r="E179" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F179" s="20">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="G179" s="18"/>
+      <c r="H179" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="180" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C180" s="21"/>
+      <c r="D180" s="21">
+        <v>281</v>
+      </c>
+      <c r="E180" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="F180" s="23">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="G180" s="21"/>
+      <c r="H180" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="181" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C181" s="18"/>
+      <c r="D181" s="18">
+        <v>384</v>
+      </c>
+      <c r="E181" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="F181" s="20">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="G181" s="18"/>
+      <c r="H181" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="182" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C182" s="21"/>
+      <c r="D182" s="21">
+        <v>260</v>
+      </c>
+      <c r="E182" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="F182" s="23">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="G182" s="21"/>
+      <c r="H182" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="183" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C183" s="18"/>
+      <c r="D183" s="18">
+        <v>382</v>
+      </c>
+      <c r="E183" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="F183" s="20">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="G183" s="18"/>
+      <c r="H183" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="184" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C184" s="21"/>
+      <c r="D184" s="21">
+        <v>245</v>
+      </c>
+      <c r="E184" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="F184" s="23">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="G184" s="21"/>
+      <c r="H184" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="185" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C185" s="18"/>
+      <c r="D185" s="18">
+        <v>364</v>
+      </c>
+      <c r="E185" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="F185" s="20">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="G185" s="18"/>
+      <c r="H185" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="186" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C186" s="21"/>
+      <c r="D186" s="21">
+        <v>311</v>
+      </c>
+      <c r="E186" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="F186" s="23">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="G186" s="21"/>
+      <c r="H186" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="187" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C187" s="18"/>
+      <c r="D187" s="18">
+        <v>167</v>
+      </c>
+      <c r="E187" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="F187" s="20">
+        <v>0.496</v>
+      </c>
+      <c r="G187" s="25"/>
+      <c r="H187" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="188" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C188" s="21"/>
+      <c r="D188" s="21">
+        <v>362</v>
+      </c>
+      <c r="E188" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="F188" s="23">
+        <v>0.498</v>
+      </c>
+      <c r="G188" s="21"/>
+      <c r="H188" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="189" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C189" s="18"/>
+      <c r="D189" s="18">
+        <v>369</v>
+      </c>
+      <c r="E189" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="F189" s="20">
+        <v>0.501</v>
+      </c>
+      <c r="G189" s="18"/>
+      <c r="H189" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="190" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C190" s="21"/>
+      <c r="D190" s="21">
+        <v>370</v>
+      </c>
+      <c r="E190" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="F190" s="23">
+        <v>0.505</v>
+      </c>
+      <c r="G190" s="24"/>
+      <c r="H190" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="191" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C191" s="18"/>
+      <c r="D191" s="18">
+        <v>136</v>
+      </c>
+      <c r="E191" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="F191" s="20">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="G191" s="18"/>
+      <c r="H191" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="192" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C192" s="21"/>
+      <c r="D192" s="21">
+        <v>280</v>
+      </c>
+      <c r="E192" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="F192" s="23">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="G192" s="24"/>
+      <c r="H192" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="193" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C193" s="18"/>
+      <c r="D193" s="18">
+        <v>366</v>
+      </c>
+      <c r="E193" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="F193" s="20">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="G193" s="18"/>
+      <c r="H193" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="194" spans="3:8">
+      <c r="C194" s="21"/>
+      <c r="D194" s="21">
+        <v>338</v>
+      </c>
+      <c r="E194" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="F194" s="23">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="G194" s="21"/>
+      <c r="H194" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="https://leetcode.com/problems/reverse-words-in-a-string/"/>
+    <hyperlink ref="E4" r:id="rId2" display="https://leetcode.com/problems/divide-two-integers/"/>
+    <hyperlink ref="E5" r:id="rId3" display="https://leetcode.com/problems/fraction-to-recurring-decimal/"/>
+    <hyperlink ref="E6" r:id="rId4" display="https://leetcode.com/problems/surrounded-regions/"/>
+    <hyperlink ref="E7" r:id="rId5" display="https://leetcode.com/problems/decode-ways/"/>
+    <hyperlink ref="E8" r:id="rId6" display="https://leetcode.com/problems/range-sum-query-mutable/"/>
+    <hyperlink ref="E9" r:id="rId7" display="https://leetcode.com/problems/contains-duplicate-iii/"/>
+    <hyperlink ref="E10" r:id="rId8" display="https://leetcode.com/problems/3sum/"/>
+    <hyperlink ref="E11" r:id="rId9" display="https://leetcode.com/problems/word-ladder/"/>
+    <hyperlink ref="E12" r:id="rId10" display="https://leetcode.com/problems/add-and-search-word-data-structure-design/"/>
+    <hyperlink ref="E13" r:id="rId11" display="https://leetcode.com/problems/largest-number/"/>
+    <hyperlink ref="E14" r:id="rId12" display="https://leetcode.com/problems/validate-binary-search-tree/"/>
+    <hyperlink ref="E15" r:id="rId13" display="https://leetcode.com/problems/course-schedule-ii/"/>
+    <hyperlink ref="E16" r:id="rId14" display="https://leetcode.com/problems/range-sum-query-2d-immutable/"/>
+    <hyperlink ref="E17" r:id="rId15" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/"/>
+    <hyperlink ref="E18" r:id="rId16" display="https://leetcode.com/problems/simplify-path/"/>
+    <hyperlink ref="E19" r:id="rId17" display="https://leetcode.com/problems/maximum-product-subarray/"/>
+    <hyperlink ref="E20" r:id="rId18" display="https://leetcode.com/problems/design-twitter/"/>
+    <hyperlink ref="E21" r:id="rId19" display="https://leetcode.com/problems/rotate-list/"/>
+    <hyperlink ref="E22" r:id="rId20" display="https://leetcode.com/problems/water-and-jug-problem/"/>
+    <hyperlink ref="E23" r:id="rId21" display="https://leetcode.com/problems/spiral-matrix/"/>
+    <hyperlink ref="E24" r:id="rId22" display="https://leetcode.com/problems/longest-palindromic-substring/"/>
+    <hyperlink ref="E25" r:id="rId23" display="https://leetcode.com/problems/reorder-list/"/>
+    <hyperlink ref="E26" r:id="rId24" display="https://leetcode.com/problems/design-snake-game/"/>
+    <hyperlink ref="E27" r:id="rId25" display="https://leetcode.com/problems/wiggle-sort-ii/"/>
+    <hyperlink ref="E28" r:id="rId26" display="https://leetcode.com/problems/word-search/"/>
+    <hyperlink ref="E29" r:id="rId27" display="https://leetcode.com/problems/restore-ip-addresses/"/>
+    <hyperlink ref="E30" r:id="rId28" display="https://leetcode.com/problems/add-two-numbers/"/>
+    <hyperlink ref="E31" r:id="rId29" display="https://leetcode.com/problems/multiply-strings/"/>
+    <hyperlink ref="E32" r:id="rId30" display="https://leetcode.com/problems/evaluate-reverse-polish-notation/"/>
+    <hyperlink ref="E33" r:id="rId31" display="https://leetcode.com/problems/4sum/"/>
+    <hyperlink ref="E34" r:id="rId32" display="https://leetcode.com/problems/clone-graph/"/>
+    <hyperlink ref="E35" r:id="rId33" display="https://leetcode.com/problems/maximal-square/"/>
+    <hyperlink ref="E36" r:id="rId34" display="https://leetcode.com/problems/implement-trie-prefix-tree/"/>
+    <hyperlink ref="E37" r:id="rId35" display="https://leetcode.com/problems/coin-change/"/>
+    <hyperlink ref="E38" r:id="rId36" display="https://leetcode.com/problems/summary-ranges/"/>
+    <hyperlink ref="E39" r:id="rId37" display="https://leetcode.com/problems/design-phone-directory/"/>
+    <hyperlink ref="E40" r:id="rId38" display="https://leetcode.com/problems/sort-list/"/>
+    <hyperlink ref="E41" r:id="rId39" display="https://leetcode.com/problems/permutation-sequence/"/>
+    <hyperlink ref="E42" r:id="rId40" display="https://leetcode.com/problems/sqrtx/"/>
+    <hyperlink ref="E43" r:id="rId41" display="https://leetcode.com/problems/count-complete-tree-nodes/"/>
+    <hyperlink ref="E44" r:id="rId42" display="https://leetcode.com/problems/reconstruct-itinerary/"/>
+    <hyperlink ref="E45" r:id="rId43" display="https://leetcode.com/problems/word-break/"/>
+    <hyperlink ref="E46" r:id="rId44" display="https://leetcode.com/problems/basic-calculator-ii/"/>
+    <hyperlink ref="E47" r:id="rId45" display="https://leetcode.com/problems/majority-element-ii/"/>
+    <hyperlink ref="E48" r:id="rId46" display="https://leetcode.com/problems/mini-parser/"/>
+    <hyperlink ref="E49" r:id="rId47" display="https://leetcode.com/problems/additive-number/"/>
+    <hyperlink ref="E50" r:id="rId48" display="https://leetcode.com/problems/find-k-pairs-with-smallest-sums/"/>
+    <hyperlink ref="E51" r:id="rId49" display="https://leetcode.com/problems/next-permutation/"/>
+    <hyperlink ref="E52" r:id="rId50" display="https://leetcode.com/problems/repeated-dna-sequences/"/>
+    <hyperlink ref="E53" r:id="rId51" display="https://leetcode.com/problems/encode-and-decode-strings/"/>
+    <hyperlink ref="E54" r:id="rId52" display="https://leetcode.com/problems/powx-n/"/>
+    <hyperlink ref="E55" r:id="rId53" display="https://leetcode.com/problems/minimum-height-trees/"/>
+    <hyperlink ref="E56" r:id="rId54" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/"/>
+    <hyperlink ref="E57" r:id="rId55" display="https://leetcode.com/problems/minimum-size-subarray-sum/"/>
+    <hyperlink ref="E58" r:id="rId56" display="https://leetcode.com/problems/gas-station/"/>
+    <hyperlink ref="E59" r:id="rId57" display="https://leetcode.com/problems/largest-bst-subtree/"/>
+    <hyperlink ref="E60" r:id="rId58" display="https://leetcode.com/problems/line-reflection/"/>
+    <hyperlink ref="E61" r:id="rId59" display="https://leetcode.com/problems/course-schedule/"/>
+    <hyperlink ref="E62" r:id="rId60" display="https://leetcode.com/problems/reverse-linked-list-ii/"/>
+    <hyperlink ref="E63" r:id="rId61" display="https://leetcode.com/problems/jump-game/"/>
+    <hyperlink ref="E64" r:id="rId62" display="https://leetcode.com/problems/palindrome-partitioning/"/>
+    <hyperlink ref="E65" r:id="rId63" display="https://leetcode.com/problems/reverse-words-in-a-string-ii/"/>
+    <hyperlink ref="E66" r:id="rId64" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/"/>
+    <hyperlink ref="E67" r:id="rId65" display="https://leetcode.com/problems/combination-sum-ii/"/>
+    <hyperlink ref="E68" r:id="rId66" display="https://leetcode.com/problems/one-edit-distance/"/>
+    <hyperlink ref="E69" r:id="rId67" display="https://leetcode.com/problems/permutations-ii/"/>
+    <hyperlink ref="E70" r:id="rId68" display="https://leetcode.com/problems/anagrams/"/>
+    <hyperlink ref="E71" r:id="rId69" display="https://leetcode.com/problems/palindrome-permutation-ii/"/>
+    <hyperlink ref="E72" r:id="rId70" display="https://leetcode.com/problems/number-of-islands/"/>
+    <hyperlink ref="E73" r:id="rId71" display="https://leetcode.com/problems/unique-binary-search-trees-ii/"/>
+    <hyperlink ref="E74" r:id="rId72" display="https://leetcode.com/problems/path-sum-ii/"/>
+    <hyperlink ref="E75" r:id="rId73" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/"/>
+    <hyperlink ref="E76" r:id="rId74" display="https://leetcode.com/problems/3sum-closest/"/>
+    <hyperlink ref="E77" r:id="rId75" display="https://leetcode.com/problems/search-for-a-range/"/>
+    <hyperlink ref="E78" r:id="rId76" display="https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/"/>
+    <hyperlink ref="E79" r:id="rId77" display="https://leetcode.com/problems/unique-paths-ii/"/>
+    <hyperlink ref="E80" r:id="rId78" display="https://leetcode.com/problems/ugly-number-ii/"/>
+    <hyperlink ref="E81" r:id="rId79" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/"/>
+    <hyperlink ref="E82" r:id="rId80" display="https://leetcode.com/problems/letter-combinations-of-a-phone-number/"/>
+    <hyperlink ref="E83" r:id="rId81" display="https://leetcode.com/problems/missing-ranges/"/>
+    <hyperlink ref="E84" r:id="rId82" display="https://leetcode.com/problems/partition-list/"/>
+    <hyperlink ref="E85" r:id="rId83" display="https://leetcode.com/problems/insertion-sort-list/"/>
+    <hyperlink ref="E86" r:id="rId84" display="https://leetcode.com/problems/guess-number-higher-or-lower-ii/"/>
+    <hyperlink ref="E87" r:id="rId85" display="https://leetcode.com/problems/h-index/"/>
+    <hyperlink ref="E88" r:id="rId86" display="https://leetcode.com/problems/super-pow/"/>
+    <hyperlink ref="E89" r:id="rId87" display="https://leetcode.com/problems/linked-list-cycle-ii/"/>
+    <hyperlink ref="E90" r:id="rId88" display="https://leetcode.com/problems/largest-divisible-subset/"/>
+    <hyperlink ref="E91" r:id="rId89" display="https://leetcode.com/problems/triangle/"/>
+    <hyperlink ref="E92" r:id="rId90" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/"/>
+    <hyperlink ref="E93" r:id="rId91" display="https://leetcode.com/problems/house-robber-ii/"/>
+    <hyperlink ref="E94" r:id="rId92" display="https://leetcode.com/problems/bitwise-and-of-numbers-range/"/>
+    <hyperlink ref="E95" r:id="rId93" display="https://leetcode.com/problems/subsets-ii/"/>
+    <hyperlink ref="E96" r:id="rId94" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list/"/>
+    <hyperlink ref="E97" r:id="rId95" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii/"/>
+    <hyperlink ref="E98" r:id="rId96" display="https://leetcode.com/problems/binary-tree-vertical-order-traversal/"/>
+    <hyperlink ref="E99" r:id="rId97" display="https://leetcode.com/problems/combination-sum/"/>
+    <hyperlink ref="E100" r:id="rId98" display="https://leetcode.com/problems/h-index-ii/"/>
+    <hyperlink ref="E101" r:id="rId99" display="https://leetcode.com/problems/verify-preorder-serialization-of-a-binary-tree/"/>
+    <hyperlink ref="E102" r:id="rId100" display="https://leetcode.com/problems/subsets/"/>
+    <hyperlink ref="E103" r:id="rId101" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array-ii/"/>
+    <hyperlink ref="E104" r:id="rId102" display="https://leetcode.com/problems/flatten-nested-list-iterator/"/>
+    <hyperlink ref="E105" r:id="rId103" display="https://leetcode.com/problems/sum-root-to-leaf-numbers/"/>
+    <hyperlink ref="E106" r:id="rId104" display="https://leetcode.com/problems/perfect-squares/"/>
+    <hyperlink ref="E107" r:id="rId105" display="https://leetcode.com/problems/find-peak-element/"/>
+    <hyperlink ref="E108" r:id="rId106" display="https://leetcode.com/problems/graph-valid-tree/"/>
+    <hyperlink ref="E109" r:id="rId107" display="https://leetcode.com/problems/set-matrix-zeroes/"/>
+    <hyperlink ref="E110" r:id="rId108" display="https://leetcode.com/problems/wiggle-subsequence/"/>
+    <hyperlink ref="E111" r:id="rId109" display="https://leetcode.com/problems/peeking-iterator/"/>
+    <hyperlink ref="E112" r:id="rId110" display="https://leetcode.com/problems/search-a-2d-matrix/"/>
+    <hyperlink ref="E113" r:id="rId111" display="https://leetcode.com/problems/kth-largest-element-in-an-array/"/>
+    <hyperlink ref="E114" r:id="rId112" display="https://leetcode.com/problems/shortest-word-distance-ii/"/>
+    <hyperlink ref="E115" r:id="rId113" display="https://leetcode.com/problems/container-with-most-water/"/>
+    <hyperlink ref="E116" r:id="rId114" display="https://leetcode.com/problems/find-the-celebrity/"/>
+    <hyperlink ref="E117" r:id="rId115" display="https://leetcode.com/problems/bomb-enemy/"/>
+    <hyperlink ref="E118" r:id="rId116" display="https://leetcode.com/problems/sort-colors/"/>
+    <hyperlink ref="E119" r:id="rId117" display="https://leetcode.com/problems/game-of-life/"/>
+    <hyperlink ref="E120" r:id="rId118" display="https://leetcode.com/problems/rotate-image/"/>
+    <hyperlink ref="E121" r:id="rId119" display="https://leetcode.com/problems/strobogrammatic-number-ii/"/>
+    <hyperlink ref="E122" r:id="rId120" display="https://leetcode.com/problems/flatten-2d-vector/"/>
+    <hyperlink ref="E123" r:id="rId121" display="https://leetcode.com/problems/longest-increasing-subsequence/"/>
+    <hyperlink ref="E124" r:id="rId122" display="https://leetcode.com/problems/increasing-triplet-subsequence/"/>
+    <hyperlink ref="E125" r:id="rId123" display="https://leetcode.com/problems/super-ugly-number/"/>
+    <hyperlink ref="E126" r:id="rId124" display="https://leetcode.com/problems/minimum-path-sum/"/>
+    <hyperlink ref="E127" r:id="rId125" display="https://leetcode.com/problems/combinations/"/>
+    <hyperlink ref="E128" r:id="rId126" display="https://leetcode.com/problems/search-a-2d-matrix-ii/"/>
+    <hyperlink ref="E129" r:id="rId127" display="https://leetcode.com/problems/meeting-rooms-ii/"/>
+    <hyperlink ref="E130" r:id="rId128" display="https://leetcode.com/problems/spiral-matrix-ii/"/>
+    <hyperlink ref="E131" r:id="rId129" display="https://leetcode.com/problems/inorder-successor-in-bst/"/>
+    <hyperlink ref="E132" r:id="rId130" display="https://leetcode.com/problems/binary-search-tree-iterator/"/>
+    <hyperlink ref="E133" r:id="rId131" display="https://leetcode.com/problems/valid-perfect-square/"/>
+    <hyperlink ref="E134" r:id="rId132" display="https://leetcode.com/problems/binary-tree-right-side-view/"/>
+    <hyperlink ref="E135" r:id="rId133" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node/"/>
+    <hyperlink ref="E136" r:id="rId134" display="https://leetcode.com/problems/factor-combinations/"/>
+    <hyperlink ref="E137" r:id="rId135" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/"/>
+    <hyperlink ref="E138" r:id="rId136" display="https://leetcode.com/problems/maximum-subarray/"/>
+    <hyperlink ref="E139" r:id="rId137" display="https://leetcode.com/problems/unique-paths/"/>
+    <hyperlink ref="E140" r:id="rId138" display="https://leetcode.com/problems/verify-preorder-sequence-in-binary-search-tree/"/>
+    <hyperlink ref="E141" r:id="rId139" display="https://leetcode.com/problems/permutations/"/>
+    <hyperlink ref="E142" r:id="rId140" display="https://leetcode.com/problems/gray-code/"/>
+    <hyperlink ref="E143" r:id="rId141" display="https://leetcode.com/problems/search-insert-position/"/>
+    <hyperlink ref="E144" r:id="rId142" display="https://leetcode.com/problems/binary-tree-longest-consecutive-sequence/"/>
+    <hyperlink ref="E145" r:id="rId143" display="https://leetcode.com/problems/android-unlock-patterns/"/>
+    <hyperlink ref="E146" r:id="rId144" display="https://leetcode.com/problems/different-ways-to-add-parentheses/"/>
+    <hyperlink ref="E147" r:id="rId145" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/"/>
+    <hyperlink ref="E148" r:id="rId146" display="https://leetcode.com/problems/count-univalue-subtrees/"/>
+    <hyperlink ref="E149" r:id="rId147" display="https://leetcode.com/problems/unique-binary-search-trees/"/>
+    <hyperlink ref="E150" r:id="rId148" display="https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/"/>
+    <hyperlink ref="E151" r:id="rId149" display="https://leetcode.com/problems/combination-sum-iii/"/>
+    <hyperlink ref="E152" r:id="rId150" display="https://leetcode.com/problems/single-number-ii/"/>
+    <hyperlink ref="E153" r:id="rId151" display="https://leetcode.com/problems/walls-and-gates/"/>
+    <hyperlink ref="E154" r:id="rId152" display="https://leetcode.com/problems/generate-parentheses/"/>
+    <hyperlink ref="E155" r:id="rId153" display="https://leetcode.com/problems/3sum-smaller/"/>
+    <hyperlink ref="E156" r:id="rId154" display="https://leetcode.com/problems/combination-sum-iv/"/>
+    <hyperlink ref="E157" r:id="rId155" display="https://leetcode.com/problems/house-robber-iii/"/>
+    <hyperlink ref="E158" r:id="rId156" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst/"/>
+    <hyperlink ref="E159" r:id="rId157" display="https://leetcode.com/problems/binary-tree-upside-down/"/>
+    <hyperlink ref="E160" r:id="rId158" display="https://leetcode.com/problems/odd-even-linked-list/"/>
+    <hyperlink ref="E161" r:id="rId159" display="https://leetcode.com/problems/maximum-product-of-word-lengths/"/>
+    <hyperlink ref="E162" r:id="rId160" display="https://leetcode.com/problems/integer-to-roman/"/>
+    <hyperlink ref="E163" r:id="rId161" display="https://leetcode.com/problems/maximum-size-subarray-sum-equals-k/"/>
+    <hyperlink ref="E164" r:id="rId162" display="https://leetcode.com/problems/sort-transformed-array/"/>
+    <hyperlink ref="E165" r:id="rId163" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/"/>
+    <hyperlink ref="E166" r:id="rId164" display="https://leetcode.com/problems/bulb-switcher/"/>
+    <hyperlink ref="E167" r:id="rId165" display="https://leetcode.com/problems/binary-tree-inorder-traversal/"/>
+    <hyperlink ref="E168" r:id="rId166" display="https://leetcode.com/problems/binary-tree-preorder-traversal/"/>
+    <hyperlink ref="E169" r:id="rId167" display="https://leetcode.com/problems/generalized-abbreviation/"/>
+    <hyperlink ref="E170" r:id="rId168" display="https://leetcode.com/problems/missing-number/"/>
+    <hyperlink ref="E171" r:id="rId169" display="https://leetcode.com/problems/flip-game-ii/"/>
+    <hyperlink ref="E172" r:id="rId170" display="https://leetcode.com/problems/integer-break/"/>
+    <hyperlink ref="E173" r:id="rId171" display="https://leetcode.com/problems/count-numbers-with-unique-digits/"/>
+    <hyperlink ref="E174" r:id="rId172" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii/"/>
+    <hyperlink ref="E175" r:id="rId173" display="https://leetcode.com/problems/top-k-frequent-elements/"/>
+    <hyperlink ref="E176" r:id="rId174" display="https://leetcode.com/problems/design-tic-tac-toe/"/>
+    <hyperlink ref="E177" r:id="rId175" display="https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/"/>
+    <hyperlink ref="E178" r:id="rId176" display="https://leetcode.com/problems/paint-house/"/>
+    <hyperlink ref="E179" r:id="rId177" display="https://leetcode.com/problems/product-of-array-except-self/"/>
+    <hyperlink ref="E180" r:id="rId178" display="https://leetcode.com/problems/zigzag-iterator/"/>
+    <hyperlink ref="E181" r:id="rId179" display="https://leetcode.com/problems/shuffle-an-array/"/>
+    <hyperlink ref="E182" r:id="rId180" display="https://leetcode.com/problems/single-number-iii/"/>
+    <hyperlink ref="E183" r:id="rId181" display="https://leetcode.com/problems/linked-list-random-node/"/>
+    <hyperlink ref="E184" r:id="rId182" display="https://leetcode.com/problems/shortest-word-distance-iii/"/>
+    <hyperlink ref="E185" r:id="rId183" display="https://leetcode.com/problems/nested-list-weight-sum-ii/"/>
+    <hyperlink ref="E186" r:id="rId184" display="https://leetcode.com/problems/sparse-matrix-multiplication/"/>
+    <hyperlink ref="E187" r:id="rId185" display="https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/"/>
+    <hyperlink ref="E188" r:id="rId186" display="https://leetcode.com/problems/design-hit-counter/"/>
+    <hyperlink ref="E189" r:id="rId187" display="https://leetcode.com/problems/plus-one-linked-list/"/>
+    <hyperlink ref="E190" r:id="rId188" display="https://leetcode.com/problems/range-addition/"/>
+    <hyperlink ref="E191" r:id="rId189" display="https://leetcode.com/problems/single-number/"/>
+    <hyperlink ref="E192" r:id="rId190" display="https://leetcode.com/problems/wiggle-sort/"/>
+    <hyperlink ref="E193" r:id="rId191" display="https://leetcode.com/problems/find-leaves-of-binary-tree/"/>
+    <hyperlink ref="E194" r:id="rId192" display="https://leetcode.com/problems/counting-bits/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="43.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1"/>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1">
+      <c r="C3" s="18">
+        <v>8</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21">
+        <v>288</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0.158</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18">
+        <v>165</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.184</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21">
+        <v>189</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0.223</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18">
+        <v>168</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.23</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21">
+        <v>170</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0.23</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18">
+        <v>278</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21">
+        <v>7</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18">
+        <v>155</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.24</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21">
+        <v>125</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.245</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18">
+        <v>6</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21">
+        <v>204</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="23">
+        <v>0.254</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18">
+        <v>1</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21">
+        <v>303</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="E16" s="23">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18">
+        <v>28</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21">
+        <v>67</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18">
+        <v>14</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="E19" s="20">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21">
+        <v>190</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="E20" s="23">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18">
+        <v>157</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="E21" s="20">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21">
+        <v>203</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>521</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18">
+        <v>234</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21">
+        <v>58</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="E24" s="23">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18">
+        <v>38</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21">
+        <v>20</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="23">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18">
+        <v>219</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="E27" s="20">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21">
+        <v>290</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="E28" s="23">
+        <v>0.307</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18">
+        <v>160</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="20">
+        <v>0.307</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21">
+        <v>88</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" s="23">
+        <v>0.307</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18">
+        <v>19</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="E31" s="20">
+        <v>0.308</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21">
+        <v>225</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="E32" s="23">
+        <v>0.309</v>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="G32" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18">
+        <v>223</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="E33" s="20">
+        <v>0.31</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21">
+        <v>205</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="E34" s="23">
+        <v>0.311</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18">
+        <v>257</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="E35" s="20">
+        <v>0.313</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21">
+        <v>111</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="E36" s="23">
+        <v>0.314</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18">
+        <v>374</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="E37" s="20">
+        <v>0.314</v>
+      </c>
+      <c r="F37" s="25"/>
+      <c r="G37" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21">
+        <v>299</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="E38" s="23">
+        <v>0.315</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18">
+        <v>112</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" s="20">
+        <v>0.32</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21">
+        <v>36</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="E40" s="23">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18">
+        <v>276</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="E41" s="20">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B42" s="21"/>
+      <c r="C42" s="21">
+        <v>9</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="E42" s="23">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18">
+        <v>119</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="E43" s="20">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21">
+        <v>172</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="E44" s="23">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18">
+        <v>249</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="E45" s="20">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21">
+        <v>26</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" s="23">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="F46" s="24"/>
+      <c r="G46" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B47" s="18"/>
+      <c r="C47" s="18">
+        <v>232</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E47" s="20">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="F47" s="25"/>
+      <c r="G47" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B48" s="21"/>
+      <c r="C48" s="21">
+        <v>102</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E48" s="23">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B49" s="18"/>
+      <c r="C49" s="18">
+        <v>118</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="E49" s="20">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B50" s="21"/>
+      <c r="C50" s="21">
+        <v>110</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="E50" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B51" s="18"/>
+      <c r="C51" s="18">
+        <v>101</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E51" s="20">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F51" s="25"/>
+      <c r="G51" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B52" s="21"/>
+      <c r="C52" s="21">
+        <v>27</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="E52" s="23">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="F52" s="24"/>
+      <c r="G52" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B53" s="18"/>
+      <c r="C53" s="18">
+        <v>66</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="E53" s="20">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B54" s="21"/>
+      <c r="C54" s="21">
+        <v>107</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="E54" s="23">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B55" s="18"/>
+      <c r="C55" s="18">
+        <v>270</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="E55" s="20">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B56" s="21"/>
+      <c r="C56" s="21">
+        <v>198</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="E56" s="23">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="F56" s="24"/>
+      <c r="G56" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B57" s="18"/>
+      <c r="C57" s="18">
+        <v>342</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="E57" s="20">
+        <v>0.36</v>
+      </c>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B58" s="21"/>
+      <c r="C58" s="21">
+        <v>24</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="E58" s="23">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B59" s="18"/>
+      <c r="C59" s="18">
+        <v>345</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="E59" s="20">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B60" s="21"/>
+      <c r="C60" s="21">
+        <v>141</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E60" s="23">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="F60" s="24"/>
+      <c r="G60" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B61" s="18"/>
+      <c r="C61" s="18">
+        <v>21</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="20">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B62" s="21"/>
+      <c r="C62" s="21">
+        <v>121</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62" s="23">
+        <v>0.372</v>
+      </c>
+      <c r="F62" s="24"/>
+      <c r="G62" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B63" s="18"/>
+      <c r="C63" s="18">
+        <v>246</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="E63" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B64" s="21"/>
+      <c r="C64" s="21">
+        <v>70</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="E64" s="23">
+        <v>0.376</v>
+      </c>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B65" s="18"/>
+      <c r="C65" s="18">
+        <v>263</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="E65" s="20">
+        <v>0.377</v>
+      </c>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B66" s="21"/>
+      <c r="C66" s="21">
+        <v>83</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="E66" s="23">
+        <v>0.377</v>
+      </c>
+      <c r="F66" s="24"/>
+      <c r="G66" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="30.75" thickBot="1">
+      <c r="B67" s="18"/>
+      <c r="C67" s="18">
+        <v>235</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E67" s="20">
+        <v>0.377</v>
+      </c>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B68" s="21"/>
+      <c r="C68" s="21">
+        <v>191</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" s="23">
+        <v>0.378</v>
+      </c>
+      <c r="F68" s="24"/>
+      <c r="G68" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B69" s="18"/>
+      <c r="C69" s="18">
+        <v>202</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="E69" s="20">
+        <v>0.379</v>
+      </c>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B70" s="21"/>
+      <c r="C70" s="21">
+        <v>231</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="E70" s="23">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B71" s="18"/>
+      <c r="C71" s="18">
+        <v>326</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="E71" s="20">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="F71" s="25"/>
+      <c r="G71" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B72" s="21"/>
+      <c r="C72" s="21">
+        <v>206</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E72" s="23">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="F72" s="24"/>
+      <c r="G72" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B73" s="18"/>
+      <c r="C73" s="18">
+        <v>13</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E73" s="20">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B74" s="21"/>
+      <c r="C74" s="21">
+        <v>350</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="E74" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B75" s="18"/>
+      <c r="C75" s="18">
+        <v>217</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="E75" s="20">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="F75" s="25"/>
+      <c r="G75" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B76" s="21"/>
+      <c r="C76" s="21">
+        <v>169</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="E76" s="23">
+        <v>0.43</v>
+      </c>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B77" s="18"/>
+      <c r="C77" s="18">
+        <v>252</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="E77" s="20">
+        <v>0.433</v>
+      </c>
+      <c r="F77" s="25"/>
+      <c r="G77" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B78" s="21"/>
+      <c r="C78" s="21">
+        <v>242</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="E78" s="23">
+        <v>0.434</v>
+      </c>
+      <c r="F78" s="24"/>
+      <c r="G78" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B79" s="18"/>
+      <c r="C79" s="18">
+        <v>171</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E79" s="20">
+        <v>0.435</v>
+      </c>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B80" s="21"/>
+      <c r="C80" s="21">
+        <v>100</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="E80" s="23">
+        <v>0.441</v>
+      </c>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B81" s="18"/>
+      <c r="C81" s="18">
+        <v>383</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="E81" s="20">
+        <v>0.442</v>
+      </c>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B82" s="21"/>
+      <c r="C82" s="21">
+        <v>237</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E82" s="23">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="F82" s="24"/>
+      <c r="G82" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B83" s="18"/>
+      <c r="C83" s="18">
+        <v>349</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="E83" s="20">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B84" s="21"/>
+      <c r="C84" s="21">
+        <v>283</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="E84" s="23">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="F84" s="24"/>
+      <c r="G84" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B85" s="18"/>
+      <c r="C85" s="18">
+        <v>226</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="E85" s="20">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="F85" s="25"/>
+      <c r="G85" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B86" s="21"/>
+      <c r="C86" s="21">
+        <v>243</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="E86" s="23">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="F86" s="24"/>
+      <c r="G86" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B87" s="18"/>
+      <c r="C87" s="18">
+        <v>104</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>567</v>
+      </c>
+      <c r="E87" s="20">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B88" s="21"/>
+      <c r="C88" s="21">
+        <v>258</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="E88" s="23">
+        <v>0.495</v>
+      </c>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B89" s="18"/>
+      <c r="C89" s="18">
+        <v>293</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>568</v>
+      </c>
+      <c r="E89" s="20">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B90" s="21"/>
+      <c r="C90" s="21">
+        <v>371</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="E90" s="23">
+        <v>0.52</v>
+      </c>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B91" s="18"/>
+      <c r="C91" s="18">
+        <v>266</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="E91" s="20">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B92" s="21"/>
+      <c r="C92" s="21">
+        <v>292</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="E92" s="23">
+        <v>0.54</v>
+      </c>
+      <c r="F92" s="24"/>
+      <c r="G92" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B93" s="18"/>
+      <c r="C93" s="18">
+        <v>346</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="E93" s="20">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B94" s="21"/>
+      <c r="C94" s="21">
+        <v>359</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="E94" s="23">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B95" s="18"/>
+      <c r="C95" s="18">
+        <v>339</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="E95" s="20">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="F95" s="25"/>
+      <c r="G95" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="21"/>
+      <c r="C96" s="21">
+        <v>344</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="E96" s="23">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://leetcode.com/problems/string-to-integer-atoi/"/>
+    <hyperlink ref="D4" r:id="rId2" display="https://leetcode.com/problems/unique-word-abbreviation/"/>
+    <hyperlink ref="D5" r:id="rId3" display="https://leetcode.com/problems/compare-version-numbers/"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://leetcode.com/problems/rotate-array/"/>
+    <hyperlink ref="D7" r:id="rId5" display="https://leetcode.com/problems/excel-sheet-column-title/"/>
+    <hyperlink ref="D8" r:id="rId6" display="https://leetcode.com/problems/two-sum-iii-data-structure-design/"/>
+    <hyperlink ref="D9" r:id="rId7" display="https://leetcode.com/problems/first-bad-version/"/>
+    <hyperlink ref="D10" r:id="rId8" display="https://leetcode.com/problems/reverse-integer/"/>
+    <hyperlink ref="D11" r:id="rId9" display="https://leetcode.com/problems/min-stack/"/>
+    <hyperlink ref="D12" r:id="rId10" display="https://leetcode.com/problems/valid-palindrome/"/>
+    <hyperlink ref="D13" r:id="rId11" display="https://leetcode.com/problems/zigzag-conversion/"/>
+    <hyperlink ref="D14" r:id="rId12" display="https://leetcode.com/problems/count-primes/"/>
+    <hyperlink ref="D15" r:id="rId13" display="https://leetcode.com/problems/two-sum/"/>
+    <hyperlink ref="D16" r:id="rId14" display="https://leetcode.com/problems/range-sum-query-immutable/"/>
+    <hyperlink ref="D17" r:id="rId15" display="https://leetcode.com/problems/implement-strstr/"/>
+    <hyperlink ref="D18" r:id="rId16" display="https://leetcode.com/problems/add-binary/"/>
+    <hyperlink ref="D19" r:id="rId17" display="https://leetcode.com/problems/longest-common-prefix/"/>
+    <hyperlink ref="D20" r:id="rId18" display="https://leetcode.com/problems/reverse-bits/"/>
+    <hyperlink ref="D21" r:id="rId19" display="https://leetcode.com/problems/read-n-characters-given-read4/"/>
+    <hyperlink ref="D22" r:id="rId20" display="https://leetcode.com/problems/remove-linked-list-elements/"/>
+    <hyperlink ref="D23" r:id="rId21" display="https://leetcode.com/problems/palindrome-linked-list/"/>
+    <hyperlink ref="D24" r:id="rId22" display="https://leetcode.com/problems/length-of-last-word/"/>
+    <hyperlink ref="D25" r:id="rId23" display="https://leetcode.com/problems/count-and-say/"/>
+    <hyperlink ref="D26" r:id="rId24" display="https://leetcode.com/problems/valid-parentheses/"/>
+    <hyperlink ref="D27" r:id="rId25" display="https://leetcode.com/problems/contains-duplicate-ii/"/>
+    <hyperlink ref="D28" r:id="rId26" display="https://leetcode.com/problems/word-pattern/"/>
+    <hyperlink ref="D29" r:id="rId27" display="https://leetcode.com/problems/intersection-of-two-linked-lists/"/>
+    <hyperlink ref="D30" r:id="rId28" display="https://leetcode.com/problems/merge-sorted-array/"/>
+    <hyperlink ref="D31" r:id="rId29" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/"/>
+    <hyperlink ref="D32" r:id="rId30" display="https://leetcode.com/problems/implement-stack-using-queues/"/>
+    <hyperlink ref="D33" r:id="rId31" display="https://leetcode.com/problems/rectangle-area/"/>
+    <hyperlink ref="D34" r:id="rId32" display="https://leetcode.com/problems/isomorphic-strings/"/>
+    <hyperlink ref="D35" r:id="rId33" display="https://leetcode.com/problems/binary-tree-paths/"/>
+    <hyperlink ref="D36" r:id="rId34" display="https://leetcode.com/problems/minimum-depth-of-binary-tree/"/>
+    <hyperlink ref="D37" r:id="rId35" display="https://leetcode.com/problems/guess-number-higher-or-lower/"/>
+    <hyperlink ref="D38" r:id="rId36" display="https://leetcode.com/problems/bulls-and-cows/"/>
+    <hyperlink ref="D39" r:id="rId37" display="https://leetcode.com/problems/path-sum/"/>
+    <hyperlink ref="D40" r:id="rId38" display="https://leetcode.com/problems/valid-sudoku/"/>
+    <hyperlink ref="D41" r:id="rId39" display="https://leetcode.com/problems/paint-fence/"/>
+    <hyperlink ref="D42" r:id="rId40" display="https://leetcode.com/problems/palindrome-number/"/>
+    <hyperlink ref="D43" r:id="rId41" display="https://leetcode.com/problems/pascals-triangle-ii/"/>
+    <hyperlink ref="D44" r:id="rId42" display="https://leetcode.com/problems/factorial-trailing-zeroes/"/>
+    <hyperlink ref="D45" r:id="rId43" display="https://leetcode.com/problems/group-shifted-strings/"/>
+    <hyperlink ref="D46" r:id="rId44" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array/"/>
+    <hyperlink ref="D47" r:id="rId45" display="https://leetcode.com/problems/implement-queue-using-stacks/"/>
+    <hyperlink ref="D48" r:id="rId46" display="https://leetcode.com/problems/binary-tree-level-order-traversal/"/>
+    <hyperlink ref="D49" r:id="rId47" display="https://leetcode.com/problems/pascals-triangle/"/>
+    <hyperlink ref="D50" r:id="rId48" display="https://leetcode.com/problems/balanced-binary-tree/"/>
+    <hyperlink ref="D51" r:id="rId49" display="https://leetcode.com/problems/symmetric-tree/"/>
+    <hyperlink ref="D52" r:id="rId50" display="https://leetcode.com/problems/remove-element/"/>
+    <hyperlink ref="D53" r:id="rId51" display="https://leetcode.com/problems/plus-one/"/>
+    <hyperlink ref="D54" r:id="rId52" display="https://leetcode.com/problems/binary-tree-level-order-traversal-ii/"/>
+    <hyperlink ref="D55" r:id="rId53" display="https://leetcode.com/problems/closest-binary-search-tree-value/"/>
+    <hyperlink ref="D56" r:id="rId54" display="https://leetcode.com/problems/house-robber/"/>
+    <hyperlink ref="D57" r:id="rId55" display="https://leetcode.com/problems/power-of-four/"/>
+    <hyperlink ref="D58" r:id="rId56" display="https://leetcode.com/problems/swap-nodes-in-pairs/"/>
+    <hyperlink ref="D59" r:id="rId57" display="https://leetcode.com/problems/reverse-vowels-of-a-string/"/>
+    <hyperlink ref="D60" r:id="rId58" display="https://leetcode.com/problems/linked-list-cycle/"/>
+    <hyperlink ref="D61" r:id="rId59" display="https://leetcode.com/problems/merge-two-sorted-lists/"/>
+    <hyperlink ref="D62" r:id="rId60" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/"/>
+    <hyperlink ref="D63" r:id="rId61" display="https://leetcode.com/problems/strobogrammatic-number/"/>
+    <hyperlink ref="D64" r:id="rId62" display="https://leetcode.com/problems/climbing-stairs/"/>
+    <hyperlink ref="D65" r:id="rId63" display="https://leetcode.com/problems/ugly-number/"/>
+    <hyperlink ref="D66" r:id="rId64" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/"/>
+    <hyperlink ref="D67" r:id="rId65" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/"/>
+    <hyperlink ref="D68" r:id="rId66" display="https://leetcode.com/problems/number-of-1-bits/"/>
+    <hyperlink ref="D69" r:id="rId67" display="https://leetcode.com/problems/happy-number/"/>
+    <hyperlink ref="D70" r:id="rId68" display="https://leetcode.com/problems/power-of-two/"/>
+    <hyperlink ref="D71" r:id="rId69" display="https://leetcode.com/problems/power-of-three/"/>
+    <hyperlink ref="D72" r:id="rId70" display="https://leetcode.com/problems/reverse-linked-list/"/>
+    <hyperlink ref="D73" r:id="rId71" display="https://leetcode.com/problems/roman-to-integer/"/>
+    <hyperlink ref="D74" r:id="rId72" display="https://leetcode.com/problems/intersection-of-two-arrays-ii/"/>
+    <hyperlink ref="D75" r:id="rId73" display="https://leetcode.com/problems/contains-duplicate/"/>
+    <hyperlink ref="D76" r:id="rId74" display="https://leetcode.com/problems/majority-element/"/>
+    <hyperlink ref="D77" r:id="rId75" display="https://leetcode.com/problems/meeting-rooms/"/>
+    <hyperlink ref="D78" r:id="rId76" display="https://leetcode.com/problems/valid-anagram/"/>
+    <hyperlink ref="D79" r:id="rId77" display="https://leetcode.com/problems/excel-sheet-column-number/"/>
+    <hyperlink ref="D80" r:id="rId78" display="https://leetcode.com/problems/same-tree/"/>
+    <hyperlink ref="D81" r:id="rId79" display="https://leetcode.com/problems/ransom-note/"/>
+    <hyperlink ref="D82" r:id="rId80" display="https://leetcode.com/problems/delete-node-in-a-linked-list/"/>
+    <hyperlink ref="D83" r:id="rId81" display="https://leetcode.com/problems/intersection-of-two-arrays/"/>
+    <hyperlink ref="D84" r:id="rId82" display="https://leetcode.com/problems/move-zeroes/"/>
+    <hyperlink ref="D85" r:id="rId83" display="https://leetcode.com/problems/invert-binary-tree/"/>
+    <hyperlink ref="D86" r:id="rId84" display="https://leetcode.com/problems/shortest-word-distance/"/>
+    <hyperlink ref="D87" r:id="rId85" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/"/>
+    <hyperlink ref="D88" r:id="rId86" display="https://leetcode.com/problems/add-digits/"/>
+    <hyperlink ref="D89" r:id="rId87" display="https://leetcode.com/problems/flip-game/"/>
+    <hyperlink ref="D90" r:id="rId88" display="https://leetcode.com/problems/sum-of-two-integers/"/>
+    <hyperlink ref="D91" r:id="rId89" display="https://leetcode.com/problems/palindrome-permutation/"/>
+    <hyperlink ref="D92" r:id="rId90" display="https://leetcode.com/problems/nim-game/"/>
+    <hyperlink ref="D93" r:id="rId91" display="https://leetcode.com/problems/moving-average-from-data-stream/"/>
+    <hyperlink ref="D94" r:id="rId92" display="https://leetcode.com/problems/logger-rate-limiter/"/>
+    <hyperlink ref="D95" r:id="rId93" display="https://leetcode.com/problems/nested-list-weight-sum/"/>
+    <hyperlink ref="D96" r:id="rId94" display="https://leetcode.com/problems/reverse-string/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B2" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="2:7" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18">
+        <v>65</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0.124</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21">
+        <v>126</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18">
+        <v>149</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21">
+        <v>146</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0.158</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18">
+        <v>68</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21">
+        <v>44</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18">
+        <v>4</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21">
+        <v>273</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18">
+        <v>212</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21">
+        <v>140</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18">
+        <v>308</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21">
+        <v>214</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="E14" s="23">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="30.75" thickBot="1">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18">
+        <v>30</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21">
+        <v>174</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="23">
+        <v>0.219</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18">
+        <v>335</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0.22</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21">
+        <v>336</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0.221</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18">
+        <v>76</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="E19" s="20">
+        <v>0.222</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21">
+        <v>321</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="E20" s="23">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18">
+        <v>132</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E21" s="20">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21">
+        <v>295</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18">
+        <v>10</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21">
+        <v>32</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="E24" s="23">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18">
+        <v>188</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21">
+        <v>97</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="E26" s="23">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18">
+        <v>135</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="E27" s="20">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21">
+        <v>224</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="E28" s="23">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18">
+        <v>218</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" s="20">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="30.75" thickBot="1">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21">
+        <v>158</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="E30" s="23">
+        <v>0.24</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18">
+        <v>124</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" s="20">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21">
+        <v>41</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="E32" s="23">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18">
+        <v>85</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="E33" s="20">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21">
+        <v>23</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" s="23">
+        <v>0.245</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18">
+        <v>269</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="E35" s="20">
+        <v>0.247</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21">
+        <v>57</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="E36" s="23">
+        <v>0.248</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18">
+        <v>84</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="E37" s="20">
+        <v>0.249</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21">
+        <v>45</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="E38" s="23">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18">
+        <v>233</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="E39" s="20">
+        <v>0.26</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21">
+        <v>138</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="23">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18">
+        <v>37</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="E41" s="20">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B42" s="21"/>
+      <c r="C42" s="21">
+        <v>282</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="E42" s="23">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18">
+        <v>56</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43" s="20">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21">
+        <v>316</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="E44" s="23">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18">
+        <v>51</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="E45" s="20">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21">
+        <v>327</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="E46" s="23">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B47" s="18"/>
+      <c r="C47" s="18">
+        <v>123</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="E47" s="20">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B48" s="21"/>
+      <c r="C48" s="21">
+        <v>87</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="E48" s="23">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B49" s="18"/>
+      <c r="C49" s="18">
+        <v>99</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="E49" s="20">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B50" s="21"/>
+      <c r="C50" s="21">
+        <v>164</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E50" s="23">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B51" s="18"/>
+      <c r="C51" s="18">
+        <v>25</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="E51" s="20">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B52" s="21"/>
+      <c r="C52" s="21">
+        <v>248</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="E52" s="23">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B53" s="18"/>
+      <c r="C53" s="18">
+        <v>239</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E53" s="20">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B54" s="21"/>
+      <c r="C54" s="21">
+        <v>358</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E54" s="23">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="30.75" thickBot="1">
+      <c r="B55" s="18"/>
+      <c r="C55" s="18">
+        <v>297</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E55" s="20">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B56" s="21"/>
+      <c r="C56" s="21">
+        <v>72</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="E56" s="23">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B57" s="18"/>
+      <c r="C57" s="18">
+        <v>115</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="E57" s="20">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="30.75" thickBot="1">
+      <c r="B58" s="21"/>
+      <c r="C58" s="21">
+        <v>363</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="E58" s="23">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B59" s="18"/>
+      <c r="C59" s="18">
+        <v>354</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="E59" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="30.75" thickBot="1">
+      <c r="B60" s="21"/>
+      <c r="C60" s="21">
+        <v>381</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="E60" s="23">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B61" s="18"/>
+      <c r="C61" s="18">
+        <v>330</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="E61" s="20">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B62" s="21"/>
+      <c r="C62" s="21">
+        <v>33</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E62" s="23">
+        <v>0.31</v>
+      </c>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="30.75" thickBot="1">
+      <c r="B63" s="18"/>
+      <c r="C63" s="18">
+        <v>315</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="E63" s="20">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="30.75" thickBot="1">
+      <c r="B64" s="21"/>
+      <c r="C64" s="21">
+        <v>317</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="E64" s="23">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="30.75" thickBot="1">
+      <c r="B65" s="18"/>
+      <c r="C65" s="18">
+        <v>117</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E65" s="20">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B66" s="21"/>
+      <c r="C66" s="21">
+        <v>301</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="E66" s="23">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B67" s="18"/>
+      <c r="C67" s="18">
+        <v>329</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="E67" s="20">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B68" s="21"/>
+      <c r="C68" s="21">
+        <v>42</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="E68" s="23">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B69" s="18"/>
+      <c r="C69" s="18">
+        <v>128</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="E69" s="20">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B70" s="21"/>
+      <c r="C70" s="21">
+        <v>380</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="E70" s="23">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B71" s="18"/>
+      <c r="C71" s="18">
+        <v>272</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="E71" s="20">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="30.75" thickBot="1">
+      <c r="B72" s="21"/>
+      <c r="C72" s="21">
+        <v>154</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="E72" s="23">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B73" s="18"/>
+      <c r="C73" s="18">
+        <v>305</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="E73" s="20">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B74" s="21"/>
+      <c r="C74" s="21">
+        <v>291</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="E74" s="23">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B75" s="18"/>
+      <c r="C75" s="18">
+        <v>265</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="E75" s="20">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" ht="30.75" thickBot="1">
+      <c r="B76" s="21"/>
+      <c r="C76" s="21">
+        <v>159</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="E76" s="23">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B77" s="18"/>
+      <c r="C77" s="18">
+        <v>145</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="E77" s="20">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B78" s="21"/>
+      <c r="C78" s="21">
+        <v>352</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="E78" s="23">
+        <v>0.379</v>
+      </c>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" ht="30.75" thickBot="1">
+      <c r="B79" s="18"/>
+      <c r="C79" s="18">
+        <v>340</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="E79" s="20">
+        <v>0.39</v>
+      </c>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B80" s="21"/>
+      <c r="C80" s="21">
+        <v>312</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="E80" s="23">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B81" s="18"/>
+      <c r="C81" s="18">
+        <v>287</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="E81" s="20">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B82" s="21"/>
+      <c r="C82" s="21">
+        <v>52</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="E82" s="23">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="30.75" thickBot="1">
+      <c r="B83" s="18"/>
+      <c r="C83" s="18">
+        <v>302</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="E83" s="20">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="21"/>
+      <c r="C84" s="21">
+        <v>296</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="E84" s="23">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="F84" s="24"/>
+      <c r="G84" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://leetcode.com/problemset/algorithms/"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://leetcode.com/problemset/algorithms/"/>
+    <hyperlink ref="D2" r:id="rId3" display="https://leetcode.com/problemset/algorithms/"/>
+    <hyperlink ref="E2" r:id="rId4" display="https://leetcode.com/problemset/algorithms/"/>
+    <hyperlink ref="F2" r:id="rId5" display="https://leetcode.com/problemset/algorithms/"/>
+    <hyperlink ref="D3" r:id="rId6" display="https://leetcode.com/problems/valid-number/"/>
+    <hyperlink ref="D4" r:id="rId7" display="https://leetcode.com/problems/word-ladder-ii/"/>
+    <hyperlink ref="D5" r:id="rId8" display="https://leetcode.com/problems/max-points-on-a-line/"/>
+    <hyperlink ref="D6" r:id="rId9" display="https://leetcode.com/problems/lru-cache/"/>
+    <hyperlink ref="D7" r:id="rId10" display="https://leetcode.com/problems/text-justification/"/>
+    <hyperlink ref="D8" r:id="rId11" display="https://leetcode.com/problems/wildcard-matching/"/>
+    <hyperlink ref="D9" r:id="rId12" display="https://leetcode.com/problems/median-of-two-sorted-arrays/"/>
+    <hyperlink ref="D10" r:id="rId13" display="https://leetcode.com/problems/integer-to-english-words/"/>
+    <hyperlink ref="D11" r:id="rId14" display="https://leetcode.com/problems/word-search-ii/"/>
+    <hyperlink ref="D12" r:id="rId15" display="https://leetcode.com/problems/word-break-ii/"/>
+    <hyperlink ref="D13" r:id="rId16" display="https://leetcode.com/problems/range-sum-query-2d-mutable/"/>
+    <hyperlink ref="D14" r:id="rId17" display="https://leetcode.com/problems/shortest-palindrome/"/>
+    <hyperlink ref="D15" r:id="rId18" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words/"/>
+    <hyperlink ref="D16" r:id="rId19" display="https://leetcode.com/problems/dungeon-game/"/>
+    <hyperlink ref="D17" r:id="rId20" display="https://leetcode.com/problems/self-crossing/"/>
+    <hyperlink ref="D18" r:id="rId21" display="https://leetcode.com/problems/palindrome-pairs/"/>
+    <hyperlink ref="D19" r:id="rId22" display="https://leetcode.com/problems/minimum-window-substring/"/>
+    <hyperlink ref="D20" r:id="rId23" display="https://leetcode.com/problems/create-maximum-number/"/>
+    <hyperlink ref="D21" r:id="rId24" display="https://leetcode.com/problems/palindrome-partitioning-ii/"/>
+    <hyperlink ref="D22" r:id="rId25" display="https://leetcode.com/problems/find-median-from-data-stream/"/>
+    <hyperlink ref="D23" r:id="rId26" display="https://leetcode.com/problems/regular-expression-matching/"/>
+    <hyperlink ref="D24" r:id="rId27" display="https://leetcode.com/problems/longest-valid-parentheses/"/>
+    <hyperlink ref="D25" r:id="rId28" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv/"/>
+    <hyperlink ref="D26" r:id="rId29" display="https://leetcode.com/problems/interleaving-string/"/>
+    <hyperlink ref="D27" r:id="rId30" display="https://leetcode.com/problems/candy/"/>
+    <hyperlink ref="D28" r:id="rId31" display="https://leetcode.com/problems/basic-calculator/"/>
+    <hyperlink ref="D29" r:id="rId32" display="https://leetcode.com/problems/the-skyline-problem/"/>
+    <hyperlink ref="D30" r:id="rId33" display="https://leetcode.com/problems/read-n-characters-given-read4-ii-call-multiple-times/"/>
+    <hyperlink ref="D31" r:id="rId34" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/"/>
+    <hyperlink ref="D32" r:id="rId35" display="https://leetcode.com/problems/first-missing-positive/"/>
+    <hyperlink ref="D33" r:id="rId36" display="https://leetcode.com/problems/maximal-rectangle/"/>
+    <hyperlink ref="D34" r:id="rId37" display="https://leetcode.com/problems/merge-k-sorted-lists/"/>
+    <hyperlink ref="D35" r:id="rId38" display="https://leetcode.com/problems/alien-dictionary/"/>
+    <hyperlink ref="D36" r:id="rId39" display="https://leetcode.com/problems/insert-interval/"/>
+    <hyperlink ref="D37" r:id="rId40" display="https://leetcode.com/problems/largest-rectangle-in-histogram/"/>
+    <hyperlink ref="D38" r:id="rId41" display="https://leetcode.com/problems/jump-game-ii/"/>
+    <hyperlink ref="D39" r:id="rId42" display="https://leetcode.com/problems/number-of-digit-one/"/>
+    <hyperlink ref="D40" r:id="rId43" display="https://leetcode.com/problems/copy-list-with-random-pointer/"/>
+    <hyperlink ref="D41" r:id="rId44" display="https://leetcode.com/problems/sudoku-solver/"/>
+    <hyperlink ref="D42" r:id="rId45" display="https://leetcode.com/problems/expression-add-operators/"/>
+    <hyperlink ref="D43" r:id="rId46" display="https://leetcode.com/problems/merge-intervals/"/>
+    <hyperlink ref="D44" r:id="rId47" display="https://leetcode.com/problems/remove-duplicate-letters/"/>
+    <hyperlink ref="D45" r:id="rId48" display="https://leetcode.com/problems/n-queens/"/>
+    <hyperlink ref="D46" r:id="rId49" display="https://leetcode.com/problems/count-of-range-sum/"/>
+    <hyperlink ref="D47" r:id="rId50" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iii/"/>
+    <hyperlink ref="D48" r:id="rId51" display="https://leetcode.com/problems/scramble-string/"/>
+    <hyperlink ref="D49" r:id="rId52" display="https://leetcode.com/problems/recover-binary-search-tree/"/>
+    <hyperlink ref="D50" r:id="rId53" display="https://leetcode.com/problems/maximum-gap/"/>
+    <hyperlink ref="D51" r:id="rId54" display="https://leetcode.com/problems/reverse-nodes-in-k-group/"/>
+    <hyperlink ref="D52" r:id="rId55" display="https://leetcode.com/problems/strobogrammatic-number-iii/"/>
+    <hyperlink ref="D53" r:id="rId56" display="https://leetcode.com/problems/sliding-window-maximum/"/>
+    <hyperlink ref="D54" r:id="rId57" display="https://leetcode.com/problems/rearrange-string-k-distance-apart/"/>
+    <hyperlink ref="D55" r:id="rId58" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree/"/>
+    <hyperlink ref="D56" r:id="rId59" display="https://leetcode.com/problems/edit-distance/"/>
+    <hyperlink ref="D57" r:id="rId60" display="https://leetcode.com/problems/distinct-subsequences/"/>
+    <hyperlink ref="D58" r:id="rId61" display="https://leetcode.com/problems/max-sum-of-sub-matrix-no-larger-than-k/"/>
+    <hyperlink ref="D59" r:id="rId62" display="https://leetcode.com/problems/russian-doll-envelopes/"/>
+    <hyperlink ref="D60" r:id="rId63" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/"/>
+    <hyperlink ref="D61" r:id="rId64" display="https://leetcode.com/problems/patching-array/"/>
+    <hyperlink ref="D62" r:id="rId65" display="https://leetcode.com/problems/search-in-rotated-sorted-array/"/>
+    <hyperlink ref="D63" r:id="rId66" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self/"/>
+    <hyperlink ref="D64" r:id="rId67" display="https://leetcode.com/problems/shortest-distance-from-all-buildings/"/>
+    <hyperlink ref="D65" r:id="rId68" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii/"/>
+    <hyperlink ref="D66" r:id="rId69" display="https://leetcode.com/problems/remove-invalid-parentheses/"/>
+    <hyperlink ref="D67" r:id="rId70" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix/"/>
+    <hyperlink ref="D68" r:id="rId71" display="https://leetcode.com/problems/trapping-rain-water/"/>
+    <hyperlink ref="D69" r:id="rId72" display="https://leetcode.com/problems/longest-consecutive-sequence/"/>
+    <hyperlink ref="D70" r:id="rId73" display="https://leetcode.com/problems/insert-delete-getrandom-o1/"/>
+    <hyperlink ref="D71" r:id="rId74" display="https://leetcode.com/problems/closest-binary-search-tree-value-ii/"/>
+    <hyperlink ref="D72" r:id="rId75" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii/"/>
+    <hyperlink ref="D73" r:id="rId76" display="https://leetcode.com/problems/number-of-islands-ii/"/>
+    <hyperlink ref="D74" r:id="rId77" display="https://leetcode.com/problems/word-pattern-ii/"/>
+    <hyperlink ref="D75" r:id="rId78" display="https://leetcode.com/problems/paint-house-ii/"/>
+    <hyperlink ref="D76" r:id="rId79" display="https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters/"/>
+    <hyperlink ref="D77" r:id="rId80" display="https://leetcode.com/problems/binary-tree-postorder-traversal/"/>
+    <hyperlink ref="D78" r:id="rId81" display="https://leetcode.com/problems/data-stream-as-disjoint-intervals/"/>
+    <hyperlink ref="D79" r:id="rId82" display="https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters/"/>
+    <hyperlink ref="D80" r:id="rId83" display="https://leetcode.com/problems/burst-balloons/"/>
+    <hyperlink ref="D81" r:id="rId84" display="https://leetcode.com/problems/find-the-duplicate-number/"/>
+    <hyperlink ref="D82" r:id="rId85" display="https://leetcode.com/problems/n-queens-ii/"/>
+    <hyperlink ref="D83" r:id="rId86" display="https://leetcode.com/problems/smallest-rectangle-enclosing-black-pixels/"/>
+    <hyperlink ref="D84" r:id="rId87" display="https://leetcode.com/problems/best-meeting-point/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId88"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
@@ -3541,7 +10882,7 @@
     <col min="7" max="7" width="60.7109375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:7" ht="20.25">
       <c r="C2" s="8" t="s">
         <v>155</v>
       </c>
@@ -3558,7 +10899,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:7" ht="20.25">
       <c r="C3" s="9">
         <v>206</v>
       </c>
@@ -3571,7 +10912,7 @@
       </c>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" ht="20.25">
       <c r="C4" s="9">
         <v>151</v>
       </c>
@@ -3584,7 +10925,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" ht="20.25">
       <c r="C5" s="9">
         <v>1</v>
       </c>
@@ -3597,7 +10938,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" ht="20.25">
       <c r="C6" s="9">
         <v>138</v>
       </c>
@@ -3610,7 +10951,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" ht="20.25">
       <c r="C7" s="9">
         <v>8</v>
       </c>
@@ -3625,7 +10966,7 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:7" ht="30">
       <c r="C8" s="9">
         <v>235</v>
       </c>
@@ -3642,7 +10983,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7" ht="20.25">
       <c r="C9" s="9">
         <v>75</v>
       </c>
@@ -3657,7 +10998,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:7" ht="20.25">
       <c r="C10" s="9">
         <v>2</v>
       </c>
@@ -3670,7 +11011,7 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:7" ht="20.25">
       <c r="C11" s="9">
         <v>141</v>
       </c>
@@ -3683,7 +11024,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:7" ht="40.5">
       <c r="C12" s="9">
         <v>171</v>
       </c>
@@ -3698,7 +11039,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:7" ht="20.25">
       <c r="C13" s="9">
         <v>88</v>
       </c>
@@ -3711,7 +11052,7 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="3:7" ht="81" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:7" ht="81">
       <c r="C14" s="9">
         <v>98</v>
       </c>
@@ -3726,7 +11067,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:7" ht="20.25">
       <c r="C15" s="9">
         <v>4</v>
       </c>
@@ -3743,7 +11084,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:7" ht="20.25">
       <c r="C16" s="9">
         <v>200</v>
       </c>
@@ -3758,7 +11099,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="20.25">
       <c r="C17" s="9">
         <v>21</v>
       </c>
@@ -3771,7 +11112,7 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" ht="40.5">
       <c r="C18" s="9">
         <v>146</v>
       </c>
@@ -3786,7 +11127,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="3:7" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" ht="101.25">
       <c r="C19" s="9">
         <v>54</v>
       </c>
@@ -3801,7 +11142,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="3:7" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" ht="60.75">
       <c r="C20" s="9">
         <v>53</v>
       </c>
@@ -3816,7 +11157,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="21" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" ht="20.25">
       <c r="C21" s="9">
         <v>237</v>
       </c>
@@ -3829,7 +11170,7 @@
       </c>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="3:7" ht="81" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" ht="81">
       <c r="C22" s="9">
         <v>273</v>
       </c>
@@ -3844,7 +11185,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" ht="20.25">
       <c r="C23" s="9">
         <v>20</v>
       </c>
@@ -3859,7 +11200,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="3:7" ht="81" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" ht="81">
       <c r="C24" s="9">
         <v>48</v>
       </c>
@@ -3874,7 +11215,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" ht="40.5">
       <c r="C25" s="9">
         <v>116</v>
       </c>
@@ -3889,7 +11230,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="26" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" ht="40.5">
       <c r="C26" s="9">
         <v>236</v>
       </c>
@@ -3904,7 +11245,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" ht="40.5">
       <c r="C27" s="9">
         <v>168</v>
       </c>
@@ -3919,7 +11260,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="28" spans="3:7" ht="81" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" ht="81">
       <c r="C28" s="9">
         <v>117</v>
       </c>
@@ -3934,7 +11275,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" ht="20.25">
       <c r="C29" s="9">
         <v>24</v>
       </c>
@@ -3949,7 +11290,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" ht="30">
       <c r="C30" s="9">
         <v>26</v>
       </c>
@@ -3964,7 +11305,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="31" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" ht="20.25">
       <c r="C31" s="9">
         <v>191</v>
       </c>
@@ -3979,7 +11320,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="32" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" ht="20.25">
       <c r="C32" s="9">
         <v>121</v>
       </c>
@@ -3994,7 +11335,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7" ht="20.25">
       <c r="C33" s="9">
         <v>15</v>
       </c>
@@ -4007,7 +11348,7 @@
       </c>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:7" ht="40.5">
       <c r="C34" s="9">
         <v>13</v>
       </c>
@@ -4022,7 +11363,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:7" ht="20.25">
       <c r="C35" s="9">
         <v>268</v>
       </c>
@@ -4037,7 +11378,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="36" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:7" ht="20.25">
       <c r="C36" s="9">
         <v>160</v>
       </c>
@@ -4052,7 +11393,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:7" ht="40.5">
       <c r="C37" s="9">
         <v>33</v>
       </c>
@@ -4067,7 +11408,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7" ht="20.25">
       <c r="C38" s="9">
         <v>218</v>
       </c>
@@ -4082,7 +11423,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="39" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" ht="60.75">
       <c r="C39" s="9">
         <v>5</v>
       </c>
@@ -4093,9 +11434,11 @@
       <c r="F39" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="G39" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" ht="40.5">
       <c r="C40" s="9">
         <v>215</v>
       </c>
@@ -4106,9 +11449,11 @@
       <c r="F40" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G40" s="14"/>
-    </row>
-    <row r="41" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="G40" s="14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" ht="81">
       <c r="C41" s="9">
         <v>238</v>
       </c>
@@ -4119,9 +11464,11 @@
       <c r="F41" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="G41" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" ht="141.75">
       <c r="C42" s="9">
         <v>73</v>
       </c>
@@ -4132,9 +11479,11 @@
       <c r="F42" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G42" s="14"/>
-    </row>
-    <row r="43" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G42" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" ht="40.5">
       <c r="C43" s="9">
         <v>102</v>
       </c>
@@ -4145,9 +11494,11 @@
       <c r="F43" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="14"/>
-    </row>
-    <row r="44" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="G43" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" ht="81">
       <c r="C44" s="9">
         <v>204</v>
       </c>
@@ -4158,9 +11509,11 @@
       <c r="F44" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="14"/>
-    </row>
-    <row r="45" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="G44" s="14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" ht="20.25">
       <c r="C45" s="9">
         <v>189</v>
       </c>
@@ -4171,9 +11524,11 @@
       <c r="F45" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="14"/>
-    </row>
-    <row r="46" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G45" s="14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" ht="30">
       <c r="C46" s="9">
         <v>153</v>
       </c>
@@ -4184,9 +11539,11 @@
       <c r="F46" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G46" s="14"/>
-    </row>
-    <row r="47" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="G46" s="14" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" ht="20.25">
       <c r="C47" s="9">
         <v>208</v>
       </c>
@@ -4199,7 +11556,7 @@
       </c>
       <c r="G47" s="14"/>
     </row>
-    <row r="48" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:7" ht="20.25">
       <c r="C48" s="9">
         <v>174</v>
       </c>
@@ -4212,7 +11569,7 @@
       </c>
       <c r="G48" s="14"/>
     </row>
-    <row r="49" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" ht="30">
       <c r="C49" s="9">
         <v>297</v>
       </c>
@@ -4225,7 +11582,7 @@
       </c>
       <c r="G49" s="14"/>
     </row>
-    <row r="50" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" ht="30">
       <c r="C50" s="9">
         <v>103</v>
       </c>
@@ -4238,7 +11595,7 @@
       </c>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" ht="20.25">
       <c r="C51" s="9">
         <v>212</v>
       </c>
@@ -4251,7 +11608,7 @@
       </c>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" ht="20.25">
       <c r="C52" s="9">
         <v>23</v>
       </c>
@@ -4264,7 +11621,7 @@
       </c>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" ht="20.25">
       <c r="C53" s="9">
         <v>79</v>
       </c>
@@ -4277,7 +11634,7 @@
       </c>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" ht="20.25">
       <c r="C54" s="9">
         <v>232</v>
       </c>
@@ -4290,7 +11647,7 @@
       </c>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" ht="20.25">
       <c r="C55" s="9">
         <v>101</v>
       </c>
@@ -4303,7 +11660,7 @@
       </c>
       <c r="G55" s="14"/>
     </row>
-    <row r="56" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" ht="20.25">
       <c r="C56" s="9">
         <v>173</v>
       </c>
@@ -4316,7 +11673,7 @@
       </c>
       <c r="G56" s="14"/>
     </row>
-    <row r="57" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" ht="30">
       <c r="C57" s="9">
         <v>106</v>
       </c>
@@ -4329,7 +11686,7 @@
       </c>
       <c r="G57" s="14"/>
     </row>
-    <row r="58" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" ht="20.25">
       <c r="C58" s="9">
         <v>186</v>
       </c>
@@ -4342,7 +11699,7 @@
       </c>
       <c r="G58" s="14"/>
     </row>
-    <row r="59" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" ht="20.25">
       <c r="C59" s="9">
         <v>125</v>
       </c>
@@ -4355,7 +11712,7 @@
       </c>
       <c r="G59" s="14"/>
     </row>
-    <row r="60" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" ht="20.25">
       <c r="C60" s="9">
         <v>165</v>
       </c>
@@ -4368,7 +11725,7 @@
       </c>
       <c r="G60" s="14"/>
     </row>
-    <row r="61" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" ht="20.25">
       <c r="C61" s="9">
         <v>25</v>
       </c>
@@ -4381,7 +11738,7 @@
       </c>
       <c r="G61" s="14"/>
     </row>
-    <row r="62" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" ht="20.25">
       <c r="C62" s="9">
         <v>71</v>
       </c>
@@ -4394,7 +11751,7 @@
       </c>
       <c r="G62" s="14"/>
     </row>
-    <row r="63" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" ht="20.25">
       <c r="C63" s="9">
         <v>162</v>
       </c>
@@ -4407,7 +11764,7 @@
       </c>
       <c r="G63" s="14"/>
     </row>
-    <row r="64" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" ht="20.25">
       <c r="C64" s="9">
         <v>258</v>
       </c>
@@ -4420,7 +11777,7 @@
       </c>
       <c r="G64" s="14"/>
     </row>
-    <row r="65" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:7" ht="20.25">
       <c r="C65" s="9">
         <v>94</v>
       </c>
@@ -4433,7 +11790,7 @@
       </c>
       <c r="G65" s="14"/>
     </row>
-    <row r="66" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:7" ht="20.25">
       <c r="C66" s="9">
         <v>112</v>
       </c>
@@ -4446,7 +11803,7 @@
       </c>
       <c r="G66" s="14"/>
     </row>
-    <row r="67" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:7" ht="20.25">
       <c r="C67" s="9">
         <v>46</v>
       </c>
@@ -4459,7 +11816,7 @@
       </c>
       <c r="G67" s="14"/>
     </row>
-    <row r="68" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:7" ht="20.25">
       <c r="C68" s="9">
         <v>91</v>
       </c>
@@ -4472,7 +11829,7 @@
       </c>
       <c r="G68" s="14"/>
     </row>
-    <row r="69" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:7" ht="20.25">
       <c r="C69" s="9">
         <v>28</v>
       </c>
@@ -4485,7 +11842,7 @@
       </c>
       <c r="G69" s="14"/>
     </row>
-    <row r="70" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:7" ht="20.25">
       <c r="C70" s="9">
         <v>124</v>
       </c>
@@ -4498,7 +11855,7 @@
       </c>
       <c r="G70" s="14"/>
     </row>
-    <row r="71" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:7" ht="20.25">
       <c r="C71" s="9">
         <v>56</v>
       </c>
@@ -4511,7 +11868,7 @@
       </c>
       <c r="G71" s="14"/>
     </row>
-    <row r="72" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:7" ht="20.25">
       <c r="C72" s="9">
         <v>348</v>
       </c>
@@ -4524,7 +11881,7 @@
       </c>
       <c r="G72" s="14"/>
     </row>
-    <row r="73" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:7" ht="20.25">
       <c r="C73" s="9">
         <v>47</v>
       </c>
@@ -4537,7 +11894,7 @@
       </c>
       <c r="G73" s="14"/>
     </row>
-    <row r="74" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:7" ht="20.25">
       <c r="C74" s="9">
         <v>285</v>
       </c>
@@ -4550,7 +11907,7 @@
       </c>
       <c r="G74" s="14"/>
     </row>
-    <row r="75" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:7" ht="20.25">
       <c r="C75" s="9">
         <v>365</v>
       </c>
@@ -4563,7 +11920,7 @@
       </c>
       <c r="G75" s="14"/>
     </row>
-    <row r="76" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:7" ht="30">
       <c r="C76" s="9">
         <v>270</v>
       </c>
@@ -4576,7 +11933,7 @@
       </c>
       <c r="G76" s="14"/>
     </row>
-    <row r="77" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:7" ht="20.25">
       <c r="C77" s="9">
         <v>333</v>
       </c>
@@ -4589,7 +11946,7 @@
       </c>
       <c r="G77" s="14"/>
     </row>
-    <row r="78" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:7" ht="20.25">
       <c r="C78" s="9">
         <v>213</v>
       </c>
@@ -4602,7 +11959,7 @@
       </c>
       <c r="G78" s="14"/>
     </row>
-    <row r="79" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:7" ht="30">
       <c r="C79" s="9">
         <v>114</v>
       </c>
@@ -4615,7 +11972,7 @@
       </c>
       <c r="G79" s="14"/>
     </row>
-    <row r="80" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:7" ht="20.25">
       <c r="C80" s="9">
         <v>55</v>
       </c>
@@ -4628,7 +11985,7 @@
       </c>
       <c r="G80" s="14"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6">
       <c r="C81" s="9">
         <v>300</v>
       </c>
@@ -4640,7 +11997,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6">
       <c r="B84" t="s">
         <v>240</v>
       </c>
@@ -4648,47 +12005,47 @@
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6">
       <c r="D85" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6">
       <c r="D86" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6">
       <c r="D87" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6">
       <c r="D88" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6">
       <c r="D89" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6">
       <c r="D90" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6">
       <c r="D91" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6">
       <c r="D92" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6">
       <c r="D93" t="s">
         <v>250</v>
       </c>

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11835" tabRatio="561" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11835" tabRatio="561" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="datelist" sheetId="2" state="hidden" r:id="rId1"/>
-    <sheet name="lintcode-Special" sheetId="3" r:id="rId2"/>
-    <sheet name="lintcode-EASY" sheetId="1" r:id="rId3"/>
-    <sheet name="lintcode-Medium" sheetId="4" r:id="rId4"/>
-    <sheet name="leetcode-Medium" sheetId="7" r:id="rId5"/>
-    <sheet name="leetcode-Easy" sheetId="8" r:id="rId6"/>
-    <sheet name="leetcode-Hard" sheetId="6" r:id="rId7"/>
-    <sheet name="Microsoft" sheetId="5" r:id="rId8"/>
+    <sheet name="lintcode-contest" sheetId="9" r:id="rId2"/>
+    <sheet name="lintcode-Special" sheetId="3" r:id="rId3"/>
+    <sheet name="lintcode-EASY" sheetId="1" r:id="rId4"/>
+    <sheet name="lintcode-Medium" sheetId="4" r:id="rId5"/>
+    <sheet name="leetcode-Medium" sheetId="7" r:id="rId6"/>
+    <sheet name="leetcode-Easy" sheetId="8" r:id="rId7"/>
+    <sheet name="leetcode-Hard" sheetId="6" r:id="rId8"/>
+    <sheet name="Microsoft" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="597">
   <si>
     <t>420. Count and Say</t>
   </si>
@@ -1800,12 +1801,76 @@
   <si>
     <t>target = nums[end]</t>
   </si>
+  <si>
+    <t>1. serialize: flatten treenode to arraylist, once curt node== null then continue; otherwise add left and right; trailing null of end, finally iterate all element of list
+2. deserialize: split to val array, ArrayList to tracking all of node, index mark level, isLeft mark left or right, iterate val array: non "null" then according isLeft to add left or right, if right then index++ to next parent node, swap isleft to change 
+Queue implement is more readable when serialize, but deserialize implemented by for loop and list is readable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREESET HASHSET LINKEDHASHSET </t>
+  </si>
+  <si>
+    <t>http://www.programcreek.com/2013/03/hashset-vs-treeset-vs-linkedhashset/</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Trie structure: using 26 size array to store 26 alphabet. Not store char, depends specify position is null or not null
+search: recursive forward index to generate next level children, if index == length then completeword
+find: recursive to find which level was not null, and only last level node has completeword</t>
+  </si>
+  <si>
+    <t>from Pricess position to find up(down) and left(right) which minimum HP
+Compare with 1, because Knight only live when he has more than 0.</t>
+  </si>
+  <si>
+    <t>1. queue, leftDirection: Collections.reverse
+2. double stack, iterate current  push to next, when current level stack is empty, current = next;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DP find equals startwith first char of word in board, find function is recursive, 
+1. EXIT: index = word.length
+2. check :x,y must in board, char index of word equal board x-y char
+3. using special char to fill board x-y, thus doesnot visited again.
+4. recursive means :up, down, left, right four directions to find next index
+5. backtracking original char of board x-y
+</t>
+  </si>
+  <si>
+    <t>Trie: with trie tree study together</t>
+  </si>
+  <si>
+    <t>1. Divide Conquer : two part helper -&gt; start, mid ;  mid + 1, end; merge two lists. Also can using merge two each
+2. Heap, PriorityQueue offer head of list, then put minimum head.next into pq</t>
+  </si>
+  <si>
+    <t>flatten list</t>
+  </si>
+  <si>
+    <t>copyBinaryTree</t>
+  </si>
+  <si>
+    <t>reorder int array</t>
+  </si>
+  <si>
+    <t>dice sum</t>
+  </si>
+  <si>
+    <t>recursive</t>
+  </si>
+  <si>
+    <t>comparator: ab.compareTo(ba)</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1864,6 +1929,13 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="FontAwesome"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1941,7 +2013,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
@@ -2008,6 +2080,10 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2402,10 +2478,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>591</v>
+      </c>
+      <c r="D3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>592</v>
+      </c>
+      <c r="D4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>593</v>
+      </c>
+      <c r="D5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2482,1182 +2622,6 @@
     <row r="7" spans="1:10">
       <c r="C7" t="s">
         <v>278</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>datelist!$A$1:$A$19</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:J1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="1" customWidth="1"/>
-    <col min="5" max="10" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1">
-        <v>42595</v>
-      </c>
-      <c r="E2" s="1">
-        <v>42596</v>
-      </c>
-      <c r="F2" s="1">
-        <v>42597</v>
-      </c>
-      <c r="G2" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H2" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <v>42595</v>
-      </c>
-      <c r="E3" s="1">
-        <v>42596</v>
-      </c>
-      <c r="F3" s="1">
-        <v>42597</v>
-      </c>
-      <c r="G3" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H3" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1">
-        <v>42595</v>
-      </c>
-      <c r="E4" s="1">
-        <v>42596</v>
-      </c>
-      <c r="F4" s="1">
-        <v>42597</v>
-      </c>
-      <c r="G4" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H4" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
-        <v>42595</v>
-      </c>
-      <c r="E5" s="1">
-        <v>42596</v>
-      </c>
-      <c r="F5" s="1">
-        <v>42597</v>
-      </c>
-      <c r="G5" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H5" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1">
-        <v>42595</v>
-      </c>
-      <c r="E6" s="1">
-        <v>42596</v>
-      </c>
-      <c r="F6" s="1">
-        <v>42597</v>
-      </c>
-      <c r="G6" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H6" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1">
-        <v>42595</v>
-      </c>
-      <c r="E7" s="1">
-        <v>42596</v>
-      </c>
-      <c r="F7" s="1">
-        <v>42597</v>
-      </c>
-      <c r="G7" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H7" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1">
-        <v>42595</v>
-      </c>
-      <c r="E8" s="1">
-        <v>42596</v>
-      </c>
-      <c r="F8" s="1">
-        <v>42597</v>
-      </c>
-      <c r="G8" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H8" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>42595</v>
-      </c>
-      <c r="E9" s="1">
-        <v>42596</v>
-      </c>
-      <c r="F9" s="1">
-        <v>42597</v>
-      </c>
-      <c r="G9" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H9" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1">
-        <v>42596</v>
-      </c>
-      <c r="E10" s="1">
-        <v>42597</v>
-      </c>
-      <c r="F10" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H10" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1">
-        <v>42596</v>
-      </c>
-      <c r="E11" s="1">
-        <v>42597</v>
-      </c>
-      <c r="F11" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H11" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1">
-        <v>42596</v>
-      </c>
-      <c r="E12" s="1">
-        <v>42597</v>
-      </c>
-      <c r="F12" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H12" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1">
-        <v>42596</v>
-      </c>
-      <c r="E13" s="1">
-        <v>42597</v>
-      </c>
-      <c r="F13" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H13" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>42596</v>
-      </c>
-      <c r="E14" s="1">
-        <v>42597</v>
-      </c>
-      <c r="F14" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H14" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="1">
-        <v>42596</v>
-      </c>
-      <c r="E15" s="1">
-        <v>42597</v>
-      </c>
-      <c r="F15" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H15" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1">
-        <v>42596</v>
-      </c>
-      <c r="E16" s="1">
-        <v>42597</v>
-      </c>
-      <c r="F16" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H16" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1">
-        <v>42596</v>
-      </c>
-      <c r="E17" s="1">
-        <v>42597</v>
-      </c>
-      <c r="F17" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H17" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="1">
-        <v>42596</v>
-      </c>
-      <c r="E18" s="1">
-        <v>42597</v>
-      </c>
-      <c r="F18" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H18" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="1">
-        <v>42596</v>
-      </c>
-      <c r="E19" s="1">
-        <v>42597</v>
-      </c>
-      <c r="F19" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H19" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="1">
-        <v>42596</v>
-      </c>
-      <c r="E20" s="1">
-        <v>42597</v>
-      </c>
-      <c r="F20" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H20" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="1">
-        <v>42596</v>
-      </c>
-      <c r="E21" s="1">
-        <v>42597</v>
-      </c>
-      <c r="F21" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H21" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="1">
-        <v>42596</v>
-      </c>
-      <c r="E22" s="1">
-        <v>42597</v>
-      </c>
-      <c r="F22" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H22" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="1">
-        <v>42596</v>
-      </c>
-      <c r="E23" s="1">
-        <v>42597</v>
-      </c>
-      <c r="F23" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H23" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="1">
-        <v>42596</v>
-      </c>
-      <c r="E24" s="1">
-        <v>42597</v>
-      </c>
-      <c r="F24" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H24" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="1">
-        <v>42596</v>
-      </c>
-      <c r="E25" s="1">
-        <v>42597</v>
-      </c>
-      <c r="F25" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H25" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="1">
-        <v>42596</v>
-      </c>
-      <c r="E26" s="1">
-        <v>42597</v>
-      </c>
-      <c r="F26" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H26" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="1">
-        <v>42597</v>
-      </c>
-      <c r="E27" s="1">
-        <v>42598</v>
-      </c>
-      <c r="F27" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H27" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="1">
-        <v>42597</v>
-      </c>
-      <c r="E28" s="1">
-        <v>42598</v>
-      </c>
-      <c r="F28" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H28" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="1">
-        <v>42597</v>
-      </c>
-      <c r="E29" s="1">
-        <v>42598</v>
-      </c>
-      <c r="F29" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H29" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="1">
-        <v>42597</v>
-      </c>
-      <c r="E30" s="1">
-        <v>42598</v>
-      </c>
-      <c r="F30" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H30" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="1">
-        <v>42597</v>
-      </c>
-      <c r="E31" s="1">
-        <v>42598</v>
-      </c>
-      <c r="F31" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H31" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="1">
-        <v>42597</v>
-      </c>
-      <c r="E32" s="1">
-        <v>42598</v>
-      </c>
-      <c r="F32" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H32" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="1">
-        <v>42597</v>
-      </c>
-      <c r="E33" s="1">
-        <v>42598</v>
-      </c>
-      <c r="F33" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H33" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="1">
-        <v>42597</v>
-      </c>
-      <c r="E34" s="1">
-        <v>42598</v>
-      </c>
-      <c r="F34" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H34" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="1">
-        <v>42597</v>
-      </c>
-      <c r="E35" s="1">
-        <v>42598</v>
-      </c>
-      <c r="F35" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H35" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="1">
-        <v>42597</v>
-      </c>
-      <c r="E36" s="1">
-        <v>42598</v>
-      </c>
-      <c r="F36" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H36" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="1">
-        <v>42597</v>
-      </c>
-      <c r="E37" s="1">
-        <v>42598</v>
-      </c>
-      <c r="F37" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H37" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="1">
-        <v>42597</v>
-      </c>
-      <c r="E38" s="1">
-        <v>42598</v>
-      </c>
-      <c r="F38" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H38" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="1">
-        <v>42597</v>
-      </c>
-      <c r="E39" s="1">
-        <v>42598</v>
-      </c>
-      <c r="F39" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H39" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="1">
-        <v>42597</v>
-      </c>
-      <c r="E40" s="1">
-        <v>42598</v>
-      </c>
-      <c r="F40" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H40" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="1">
-        <v>42597</v>
-      </c>
-      <c r="E41" s="1">
-        <v>42598</v>
-      </c>
-      <c r="F41" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H41" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="1">
-        <v>42597</v>
-      </c>
-      <c r="E42" s="1">
-        <v>42598</v>
-      </c>
-      <c r="F42" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H42" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="1">
-        <v>42597</v>
-      </c>
-      <c r="E43" s="1">
-        <v>42598</v>
-      </c>
-      <c r="F43" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H43" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="1">
-        <v>42597</v>
-      </c>
-      <c r="E44" s="1">
-        <v>42598</v>
-      </c>
-      <c r="F44" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H44" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="1">
-        <v>42597</v>
-      </c>
-      <c r="E45" s="1">
-        <v>42598</v>
-      </c>
-      <c r="F45" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H45" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="1">
-        <v>42597</v>
-      </c>
-      <c r="E46" s="1">
-        <v>42598</v>
-      </c>
-      <c r="F46" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H46" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="1">
-        <v>42597</v>
-      </c>
-      <c r="E47" s="1">
-        <v>42598</v>
-      </c>
-      <c r="F47" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H47" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="1">
-        <v>42597</v>
-      </c>
-      <c r="E48" s="1">
-        <v>42598</v>
-      </c>
-      <c r="F48" s="1">
-        <v>42598</v>
-      </c>
-      <c r="H48" s="1">
-        <v>42599</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3">
-      <c r="C57" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3680,6 +2644,1182 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="1" customWidth="1"/>
+    <col min="5" max="10" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42595</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42596</v>
+      </c>
+      <c r="F2" s="1">
+        <v>42597</v>
+      </c>
+      <c r="G2" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H2" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>42595</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42596</v>
+      </c>
+      <c r="F3" s="1">
+        <v>42597</v>
+      </c>
+      <c r="G3" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H3" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42595</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42596</v>
+      </c>
+      <c r="F4" s="1">
+        <v>42597</v>
+      </c>
+      <c r="G4" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H4" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>42595</v>
+      </c>
+      <c r="E5" s="1">
+        <v>42596</v>
+      </c>
+      <c r="F5" s="1">
+        <v>42597</v>
+      </c>
+      <c r="G5" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H5" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42595</v>
+      </c>
+      <c r="E6" s="1">
+        <v>42596</v>
+      </c>
+      <c r="F6" s="1">
+        <v>42597</v>
+      </c>
+      <c r="G6" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H6" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <v>42595</v>
+      </c>
+      <c r="E7" s="1">
+        <v>42596</v>
+      </c>
+      <c r="F7" s="1">
+        <v>42597</v>
+      </c>
+      <c r="G7" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H7" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>42595</v>
+      </c>
+      <c r="E8" s="1">
+        <v>42596</v>
+      </c>
+      <c r="F8" s="1">
+        <v>42597</v>
+      </c>
+      <c r="G8" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H8" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>42595</v>
+      </c>
+      <c r="E9" s="1">
+        <v>42596</v>
+      </c>
+      <c r="F9" s="1">
+        <v>42597</v>
+      </c>
+      <c r="G9" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H9" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1">
+        <v>42596</v>
+      </c>
+      <c r="E10" s="1">
+        <v>42597</v>
+      </c>
+      <c r="F10" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H10" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1">
+        <v>42596</v>
+      </c>
+      <c r="E11" s="1">
+        <v>42597</v>
+      </c>
+      <c r="F11" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H11" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1">
+        <v>42596</v>
+      </c>
+      <c r="E12" s="1">
+        <v>42597</v>
+      </c>
+      <c r="F12" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H12" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1">
+        <v>42596</v>
+      </c>
+      <c r="E13" s="1">
+        <v>42597</v>
+      </c>
+      <c r="F13" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H13" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>42596</v>
+      </c>
+      <c r="E14" s="1">
+        <v>42597</v>
+      </c>
+      <c r="F14" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H14" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1">
+        <v>42596</v>
+      </c>
+      <c r="E15" s="1">
+        <v>42597</v>
+      </c>
+      <c r="F15" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H15" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1">
+        <v>42596</v>
+      </c>
+      <c r="E16" s="1">
+        <v>42597</v>
+      </c>
+      <c r="F16" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H16" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1">
+        <v>42596</v>
+      </c>
+      <c r="E17" s="1">
+        <v>42597</v>
+      </c>
+      <c r="F17" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H17" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1">
+        <v>42596</v>
+      </c>
+      <c r="E18" s="1">
+        <v>42597</v>
+      </c>
+      <c r="F18" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H18" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1">
+        <v>42596</v>
+      </c>
+      <c r="E19" s="1">
+        <v>42597</v>
+      </c>
+      <c r="F19" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H19" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1">
+        <v>42596</v>
+      </c>
+      <c r="E20" s="1">
+        <v>42597</v>
+      </c>
+      <c r="F20" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H20" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1">
+        <v>42596</v>
+      </c>
+      <c r="E21" s="1">
+        <v>42597</v>
+      </c>
+      <c r="F21" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H21" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="1">
+        <v>42596</v>
+      </c>
+      <c r="E22" s="1">
+        <v>42597</v>
+      </c>
+      <c r="F22" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H22" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="1">
+        <v>42596</v>
+      </c>
+      <c r="E23" s="1">
+        <v>42597</v>
+      </c>
+      <c r="F23" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H23" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1">
+        <v>42596</v>
+      </c>
+      <c r="E24" s="1">
+        <v>42597</v>
+      </c>
+      <c r="F24" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H24" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="1">
+        <v>42596</v>
+      </c>
+      <c r="E25" s="1">
+        <v>42597</v>
+      </c>
+      <c r="F25" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H25" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="1">
+        <v>42596</v>
+      </c>
+      <c r="E26" s="1">
+        <v>42597</v>
+      </c>
+      <c r="F26" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H26" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="1">
+        <v>42597</v>
+      </c>
+      <c r="E27" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F27" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H27" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="1">
+        <v>42597</v>
+      </c>
+      <c r="E28" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F28" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H28" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="1">
+        <v>42597</v>
+      </c>
+      <c r="E29" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F29" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H29" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="1">
+        <v>42597</v>
+      </c>
+      <c r="E30" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F30" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H30" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="1">
+        <v>42597</v>
+      </c>
+      <c r="E31" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F31" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H31" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="1">
+        <v>42597</v>
+      </c>
+      <c r="E32" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F32" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H32" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="1">
+        <v>42597</v>
+      </c>
+      <c r="E33" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F33" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H33" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="1">
+        <v>42597</v>
+      </c>
+      <c r="E34" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F34" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H34" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="1">
+        <v>42597</v>
+      </c>
+      <c r="E35" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F35" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H35" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="1">
+        <v>42597</v>
+      </c>
+      <c r="E36" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F36" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H36" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="1">
+        <v>42597</v>
+      </c>
+      <c r="E37" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F37" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H37" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="1">
+        <v>42597</v>
+      </c>
+      <c r="E38" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F38" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H38" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="1">
+        <v>42597</v>
+      </c>
+      <c r="E39" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F39" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H39" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="1">
+        <v>42597</v>
+      </c>
+      <c r="E40" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F40" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H40" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="1">
+        <v>42597</v>
+      </c>
+      <c r="E41" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F41" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H41" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="1">
+        <v>42597</v>
+      </c>
+      <c r="E42" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F42" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H42" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="1">
+        <v>42597</v>
+      </c>
+      <c r="E43" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F43" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H43" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="1">
+        <v>42597</v>
+      </c>
+      <c r="E44" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F44" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H44" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="1">
+        <v>42597</v>
+      </c>
+      <c r="E45" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F45" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H45" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="1">
+        <v>42597</v>
+      </c>
+      <c r="E46" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F46" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H46" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="1">
+        <v>42597</v>
+      </c>
+      <c r="E47" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F47" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H47" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="1">
+        <v>42597</v>
+      </c>
+      <c r="E48" s="1">
+        <v>42598</v>
+      </c>
+      <c r="F48" s="1">
+        <v>42598</v>
+      </c>
+      <c r="H48" s="1">
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>datelist!$A$1:$A$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:J1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4523,7 +4663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I194"/>
   <sheetViews>
@@ -7808,7 +7948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G96"/>
   <sheetViews>
@@ -9426,7 +9566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G84"/>
   <sheetViews>
@@ -10864,22 +11004,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G93"/>
+  <dimension ref="B2:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="104" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:7" ht="20.25">
@@ -11052,7 +11192,7 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="3:7" ht="81">
+    <row r="14" spans="3:7" ht="60.75">
       <c r="C14" s="9">
         <v>98</v>
       </c>
@@ -11127,7 +11267,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="3:7" ht="101.25">
+    <row r="19" spans="3:7" ht="60.75">
       <c r="C19" s="9">
         <v>54</v>
       </c>
@@ -11142,7 +11282,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="3:7" ht="60.75">
+    <row r="20" spans="3:7" ht="40.5">
       <c r="C20" s="9">
         <v>53</v>
       </c>
@@ -11200,7 +11340,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="3:7" ht="81">
+    <row r="24" spans="3:7" ht="40.5">
       <c r="C24" s="9">
         <v>48</v>
       </c>
@@ -11215,7 +11355,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="3:7" ht="40.5">
+    <row r="25" spans="3:7" ht="30">
       <c r="C25" s="9">
         <v>116</v>
       </c>
@@ -11260,7 +11400,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="28" spans="3:7" ht="81">
+    <row r="28" spans="3:7" ht="60.75">
       <c r="C28" s="9">
         <v>117</v>
       </c>
@@ -11348,7 +11488,7 @@
       </c>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="3:7" ht="40.5">
+    <row r="34" spans="3:7" ht="20.25">
       <c r="C34" s="9">
         <v>13</v>
       </c>
@@ -11393,7 +11533,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="3:7" ht="40.5">
+    <row r="37" spans="3:7" ht="20.25">
       <c r="C37" s="9">
         <v>33</v>
       </c>
@@ -11423,7 +11563,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="39" spans="3:7" ht="60.75">
+    <row r="39" spans="3:7" ht="40.5">
       <c r="C39" s="9">
         <v>5</v>
       </c>
@@ -11438,7 +11578,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="40" spans="3:7" ht="40.5">
+    <row r="40" spans="3:7" ht="20.25">
       <c r="C40" s="9">
         <v>215</v>
       </c>
@@ -11453,7 +11593,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="41" spans="3:7" ht="81">
+    <row r="41" spans="3:7" ht="40.5">
       <c r="C41" s="9">
         <v>238</v>
       </c>
@@ -11468,7 +11608,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="3:7" ht="141.75">
+    <row r="42" spans="3:7" ht="81">
       <c r="C42" s="9">
         <v>73</v>
       </c>
@@ -11498,7 +11638,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="44" spans="3:7" ht="81">
+    <row r="44" spans="3:7" ht="60.75">
       <c r="C44" s="9">
         <v>204</v>
       </c>
@@ -11543,7 +11683,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="47" spans="3:7" ht="20.25">
+    <row r="47" spans="3:7" ht="121.5">
       <c r="C47" s="9">
         <v>208</v>
       </c>
@@ -11554,9 +11694,11 @@
       <c r="F47" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G47" s="14"/>
-    </row>
-    <row r="48" spans="3:7" ht="20.25">
+      <c r="G47" s="14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" ht="40.5">
       <c r="C48" s="9">
         <v>174</v>
       </c>
@@ -11567,9 +11709,11 @@
       <c r="F48" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G48" s="14"/>
-    </row>
-    <row r="49" spans="3:7" ht="30">
+      <c r="G48" s="14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" ht="202.5">
       <c r="C49" s="9">
         <v>297</v>
       </c>
@@ -11580,9 +11724,11 @@
       <c r="F49" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G49" s="14"/>
-    </row>
-    <row r="50" spans="3:7" ht="30">
+      <c r="G49" s="14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" ht="60.75">
       <c r="C50" s="9">
         <v>103</v>
       </c>
@@ -11593,7 +11739,9 @@
       <c r="F50" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G50" s="14"/>
+      <c r="G50" s="14" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="51" spans="3:7" ht="20.25">
       <c r="C51" s="9">
@@ -11606,9 +11754,11 @@
       <c r="F51" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G51" s="14"/>
-    </row>
-    <row r="52" spans="3:7" ht="20.25">
+      <c r="G51" s="14" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" ht="101.25">
       <c r="C52" s="9">
         <v>23</v>
       </c>
@@ -11619,9 +11769,11 @@
       <c r="F52" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G52" s="14"/>
-    </row>
-    <row r="53" spans="3:7" ht="20.25">
+      <c r="G52" s="14" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" ht="162">
       <c r="C53" s="9">
         <v>79</v>
       </c>
@@ -11632,7 +11784,9 @@
       <c r="F53" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G53" s="14"/>
+      <c r="G53" s="14" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="54" spans="3:7" ht="20.25">
       <c r="C54" s="9">
@@ -11985,7 +12139,7 @@
       </c>
       <c r="G80" s="14"/>
     </row>
-    <row r="81" spans="2:6">
+    <row r="81" spans="2:7">
       <c r="C81" s="9">
         <v>300</v>
       </c>
@@ -11997,57 +12151,70 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="2:6">
+    <row r="84" spans="2:7">
       <c r="B84" t="s">
         <v>240</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="27" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="D85" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="2:6">
-      <c r="D85" t="s">
+    <row r="86" spans="2:7">
+      <c r="D86" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="86" spans="2:6">
-      <c r="D86" t="s">
+    <row r="87" spans="2:7">
+      <c r="D87" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="87" spans="2:6">
-      <c r="D87" t="s">
+    <row r="88" spans="2:7">
+      <c r="D88" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="88" spans="2:6">
-      <c r="D88" t="s">
+    <row r="89" spans="2:7">
+      <c r="D89" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="89" spans="2:6">
-      <c r="D89" t="s">
+    <row r="90" spans="2:7">
+      <c r="D90" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="90" spans="2:6">
-      <c r="D90" t="s">
+    <row r="91" spans="2:7">
+      <c r="D91" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="91" spans="2:6">
-      <c r="D91" t="s">
+    <row r="92" spans="2:7">
+      <c r="D92" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="92" spans="2:6">
-      <c r="D92" t="s">
+    <row r="93" spans="2:7">
+      <c r="D93" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="93" spans="2:6">
-      <c r="D93" t="s">
+    <row r="94" spans="2:7">
+      <c r="D94" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" ht="15">
+      <c r="D95" t="s">
+        <v>581</v>
+      </c>
+      <c r="G95" s="26" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -12131,8 +12298,9 @@
     <hyperlink ref="D79" r:id="rId77" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list/"/>
     <hyperlink ref="D80" r:id="rId78" display="https://leetcode.com/problems/jump-game/"/>
     <hyperlink ref="D81" r:id="rId79" display="https://leetcode.com/problems/longest-increasing-subsequence/"/>
+    <hyperlink ref="G95" r:id="rId80"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId80"/>
+  <pageSetup orientation="portrait" r:id="rId81"/>
 </worksheet>
 </file>
--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11835" tabRatio="561" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11835" tabRatio="561" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="datelist" sheetId="2" state="hidden" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="leetcode-Medium" sheetId="7" r:id="rId6"/>
     <sheet name="leetcode-Easy" sheetId="8" r:id="rId7"/>
     <sheet name="leetcode-Hard" sheetId="6" r:id="rId8"/>
-    <sheet name="Microsoft" sheetId="5" r:id="rId9"/>
+    <sheet name="leetcode-special" sheetId="10" r:id="rId9"/>
+    <sheet name="Microsoft" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="611">
   <si>
     <t>420. Count and Say</t>
   </si>
@@ -1864,6 +1865,55 @@
   </si>
   <si>
     <t>DP</t>
+  </si>
+  <si>
+    <t>candy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>first missing positive</t>
+  </si>
+  <si>
+    <t>from left to right, then from right to left</t>
+  </si>
+  <si>
+    <t>bucket sort? A[i] &gt;= 0 and A[length -1] &lt; length and A[i]!=i+1 then swap A[i] ,A[A[i] - 1]</t>
+  </si>
+  <si>
+    <t>double stack, when tail stack is empty, then move all of head stack to tail stack</t>
+  </si>
+  <si>
+    <t>helper: left and right all null - &gt; true; either left or right null - &gt; false; left.val != right.val - &gt; false; check left.left with right.right and left.right with right.left;</t>
+  </si>
+  <si>
+    <t>inorder traversal: come to most left and push stack, return pop then point to right</t>
+  </si>
+  <si>
+    <t>IO&amp;PO: root is last of postorder, recursive to build left tree (,instart, pos -1,,postart, postart + pos - 1 - instart), recursive to build right tree(, pos + 1, inend,,postart + pos - instart, poend -1);
+PRE&amp;IO: root is first of preorder, recursive to build left tree(,prestart + 1, prestart + pos -1 - instart,,instart, pos -1 );recursive to build right tree (, prestart + pos + 1 - instart, preend,,pos + 1, inend);
+Important is caculate left length, then caculate right lenth</t>
+  </si>
+  <si>
+    <t>split</t>
+  </si>
+  <si>
+    <t>reverse all string, then reverse every word
+i = j = 0; j++; j == length || j = ' ' then reverse(i, j - 1; move i to new word i =j + 1</t>
+  </si>
+  <si>
+    <t>tow pointer, Character.isLetterOrDigit; Character.toLoweCase();</t>
+  </si>
+  <si>
+    <t>split("\\.")</t>
+  </si>
+  <si>
+    <t>split("/+") for split paths by arbitrary count /
+store per path into arraylist
+1. ".." remove last element of arraylist, means up to parent directory
+2. "" or "." ignore it
+merge arraylist by "/" for formulate new paths</t>
   </si>
 </sst>
 </file>
@@ -2013,7 +2063,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
@@ -2084,6 +2134,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2476,11 +2529,1330 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="104" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7" ht="20.25">
+      <c r="C2" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" ht="20.25">
+      <c r="C3" s="9">
+        <v>206</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="3:7" ht="20.25">
+      <c r="C4" s="9">
+        <v>151</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="20.25">
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="3:7" ht="20.25">
+      <c r="C6" s="9">
+        <v>138</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="3:7" ht="20.25">
+      <c r="C7" s="9">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="3:7" ht="30">
+      <c r="C8" s="9">
+        <v>235</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="20.25">
+      <c r="C9" s="9">
+        <v>75</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="20.25">
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="3:7" ht="20.25">
+      <c r="C11" s="9">
+        <v>141</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="3:7" ht="40.5">
+      <c r="C12" s="9">
+        <v>171</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" ht="20.25">
+      <c r="C13" s="9">
+        <v>88</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="3:7" ht="60.75">
+      <c r="C14" s="9">
+        <v>98</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" ht="20.25">
+      <c r="C15" s="9">
+        <v>4</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" ht="20.25">
+      <c r="C16" s="9">
+        <v>200</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="20.25">
+      <c r="C17" s="9">
+        <v>21</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="3:7" ht="40.5">
+      <c r="C18" s="9">
+        <v>146</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="60.75">
+      <c r="C19" s="9">
+        <v>54</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" ht="40.5">
+      <c r="C20" s="9">
+        <v>53</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="20.25">
+      <c r="C21" s="9">
+        <v>237</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="3:7" ht="81">
+      <c r="C22" s="9">
+        <v>273</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="20.25">
+      <c r="C23" s="9">
+        <v>20</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" ht="40.5">
+      <c r="C24" s="9">
+        <v>48</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="30">
+      <c r="C25" s="9">
+        <v>116</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" ht="40.5">
+      <c r="C26" s="9">
+        <v>236</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="40.5">
+      <c r="C27" s="9">
+        <v>168</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="60.75">
+      <c r="C28" s="9">
+        <v>117</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" ht="20.25">
+      <c r="C29" s="9">
+        <v>24</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="30">
+      <c r="C30" s="9">
+        <v>26</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" ht="20.25">
+      <c r="C31" s="9">
+        <v>191</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" ht="20.25">
+      <c r="C32" s="9">
+        <v>121</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="20.25">
+      <c r="C33" s="9">
+        <v>15</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="3:7" ht="20.25">
+      <c r="C34" s="9">
+        <v>13</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="20.25">
+      <c r="C35" s="9">
+        <v>268</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="20.25">
+      <c r="C36" s="9">
+        <v>160</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" ht="20.25">
+      <c r="C37" s="9">
+        <v>33</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" ht="20.25">
+      <c r="C38" s="9">
+        <v>218</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" ht="40.5">
+      <c r="C39" s="9">
+        <v>5</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" ht="20.25">
+      <c r="C40" s="9">
+        <v>215</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" ht="40.5">
+      <c r="C41" s="9">
+        <v>238</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" ht="81">
+      <c r="C42" s="9">
+        <v>73</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" ht="40.5">
+      <c r="C43" s="9">
+        <v>102</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" ht="60.75">
+      <c r="C44" s="9">
+        <v>204</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" ht="20.25">
+      <c r="C45" s="9">
+        <v>189</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" ht="30">
+      <c r="C46" s="9">
+        <v>153</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" ht="121.5">
+      <c r="C47" s="9">
+        <v>208</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" ht="40.5">
+      <c r="C48" s="9">
+        <v>174</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" ht="202.5">
+      <c r="C49" s="9">
+        <v>297</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" ht="60.75">
+      <c r="C50" s="9">
+        <v>103</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" ht="20.25">
+      <c r="C51" s="9">
+        <v>212</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" ht="101.25">
+      <c r="C52" s="9">
+        <v>23</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" ht="162">
+      <c r="C53" s="9">
+        <v>79</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" ht="40.5">
+      <c r="C54" s="9">
+        <v>232</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" ht="60.75">
+      <c r="C55" s="9">
+        <v>101</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" ht="40.5">
+      <c r="C56" s="9">
+        <v>173</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" ht="182.25">
+      <c r="C57" s="9">
+        <v>106</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" ht="60.75">
+      <c r="C58" s="9">
+        <v>186</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E58" s="11"/>
+      <c r="F58" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" ht="20.25">
+      <c r="C59" s="9">
+        <v>125</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E59" s="11"/>
+      <c r="F59" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" ht="20.25">
+      <c r="C60" s="9">
+        <v>165</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E60" s="11"/>
+      <c r="F60" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" ht="20.25">
+      <c r="C61" s="9">
+        <v>25</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E61" s="11"/>
+      <c r="F61" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G61" s="14"/>
+    </row>
+    <row r="62" spans="3:7" ht="121.5">
+      <c r="C62" s="9">
+        <v>71</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E62" s="11"/>
+      <c r="F62" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" ht="20.25">
+      <c r="C63" s="9">
+        <v>162</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E63" s="11"/>
+      <c r="F63" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G63" s="14"/>
+    </row>
+    <row r="64" spans="3:7" ht="20.25">
+      <c r="C64" s="9">
+        <v>258</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="14"/>
+    </row>
+    <row r="65" spans="3:7" ht="20.25">
+      <c r="C65" s="9">
+        <v>94</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G65" s="14"/>
+    </row>
+    <row r="66" spans="3:7" ht="20.25">
+      <c r="C66" s="9">
+        <v>112</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E66" s="11"/>
+      <c r="F66" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="14"/>
+    </row>
+    <row r="67" spans="3:7" ht="20.25">
+      <c r="C67" s="9">
+        <v>46</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E67" s="11"/>
+      <c r="F67" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G67" s="14"/>
+    </row>
+    <row r="68" spans="3:7" ht="20.25">
+      <c r="C68" s="9">
+        <v>91</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G68" s="14"/>
+    </row>
+    <row r="69" spans="3:7" ht="20.25">
+      <c r="C69" s="9">
+        <v>28</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="14"/>
+    </row>
+    <row r="70" spans="3:7" ht="20.25">
+      <c r="C70" s="9">
+        <v>124</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G70" s="14"/>
+    </row>
+    <row r="71" spans="3:7" ht="20.25">
+      <c r="C71" s="9">
+        <v>56</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E71" s="11"/>
+      <c r="F71" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G71" s="14"/>
+    </row>
+    <row r="72" spans="3:7" ht="20.25">
+      <c r="C72" s="9">
+        <v>348</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E72" s="11"/>
+      <c r="F72" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G72" s="14"/>
+    </row>
+    <row r="73" spans="3:7" ht="20.25">
+      <c r="C73" s="9">
+        <v>47</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E73" s="11"/>
+      <c r="F73" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G73" s="14"/>
+    </row>
+    <row r="74" spans="3:7" ht="20.25">
+      <c r="C74" s="9">
+        <v>285</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E74" s="11"/>
+      <c r="F74" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G74" s="14"/>
+    </row>
+    <row r="75" spans="3:7" ht="20.25">
+      <c r="C75" s="9">
+        <v>365</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" spans="3:7" ht="20.25">
+      <c r="C76" s="9">
+        <v>270</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="14"/>
+    </row>
+    <row r="77" spans="3:7" ht="20.25">
+      <c r="C77" s="9">
+        <v>333</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E77" s="11"/>
+      <c r="F77" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G77" s="14"/>
+    </row>
+    <row r="78" spans="3:7" ht="20.25">
+      <c r="C78" s="9">
+        <v>213</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E78" s="11"/>
+      <c r="F78" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G78" s="14"/>
+    </row>
+    <row r="79" spans="3:7" ht="20.25">
+      <c r="C79" s="9">
+        <v>114</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E79" s="11"/>
+      <c r="F79" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G79" s="14"/>
+    </row>
+    <row r="80" spans="3:7" ht="20.25">
+      <c r="C80" s="9">
+        <v>55</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E80" s="11"/>
+      <c r="F80" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G80" s="14"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="C81" s="9">
+        <v>300</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E81" s="11"/>
+      <c r="F81" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" t="s">
+        <v>240</v>
+      </c>
+      <c r="D84" s="27" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="D85" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="D86" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="D87" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="D88" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="D89" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="D90" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="D91" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="D92" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="D93" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="D94" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" ht="15">
+      <c r="D95" t="s">
+        <v>581</v>
+      </c>
+      <c r="G95" s="26" t="s">
+        <v>582</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://leetcode.com/problems/reverse-linked-list/"/>
+    <hyperlink ref="D4" r:id="rId2" display="https://leetcode.com/problems/reverse-words-in-a-string/"/>
+    <hyperlink ref="D5" r:id="rId3" display="https://leetcode.com/problems/two-sum/"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://leetcode.com/problems/copy-list-with-random-pointer/"/>
+    <hyperlink ref="D7" r:id="rId5" display="https://leetcode.com/problems/string-to-integer-atoi/"/>
+    <hyperlink ref="D8" r:id="rId6" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/"/>
+    <hyperlink ref="D9" r:id="rId7" display="https://leetcode.com/problems/sort-colors/"/>
+    <hyperlink ref="D10" r:id="rId8" display="https://leetcode.com/problems/add-two-numbers/"/>
+    <hyperlink ref="D11" r:id="rId9" display="https://leetcode.com/problems/linked-list-cycle/"/>
+    <hyperlink ref="D12" r:id="rId10" display="https://leetcode.com/problems/excel-sheet-column-number/"/>
+    <hyperlink ref="D13" r:id="rId11" display="https://leetcode.com/problems/merge-sorted-array/"/>
+    <hyperlink ref="D14" r:id="rId12" display="https://leetcode.com/problems/validate-binary-search-tree/"/>
+    <hyperlink ref="D15" r:id="rId13" display="https://leetcode.com/problems/median-of-two-sorted-arrays/"/>
+    <hyperlink ref="D16" r:id="rId14" display="https://leetcode.com/problems/number-of-islands/"/>
+    <hyperlink ref="D17" r:id="rId15" display="https://leetcode.com/problems/merge-two-sorted-lists/"/>
+    <hyperlink ref="D18" r:id="rId16" display="https://leetcode.com/problems/lru-cache/"/>
+    <hyperlink ref="D19" r:id="rId17" display="https://leetcode.com/problems/spiral-matrix/"/>
+    <hyperlink ref="D20" r:id="rId18" display="https://leetcode.com/problems/maximum-subarray/"/>
+    <hyperlink ref="D21" r:id="rId19" display="https://leetcode.com/problems/delete-node-in-a-linked-list/"/>
+    <hyperlink ref="D22" r:id="rId20" display="https://leetcode.com/problems/integer-to-english-words/"/>
+    <hyperlink ref="D23" r:id="rId21" display="https://leetcode.com/problems/valid-parentheses/"/>
+    <hyperlink ref="D24" r:id="rId22" display="https://leetcode.com/problems/rotate-image/"/>
+    <hyperlink ref="D25" r:id="rId23" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node/"/>
+    <hyperlink ref="D26" r:id="rId24" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/"/>
+    <hyperlink ref="D27" r:id="rId25" display="https://leetcode.com/problems/excel-sheet-column-title/"/>
+    <hyperlink ref="D28" r:id="rId26" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii/"/>
+    <hyperlink ref="D29" r:id="rId27" display="https://leetcode.com/problems/swap-nodes-in-pairs/"/>
+    <hyperlink ref="D30" r:id="rId28" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array/"/>
+    <hyperlink ref="D31" r:id="rId29" display="https://leetcode.com/problems/number-of-1-bits/"/>
+    <hyperlink ref="D32" r:id="rId30" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/"/>
+    <hyperlink ref="D33" r:id="rId31" display="https://leetcode.com/problems/3sum/"/>
+    <hyperlink ref="D34" r:id="rId32" display="https://leetcode.com/problems/roman-to-integer/"/>
+    <hyperlink ref="D35" r:id="rId33" display="https://leetcode.com/problems/missing-number/"/>
+    <hyperlink ref="D36" r:id="rId34" display="https://leetcode.com/problems/intersection-of-two-linked-lists/"/>
+    <hyperlink ref="D37" r:id="rId35" display="https://leetcode.com/problems/search-in-rotated-sorted-array/"/>
+    <hyperlink ref="D38" r:id="rId36" display="https://leetcode.com/problems/the-skyline-problem/"/>
+    <hyperlink ref="D39" r:id="rId37" display="https://leetcode.com/problems/longest-palindromic-substring/"/>
+    <hyperlink ref="D40" r:id="rId38" display="https://leetcode.com/problems/kth-largest-element-in-an-array/"/>
+    <hyperlink ref="D41" r:id="rId39" display="https://leetcode.com/problems/product-of-array-except-self/"/>
+    <hyperlink ref="D42" r:id="rId40" display="https://leetcode.com/problems/set-matrix-zeroes/"/>
+    <hyperlink ref="D43" r:id="rId41" display="https://leetcode.com/problems/binary-tree-level-order-traversal/"/>
+    <hyperlink ref="D44" r:id="rId42" display="https://leetcode.com/problems/count-primes/"/>
+    <hyperlink ref="D45" r:id="rId43" display="https://leetcode.com/problems/rotate-array/"/>
+    <hyperlink ref="D46" r:id="rId44" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/"/>
+    <hyperlink ref="D47" r:id="rId45" display="https://leetcode.com/problems/implement-trie-prefix-tree/"/>
+    <hyperlink ref="D48" r:id="rId46" display="https://leetcode.com/problems/dungeon-game/"/>
+    <hyperlink ref="D49" r:id="rId47" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree/"/>
+    <hyperlink ref="D50" r:id="rId48" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/"/>
+    <hyperlink ref="D51" r:id="rId49" display="https://leetcode.com/problems/word-search-ii/"/>
+    <hyperlink ref="D52" r:id="rId50" display="https://leetcode.com/problems/merge-k-sorted-lists/"/>
+    <hyperlink ref="D53" r:id="rId51" display="https://leetcode.com/problems/word-search/"/>
+    <hyperlink ref="D54" r:id="rId52" display="https://leetcode.com/problems/implement-queue-using-stacks/"/>
+    <hyperlink ref="D55" r:id="rId53" display="https://leetcode.com/problems/symmetric-tree/"/>
+    <hyperlink ref="D56" r:id="rId54" display="https://leetcode.com/problems/binary-search-tree-iterator/"/>
+    <hyperlink ref="D57" r:id="rId55" display="https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/"/>
+    <hyperlink ref="D58" r:id="rId56" display="https://leetcode.com/problems/reverse-words-in-a-string-ii/"/>
+    <hyperlink ref="D59" r:id="rId57" display="https://leetcode.com/problems/valid-palindrome/"/>
+    <hyperlink ref="D60" r:id="rId58" display="https://leetcode.com/problems/compare-version-numbers/"/>
+    <hyperlink ref="D61" r:id="rId59" display="https://leetcode.com/problems/reverse-nodes-in-k-group/"/>
+    <hyperlink ref="D62" r:id="rId60" display="https://leetcode.com/problems/simplify-path/"/>
+    <hyperlink ref="D63" r:id="rId61" display="https://leetcode.com/problems/find-peak-element/"/>
+    <hyperlink ref="D64" r:id="rId62" display="https://leetcode.com/problems/add-digits/"/>
+    <hyperlink ref="D65" r:id="rId63" display="https://leetcode.com/problems/binary-tree-inorder-traversal/"/>
+    <hyperlink ref="D66" r:id="rId64" display="https://leetcode.com/problems/path-sum/"/>
+    <hyperlink ref="D67" r:id="rId65" display="https://leetcode.com/problems/permutations/"/>
+    <hyperlink ref="D68" r:id="rId66" display="https://leetcode.com/problems/decode-ways/"/>
+    <hyperlink ref="D69" r:id="rId67" display="https://leetcode.com/problems/implement-strstr/"/>
+    <hyperlink ref="D70" r:id="rId68" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/"/>
+    <hyperlink ref="D71" r:id="rId69" display="https://leetcode.com/problems/merge-intervals/"/>
+    <hyperlink ref="D72" r:id="rId70" display="https://leetcode.com/problems/design-tic-tac-toe/"/>
+    <hyperlink ref="D73" r:id="rId71" display="https://leetcode.com/problems/permutations-ii/"/>
+    <hyperlink ref="D74" r:id="rId72" display="https://leetcode.com/problems/inorder-successor-in-bst/"/>
+    <hyperlink ref="D75" r:id="rId73" display="https://leetcode.com/problems/water-and-jug-problem/"/>
+    <hyperlink ref="D76" r:id="rId74" display="https://leetcode.com/problems/closest-binary-search-tree-value/"/>
+    <hyperlink ref="D77" r:id="rId75" display="https://leetcode.com/problems/largest-bst-subtree/"/>
+    <hyperlink ref="D78" r:id="rId76" display="https://leetcode.com/problems/house-robber-ii/"/>
+    <hyperlink ref="D79" r:id="rId77" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list/"/>
+    <hyperlink ref="D80" r:id="rId78" display="https://leetcode.com/problems/jump-game/"/>
+    <hyperlink ref="D81" r:id="rId79" display="https://leetcode.com/problems/longest-increasing-subsequence/"/>
+    <hyperlink ref="G95" r:id="rId80"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId81"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -11006,1301 +12378,40 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G95"/>
+  <dimension ref="C3:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="B51" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54:E57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="104" style="15" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="4" max="4" width="70.42578125" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="20.25">
-      <c r="C2" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="3:7" ht="20.25">
-      <c r="C3" s="9">
-        <v>206</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="3:7" ht="20.25">
-      <c r="C4" s="9">
-        <v>151</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="3:7" ht="20.25">
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="3:7" ht="20.25">
-      <c r="C6" s="9">
-        <v>138</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="3:7" ht="20.25">
-      <c r="C7" s="9">
-        <v>8</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="3:7" ht="30">
-      <c r="C8" s="9">
-        <v>235</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" ht="20.25">
-      <c r="C9" s="9">
-        <v>75</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" ht="20.25">
-      <c r="C10" s="9">
-        <v>2</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="3:7" ht="20.25">
-      <c r="C11" s="9">
-        <v>141</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="3:7" ht="40.5">
-      <c r="C12" s="9">
-        <v>171</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" ht="20.25">
-      <c r="C13" s="9">
-        <v>88</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="3:7" ht="60.75">
-      <c r="C14" s="9">
-        <v>98</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" ht="20.25">
-      <c r="C15" s="9">
-        <v>4</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" ht="20.25">
-      <c r="C16" s="9">
-        <v>200</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" ht="20.25">
-      <c r="C17" s="9">
-        <v>21</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="3:7" ht="40.5">
-      <c r="C18" s="9">
-        <v>146</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" ht="60.75">
-      <c r="C19" s="9">
-        <v>54</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" ht="40.5">
-      <c r="C20" s="9">
-        <v>53</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" ht="20.25">
-      <c r="C21" s="9">
-        <v>237</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="3:7" ht="81">
-      <c r="C22" s="9">
-        <v>273</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" ht="20.25">
-      <c r="C23" s="9">
-        <v>20</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" ht="40.5">
-      <c r="C24" s="9">
-        <v>48</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" ht="30">
-      <c r="C25" s="9">
-        <v>116</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" ht="40.5">
-      <c r="C26" s="9">
-        <v>236</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" ht="40.5">
-      <c r="C27" s="9">
-        <v>168</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" ht="60.75">
-      <c r="C28" s="9">
-        <v>117</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" ht="20.25">
-      <c r="C29" s="9">
-        <v>24</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" ht="30">
-      <c r="C30" s="9">
-        <v>26</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" ht="20.25">
-      <c r="C31" s="9">
-        <v>191</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" ht="20.25">
-      <c r="C32" s="9">
-        <v>121</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" ht="20.25">
-      <c r="C33" s="9">
-        <v>15</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="3:7" ht="20.25">
-      <c r="C34" s="9">
-        <v>13</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" ht="20.25">
-      <c r="C35" s="9">
-        <v>268</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" ht="20.25">
-      <c r="C36" s="9">
-        <v>160</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" ht="20.25">
-      <c r="C37" s="9">
-        <v>33</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" ht="20.25">
-      <c r="C38" s="9">
-        <v>218</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" ht="40.5">
-      <c r="C39" s="9">
-        <v>5</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" ht="20.25">
-      <c r="C40" s="9">
-        <v>215</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" ht="40.5">
-      <c r="C41" s="9">
-        <v>238</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" ht="81">
-      <c r="C42" s="9">
-        <v>73</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" ht="40.5">
-      <c r="C43" s="9">
-        <v>102</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" ht="60.75">
-      <c r="C44" s="9">
-        <v>204</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" ht="20.25">
-      <c r="C45" s="9">
-        <v>189</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" ht="30">
-      <c r="C46" s="9">
-        <v>153</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" ht="121.5">
-      <c r="C47" s="9">
-        <v>208</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" ht="40.5">
-      <c r="C48" s="9">
-        <v>174</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" ht="202.5">
-      <c r="C49" s="9">
-        <v>297</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" ht="60.75">
-      <c r="C50" s="9">
-        <v>103</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" ht="20.25">
-      <c r="C51" s="9">
-        <v>212</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" ht="101.25">
-      <c r="C52" s="9">
-        <v>23</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" ht="162">
-      <c r="C53" s="9">
-        <v>79</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7" ht="20.25">
-      <c r="C54" s="9">
-        <v>232</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="14"/>
-    </row>
-    <row r="55" spans="3:7" ht="20.25">
-      <c r="C55" s="9">
-        <v>101</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="14"/>
-    </row>
-    <row r="56" spans="3:7" ht="20.25">
-      <c r="C56" s="9">
-        <v>173</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G56" s="14"/>
-    </row>
-    <row r="57" spans="3:7" ht="30">
-      <c r="C57" s="9">
-        <v>106</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G57" s="14"/>
-    </row>
-    <row r="58" spans="3:7" ht="20.25">
-      <c r="C58" s="9">
-        <v>186</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G58" s="14"/>
-    </row>
-    <row r="59" spans="3:7" ht="20.25">
-      <c r="C59" s="9">
-        <v>125</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" s="14"/>
-    </row>
-    <row r="60" spans="3:7" ht="20.25">
-      <c r="C60" s="9">
-        <v>165</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="14"/>
-    </row>
-    <row r="61" spans="3:7" ht="20.25">
-      <c r="C61" s="9">
-        <v>25</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G61" s="14"/>
-    </row>
-    <row r="62" spans="3:7" ht="20.25">
-      <c r="C62" s="9">
-        <v>71</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G62" s="14"/>
-    </row>
-    <row r="63" spans="3:7" ht="20.25">
-      <c r="C63" s="9">
-        <v>162</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G63" s="14"/>
-    </row>
-    <row r="64" spans="3:7" ht="20.25">
-      <c r="C64" s="9">
-        <v>258</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="14"/>
-    </row>
-    <row r="65" spans="3:7" ht="20.25">
-      <c r="C65" s="9">
-        <v>94</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G65" s="14"/>
-    </row>
-    <row r="66" spans="3:7" ht="20.25">
-      <c r="C66" s="9">
-        <v>112</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E66" s="11"/>
-      <c r="F66" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="14"/>
-    </row>
-    <row r="67" spans="3:7" ht="20.25">
-      <c r="C67" s="9">
-        <v>46</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G67" s="14"/>
-    </row>
-    <row r="68" spans="3:7" ht="20.25">
-      <c r="C68" s="9">
-        <v>91</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E68" s="11"/>
-      <c r="F68" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G68" s="14"/>
-    </row>
-    <row r="69" spans="3:7" ht="20.25">
-      <c r="C69" s="9">
-        <v>28</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E69" s="11"/>
-      <c r="F69" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" s="14"/>
-    </row>
-    <row r="70" spans="3:7" ht="20.25">
-      <c r="C70" s="9">
-        <v>124</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="E70" s="11"/>
-      <c r="F70" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G70" s="14"/>
-    </row>
-    <row r="71" spans="3:7" ht="20.25">
-      <c r="C71" s="9">
-        <v>56</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="E71" s="11"/>
-      <c r="F71" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G71" s="14"/>
-    </row>
-    <row r="72" spans="3:7" ht="20.25">
-      <c r="C72" s="9">
-        <v>348</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E72" s="11"/>
-      <c r="F72" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G72" s="14"/>
-    </row>
-    <row r="73" spans="3:7" ht="20.25">
-      <c r="C73" s="9">
-        <v>47</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E73" s="11"/>
-      <c r="F73" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G73" s="14"/>
-    </row>
-    <row r="74" spans="3:7" ht="20.25">
-      <c r="C74" s="9">
-        <v>285</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="E74" s="11"/>
-      <c r="F74" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G74" s="14"/>
-    </row>
-    <row r="75" spans="3:7" ht="20.25">
-      <c r="C75" s="9">
-        <v>365</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G75" s="14"/>
-    </row>
-    <row r="76" spans="3:7" ht="30">
-      <c r="C76" s="9">
-        <v>270</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="E76" s="11"/>
-      <c r="F76" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" s="14"/>
-    </row>
-    <row r="77" spans="3:7" ht="20.25">
-      <c r="C77" s="9">
-        <v>333</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="E77" s="11"/>
-      <c r="F77" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G77" s="14"/>
-    </row>
-    <row r="78" spans="3:7" ht="20.25">
-      <c r="C78" s="9">
-        <v>213</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E78" s="11"/>
-      <c r="F78" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G78" s="14"/>
-    </row>
-    <row r="79" spans="3:7" ht="30">
-      <c r="C79" s="9">
-        <v>114</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E79" s="11"/>
-      <c r="F79" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G79" s="14"/>
-    </row>
-    <row r="80" spans="3:7" ht="20.25">
-      <c r="C80" s="9">
-        <v>55</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="E80" s="11"/>
-      <c r="F80" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G80" s="14"/>
-    </row>
-    <row r="81" spans="2:7">
-      <c r="C81" s="9">
-        <v>300</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E81" s="11"/>
-      <c r="F81" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7">
-      <c r="B84" t="s">
-        <v>240</v>
-      </c>
-      <c r="D84" s="27" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7">
-      <c r="D85" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7">
-      <c r="D86" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7">
-      <c r="D87" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7">
-      <c r="D88" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7">
-      <c r="D89" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7">
-      <c r="D90" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7">
-      <c r="D91" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7">
-      <c r="D92" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7">
-      <c r="D93" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7">
-      <c r="D94" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" ht="15">
-      <c r="D95" t="s">
-        <v>581</v>
-      </c>
-      <c r="G95" s="26" t="s">
-        <v>582</v>
+    <row r="3" spans="3:4">
+      <c r="C3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" ht="30">
+      <c r="C4" t="s">
+        <v>599</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://leetcode.com/problems/reverse-linked-list/"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://leetcode.com/problems/reverse-words-in-a-string/"/>
-    <hyperlink ref="D5" r:id="rId3" display="https://leetcode.com/problems/two-sum/"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://leetcode.com/problems/copy-list-with-random-pointer/"/>
-    <hyperlink ref="D7" r:id="rId5" display="https://leetcode.com/problems/string-to-integer-atoi/"/>
-    <hyperlink ref="D8" r:id="rId6" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/"/>
-    <hyperlink ref="D9" r:id="rId7" display="https://leetcode.com/problems/sort-colors/"/>
-    <hyperlink ref="D10" r:id="rId8" display="https://leetcode.com/problems/add-two-numbers/"/>
-    <hyperlink ref="D11" r:id="rId9" display="https://leetcode.com/problems/linked-list-cycle/"/>
-    <hyperlink ref="D12" r:id="rId10" display="https://leetcode.com/problems/excel-sheet-column-number/"/>
-    <hyperlink ref="D13" r:id="rId11" display="https://leetcode.com/problems/merge-sorted-array/"/>
-    <hyperlink ref="D14" r:id="rId12" display="https://leetcode.com/problems/validate-binary-search-tree/"/>
-    <hyperlink ref="D15" r:id="rId13" display="https://leetcode.com/problems/median-of-two-sorted-arrays/"/>
-    <hyperlink ref="D16" r:id="rId14" display="https://leetcode.com/problems/number-of-islands/"/>
-    <hyperlink ref="D17" r:id="rId15" display="https://leetcode.com/problems/merge-two-sorted-lists/"/>
-    <hyperlink ref="D18" r:id="rId16" display="https://leetcode.com/problems/lru-cache/"/>
-    <hyperlink ref="D19" r:id="rId17" display="https://leetcode.com/problems/spiral-matrix/"/>
-    <hyperlink ref="D20" r:id="rId18" display="https://leetcode.com/problems/maximum-subarray/"/>
-    <hyperlink ref="D21" r:id="rId19" display="https://leetcode.com/problems/delete-node-in-a-linked-list/"/>
-    <hyperlink ref="D22" r:id="rId20" display="https://leetcode.com/problems/integer-to-english-words/"/>
-    <hyperlink ref="D23" r:id="rId21" display="https://leetcode.com/problems/valid-parentheses/"/>
-    <hyperlink ref="D24" r:id="rId22" display="https://leetcode.com/problems/rotate-image/"/>
-    <hyperlink ref="D25" r:id="rId23" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node/"/>
-    <hyperlink ref="D26" r:id="rId24" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/"/>
-    <hyperlink ref="D27" r:id="rId25" display="https://leetcode.com/problems/excel-sheet-column-title/"/>
-    <hyperlink ref="D28" r:id="rId26" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii/"/>
-    <hyperlink ref="D29" r:id="rId27" display="https://leetcode.com/problems/swap-nodes-in-pairs/"/>
-    <hyperlink ref="D30" r:id="rId28" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array/"/>
-    <hyperlink ref="D31" r:id="rId29" display="https://leetcode.com/problems/number-of-1-bits/"/>
-    <hyperlink ref="D32" r:id="rId30" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/"/>
-    <hyperlink ref="D33" r:id="rId31" display="https://leetcode.com/problems/3sum/"/>
-    <hyperlink ref="D34" r:id="rId32" display="https://leetcode.com/problems/roman-to-integer/"/>
-    <hyperlink ref="D35" r:id="rId33" display="https://leetcode.com/problems/missing-number/"/>
-    <hyperlink ref="D36" r:id="rId34" display="https://leetcode.com/problems/intersection-of-two-linked-lists/"/>
-    <hyperlink ref="D37" r:id="rId35" display="https://leetcode.com/problems/search-in-rotated-sorted-array/"/>
-    <hyperlink ref="D38" r:id="rId36" display="https://leetcode.com/problems/the-skyline-problem/"/>
-    <hyperlink ref="D39" r:id="rId37" display="https://leetcode.com/problems/longest-palindromic-substring/"/>
-    <hyperlink ref="D40" r:id="rId38" display="https://leetcode.com/problems/kth-largest-element-in-an-array/"/>
-    <hyperlink ref="D41" r:id="rId39" display="https://leetcode.com/problems/product-of-array-except-self/"/>
-    <hyperlink ref="D42" r:id="rId40" display="https://leetcode.com/problems/set-matrix-zeroes/"/>
-    <hyperlink ref="D43" r:id="rId41" display="https://leetcode.com/problems/binary-tree-level-order-traversal/"/>
-    <hyperlink ref="D44" r:id="rId42" display="https://leetcode.com/problems/count-primes/"/>
-    <hyperlink ref="D45" r:id="rId43" display="https://leetcode.com/problems/rotate-array/"/>
-    <hyperlink ref="D46" r:id="rId44" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/"/>
-    <hyperlink ref="D47" r:id="rId45" display="https://leetcode.com/problems/implement-trie-prefix-tree/"/>
-    <hyperlink ref="D48" r:id="rId46" display="https://leetcode.com/problems/dungeon-game/"/>
-    <hyperlink ref="D49" r:id="rId47" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree/"/>
-    <hyperlink ref="D50" r:id="rId48" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/"/>
-    <hyperlink ref="D51" r:id="rId49" display="https://leetcode.com/problems/word-search-ii/"/>
-    <hyperlink ref="D52" r:id="rId50" display="https://leetcode.com/problems/merge-k-sorted-lists/"/>
-    <hyperlink ref="D53" r:id="rId51" display="https://leetcode.com/problems/word-search/"/>
-    <hyperlink ref="D54" r:id="rId52" display="https://leetcode.com/problems/implement-queue-using-stacks/"/>
-    <hyperlink ref="D55" r:id="rId53" display="https://leetcode.com/problems/symmetric-tree/"/>
-    <hyperlink ref="D56" r:id="rId54" display="https://leetcode.com/problems/binary-search-tree-iterator/"/>
-    <hyperlink ref="D57" r:id="rId55" display="https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/"/>
-    <hyperlink ref="D58" r:id="rId56" display="https://leetcode.com/problems/reverse-words-in-a-string-ii/"/>
-    <hyperlink ref="D59" r:id="rId57" display="https://leetcode.com/problems/valid-palindrome/"/>
-    <hyperlink ref="D60" r:id="rId58" display="https://leetcode.com/problems/compare-version-numbers/"/>
-    <hyperlink ref="D61" r:id="rId59" display="https://leetcode.com/problems/reverse-nodes-in-k-group/"/>
-    <hyperlink ref="D62" r:id="rId60" display="https://leetcode.com/problems/simplify-path/"/>
-    <hyperlink ref="D63" r:id="rId61" display="https://leetcode.com/problems/find-peak-element/"/>
-    <hyperlink ref="D64" r:id="rId62" display="https://leetcode.com/problems/add-digits/"/>
-    <hyperlink ref="D65" r:id="rId63" display="https://leetcode.com/problems/binary-tree-inorder-traversal/"/>
-    <hyperlink ref="D66" r:id="rId64" display="https://leetcode.com/problems/path-sum/"/>
-    <hyperlink ref="D67" r:id="rId65" display="https://leetcode.com/problems/permutations/"/>
-    <hyperlink ref="D68" r:id="rId66" display="https://leetcode.com/problems/decode-ways/"/>
-    <hyperlink ref="D69" r:id="rId67" display="https://leetcode.com/problems/implement-strstr/"/>
-    <hyperlink ref="D70" r:id="rId68" display="https://leetcode.com/problems/binary-tree-maximum-path-sum/"/>
-    <hyperlink ref="D71" r:id="rId69" display="https://leetcode.com/problems/merge-intervals/"/>
-    <hyperlink ref="D72" r:id="rId70" display="https://leetcode.com/problems/design-tic-tac-toe/"/>
-    <hyperlink ref="D73" r:id="rId71" display="https://leetcode.com/problems/permutations-ii/"/>
-    <hyperlink ref="D74" r:id="rId72" display="https://leetcode.com/problems/inorder-successor-in-bst/"/>
-    <hyperlink ref="D75" r:id="rId73" display="https://leetcode.com/problems/water-and-jug-problem/"/>
-    <hyperlink ref="D76" r:id="rId74" display="https://leetcode.com/problems/closest-binary-search-tree-value/"/>
-    <hyperlink ref="D77" r:id="rId75" display="https://leetcode.com/problems/largest-bst-subtree/"/>
-    <hyperlink ref="D78" r:id="rId76" display="https://leetcode.com/problems/house-robber-ii/"/>
-    <hyperlink ref="D79" r:id="rId77" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list/"/>
-    <hyperlink ref="D80" r:id="rId78" display="https://leetcode.com/problems/jump-game/"/>
-    <hyperlink ref="D81" r:id="rId79" display="https://leetcode.com/problems/longest-increasing-subsequence/"/>
-    <hyperlink ref="G95" r:id="rId80"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId81"/>
 </worksheet>
 </file>
--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="614">
   <si>
     <t>420. Count and Say</t>
   </si>
@@ -1914,6 +1914,16 @@
 1. ".." remove last element of arraylist, means up to parent directory
 2. "" or "." ignore it
 merge arraylist by "/" for formulate new paths</t>
+  </si>
+  <si>
+    <t>1. loop for sum
+2. (num - 1) % 9 + 1</t>
+  </si>
+  <si>
+    <t>determine Increase area (mid &lt; mid + 1) or decrease area(mid &lt; mid - 1)?</t>
+  </si>
+  <si>
+    <t>NonRecursion: curt down to last left, then pop, add, but curt = curt.right</t>
   </si>
 </sst>
 </file>
@@ -2533,8 +2543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="C58" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -3459,9 +3469,11 @@
       <c r="F63" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G63" s="14"/>
-    </row>
-    <row r="64" spans="3:7" ht="20.25">
+      <c r="G63" s="14" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" ht="40.5">
       <c r="C64" s="9">
         <v>258</v>
       </c>
@@ -3472,7 +3484,9 @@
       <c r="F64" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G64" s="14"/>
+      <c r="G64" s="14" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="65" spans="3:7" ht="20.25">
       <c r="C65" s="9">
@@ -3485,7 +3499,9 @@
       <c r="F65" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G65" s="14"/>
+      <c r="G65" s="14" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="66" spans="3:7" ht="20.25">
       <c r="C66" s="9">

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="677">
   <si>
     <t>420. Count and Say</t>
   </si>
@@ -2131,6 +2131,156 @@
   </si>
   <si>
     <t>n = n &amp; (n - 1);</t>
+  </si>
+  <si>
+    <t>while (num!=0 &amp;&amp; num %2 ==0) also including 3 and 5, means num is Divisible by 2, 3 and 5;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO dummy due to keep 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,  loop by node.next != nul</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BST!!!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, root.val compare with p and q, all greater than root, must be in right subtree, less than must be left subtree. Otherwise is root;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">for loop [2~n] </t>
+  </si>
+  <si>
+    <t>min=prices[0], then from [1~n) update minimum prices, then profit is maximum of prices[i] - min</t>
+  </si>
+  <si>
+    <t>first to detemine have two nodes at least, then slow and fast move, loop by slow != falst, when fast or fast.next was null, means no cycle. Otherwise has cycle.</t>
+  </si>
+  <si>
+    <t>regular swap, "aeiou".contains(tolowercase(c));</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. dummy, move head to dummy
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. must head.next and head.next.next is not null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. n1=head.next; n2=head.next.next;
+4. head.next=n2; n1.next = n2.next; n2.next = n1; head = n1;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// head-&gt;n1-&gt;n2-&gt;...
+// =&gt; head-&gt;n2-&gt;n1-&gt;…</t>
+    </r>
+  </si>
+  <si>
+    <t>except n &amp; (n-1), num &amp; 0x5555555555555555l means all of bit is odd</t>
+  </si>
+  <si>
+    <t>DP, rolling array for saving space: dp[i] = MAX(dp[i -1], dp[i -2] + A[i -1] when dp[0]=0;dp[1]=A[0]</t>
+  </si>
+  <si>
+    <t>level order: queue, iterate size of queue(pre get size)</t>
+  </si>
+  <si>
+    <t>slow fast pointer, but need if nums[fast]!= val, nums[slow++] = nums[fast]</t>
+  </si>
+  <si>
+    <t>carry=1, sum = digits[i] + carry,digits[i] = sum % 10; carry= sum / 10; consider extend array size when carry &gt;0 at lastly.</t>
+  </si>
+  <si>
+    <t>helper: check node1.left with node2.right, and node1.right with node2.left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResultType will easy readable; helper: 1. root==null 2. check left.isBalanced and right.isBalanced 3. check maxHeight difference less than 1, 4. return isBalanced=true and maxHeight= max(left, right) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pre point up level of triangle, cur point current level, cur add pre.get(j) + pre.get(i+1); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pre = cur</t>
+    </r>
+  </si>
+  <si>
+    <t>head and tail stack. Check tail isEmpty when Pop and peek , if no, move head to tail</t>
+  </si>
+  <si>
+    <t>long; count+=n/i (loop i:5~n/i&gt;=1 by i*=5)</t>
+  </si>
+  <si>
+    <t>for (int i = 1; i &lt; nums.length; i++) {            if (nums[j] != nums[i]) {                nums[++j] = nums[i];            }        }</t>
+  </si>
+  <si>
+    <t>list.set(j + 1, list.get(j) + list.get(j + 1)); j: len-2~0</t>
+  </si>
+  <si>
+    <t>temp / 10 != reverse to detemine is overflow</t>
   </si>
 </sst>
 </file>
@@ -2290,7 +2440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
@@ -2377,6 +2527,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6366,8 +6519,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6901,10 +7054,12 @@
       <c r="C32" s="28" t="s">
         <v>548</v>
       </c>
-      <c r="D32" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="33"/>
+      <c r="D32" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
@@ -6916,12 +7071,14 @@
       <c r="C33" s="28" t="s">
         <v>549</v>
       </c>
-      <c r="D33" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="33"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="29">
         <v>33</v>
       </c>
@@ -6931,10 +7088,12 @@
       <c r="C34" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="33"/>
+      <c r="D34" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
@@ -6946,7 +7105,7 @@
       <c r="C35" s="28" t="s">
         <v>546</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="33"/>
@@ -6961,10 +7120,12 @@
       <c r="C36" s="28" t="s">
         <v>547</v>
       </c>
-      <c r="D36" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="33"/>
+      <c r="D36" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
@@ -6976,10 +7137,12 @@
       <c r="C37" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="33"/>
+      <c r="D37" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="29">
@@ -6991,12 +7154,12 @@
       <c r="C38" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="33"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="29">
         <v>38</v>
       </c>
@@ -7006,10 +7169,12 @@
       <c r="C39" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="D39" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="33"/>
+      <c r="D39" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="29">
@@ -7021,12 +7186,14 @@
       <c r="C40" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="D40" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="33"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>40</v>
       </c>
@@ -7036,10 +7203,12 @@
       <c r="C41" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="D41" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="33"/>
+      <c r="D41" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="29">
@@ -7051,10 +7220,12 @@
       <c r="C42" s="28" t="s">
         <v>544</v>
       </c>
-      <c r="D42" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="33"/>
+      <c r="D42" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="29">
@@ -7066,10 +7237,12 @@
       <c r="C43" s="28" t="s">
         <v>543</v>
       </c>
-      <c r="D43" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="33"/>
+      <c r="D43" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="29">
@@ -7081,7 +7254,7 @@
       <c r="C44" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E44" s="33"/>
@@ -7096,10 +7269,12 @@
       <c r="C45" s="28" t="s">
         <v>542</v>
       </c>
-      <c r="D45" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="33"/>
+      <c r="D45" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
@@ -7111,12 +7286,14 @@
       <c r="C46" s="28" t="s">
         <v>540</v>
       </c>
-      <c r="D46" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="33"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="29">
         <v>46</v>
       </c>
@@ -7126,10 +7303,12 @@
       <c r="C47" s="28" t="s">
         <v>541</v>
       </c>
-      <c r="D47" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="33"/>
+      <c r="D47" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="29">
@@ -7141,12 +7320,14 @@
       <c r="C48" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="D48" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="33"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="29">
         <v>48</v>
       </c>
@@ -7156,10 +7337,12 @@
       <c r="C49" s="28" t="s">
         <v>539</v>
       </c>
-      <c r="D49" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="33"/>
+      <c r="D49" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
@@ -7171,10 +7354,12 @@
       <c r="C50" s="28" t="s">
         <v>538</v>
       </c>
-      <c r="D50" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="33"/>
+      <c r="D50" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="29">
@@ -7186,7 +7371,7 @@
       <c r="C51" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E51" s="33"/>
@@ -7201,10 +7386,12 @@
       <c r="C52" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="D52" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="33"/>
+      <c r="D52" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="29">
@@ -7216,12 +7403,12 @@
       <c r="C53" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E53" s="33"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="29">
         <v>53</v>
       </c>
@@ -7231,10 +7418,12 @@
       <c r="C54" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="D54" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="33"/>
+      <c r="D54" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="29">
@@ -7246,10 +7435,12 @@
       <c r="C55" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="D55" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="33"/>
+      <c r="D55" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="29">
@@ -7261,10 +7452,12 @@
       <c r="C56" s="28" t="s">
         <v>535</v>
       </c>
-      <c r="D56" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" s="33"/>
+      <c r="D56" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="29">
@@ -7276,10 +7469,12 @@
       <c r="C57" s="28" t="s">
         <v>534</v>
       </c>
-      <c r="D57" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" s="33"/>
+      <c r="D57" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="29">
@@ -7291,7 +7486,7 @@
       <c r="C58" s="28" t="s">
         <v>533</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E58" s="33"/>

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="686">
   <si>
     <t>420. Count and Say</t>
   </si>
@@ -2282,12 +2282,107 @@
   <si>
     <t>temp / 10 != reverse to detemine is overflow</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i:[0~9), j [0~9), check i,j; i:[0~9), j [0~9), check </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>j,i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; i:[0~9, i+=3), j [0~9,j+=3), k [0~9) check i + k/3,j+k%3; 
+check: '.'-true; non 1~9-false, has visited-false; visited[num-1]=true; return true</t>
+    </r>
+  </si>
+  <si>
+    <t>sum - root.val to recursive find in per subtree;</t>
+  </si>
+  <si>
+    <t>two array to record secret and guess digit, which min is cows count of current digit; bulls is easy count;</t>
+  </si>
+  <si>
+    <t>DFS: String.valueOf(root.val), detemine left and right all null means leaf then add to result, otherwise recusive handle left subtree and right subtree when left or right subtree is not null respectively.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Biarysearch, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BUT get result at first, don't get in compare</t>
+    </r>
+  </si>
+  <si>
+    <t>in recursive function, if root == null return Integer.MAX_VALUE;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Map, map.containsKey(sc)-&gt;map.get(sc)!=tc, otherwise </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>map.contains</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(tc)</t>
+    </r>
+  </si>
+  <si>
+    <t>computing intersection (If have)</t>
+  </si>
+  <si>
+    <t>two queue: top pop empty : all from q1; push: push into q2, then q2.offer(q1.poll()), last swap q1 q2(q2 change to q1, q1 change to q2)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2343,6 +2438,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -2440,7 +2543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
@@ -2529,6 +2632,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6519,8 +6625,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:D58"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E71" sqref="E70:E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7491,7 +7597,7 @@
       </c>
       <c r="E58" s="33"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="29">
         <v>58</v>
       </c>
@@ -7501,10 +7607,12 @@
       <c r="C59" s="28" t="s">
         <v>532</v>
       </c>
-      <c r="D59" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" s="33"/>
+      <c r="D59" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="29">
@@ -7516,12 +7624,14 @@
       <c r="C60" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="D60" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" s="33"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D60" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="29">
         <v>60</v>
       </c>
@@ -7531,10 +7641,12 @@
       <c r="C61" s="28" t="s">
         <v>531</v>
       </c>
-      <c r="D61" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" s="33"/>
+      <c r="D61" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="37" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="29">
@@ -7549,9 +7661,11 @@
       <c r="D62" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="33"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="33" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="29">
         <v>62</v>
       </c>
@@ -7564,7 +7678,9 @@
       <c r="D63" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E63" s="33"/>
+      <c r="E63" s="33" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="29">
@@ -7579,7 +7695,9 @@
       <c r="D64" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="33"/>
+      <c r="E64" s="33" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="29">
@@ -7594,7 +7712,9 @@
       <c r="D65" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="33"/>
+      <c r="E65" s="33" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="29">
@@ -7609,9 +7729,11 @@
       <c r="D66" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E66" s="33"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="33" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="29">
         <v>66</v>
       </c>
@@ -7624,7 +7746,9 @@
       <c r="D67" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E67" s="33"/>
+      <c r="E67" s="33" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="29">

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="688">
   <si>
     <t>420. Count and Say</t>
   </si>
@@ -2376,6 +2376,12 @@
   </si>
   <si>
     <t>two queue: top pop empty : all from q1; push: push into q2, then q2.offer(q1.poll()), last swap q1 q2(q2 change to q1, q1 change to q2)</t>
+  </si>
+  <si>
+    <t>1. head from start step to nth; 2. then predel from start and head from nth, when head come to tail, then predel is n+1th, then predel.next = predel.next.next to remove nth node</t>
+  </si>
+  <si>
+    <t>Same with Isomorphic strings?</t>
   </si>
 </sst>
 </file>
@@ -6626,7 +6632,7 @@
   <dimension ref="A1:E372"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E71" sqref="E70:E71"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7750,7 +7756,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="29">
         <v>67</v>
       </c>
@@ -7763,7 +7769,9 @@
       <c r="D68" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="33"/>
+      <c r="E68" s="33" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="29">
@@ -7778,7 +7786,9 @@
       <c r="D69" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="33"/>
+      <c r="E69" s="33" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="29">

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="712">
   <si>
     <t>420. Count and Say</t>
   </si>
@@ -2382,6 +2382,164 @@
   </si>
   <si>
     <t>Same with Isomorphic strings?</t>
+  </si>
+  <si>
+    <t>get lenA and lenB, then move to head respectively, then longer list move diff (lenA - lenB), then pA and pB move together, if pA == pB then pA is intersection
+merging: means two linkedlist has merged on intersection point, also means from that point all of rest node is same;</t>
+  </si>
+  <si>
+    <r>
+      <t>Which greater put in m+n-1 of nums1;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ARRAY not LIST; while for put all of rest element</t>
+    </r>
+  </si>
+  <si>
+    <t>from "1", two loop, out loop i&lt;n; inner loop j:[1~result.length()), if j==j-1 then count++, else add into result, out of inner loop, need add count and last character of result into result;</t>
+  </si>
+  <si>
+    <t>if (!stack.isEmpty() &amp;&amp; check(stack.peek(), s.charAt(i))) {stack.pop();} else {return false;}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hashMap, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CAUTION: if contains nums[i] still do map.put(nums[i],i) for update new postion
+eg :{1, 0, 1, 1} 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">check not equals  ' ' then len++; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>but if encounter first ' ' need break, means last word has captured.</t>
+    </r>
+  </si>
+  <si>
+    <t>find middle, then reverse mid.next, then compare head and mid.next until come to null, finally compare mid.next == null</t>
+  </si>
+  <si>
+    <t>dummy, head = dummy; if head.next.val = val then head.next = head.next.next; otherwise head=head.next</t>
+  </si>
+  <si>
+    <t>i:[0~32) reversed = (reversed &lt;&lt; 1) | (n &amp; 1);            n = (n &gt;&gt; 1); return reversed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">loop i: [1~n);
+while (j &lt; prefix.length() &amp;&amp; j &lt; strs[i].length() &amp;&amp; prefix.charAt(j) == strs[i].charAt(j)) {j++;}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prefix = prefix.substring(0, j) MUST IN  LOOP</t>
+    </r>
+  </si>
+  <si>
+    <t>resultt = sum % 2 + result; carry = sum  /2;</t>
+  </si>
+  <si>
+    <t>prefixSum[j + 1] - prefixSum[i];</t>
+  </si>
+  <si>
+    <t>while(left &lt;= right) filter left and right side until come to letterordigit, compare left and right, if not equals then return false</t>
+  </si>
+  <si>
+    <t>two stack: push: stack.push, if minStack is empty or x&lt;= minStack.peek() then minStack.push
+pop: if (stack top ==  minStack top) then stack and minStack all pop, otherwise only stack pop
+top: stack.peek
+min: minStack.peek</t>
+  </si>
+  <si>
+    <t>Biarysearch</t>
+  </si>
+  <si>
+    <t>n--; String.valueOf((char)(n % 26 + 'A')) + res</t>
+  </si>
+  <si>
+    <t>1. trim()
+2. get sign, if have, need mark start position to i++,otherwise i = 0
+3. double or long: while (str.length() &gt; i &amp;&amp; str.charAt(i) &gt;= '0' &amp;&amp; str.charAt(i) &lt;= '9') {
+4.  result = result * 10 + (str.charAt(i) - '0'); i++;
+5. restore sign
+6. handle max or min</t>
+  </si>
+  <si>
+    <t>Three steps rotate: reverse 0~n-1, reverse 0~k-1, reverse k~n-1</t>
+  </si>
+  <si>
+    <t>split("\\.") 
+while (i &lt; arr1.length || i &lt; arr2.length) {
+if (i &lt; arr1.length &amp;&amp; i &lt; arr2.length) {
+if (i &lt; arr1.length) {
+if ( i &lt; arr2.length) {</t>
+  </si>
+  <si>
+    <t>1. 1-2-4-8-16-32 : count =1
+2. 3= 2+1 means 1(2) + 1(1) =2; 7 = 4 + 3 means 1(4) + 2(3) = 3
+3. loop i :[1~num] if i == pow then result[i] = 1; pow &lt;&lt;=1; p=1 means step into next pow; otherwise  result[i] = result[p] + 1; p++;</t>
+  </si>
+  <si>
+    <t>x ^= nums[i]; return x</t>
+  </si>
+  <si>
+    <t>two pointer : meet type: left-&gt;     &lt;-right</t>
+  </si>
+  <si>
+    <t>Throught x^nums[i] to get x1Xorx2, using last1bit to split original array
+1. int last1bits = x - (x &amp; (x - 1));
+2. if ((last1bits &amp; n) == 0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">random.nextInt(cnt) == 0 ????
+Get a random length of list to get value?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N non-repeat random number
+int num = random.Next(0, end + 1);
+output[i] = sequence[num];
+sequence[num] = sequence[end];
+end--;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5268,8 +5426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H95"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="C57" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -6631,8 +6789,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6660,7 +6818,7 @@
       </c>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -6677,7 +6835,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -6692,7 +6850,7 @@
       </c>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -6707,7 +6865,7 @@
       </c>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>4</v>
       </c>
@@ -6722,7 +6880,7 @@
       </c>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -6739,7 +6897,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>6</v>
       </c>
@@ -6754,7 +6912,7 @@
       </c>
       <c r="E7" s="33"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -6771,7 +6929,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>8</v>
       </c>
@@ -6786,7 +6944,7 @@
       </c>
       <c r="E9" s="33"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -6803,7 +6961,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>10</v>
       </c>
@@ -6820,7 +6978,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>11</v>
       </c>
@@ -6835,7 +6993,7 @@
       </c>
       <c r="E12" s="33"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>12</v>
       </c>
@@ -6852,7 +7010,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>13</v>
       </c>
@@ -6869,7 +7027,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>14</v>
       </c>
@@ -6886,7 +7044,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>15</v>
       </c>
@@ -6903,7 +7061,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>16</v>
       </c>
@@ -6920,7 +7078,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -6937,7 +7095,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>18</v>
       </c>
@@ -6954,7 +7112,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>19</v>
       </c>
@@ -6971,7 +7129,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>20</v>
       </c>
@@ -6986,7 +7144,7 @@
       </c>
       <c r="E21" s="33"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>21</v>
       </c>
@@ -7003,7 +7161,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>22</v>
       </c>
@@ -7020,7 +7178,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>23</v>
       </c>
@@ -7037,7 +7195,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>24</v>
       </c>
@@ -7054,7 +7212,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>25</v>
       </c>
@@ -7071,7 +7229,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>26</v>
       </c>
@@ -7088,7 +7246,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35">
         <v>27</v>
       </c>
@@ -7105,7 +7263,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>28</v>
       </c>
@@ -7122,7 +7280,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>29</v>
       </c>
@@ -7139,7 +7297,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>30</v>
       </c>
@@ -7156,7 +7314,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>31</v>
       </c>
@@ -7173,7 +7331,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
         <v>32</v>
       </c>
@@ -7190,7 +7348,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29">
         <v>33</v>
       </c>
@@ -7207,7 +7365,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
         <v>34</v>
       </c>
@@ -7222,7 +7380,7 @@
       </c>
       <c r="E35" s="33"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>35</v>
       </c>
@@ -7239,7 +7397,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
         <v>36</v>
       </c>
@@ -7256,7 +7414,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29">
         <v>37</v>
       </c>
@@ -7271,7 +7429,7 @@
       </c>
       <c r="E38" s="33"/>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29">
         <v>38</v>
       </c>
@@ -7288,7 +7446,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29">
         <v>39</v>
       </c>
@@ -7305,7 +7463,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>40</v>
       </c>
@@ -7322,7 +7480,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29">
         <v>41</v>
       </c>
@@ -7339,7 +7497,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29">
         <v>42</v>
       </c>
@@ -7356,7 +7514,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29">
         <v>43</v>
       </c>
@@ -7371,7 +7529,7 @@
       </c>
       <c r="E44" s="33"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29">
         <v>44</v>
       </c>
@@ -7388,7 +7546,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
         <v>45</v>
       </c>
@@ -7405,7 +7563,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29">
         <v>46</v>
       </c>
@@ -7422,7 +7580,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29">
         <v>47</v>
       </c>
@@ -7439,7 +7597,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29">
         <v>48</v>
       </c>
@@ -7456,7 +7614,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>49</v>
       </c>
@@ -7473,7 +7631,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29">
         <v>50</v>
       </c>
@@ -7488,7 +7646,7 @@
       </c>
       <c r="E51" s="33"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29">
         <v>51</v>
       </c>
@@ -7505,7 +7663,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="29">
         <v>52</v>
       </c>
@@ -7520,7 +7678,7 @@
       </c>
       <c r="E53" s="33"/>
     </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="29">
         <v>53</v>
       </c>
@@ -7537,7 +7695,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="29">
         <v>54</v>
       </c>
@@ -7554,7 +7712,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="29">
         <v>55</v>
       </c>
@@ -7571,7 +7729,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="29">
         <v>56</v>
       </c>
@@ -7588,7 +7746,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="29">
         <v>57</v>
       </c>
@@ -7603,7 +7761,7 @@
       </c>
       <c r="E58" s="33"/>
     </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="29">
         <v>58</v>
       </c>
@@ -7620,7 +7778,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="29">
         <v>59</v>
       </c>
@@ -7637,7 +7795,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="29">
         <v>60</v>
       </c>
@@ -7654,7 +7812,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="29">
         <v>61</v>
       </c>
@@ -7664,14 +7822,14 @@
       <c r="C62" s="28" t="s">
         <v>529</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D62" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E62" s="33" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="29">
         <v>62</v>
       </c>
@@ -7681,14 +7839,14 @@
       <c r="C63" s="28" t="s">
         <v>528</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D63" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E63" s="33" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="29">
         <v>63</v>
       </c>
@@ -7698,14 +7856,14 @@
       <c r="C64" s="28" t="s">
         <v>530</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="D64" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E64" s="33" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="29">
         <v>64</v>
       </c>
@@ -7715,14 +7873,14 @@
       <c r="C65" s="28" t="s">
         <v>527</v>
       </c>
-      <c r="D65" s="27" t="s">
+      <c r="D65" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E65" s="33" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="29">
         <v>65</v>
       </c>
@@ -7732,14 +7890,14 @@
       <c r="C66" s="28" t="s">
         <v>526</v>
       </c>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E66" s="33" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="29">
         <v>66</v>
       </c>
@@ -7749,14 +7907,14 @@
       <c r="C67" s="28" t="s">
         <v>525</v>
       </c>
-      <c r="D67" s="27" t="s">
+      <c r="D67" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E67" s="33" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="29">
         <v>67</v>
       </c>
@@ -7766,14 +7924,14 @@
       <c r="C68" s="28" t="s">
         <v>524</v>
       </c>
-      <c r="D68" s="27" t="s">
+      <c r="D68" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E68" s="33" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="29">
         <v>68</v>
       </c>
@@ -7783,14 +7941,14 @@
       <c r="C69" s="28" t="s">
         <v>523</v>
       </c>
-      <c r="D69" s="27" t="s">
+      <c r="D69" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E69" s="33" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="29">
         <v>69</v>
       </c>
@@ -7800,12 +7958,14 @@
       <c r="C70" s="28" t="s">
         <v>521</v>
       </c>
-      <c r="D70" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E70" s="33"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D70" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="29">
         <v>70</v>
       </c>
@@ -7815,12 +7975,14 @@
       <c r="C71" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="D71" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E71" s="33"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D71" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="29">
         <v>71</v>
       </c>
@@ -7830,12 +7992,14 @@
       <c r="C72" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="D72" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E72" s="33"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D72" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="29">
         <v>72</v>
       </c>
@@ -7845,12 +8009,14 @@
       <c r="C73" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="D73" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E73" s="33"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D73" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="29">
         <v>73</v>
       </c>
@@ -7860,12 +8026,14 @@
       <c r="C74" s="28" t="s">
         <v>522</v>
       </c>
-      <c r="D74" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="33"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D74" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="33" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="29">
         <v>74</v>
       </c>
@@ -7875,12 +8043,14 @@
       <c r="C75" s="28" t="s">
         <v>520</v>
       </c>
-      <c r="D75" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E75" s="33"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D75" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="33" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="29">
         <v>75</v>
       </c>
@@ -7890,12 +8060,14 @@
       <c r="C76" s="28" t="s">
         <v>519</v>
       </c>
-      <c r="D76" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" s="33"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D76" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="29">
         <v>76</v>
       </c>
@@ -7905,12 +8077,14 @@
       <c r="C77" s="28" t="s">
         <v>518</v>
       </c>
-      <c r="D77" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E77" s="33"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D77" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="29">
         <v>77</v>
       </c>
@@ -7920,12 +8094,12 @@
       <c r="C78" s="28" t="s">
         <v>517</v>
       </c>
-      <c r="D78" s="27" t="s">
+      <c r="D78" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E78" s="33"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="29">
         <v>78</v>
       </c>
@@ -7935,12 +8109,14 @@
       <c r="C79" s="28" t="s">
         <v>516</v>
       </c>
-      <c r="D79" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E79" s="33"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D79" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="29">
         <v>79</v>
       </c>
@@ -7950,12 +8126,14 @@
       <c r="C80" s="28" t="s">
         <v>515</v>
       </c>
-      <c r="D80" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E80" s="33"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D80" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E80" s="33" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="29">
         <v>80</v>
       </c>
@@ -7965,12 +8143,14 @@
       <c r="C81" s="28" t="s">
         <v>514</v>
       </c>
-      <c r="D81" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E81" s="33"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D81" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" s="33" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="29">
         <v>81</v>
       </c>
@@ -7980,12 +8160,12 @@
       <c r="C82" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="D82" s="27" t="s">
+      <c r="D82" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E82" s="33"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="29">
         <v>82</v>
       </c>
@@ -7995,12 +8175,14 @@
       <c r="C83" s="28" t="s">
         <v>513</v>
       </c>
-      <c r="D83" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E83" s="33"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D83" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83" s="33" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="29">
         <v>83</v>
       </c>
@@ -8010,12 +8192,12 @@
       <c r="C84" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="D84" s="27" t="s">
+      <c r="D84" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E84" s="33"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="29">
         <v>84</v>
       </c>
@@ -8025,12 +8207,14 @@
       <c r="C85" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="D85" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E85" s="33"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D85" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" s="33" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="29">
         <v>85</v>
       </c>
@@ -8040,12 +8224,12 @@
       <c r="C86" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="D86" s="27" t="s">
+      <c r="D86" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E86" s="33"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
         <v>86</v>
       </c>
@@ -8055,12 +8239,14 @@
       <c r="C87" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="D87" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E87" s="33"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D87" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" s="33" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="29">
         <v>87</v>
       </c>
@@ -8070,12 +8256,14 @@
       <c r="C88" s="28" t="s">
         <v>511</v>
       </c>
-      <c r="D88" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E88" s="33"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D88" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88" s="33" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>88</v>
       </c>
@@ -8085,12 +8273,14 @@
       <c r="C89" s="28" t="s">
         <v>510</v>
       </c>
-      <c r="D89" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" s="33"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D89" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="33" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="29">
         <v>89</v>
       </c>
@@ -8100,12 +8290,14 @@
       <c r="C90" s="28" t="s">
         <v>509</v>
       </c>
-      <c r="D90" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E90" s="33"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D90" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" s="33" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="29">
         <v>90</v>
       </c>
@@ -8115,12 +8307,14 @@
       <c r="C91" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="D91" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E91" s="33"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D91" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" s="33" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="29">
         <v>91</v>
       </c>
@@ -8130,12 +8324,12 @@
       <c r="C92" s="28" t="s">
         <v>508</v>
       </c>
-      <c r="D92" s="27" t="s">
+      <c r="D92" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E92" s="33"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="29">
         <v>92</v>
       </c>
@@ -8145,12 +8339,14 @@
       <c r="C93" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D93" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E93" s="33"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D93" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" s="33" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="29">
         <v>93</v>
       </c>
@@ -8160,12 +8356,14 @@
       <c r="C94" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="D94" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E94" s="33"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D94" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" s="33" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="29">
         <v>94</v>
       </c>
@@ -8175,12 +8373,12 @@
       <c r="C95" s="28" t="s">
         <v>507</v>
       </c>
-      <c r="D95" s="27" t="s">
+      <c r="D95" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E95" s="33"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="29">
         <v>95</v>
       </c>
@@ -8190,12 +8388,14 @@
       <c r="C96" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="D96" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E96" s="33"/>
-    </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D96" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" s="33" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="20">
         <v>1</v>
       </c>
@@ -8205,12 +8405,14 @@
       <c r="C97" s="25" t="s">
         <v>506</v>
       </c>
-      <c r="D97" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E97" s="32"/>
-    </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D97" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E97" s="32" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="20">
         <v>2</v>
       </c>
@@ -8220,12 +8422,12 @@
       <c r="C98" s="23" t="s">
         <v>505</v>
       </c>
-      <c r="D98" s="22" t="s">
+      <c r="D98" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E98" s="32"/>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="20">
         <v>3</v>
       </c>
@@ -8235,12 +8437,12 @@
       <c r="C99" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="D99" s="24" t="s">
+      <c r="D99" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E99" s="32"/>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="20">
         <v>4</v>
       </c>
@@ -8250,12 +8452,14 @@
       <c r="C100" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="D100" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E100" s="32"/>
-    </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D100" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E100" s="32" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="20">
         <v>5</v>
       </c>
@@ -8265,12 +8469,12 @@
       <c r="C101" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="D101" s="24" t="s">
+      <c r="D101" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E101" s="32"/>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="20">
         <v>6</v>
       </c>
@@ -8280,12 +8484,12 @@
       <c r="C102" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="D102" s="22" t="s">
+      <c r="D102" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E102" s="32"/>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="20">
         <v>7</v>
       </c>
@@ -8295,12 +8499,12 @@
       <c r="C103" s="25" t="s">
         <v>500</v>
       </c>
-      <c r="D103" s="24" t="s">
+      <c r="D103" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E103" s="32"/>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="20">
         <v>8</v>
       </c>
@@ -8310,12 +8514,14 @@
       <c r="C104" s="23" t="s">
         <v>499</v>
       </c>
-      <c r="D104" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E104" s="32"/>
-    </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D104" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E104" s="32" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="20">
         <v>9</v>
       </c>
@@ -8325,12 +8531,12 @@
       <c r="C105" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="D105" s="24" t="s">
+      <c r="D105" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E105" s="32"/>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="20">
         <v>10</v>
       </c>
@@ -8340,12 +8546,12 @@
       <c r="C106" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="D106" s="22" t="s">
+      <c r="D106" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E106" s="32"/>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="20">
         <v>11</v>
       </c>
@@ -8355,12 +8561,12 @@
       <c r="C107" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="D107" s="24" t="s">
+      <c r="D107" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E107" s="32"/>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="20">
         <v>12</v>
       </c>
@@ -8370,12 +8576,14 @@
       <c r="C108" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="D108" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E108" s="32"/>
-    </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D108" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E108" s="32" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A109" s="20">
         <v>13</v>
       </c>
@@ -8385,12 +8593,14 @@
       <c r="C109" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="D109" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E109" s="32"/>
-    </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D109" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E109" s="32" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="20">
         <v>14</v>
       </c>
@@ -8405,7 +8615,7 @@
       </c>
       <c r="E110" s="32"/>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="20">
         <v>15</v>
       </c>
@@ -8420,7 +8630,7 @@
       </c>
       <c r="E111" s="32"/>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="20">
         <v>16</v>
       </c>
@@ -8435,7 +8645,7 @@
       </c>
       <c r="E112" s="32"/>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="20">
         <v>17</v>
       </c>
@@ -8450,7 +8660,7 @@
       </c>
       <c r="E113" s="32"/>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="20">
         <v>18</v>
       </c>
@@ -8465,7 +8675,7 @@
       </c>
       <c r="E114" s="32"/>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="20">
         <v>19</v>
       </c>
@@ -8480,7 +8690,7 @@
       </c>
       <c r="E115" s="32"/>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>20</v>
       </c>
@@ -8495,7 +8705,7 @@
       </c>
       <c r="E116" s="32"/>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="20">
         <v>21</v>
       </c>
@@ -8510,7 +8720,7 @@
       </c>
       <c r="E117" s="32"/>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="20">
         <v>22</v>
       </c>
@@ -8525,7 +8735,7 @@
       </c>
       <c r="E118" s="32"/>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="20">
         <v>23</v>
       </c>
@@ -8540,7 +8750,7 @@
       </c>
       <c r="E119" s="32"/>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
         <v>24</v>
       </c>
@@ -8555,7 +8765,7 @@
       </c>
       <c r="E120" s="32"/>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="20">
         <v>25</v>
       </c>
@@ -8570,7 +8780,7 @@
       </c>
       <c r="E121" s="32"/>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="20">
         <v>26</v>
       </c>
@@ -8585,7 +8795,7 @@
       </c>
       <c r="E122" s="32"/>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="20">
         <v>27</v>
       </c>
@@ -8600,7 +8810,7 @@
       </c>
       <c r="E123" s="32"/>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
         <v>28</v>
       </c>
@@ -8615,7 +8825,7 @@
       </c>
       <c r="E124" s="32"/>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="20">
         <v>29</v>
       </c>
@@ -8630,7 +8840,7 @@
       </c>
       <c r="E125" s="32"/>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="20">
         <v>30</v>
       </c>
@@ -8645,7 +8855,7 @@
       </c>
       <c r="E126" s="32"/>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="20">
         <v>31</v>
       </c>
@@ -8660,7 +8870,7 @@
       </c>
       <c r="E127" s="32"/>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="20">
         <v>32</v>
       </c>
@@ -8675,7 +8885,7 @@
       </c>
       <c r="E128" s="32"/>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="20">
         <v>33</v>
       </c>
@@ -8690,7 +8900,7 @@
       </c>
       <c r="E129" s="32"/>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="20">
         <v>34</v>
       </c>
@@ -8705,7 +8915,7 @@
       </c>
       <c r="E130" s="32"/>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="20">
         <v>35</v>
       </c>
@@ -8720,7 +8930,7 @@
       </c>
       <c r="E131" s="32"/>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="20">
         <v>36</v>
       </c>
@@ -8735,7 +8945,7 @@
       </c>
       <c r="E132" s="32"/>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="20">
         <v>37</v>
       </c>
@@ -8750,7 +8960,7 @@
       </c>
       <c r="E133" s="32"/>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="20">
         <v>38</v>
       </c>
@@ -8765,7 +8975,7 @@
       </c>
       <c r="E134" s="32"/>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="20">
         <v>39</v>
       </c>
@@ -8780,7 +8990,7 @@
       </c>
       <c r="E135" s="32"/>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="20">
         <v>40</v>
       </c>
@@ -8795,7 +9005,7 @@
       </c>
       <c r="E136" s="32"/>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="20">
         <v>41</v>
       </c>
@@ -8810,7 +9020,7 @@
       </c>
       <c r="E137" s="32"/>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="20">
         <v>42</v>
       </c>
@@ -8825,7 +9035,7 @@
       </c>
       <c r="E138" s="32"/>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="20">
         <v>43</v>
       </c>
@@ -8840,7 +9050,7 @@
       </c>
       <c r="E139" s="32"/>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="20">
         <v>44</v>
       </c>
@@ -8855,7 +9065,7 @@
       </c>
       <c r="E140" s="32"/>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="20">
         <v>45</v>
       </c>
@@ -8870,7 +9080,7 @@
       </c>
       <c r="E141" s="32"/>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="20">
         <v>46</v>
       </c>
@@ -8885,7 +9095,7 @@
       </c>
       <c r="E142" s="32"/>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="20">
         <v>47</v>
       </c>
@@ -8900,7 +9110,7 @@
       </c>
       <c r="E143" s="32"/>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="20">
         <v>48</v>
       </c>
@@ -8915,7 +9125,7 @@
       </c>
       <c r="E144" s="32"/>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="20">
         <v>49</v>
       </c>
@@ -8930,7 +9140,7 @@
       </c>
       <c r="E145" s="32"/>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="20">
         <v>50</v>
       </c>
@@ -8945,7 +9155,7 @@
       </c>
       <c r="E146" s="32"/>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="20">
         <v>51</v>
       </c>
@@ -8960,7 +9170,7 @@
       </c>
       <c r="E147" s="32"/>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="20">
         <v>52</v>
       </c>
@@ -8975,7 +9185,7 @@
       </c>
       <c r="E148" s="32"/>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="20">
         <v>53</v>
       </c>
@@ -8990,7 +9200,7 @@
       </c>
       <c r="E149" s="32"/>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="20">
         <v>54</v>
       </c>
@@ -9005,7 +9215,7 @@
       </c>
       <c r="E150" s="32"/>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="20">
         <v>55</v>
       </c>
@@ -9020,7 +9230,7 @@
       </c>
       <c r="E151" s="32"/>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="20">
         <v>56</v>
       </c>
@@ -9035,7 +9245,7 @@
       </c>
       <c r="E152" s="32"/>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="20">
         <v>57</v>
       </c>
@@ -9050,7 +9260,7 @@
       </c>
       <c r="E153" s="32"/>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="20">
         <v>58</v>
       </c>
@@ -9065,7 +9275,7 @@
       </c>
       <c r="E154" s="32"/>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="20">
         <v>59</v>
       </c>
@@ -9080,7 +9290,7 @@
       </c>
       <c r="E155" s="32"/>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="20">
         <v>60</v>
       </c>
@@ -9095,7 +9305,7 @@
       </c>
       <c r="E156" s="32"/>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="20">
         <v>61</v>
       </c>
@@ -9110,7 +9320,7 @@
       </c>
       <c r="E157" s="32"/>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="20">
         <v>62</v>
       </c>
@@ -9125,7 +9335,7 @@
       </c>
       <c r="E158" s="32"/>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="20">
         <v>63</v>
       </c>
@@ -9140,7 +9350,7 @@
       </c>
       <c r="E159" s="32"/>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="20">
         <v>64</v>
       </c>
@@ -9155,7 +9365,7 @@
       </c>
       <c r="E160" s="32"/>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="20">
         <v>65</v>
       </c>
@@ -9170,7 +9380,7 @@
       </c>
       <c r="E161" s="32"/>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="20">
         <v>66</v>
       </c>
@@ -9185,7 +9395,7 @@
       </c>
       <c r="E162" s="32"/>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="20">
         <v>67</v>
       </c>
@@ -9200,7 +9410,7 @@
       </c>
       <c r="E163" s="32"/>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="20">
         <v>68</v>
       </c>
@@ -9215,7 +9425,7 @@
       </c>
       <c r="E164" s="32"/>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="20">
         <v>69</v>
       </c>
@@ -9230,7 +9440,7 @@
       </c>
       <c r="E165" s="32"/>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="20">
         <v>70</v>
       </c>
@@ -9245,7 +9455,7 @@
       </c>
       <c r="E166" s="32"/>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="20">
         <v>71</v>
       </c>
@@ -9260,7 +9470,7 @@
       </c>
       <c r="E167" s="32"/>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="20">
         <v>72</v>
       </c>
@@ -9275,7 +9485,7 @@
       </c>
       <c r="E168" s="32"/>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="20">
         <v>73</v>
       </c>
@@ -9290,7 +9500,7 @@
       </c>
       <c r="E169" s="32"/>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="20">
         <v>74</v>
       </c>
@@ -9305,7 +9515,7 @@
       </c>
       <c r="E170" s="32"/>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="20">
         <v>75</v>
       </c>
@@ -9320,7 +9530,7 @@
       </c>
       <c r="E171" s="32"/>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="20">
         <v>76</v>
       </c>
@@ -9335,7 +9545,7 @@
       </c>
       <c r="E172" s="32"/>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="20">
         <v>77</v>
       </c>
@@ -9350,7 +9560,7 @@
       </c>
       <c r="E173" s="32"/>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="20">
         <v>78</v>
       </c>
@@ -9365,7 +9575,7 @@
       </c>
       <c r="E174" s="32"/>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="20">
         <v>79</v>
       </c>
@@ -9380,7 +9590,7 @@
       </c>
       <c r="E175" s="32"/>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="20">
         <v>80</v>
       </c>
@@ -9395,7 +9605,7 @@
       </c>
       <c r="E176" s="32"/>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="20">
         <v>81</v>
       </c>
@@ -9410,7 +9620,7 @@
       </c>
       <c r="E177" s="32"/>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="20">
         <v>82</v>
       </c>
@@ -9425,7 +9635,7 @@
       </c>
       <c r="E178" s="32"/>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="20">
         <v>83</v>
       </c>
@@ -9440,7 +9650,7 @@
       </c>
       <c r="E179" s="32"/>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="20">
         <v>84</v>
       </c>
@@ -9455,7 +9665,7 @@
       </c>
       <c r="E180" s="32"/>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="20">
         <v>85</v>
       </c>
@@ -9470,7 +9680,7 @@
       </c>
       <c r="E181" s="32"/>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="20">
         <v>86</v>
       </c>
@@ -9485,7 +9695,7 @@
       </c>
       <c r="E182" s="32"/>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="20">
         <v>87</v>
       </c>
@@ -9500,7 +9710,7 @@
       </c>
       <c r="E183" s="32"/>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="20">
         <v>88</v>
       </c>
@@ -9515,7 +9725,7 @@
       </c>
       <c r="E184" s="32"/>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="20">
         <v>89</v>
       </c>
@@ -9530,7 +9740,7 @@
       </c>
       <c r="E185" s="32"/>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="20">
         <v>90</v>
       </c>
@@ -9545,7 +9755,7 @@
       </c>
       <c r="E186" s="32"/>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="20">
         <v>91</v>
       </c>
@@ -9560,7 +9770,7 @@
       </c>
       <c r="E187" s="32"/>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="20">
         <v>92</v>
       </c>
@@ -9575,7 +9785,7 @@
       </c>
       <c r="E188" s="32"/>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="20">
         <v>93</v>
       </c>
@@ -9590,7 +9800,7 @@
       </c>
       <c r="E189" s="32"/>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="20">
         <v>94</v>
       </c>
@@ -9605,7 +9815,7 @@
       </c>
       <c r="E190" s="32"/>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="20">
         <v>95</v>
       </c>
@@ -9620,7 +9830,7 @@
       </c>
       <c r="E191" s="32"/>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="20">
         <v>96</v>
       </c>
@@ -9635,7 +9845,7 @@
       </c>
       <c r="E192" s="32"/>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="20">
         <v>97</v>
       </c>
@@ -9650,7 +9860,7 @@
       </c>
       <c r="E193" s="32"/>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="20">
         <v>98</v>
       </c>
@@ -9665,7 +9875,7 @@
       </c>
       <c r="E194" s="32"/>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="20">
         <v>99</v>
       </c>
@@ -9680,7 +9890,7 @@
       </c>
       <c r="E195" s="32"/>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="20">
         <v>100</v>
       </c>
@@ -9695,7 +9905,7 @@
       </c>
       <c r="E196" s="32"/>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="20">
         <v>101</v>
       </c>
@@ -9710,7 +9920,7 @@
       </c>
       <c r="E197" s="32"/>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="20">
         <v>102</v>
       </c>
@@ -9725,7 +9935,7 @@
       </c>
       <c r="E198" s="32"/>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="20">
         <v>103</v>
       </c>
@@ -9740,7 +9950,7 @@
       </c>
       <c r="E199" s="32"/>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="20">
         <v>104</v>
       </c>
@@ -9755,7 +9965,7 @@
       </c>
       <c r="E200" s="32"/>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="20">
         <v>105</v>
       </c>
@@ -9770,7 +9980,7 @@
       </c>
       <c r="E201" s="32"/>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="20">
         <v>106</v>
       </c>
@@ -9785,7 +9995,7 @@
       </c>
       <c r="E202" s="32"/>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="20">
         <v>107</v>
       </c>
@@ -9800,7 +10010,7 @@
       </c>
       <c r="E203" s="32"/>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="20">
         <v>108</v>
       </c>
@@ -9815,7 +10025,7 @@
       </c>
       <c r="E204" s="32"/>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="20">
         <v>109</v>
       </c>
@@ -9830,7 +10040,7 @@
       </c>
       <c r="E205" s="32"/>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="20">
         <v>110</v>
       </c>
@@ -9845,7 +10055,7 @@
       </c>
       <c r="E206" s="32"/>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="20">
         <v>111</v>
       </c>
@@ -9860,7 +10070,7 @@
       </c>
       <c r="E207" s="32"/>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="20">
         <v>112</v>
       </c>
@@ -9875,7 +10085,7 @@
       </c>
       <c r="E208" s="32"/>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="20">
         <v>113</v>
       </c>
@@ -9890,7 +10100,7 @@
       </c>
       <c r="E209" s="32"/>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="20">
         <v>114</v>
       </c>
@@ -9905,7 +10115,7 @@
       </c>
       <c r="E210" s="32"/>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="20">
         <v>115</v>
       </c>
@@ -9920,7 +10130,7 @@
       </c>
       <c r="E211" s="32"/>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="20">
         <v>116</v>
       </c>
@@ -9935,7 +10145,7 @@
       </c>
       <c r="E212" s="32"/>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="20">
         <v>117</v>
       </c>
@@ -9950,7 +10160,7 @@
       </c>
       <c r="E213" s="32"/>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="20">
         <v>118</v>
       </c>
@@ -9965,7 +10175,7 @@
       </c>
       <c r="E214" s="32"/>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="20">
         <v>119</v>
       </c>
@@ -9980,7 +10190,7 @@
       </c>
       <c r="E215" s="32"/>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="20">
         <v>120</v>
       </c>
@@ -9995,7 +10205,7 @@
       </c>
       <c r="E216" s="32"/>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="20">
         <v>121</v>
       </c>
@@ -10010,7 +10220,7 @@
       </c>
       <c r="E217" s="32"/>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="20">
         <v>122</v>
       </c>
@@ -10025,7 +10235,7 @@
       </c>
       <c r="E218" s="32"/>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="20">
         <v>123</v>
       </c>
@@ -10040,7 +10250,7 @@
       </c>
       <c r="E219" s="32"/>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="20">
         <v>124</v>
       </c>
@@ -10055,7 +10265,7 @@
       </c>
       <c r="E220" s="32"/>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="20">
         <v>125</v>
       </c>
@@ -10070,7 +10280,7 @@
       </c>
       <c r="E221" s="32"/>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="20">
         <v>126</v>
       </c>
@@ -10085,7 +10295,7 @@
       </c>
       <c r="E222" s="32"/>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="20">
         <v>127</v>
       </c>
@@ -10100,7 +10310,7 @@
       </c>
       <c r="E223" s="32"/>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="20">
         <v>128</v>
       </c>
@@ -10115,7 +10325,7 @@
       </c>
       <c r="E224" s="32"/>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="20">
         <v>129</v>
       </c>
@@ -10130,7 +10340,7 @@
       </c>
       <c r="E225" s="32"/>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="20">
         <v>130</v>
       </c>
@@ -10145,7 +10355,7 @@
       </c>
       <c r="E226" s="32"/>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="20">
         <v>131</v>
       </c>
@@ -10160,7 +10370,7 @@
       </c>
       <c r="E227" s="32"/>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="20">
         <v>132</v>
       </c>
@@ -10175,7 +10385,7 @@
       </c>
       <c r="E228" s="32"/>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="20">
         <v>133</v>
       </c>
@@ -10190,7 +10400,7 @@
       </c>
       <c r="E229" s="32"/>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="20">
         <v>134</v>
       </c>
@@ -10205,7 +10415,7 @@
       </c>
       <c r="E230" s="32"/>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="20">
         <v>135</v>
       </c>
@@ -10220,7 +10430,7 @@
       </c>
       <c r="E231" s="32"/>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="20">
         <v>136</v>
       </c>
@@ -10235,7 +10445,7 @@
       </c>
       <c r="E232" s="32"/>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="20">
         <v>137</v>
       </c>
@@ -10250,7 +10460,7 @@
       </c>
       <c r="E233" s="32"/>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="20">
         <v>138</v>
       </c>
@@ -10265,7 +10475,7 @@
       </c>
       <c r="E234" s="32"/>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="20">
         <v>139</v>
       </c>
@@ -10280,7 +10490,7 @@
       </c>
       <c r="E235" s="32"/>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="20">
         <v>140</v>
       </c>
@@ -10295,7 +10505,7 @@
       </c>
       <c r="E236" s="32"/>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="20">
         <v>141</v>
       </c>
@@ -10310,7 +10520,7 @@
       </c>
       <c r="E237" s="32"/>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="20">
         <v>142</v>
       </c>
@@ -10325,7 +10535,7 @@
       </c>
       <c r="E238" s="32"/>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="20">
         <v>143</v>
       </c>
@@ -10340,7 +10550,7 @@
       </c>
       <c r="E239" s="32"/>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="20">
         <v>144</v>
       </c>
@@ -10355,7 +10565,7 @@
       </c>
       <c r="E240" s="32"/>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="20">
         <v>145</v>
       </c>
@@ -10370,7 +10580,7 @@
       </c>
       <c r="E241" s="32"/>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="20">
         <v>146</v>
       </c>
@@ -10385,7 +10595,7 @@
       </c>
       <c r="E242" s="32"/>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="20">
         <v>147</v>
       </c>
@@ -10400,7 +10610,7 @@
       </c>
       <c r="E243" s="32"/>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="20">
         <v>148</v>
       </c>
@@ -10415,7 +10625,7 @@
       </c>
       <c r="E244" s="32"/>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="20">
         <v>149</v>
       </c>
@@ -10430,7 +10640,7 @@
       </c>
       <c r="E245" s="32"/>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="20">
         <v>150</v>
       </c>
@@ -10445,7 +10655,7 @@
       </c>
       <c r="E246" s="32"/>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="20">
         <v>151</v>
       </c>
@@ -10460,7 +10670,7 @@
       </c>
       <c r="E247" s="32"/>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="20">
         <v>152</v>
       </c>
@@ -10475,7 +10685,7 @@
       </c>
       <c r="E248" s="32"/>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="20">
         <v>153</v>
       </c>
@@ -10490,7 +10700,7 @@
       </c>
       <c r="E249" s="32"/>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="20">
         <v>154</v>
       </c>
@@ -10505,7 +10715,7 @@
       </c>
       <c r="E250" s="32"/>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="20">
         <v>155</v>
       </c>
@@ -10520,7 +10730,7 @@
       </c>
       <c r="E251" s="32"/>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="20">
         <v>156</v>
       </c>
@@ -10535,7 +10745,7 @@
       </c>
       <c r="E252" s="32"/>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="20">
         <v>157</v>
       </c>
@@ -10550,7 +10760,7 @@
       </c>
       <c r="E253" s="32"/>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="20">
         <v>158</v>
       </c>
@@ -10565,7 +10775,7 @@
       </c>
       <c r="E254" s="32"/>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="20">
         <v>159</v>
       </c>
@@ -10580,7 +10790,7 @@
       </c>
       <c r="E255" s="32"/>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="20">
         <v>160</v>
       </c>
@@ -10595,7 +10805,7 @@
       </c>
       <c r="E256" s="32"/>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="20">
         <v>161</v>
       </c>
@@ -10610,7 +10820,7 @@
       </c>
       <c r="E257" s="32"/>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="20">
         <v>162</v>
       </c>
@@ -10625,7 +10835,7 @@
       </c>
       <c r="E258" s="32"/>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="20">
         <v>163</v>
       </c>
@@ -10640,7 +10850,7 @@
       </c>
       <c r="E259" s="32"/>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="20">
         <v>164</v>
       </c>
@@ -10655,7 +10865,7 @@
       </c>
       <c r="E260" s="32"/>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="20">
         <v>165</v>
       </c>
@@ -10670,7 +10880,7 @@
       </c>
       <c r="E261" s="32"/>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="20">
         <v>166</v>
       </c>
@@ -10685,7 +10895,7 @@
       </c>
       <c r="E262" s="32"/>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="20">
         <v>167</v>
       </c>
@@ -10700,7 +10910,7 @@
       </c>
       <c r="E263" s="32"/>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="20">
         <v>168</v>
       </c>
@@ -10715,7 +10925,7 @@
       </c>
       <c r="E264" s="32"/>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="20">
         <v>169</v>
       </c>
@@ -10730,7 +10940,7 @@
       </c>
       <c r="E265" s="32"/>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="20">
         <v>170</v>
       </c>
@@ -10745,7 +10955,7 @@
       </c>
       <c r="E266" s="32"/>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="20">
         <v>171</v>
       </c>
@@ -10760,7 +10970,7 @@
       </c>
       <c r="E267" s="32"/>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="20">
         <v>172</v>
       </c>
@@ -10775,7 +10985,7 @@
       </c>
       <c r="E268" s="32"/>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="20">
         <v>173</v>
       </c>
@@ -10790,7 +11000,7 @@
       </c>
       <c r="E269" s="32"/>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="20">
         <v>174</v>
       </c>
@@ -10805,7 +11015,7 @@
       </c>
       <c r="E270" s="32"/>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="20">
         <v>175</v>
       </c>
@@ -10820,7 +11030,7 @@
       </c>
       <c r="E271" s="32"/>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="20">
         <v>176</v>
       </c>
@@ -10835,7 +11045,7 @@
       </c>
       <c r="E272" s="32"/>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="20">
         <v>177</v>
       </c>
@@ -10850,7 +11060,7 @@
       </c>
       <c r="E273" s="32"/>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="20">
         <v>178</v>
       </c>
@@ -10865,7 +11075,7 @@
       </c>
       <c r="E274" s="32"/>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="20">
         <v>179</v>
       </c>
@@ -10880,7 +11090,7 @@
       </c>
       <c r="E275" s="32"/>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="20">
         <v>180</v>
       </c>
@@ -10895,7 +11105,7 @@
       </c>
       <c r="E276" s="32"/>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="20">
         <v>181</v>
       </c>
@@ -10910,7 +11120,7 @@
       </c>
       <c r="E277" s="32"/>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="20">
         <v>182</v>
       </c>
@@ -10925,7 +11135,7 @@
       </c>
       <c r="E278" s="32"/>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="20">
         <v>183</v>
       </c>
@@ -10940,7 +11150,7 @@
       </c>
       <c r="E279" s="32"/>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="20">
         <v>184</v>
       </c>
@@ -10955,7 +11165,7 @@
       </c>
       <c r="E280" s="32"/>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="20">
         <v>185</v>
       </c>
@@ -10970,7 +11180,7 @@
       </c>
       <c r="E281" s="32"/>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="20">
         <v>186</v>
       </c>
@@ -10985,7 +11195,7 @@
       </c>
       <c r="E282" s="32"/>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="20">
         <v>187</v>
       </c>
@@ -11000,7 +11210,7 @@
       </c>
       <c r="E283" s="32"/>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="20">
         <v>188</v>
       </c>
@@ -11015,7 +11225,7 @@
       </c>
       <c r="E284" s="32"/>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="20">
         <v>189</v>
       </c>
@@ -11030,7 +11240,7 @@
       </c>
       <c r="E285" s="32"/>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="20">
         <v>190</v>
       </c>
@@ -11045,7 +11255,7 @@
       </c>
       <c r="E286" s="32"/>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="20">
         <v>191</v>
       </c>
@@ -11060,7 +11270,7 @@
       </c>
       <c r="E287" s="32"/>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="20">
         <v>192</v>
       </c>
@@ -11075,7 +11285,7 @@
       </c>
       <c r="E288" s="32"/>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="20">
         <v>193</v>
       </c>
@@ -11090,7 +11300,7 @@
       </c>
       <c r="E289" s="32"/>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="20">
         <v>194</v>
       </c>
@@ -12339,7 +12549,7 @@
   <autoFilter ref="A1:E372">
     <filterColumn colId="3">
       <filters>
-        <filter val="Easy"/>
+        <filter val="Medium"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="713">
   <si>
     <t>420. Count and Say</t>
   </si>
@@ -2539,6 +2539,22 @@
 output[i] = sequence[num];
 sequence[num] = sequence[end];
 end--;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. two pass, p=1 as initial value: first from left to right (1,a1,a1a2,a1a2a3 ),second from right to left (a2a3a4, a3a4,a4,1);
+2. Recursive: (nums, forwardproduct, index, len) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BUT can stackoverflow</t>
     </r>
   </si>
 </sst>
@@ -5426,8 +5442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H95"/>
   <sheetViews>
-    <sheetView topLeftCell="C57" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView topLeftCell="C29" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -6790,7 +6806,7 @@
   <dimension ref="A1:E372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8610,12 +8626,12 @@
       <c r="C110" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="D110" s="22" t="s">
+      <c r="D110" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E110" s="32"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="20">
         <v>15</v>
       </c>
@@ -8625,10 +8641,12 @@
       <c r="C111" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="D111" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E111" s="32"/>
+      <c r="D111" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E111" s="32" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="20">

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="732">
   <si>
     <t>420. Count and Say</t>
   </si>
@@ -2555,6 +2555,283 @@
         <scheme val="minor"/>
       </rPr>
       <t>BUT can stackoverflow</t>
+    </r>
+  </si>
+  <si>
+    <t>Reservoir sampling
+1. Random, keep original array, declare output array, Arrays.copyOf(nums, nums.length)
+2. loop i in output:[0~n)int tempPos = random.nextInt(i + 1); swap i and tempPos value</t>
+  </si>
+  <si>
+    <t>Map get num with count, PriorityQueue to get top K
+1. Pair class{num, count}
+2. PriorityQueue&lt;&gt;(new Comparator&lt;Pair&gt;(){…});
+3. Map.Entry&lt;Integert, Integer&gt; entry : map.entrySet() ;  queue.offer(new Pair(entry.getKey(), entry.getValue())); if queue.size&gt;k then queue.poll()
+4. Add all pair.num into list
+5. reverse list</t>
+  </si>
+  <si>
+    <t>if i+1 &gt; i then profit +=prices[i+1]- prices[i]</t>
+  </si>
+  <si>
+    <t>Sigma f(k) = 9 * 9 * 8 * ... (9 - k + 2); 0 also count in</t>
+  </si>
+  <si>
+    <t>from 7-10 to find regular rule, hence res = 1,  while (n &gt; 4) {  res *= 3; n -= 3;  } return res</t>
+  </si>
+  <si>
+    <t>Exclusive or: x=0, x^=i (i:[0~len]), then x^=nums[i] (i:[0~len-1], finanlly x is missing num</t>
+  </si>
+  <si>
+    <r>
+      <t>stack and curt, find leftest node and push node into stack in per iterate (curt = curt.left),then curt = pop(), list.add(curt.val),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lastly curt = curt.right;</t>
+    </r>
+  </si>
+  <si>
+    <t>stack.push(root), while(!stack.isEmpty()) node = pop(), list.add(node.val), push right first, then push left when right or left is not null</t>
+  </si>
+  <si>
+    <t>对于第n个灯泡，只有当次数是n的因子的之后，才能改变灯泡的状态，即n能被当前次数整除，比如当n为36时，它的因数有(1,36), (2,18), (3,12), (4,9), (6,6), 可以看到前四个括号里成对出现的因数各不相同，括号中前面的数改变了灯泡状态，后面的数又变回去了，等于锁的状态没有发生变化，只有最后那个(6,6)，在次数6的时候改变了一次状态，没有对应其它的状态能将其变回去了，所以锁就一直是打开状态的。所以所有平方数都有这么一个相等的因数对，即所有平方数的灯泡都将会是打开的状态。</t>
+  </si>
+  <si>
+    <t>From Top-Right start search is easy readable</t>
+  </si>
+  <si>
+    <t>Heap and visited array
+1. class number : x, y, val; define comparator
+2. offer matrix[0][0] into heap, visited[0][0]=true;
+3. loop i [0~k-1), because in loop will offer a new Number, thus the kTh number will be in the peek of heap
+4. Down and right direction to find next element can be put in heap;dx= {0, 1) dy={1,0}</t>
+  </si>
+  <si>
+    <t>BITMASK for store char of word appeared, Integer has 32(4*8) bit, enough for store 26 letters.
+1. preprocess: mask[n], mask[i] |= 1 &lt;&lt; (words[i].charAt(j) - 'a'); to mark per word has which char
+2. two loop: i:[0~n) j:[i+1~n) if ((mask[i] &amp; mask[j]) == 0) means no same char in two words
+3. max record maximum words[i].length() * words[j].length()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int array store all integer of roman mapping; string array store all string of roman mapping
+1.  x=num/integer[i]; while(x&gt;0) {result+=roman[i]; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num=num%integer[i]</t>
+    </r>
+  </si>
+  <si>
+    <t>Two head to connect odd and even, then connect odd and even</t>
+  </si>
+  <si>
+    <t>1. Naïve : Inorder BST
+2. if can modified tree datastructure
+if k == node.leftNum + 1, return node
+if k &gt; node.leftNum + 1, make k -= node.leftNum + 1, and then node = node.right
+otherwise, node = node.left</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SORT first</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+DFS:   dfs(List&lt;List&lt;Integer&gt;&gt; result, List&lt;Integer&gt; list, int index, int target, int[] candidates) {
+1. target ==0 result.add(list) -&gt; if list not exist in result at first
+2. target &lt; candidates[i] return
+3. backtracking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SORT first</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+DFS:   dfs(List&lt;List&lt;Integer&gt;&gt; result, List&lt;Integer&gt; list, int index, int target, int[] candidates) {
+1. target ==0 result.add(list) -&gt; if list not exist in result at first
+2. target &lt; candidates[i] return
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.1 add prev to tracking last access element, if (cadidates[i]!=prev) then dfs next level, meantime prev=candidates[i]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. backtracking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SORT first</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+DFS:   dfs(List&lt;List&lt;Integer&gt;&gt; result, List&lt;Integer&gt; list, int start, int k, int sum) {
+0. sum &lt;0 return;
+1. target ==0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;&amp;list.size()==k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> result.add(list) -&gt; if list not exist in result at first
+2.loop i [start~9] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dfs(result, list, i + 1, k, sum - i);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. backtracking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DP : Coin change
+dp = new int[target+1]
+if (i - nums[j] &gt; 0) {dp[i] += dp[i - nums[j]];} else if (i - nums[j] == 0) {dp[i] += 1;}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+dp[i]表示组成和为i的方法由多少种，那么dp[i] = sum(dp[i-nums[j]])，其中j为遍历nums的下标索引。
+比如nums=[1,2,3], target=4。那么dp[4] = dp[4-1] + dp[4-2] + dp[4-3]。
+在初始化时，如果i为nums中的元素，那么dp[i]为1。</t>
     </r>
   </si>
 </sst>
@@ -5442,8 +5719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H95"/>
   <sheetViews>
-    <sheetView topLeftCell="C29" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="C50" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -6805,8 +7082,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E372"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8648,7 +8925,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="20">
         <v>16</v>
       </c>
@@ -8658,10 +8935,12 @@
       <c r="C112" s="23" t="s">
         <v>493</v>
       </c>
-      <c r="D112" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E112" s="32"/>
+      <c r="D112" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E112" s="32" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="20">
@@ -8673,7 +8952,7 @@
       <c r="C113" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="D113" s="24" t="s">
+      <c r="D113" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E113" s="32"/>
@@ -8688,7 +8967,7 @@
       <c r="C114" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="D114" s="22" t="s">
+      <c r="D114" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E114" s="32"/>
@@ -8703,12 +8982,12 @@
       <c r="C115" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="D115" s="24" t="s">
+      <c r="D115" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E115" s="32"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A116" s="20">
         <v>20</v>
       </c>
@@ -8718,10 +8997,12 @@
       <c r="C116" s="23" t="s">
         <v>489</v>
       </c>
-      <c r="D116" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E116" s="32"/>
+      <c r="D116" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E116" s="32" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="20">
@@ -8733,10 +9014,12 @@
       <c r="C117" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="D117" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E117" s="32"/>
+      <c r="D117" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E117" s="32" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="20">
@@ -8748,10 +9031,12 @@
       <c r="C118" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="D118" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E118" s="32"/>
+      <c r="D118" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E118" s="32" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="20">
@@ -8763,10 +9048,12 @@
       <c r="C119" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="D119" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E119" s="32"/>
+      <c r="D119" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E119" s="32" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
@@ -8778,7 +9065,7 @@
       <c r="C120" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="D120" s="22" t="s">
+      <c r="D120" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E120" s="32"/>
@@ -8793,10 +9080,12 @@
       <c r="C121" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="D121" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E121" s="32"/>
+      <c r="D121" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E121" s="32" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="20">
@@ -8808,12 +9097,12 @@
       <c r="C122" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="D122" s="22" t="s">
+      <c r="D122" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E122" s="32"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="20">
         <v>27</v>
       </c>
@@ -8823,12 +9112,14 @@
       <c r="C123" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="D123" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E123" s="32"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D123" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E123" s="32" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
         <v>28</v>
       </c>
@@ -8838,12 +9129,14 @@
       <c r="C124" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="D124" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E124" s="32"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D124" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E124" s="32" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A125" s="20">
         <v>29</v>
       </c>
@@ -8853,10 +9146,12 @@
       <c r="C125" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="D125" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E125" s="32"/>
+      <c r="D125" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E125" s="32" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="20">
@@ -8868,12 +9163,12 @@
       <c r="C126" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="D126" s="22" t="s">
+      <c r="D126" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E126" s="32"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A127" s="20">
         <v>31</v>
       </c>
@@ -8883,12 +9178,14 @@
       <c r="C127" s="25" t="s">
         <v>481</v>
       </c>
-      <c r="D127" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E127" s="32"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D127" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E127" s="32" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="20">
         <v>32</v>
       </c>
@@ -8898,10 +9195,12 @@
       <c r="C128" s="23" t="s">
         <v>477</v>
       </c>
-      <c r="D128" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E128" s="32"/>
+      <c r="D128" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E128" s="32" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="20">
@@ -8913,12 +9212,12 @@
       <c r="C129" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="D129" s="24" t="s">
+      <c r="D129" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E129" s="32"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="20">
         <v>34</v>
       </c>
@@ -8928,10 +9227,12 @@
       <c r="C130" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="D130" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E130" s="32"/>
+      <c r="D130" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E130" s="32" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="20">
@@ -8943,10 +9244,12 @@
       <c r="C131" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="D131" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E131" s="32"/>
+      <c r="D131" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E131" s="32" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="20">
@@ -8958,12 +9261,12 @@
       <c r="C132" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="D132" s="22" t="s">
+      <c r="D132" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E132" s="32"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A133" s="20">
         <v>37</v>
       </c>
@@ -8973,10 +9276,12 @@
       <c r="C133" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="D133" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E133" s="32"/>
+      <c r="D133" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E133" s="32" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="20">
@@ -8993,90 +9298,98 @@
       </c>
       <c r="E134" s="32"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A135" s="20">
+        <v>96</v>
+      </c>
+      <c r="B135" s="22">
         <v>39</v>
       </c>
-      <c r="B135" s="24">
+      <c r="C135" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="D135" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E135" s="32" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A136" s="20">
+        <v>128</v>
+      </c>
+      <c r="B136" s="22">
+        <v>40</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="D136" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E136" s="32" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A137" s="20">
+        <v>43</v>
+      </c>
+      <c r="B137" s="24">
+        <v>216</v>
+      </c>
+      <c r="C137" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="D137" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E137" s="32" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A138" s="20">
+        <v>39</v>
+      </c>
+      <c r="B138" s="24">
         <v>377</v>
       </c>
-      <c r="C135" s="25" t="s">
+      <c r="C138" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="D135" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E135" s="32"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="20">
-        <v>40</v>
-      </c>
-      <c r="B136" s="22">
-        <v>337</v>
-      </c>
-      <c r="C136" s="23" t="s">
-        <v>473</v>
-      </c>
-      <c r="D136" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E136" s="32"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="20">
-        <v>41</v>
-      </c>
-      <c r="B137" s="24">
-        <v>286</v>
-      </c>
-      <c r="C137" s="25" t="s">
-        <v>469</v>
-      </c>
-      <c r="D137" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E137" s="32"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="20">
-        <v>42</v>
-      </c>
-      <c r="B138" s="22">
-        <v>22</v>
-      </c>
-      <c r="C138" s="23" t="s">
-        <v>470</v>
-      </c>
-      <c r="D138" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E138" s="32"/>
+      <c r="D138" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E138" s="32" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="20">
-        <v>43</v>
-      </c>
-      <c r="B139" s="24">
-        <v>216</v>
-      </c>
-      <c r="C139" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="D139" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B139" s="22">
+        <v>213</v>
+      </c>
+      <c r="C139" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D139" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E139" s="32"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="20">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B140" s="22">
-        <v>137</v>
+        <v>337</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D140" s="22" t="s">
         <v>161</v>
@@ -9085,13 +9398,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="20">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B141" s="24">
-        <v>108</v>
+        <v>286</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D141" s="24" t="s">
         <v>161</v>
@@ -9100,13 +9413,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="20">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B142" s="22">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D142" s="22" t="s">
         <v>161</v>
@@ -9115,793 +9428,795 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="20">
-        <v>47</v>
-      </c>
-      <c r="B143" s="24">
-        <v>351</v>
-      </c>
-      <c r="C143" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="D143" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B143" s="22">
+        <v>137</v>
+      </c>
+      <c r="C143" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="D143" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E143" s="32"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="20">
-        <v>48</v>
-      </c>
-      <c r="B144" s="22">
-        <v>309</v>
-      </c>
-      <c r="C144" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="D144" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B144" s="24">
+        <v>108</v>
+      </c>
+      <c r="C144" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="D144" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E144" s="32"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="20">
-        <v>49</v>
-      </c>
-      <c r="B145" s="24">
-        <v>250</v>
-      </c>
-      <c r="C145" s="25" t="s">
-        <v>464</v>
-      </c>
-      <c r="D145" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B145" s="22">
+        <v>96</v>
+      </c>
+      <c r="C145" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="D145" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E145" s="32"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="20">
-        <v>50</v>
-      </c>
-      <c r="B146" s="22">
-        <v>241</v>
-      </c>
-      <c r="C146" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="D146" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B146" s="24">
+        <v>351</v>
+      </c>
+      <c r="C146" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="D146" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E146" s="32"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="20">
-        <v>51</v>
-      </c>
-      <c r="B147" s="24">
-        <v>35</v>
-      </c>
-      <c r="C147" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="D147" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B147" s="22">
+        <v>309</v>
+      </c>
+      <c r="C147" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="D147" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E147" s="32"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="20">
-        <v>52</v>
-      </c>
-      <c r="B148" s="22">
-        <v>298</v>
-      </c>
-      <c r="C148" s="23" t="s">
-        <v>460</v>
-      </c>
-      <c r="D148" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B148" s="24">
+        <v>250</v>
+      </c>
+      <c r="C148" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="D148" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E148" s="32"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="20">
-        <v>53</v>
-      </c>
-      <c r="B149" s="24">
-        <v>89</v>
-      </c>
-      <c r="C149" s="25" t="s">
-        <v>458</v>
-      </c>
-      <c r="D149" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B149" s="22">
+        <v>241</v>
+      </c>
+      <c r="C149" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="D149" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E149" s="32"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="20">
-        <v>54</v>
-      </c>
-      <c r="B150" s="22">
-        <v>46</v>
-      </c>
-      <c r="C150" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="D150" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B150" s="24">
+        <v>35</v>
+      </c>
+      <c r="C150" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="D150" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E150" s="32"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="20">
-        <v>55</v>
-      </c>
-      <c r="B151" s="24">
-        <v>255</v>
-      </c>
-      <c r="C151" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="D151" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B151" s="22">
+        <v>298</v>
+      </c>
+      <c r="C151" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="D151" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E151" s="32"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="20">
-        <v>56</v>
-      </c>
-      <c r="B152" s="22">
-        <v>62</v>
-      </c>
-      <c r="C152" s="23" t="s">
-        <v>456</v>
-      </c>
-      <c r="D152" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B152" s="24">
+        <v>89</v>
+      </c>
+      <c r="C152" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="D152" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E152" s="32"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="20">
-        <v>57</v>
-      </c>
-      <c r="B153" s="24">
-        <v>53</v>
-      </c>
-      <c r="C153" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="D153" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B153" s="22">
+        <v>46</v>
+      </c>
+      <c r="C153" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="D153" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E153" s="32"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="20">
-        <v>58</v>
-      </c>
-      <c r="B154" s="22">
-        <v>153</v>
-      </c>
-      <c r="C154" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="D154" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B154" s="24">
+        <v>255</v>
+      </c>
+      <c r="C154" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="D154" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E154" s="32"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="20">
-        <v>59</v>
-      </c>
-      <c r="B155" s="24">
-        <v>254</v>
-      </c>
-      <c r="C155" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="D155" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B155" s="22">
+        <v>62</v>
+      </c>
+      <c r="C155" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="D155" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E155" s="32"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="20">
-        <v>60</v>
-      </c>
-      <c r="B156" s="22">
-        <v>116</v>
-      </c>
-      <c r="C156" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="D156" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B156" s="24">
+        <v>53</v>
+      </c>
+      <c r="C156" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="D156" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E156" s="32"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="20">
-        <v>61</v>
-      </c>
-      <c r="B157" s="24">
-        <v>199</v>
-      </c>
-      <c r="C157" s="25" t="s">
-        <v>453</v>
-      </c>
-      <c r="D157" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B157" s="22">
+        <v>153</v>
+      </c>
+      <c r="C157" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="D157" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E157" s="32"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="20">
-        <v>62</v>
-      </c>
-      <c r="B158" s="22">
-        <v>367</v>
-      </c>
-      <c r="C158" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D158" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B158" s="24">
+        <v>254</v>
+      </c>
+      <c r="C158" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="D158" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E158" s="32"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="20">
-        <v>63</v>
-      </c>
-      <c r="B159" s="24">
-        <v>173</v>
-      </c>
-      <c r="C159" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="D159" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B159" s="22">
+        <v>116</v>
+      </c>
+      <c r="C159" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D159" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E159" s="32"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="20">
-        <v>64</v>
-      </c>
-      <c r="B160" s="22">
-        <v>59</v>
-      </c>
-      <c r="C160" s="23" t="s">
-        <v>451</v>
-      </c>
-      <c r="D160" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B160" s="24">
+        <v>199</v>
+      </c>
+      <c r="C160" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="D160" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E160" s="32"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="20">
-        <v>65</v>
-      </c>
-      <c r="B161" s="24">
-        <v>253</v>
-      </c>
-      <c r="C161" s="25" t="s">
-        <v>450</v>
-      </c>
-      <c r="D161" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B161" s="22">
+        <v>367</v>
+      </c>
+      <c r="C161" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="D161" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E161" s="32"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="20">
-        <v>66</v>
-      </c>
-      <c r="B162" s="22">
-        <v>285</v>
-      </c>
-      <c r="C162" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="D162" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B162" s="24">
+        <v>173</v>
+      </c>
+      <c r="C162" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D162" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E162" s="32"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="20">
-        <v>67</v>
-      </c>
-      <c r="B163" s="24">
-        <v>240</v>
-      </c>
-      <c r="C163" s="25" t="s">
-        <v>449</v>
-      </c>
-      <c r="D163" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B163" s="22">
+        <v>59</v>
+      </c>
+      <c r="C163" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="D163" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E163" s="32"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="20">
-        <v>68</v>
-      </c>
-      <c r="B164" s="22">
-        <v>77</v>
-      </c>
-      <c r="C164" s="23" t="s">
-        <v>448</v>
-      </c>
-      <c r="D164" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B164" s="24">
+        <v>253</v>
+      </c>
+      <c r="C164" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="D164" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E164" s="32"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="20">
-        <v>69</v>
-      </c>
-      <c r="B165" s="24">
-        <v>64</v>
-      </c>
-      <c r="C165" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="D165" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B165" s="22">
+        <v>285</v>
+      </c>
+      <c r="C165" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D165" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E165" s="32"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="20">
-        <v>70</v>
-      </c>
-      <c r="B166" s="22">
-        <v>334</v>
-      </c>
-      <c r="C166" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="D166" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E166" s="32"/>
+        <v>67</v>
+      </c>
+      <c r="B166" s="24">
+        <v>240</v>
+      </c>
+      <c r="C166" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="D166" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E166" s="32" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="20">
-        <v>71</v>
-      </c>
-      <c r="B167" s="24">
-        <v>313</v>
-      </c>
-      <c r="C167" s="25" t="s">
-        <v>446</v>
-      </c>
-      <c r="D167" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B167" s="22">
+        <v>77</v>
+      </c>
+      <c r="C167" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="D167" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E167" s="32"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="20">
-        <v>72</v>
-      </c>
-      <c r="B168" s="22">
-        <v>247</v>
-      </c>
-      <c r="C168" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="D168" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B168" s="24">
+        <v>64</v>
+      </c>
+      <c r="C168" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="D168" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E168" s="32"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="20">
-        <v>73</v>
-      </c>
-      <c r="B169" s="24">
-        <v>48</v>
-      </c>
-      <c r="C169" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D169" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B169" s="22">
+        <v>334</v>
+      </c>
+      <c r="C169" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="D169" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E169" s="32"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="20">
-        <v>74</v>
-      </c>
-      <c r="B170" s="22">
-        <v>300</v>
-      </c>
-      <c r="C170" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="D170" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B170" s="24">
+        <v>313</v>
+      </c>
+      <c r="C170" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="D170" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E170" s="32"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="20">
-        <v>75</v>
-      </c>
-      <c r="B171" s="24">
-        <v>361</v>
-      </c>
-      <c r="C171" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="D171" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B171" s="22">
+        <v>247</v>
+      </c>
+      <c r="C171" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="D171" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E171" s="32"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="20">
-        <v>76</v>
-      </c>
-      <c r="B172" s="22">
-        <v>251</v>
-      </c>
-      <c r="C172" s="23" t="s">
-        <v>444</v>
-      </c>
-      <c r="D172" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B172" s="24">
+        <v>48</v>
+      </c>
+      <c r="C172" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D172" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E172" s="32"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="20">
-        <v>77</v>
-      </c>
-      <c r="B173" s="24">
-        <v>75</v>
-      </c>
-      <c r="C173" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="D173" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B173" s="22">
+        <v>300</v>
+      </c>
+      <c r="C173" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="D173" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E173" s="32"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="20">
-        <v>78</v>
-      </c>
-      <c r="B174" s="22">
-        <v>289</v>
-      </c>
-      <c r="C174" s="23" t="s">
-        <v>442</v>
-      </c>
-      <c r="D174" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B174" s="24">
+        <v>361</v>
+      </c>
+      <c r="C174" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="D174" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E174" s="32"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="20">
-        <v>79</v>
-      </c>
-      <c r="B175" s="24">
-        <v>11</v>
-      </c>
-      <c r="C175" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="D175" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B175" s="22">
+        <v>251</v>
+      </c>
+      <c r="C175" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="D175" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E175" s="32"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="20">
-        <v>80</v>
-      </c>
-      <c r="B176" s="22">
-        <v>277</v>
-      </c>
-      <c r="C176" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="D176" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B176" s="24">
+        <v>75</v>
+      </c>
+      <c r="C176" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="D176" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E176" s="32"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="20">
-        <v>81</v>
-      </c>
-      <c r="B177" s="24">
-        <v>244</v>
-      </c>
-      <c r="C177" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="D177" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B177" s="22">
+        <v>289</v>
+      </c>
+      <c r="C177" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="D177" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E177" s="32"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="20">
-        <v>82</v>
-      </c>
-      <c r="B178" s="22">
-        <v>215</v>
-      </c>
-      <c r="C178" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="D178" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B178" s="24">
+        <v>11</v>
+      </c>
+      <c r="C178" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="D178" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E178" s="32"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="20">
-        <v>83</v>
-      </c>
-      <c r="B179" s="24">
-        <v>74</v>
-      </c>
-      <c r="C179" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="D179" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B179" s="22">
+        <v>277</v>
+      </c>
+      <c r="C179" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="D179" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E179" s="32"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="20">
-        <v>84</v>
-      </c>
-      <c r="B180" s="22">
-        <v>284</v>
-      </c>
-      <c r="C180" s="23" t="s">
-        <v>435</v>
-      </c>
-      <c r="D180" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B180" s="24">
+        <v>244</v>
+      </c>
+      <c r="C180" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="D180" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E180" s="32"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="20">
-        <v>85</v>
-      </c>
-      <c r="B181" s="24">
-        <v>73</v>
-      </c>
-      <c r="C181" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="D181" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B181" s="22">
+        <v>215</v>
+      </c>
+      <c r="C181" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D181" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E181" s="32"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="20">
-        <v>86</v>
-      </c>
-      <c r="B182" s="22">
-        <v>376</v>
-      </c>
-      <c r="C182" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="D182" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B182" s="24">
+        <v>74</v>
+      </c>
+      <c r="C182" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="D182" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E182" s="32"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="20">
-        <v>87</v>
-      </c>
-      <c r="B183" s="24">
-        <v>261</v>
-      </c>
-      <c r="C183" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="D183" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B183" s="22">
+        <v>284</v>
+      </c>
+      <c r="C183" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="D183" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E183" s="32"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="20">
-        <v>88</v>
-      </c>
-      <c r="B184" s="22">
-        <v>162</v>
-      </c>
-      <c r="C184" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="D184" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B184" s="24">
+        <v>73</v>
+      </c>
+      <c r="C184" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D184" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E184" s="32"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="20">
-        <v>89</v>
-      </c>
-      <c r="B185" s="24">
-        <v>279</v>
-      </c>
-      <c r="C185" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="D185" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B185" s="22">
+        <v>376</v>
+      </c>
+      <c r="C185" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="D185" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E185" s="32"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="20">
-        <v>90</v>
-      </c>
-      <c r="B186" s="22">
-        <v>341</v>
-      </c>
-      <c r="C186" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="D186" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B186" s="24">
+        <v>261</v>
+      </c>
+      <c r="C186" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="D186" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E186" s="32"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="20">
-        <v>91</v>
-      </c>
-      <c r="B187" s="24">
-        <v>129</v>
-      </c>
-      <c r="C187" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="D187" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B187" s="22">
+        <v>162</v>
+      </c>
+      <c r="C187" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D187" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E187" s="32"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="20">
-        <v>92</v>
-      </c>
-      <c r="B188" s="22">
-        <v>80</v>
-      </c>
-      <c r="C188" s="23" t="s">
-        <v>429</v>
-      </c>
-      <c r="D188" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B188" s="24">
+        <v>279</v>
+      </c>
+      <c r="C188" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="D188" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E188" s="32"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="20">
-        <v>93</v>
-      </c>
-      <c r="B189" s="24">
-        <v>78</v>
-      </c>
-      <c r="C189" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="D189" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B189" s="22">
+        <v>341</v>
+      </c>
+      <c r="C189" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="D189" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E189" s="32"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="20">
-        <v>94</v>
-      </c>
-      <c r="B190" s="22">
-        <v>331</v>
-      </c>
-      <c r="C190" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="D190" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B190" s="24">
+        <v>129</v>
+      </c>
+      <c r="C190" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="D190" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E190" s="32"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="20">
-        <v>95</v>
-      </c>
-      <c r="B191" s="24">
-        <v>275</v>
-      </c>
-      <c r="C191" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="D191" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B191" s="22">
+        <v>80</v>
+      </c>
+      <c r="C191" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="D191" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E191" s="32"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="20">
-        <v>96</v>
-      </c>
-      <c r="B192" s="22">
-        <v>39</v>
-      </c>
-      <c r="C192" s="23" t="s">
-        <v>425</v>
-      </c>
-      <c r="D192" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B192" s="24">
+        <v>78</v>
+      </c>
+      <c r="C192" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="D192" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E192" s="32"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="20">
-        <v>97</v>
-      </c>
-      <c r="B193" s="24">
-        <v>314</v>
-      </c>
-      <c r="C193" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="D193" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B193" s="22">
+        <v>331</v>
+      </c>
+      <c r="C193" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="D193" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E193" s="32"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="20">
-        <v>98</v>
-      </c>
-      <c r="B194" s="22">
-        <v>81</v>
-      </c>
-      <c r="C194" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="D194" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B194" s="24">
+        <v>275</v>
+      </c>
+      <c r="C194" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="D194" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E194" s="32"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="20">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B195" s="24">
-        <v>114</v>
+        <v>314</v>
       </c>
       <c r="C195" s="25" t="s">
-        <v>237</v>
+        <v>424</v>
       </c>
       <c r="D195" s="24" t="s">
         <v>161</v>
@@ -9910,13 +10225,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="20">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B196" s="22">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="C196" s="23" t="s">
-        <v>236</v>
+        <v>423</v>
       </c>
       <c r="D196" s="22" t="s">
         <v>161</v>
@@ -9925,13 +10240,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="20">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B197" s="24">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="C197" s="25" t="s">
-        <v>421</v>
+        <v>237</v>
       </c>
       <c r="D197" s="24" t="s">
         <v>161</v>
@@ -9940,405 +10255,405 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="20">
-        <v>102</v>
-      </c>
-      <c r="B198" s="22">
-        <v>90</v>
-      </c>
-      <c r="C198" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="D198" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B198" s="24">
+        <v>201</v>
+      </c>
+      <c r="C198" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="D198" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E198" s="32"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="20">
-        <v>103</v>
-      </c>
-      <c r="B199" s="24">
-        <v>109</v>
-      </c>
-      <c r="C199" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="D199" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B199" s="22">
+        <v>90</v>
+      </c>
+      <c r="C199" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D199" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E199" s="32"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="20">
-        <v>104</v>
-      </c>
-      <c r="B200" s="22">
-        <v>368</v>
-      </c>
-      <c r="C200" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="D200" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B200" s="24">
+        <v>109</v>
+      </c>
+      <c r="C200" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="D200" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E200" s="32"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="20">
-        <v>105</v>
-      </c>
-      <c r="B201" s="24">
-        <v>142</v>
-      </c>
-      <c r="C201" s="25" t="s">
-        <v>417</v>
-      </c>
-      <c r="D201" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B201" s="22">
+        <v>368</v>
+      </c>
+      <c r="C201" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="D201" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E201" s="32"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="20">
-        <v>106</v>
-      </c>
-      <c r="B202" s="22">
-        <v>120</v>
-      </c>
-      <c r="C202" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="D202" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B202" s="24">
+        <v>142</v>
+      </c>
+      <c r="C202" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="D202" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E202" s="32"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="20">
-        <v>107</v>
-      </c>
-      <c r="B203" s="24">
-        <v>372</v>
-      </c>
-      <c r="C203" s="25" t="s">
-        <v>416</v>
-      </c>
-      <c r="D203" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B203" s="22">
+        <v>120</v>
+      </c>
+      <c r="C203" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="D203" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E203" s="32"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="20">
-        <v>108</v>
-      </c>
-      <c r="B204" s="22">
-        <v>375</v>
-      </c>
-      <c r="C204" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="D204" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B204" s="24">
+        <v>372</v>
+      </c>
+      <c r="C204" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="D204" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E204" s="32"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="20">
-        <v>109</v>
-      </c>
-      <c r="B205" s="24">
-        <v>274</v>
-      </c>
-      <c r="C205" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="D205" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B205" s="22">
+        <v>375</v>
+      </c>
+      <c r="C205" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="D205" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E205" s="32"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="20">
-        <v>110</v>
-      </c>
-      <c r="B206" s="22">
-        <v>147</v>
-      </c>
-      <c r="C206" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="D206" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B206" s="24">
+        <v>274</v>
+      </c>
+      <c r="C206" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="D206" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E206" s="32"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="20">
-        <v>111</v>
-      </c>
-      <c r="B207" s="24">
-        <v>86</v>
-      </c>
-      <c r="C207" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="D207" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B207" s="22">
+        <v>147</v>
+      </c>
+      <c r="C207" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="D207" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E207" s="32"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="20">
-        <v>112</v>
-      </c>
-      <c r="B208" s="22">
-        <v>163</v>
-      </c>
-      <c r="C208" s="23" t="s">
-        <v>411</v>
-      </c>
-      <c r="D208" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B208" s="24">
+        <v>86</v>
+      </c>
+      <c r="C208" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="D208" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E208" s="32"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="20">
-        <v>113</v>
-      </c>
-      <c r="B209" s="24">
-        <v>17</v>
-      </c>
-      <c r="C209" s="25" t="s">
-        <v>410</v>
-      </c>
-      <c r="D209" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B209" s="22">
+        <v>163</v>
+      </c>
+      <c r="C209" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="D209" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E209" s="32"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="20">
-        <v>114</v>
-      </c>
-      <c r="B210" s="22">
-        <v>103</v>
-      </c>
-      <c r="C210" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="D210" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B210" s="24">
+        <v>17</v>
+      </c>
+      <c r="C210" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="D210" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E210" s="32"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="20">
-        <v>115</v>
-      </c>
-      <c r="B211" s="24">
-        <v>63</v>
-      </c>
-      <c r="C211" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="D211" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B211" s="22">
+        <v>103</v>
+      </c>
+      <c r="C211" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D211" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E211" s="32"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="20">
-        <v>116</v>
-      </c>
-      <c r="B212" s="22">
-        <v>264</v>
-      </c>
-      <c r="C212" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="D212" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B212" s="24">
+        <v>63</v>
+      </c>
+      <c r="C212" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="D212" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E212" s="32"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="20">
-        <v>117</v>
-      </c>
-      <c r="B213" s="24">
-        <v>34</v>
-      </c>
-      <c r="C213" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="D213" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B213" s="22">
+        <v>264</v>
+      </c>
+      <c r="C213" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="D213" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E213" s="32"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="20">
-        <v>118</v>
-      </c>
-      <c r="B214" s="22">
-        <v>106</v>
-      </c>
-      <c r="C214" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="D214" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B214" s="24">
+        <v>34</v>
+      </c>
+      <c r="C214" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="D214" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E214" s="32"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="20">
-        <v>119</v>
-      </c>
-      <c r="B215" s="24">
-        <v>16</v>
-      </c>
-      <c r="C215" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="D215" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B215" s="22">
+        <v>106</v>
+      </c>
+      <c r="C215" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D215" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E215" s="32"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="20">
-        <v>120</v>
-      </c>
-      <c r="B216" s="22">
-        <v>200</v>
-      </c>
-      <c r="C216" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D216" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B216" s="24">
+        <v>16</v>
+      </c>
+      <c r="C216" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="D216" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E216" s="32"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="20">
-        <v>121</v>
-      </c>
-      <c r="B217" s="24">
-        <v>95</v>
-      </c>
-      <c r="C217" s="25" t="s">
-        <v>403</v>
-      </c>
-      <c r="D217" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B217" s="22">
+        <v>200</v>
+      </c>
+      <c r="C217" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D217" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E217" s="32"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="20">
-        <v>122</v>
-      </c>
-      <c r="B218" s="22">
-        <v>105</v>
-      </c>
-      <c r="C218" s="23" t="s">
-        <v>405</v>
-      </c>
-      <c r="D218" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B218" s="24">
+        <v>95</v>
+      </c>
+      <c r="C218" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="D218" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E218" s="32"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="20">
-        <v>123</v>
-      </c>
-      <c r="B219" s="24">
-        <v>267</v>
-      </c>
-      <c r="C219" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="D219" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B219" s="22">
+        <v>105</v>
+      </c>
+      <c r="C219" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="D219" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E219" s="32"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="20">
-        <v>124</v>
-      </c>
-      <c r="B220" s="22">
-        <v>113</v>
-      </c>
-      <c r="C220" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="D220" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B220" s="24">
+        <v>267</v>
+      </c>
+      <c r="C220" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D220" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E220" s="32"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="20">
-        <v>125</v>
-      </c>
-      <c r="B221" s="24">
-        <v>161</v>
-      </c>
-      <c r="C221" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="D221" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B221" s="22">
+        <v>113</v>
+      </c>
+      <c r="C221" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="D221" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E221" s="32"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="20">
-        <v>126</v>
-      </c>
-      <c r="B222" s="22">
-        <v>49</v>
-      </c>
-      <c r="C222" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="D222" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B222" s="24">
+        <v>161</v>
+      </c>
+      <c r="C222" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="D222" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E222" s="32"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="20">
-        <v>127</v>
-      </c>
-      <c r="B223" s="24">
-        <v>47</v>
-      </c>
-      <c r="C223" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="D223" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B223" s="22">
+        <v>49</v>
+      </c>
+      <c r="C223" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="D223" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E223" s="32"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="20">
-        <v>128</v>
-      </c>
-      <c r="B224" s="22">
-        <v>40</v>
-      </c>
-      <c r="C224" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="D224" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B224" s="24">
+        <v>47</v>
+      </c>
+      <c r="C224" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D224" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E224" s="32"/>
@@ -12706,96 +13021,96 @@
     <hyperlink ref="C132" r:id="rId132" display="https://leetcode.com/problems/binary-tree-upside-down/"/>
     <hyperlink ref="C133" r:id="rId133" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst/"/>
     <hyperlink ref="C134" r:id="rId134" display="https://leetcode.com/problems/3sum-smaller/"/>
-    <hyperlink ref="C135" r:id="rId135" display="https://leetcode.com/problems/combination-sum-iv/"/>
-    <hyperlink ref="C136" r:id="rId136" display="https://leetcode.com/problems/house-robber-iii/"/>
-    <hyperlink ref="C137" r:id="rId137" display="https://leetcode.com/problems/walls-and-gates/"/>
-    <hyperlink ref="C138" r:id="rId138" display="https://leetcode.com/problems/generate-parentheses/"/>
-    <hyperlink ref="C139" r:id="rId139" display="https://leetcode.com/problems/combination-sum-iii/"/>
-    <hyperlink ref="C140" r:id="rId140" display="https://leetcode.com/problems/single-number-ii/"/>
-    <hyperlink ref="C141" r:id="rId141" display="https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/"/>
-    <hyperlink ref="C142" r:id="rId142" display="https://leetcode.com/problems/unique-binary-search-trees/"/>
-    <hyperlink ref="C143" r:id="rId143" display="https://leetcode.com/problems/android-unlock-patterns/"/>
-    <hyperlink ref="C144" r:id="rId144" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/"/>
-    <hyperlink ref="C145" r:id="rId145" display="https://leetcode.com/problems/count-univalue-subtrees/"/>
-    <hyperlink ref="C146" r:id="rId146" display="https://leetcode.com/problems/different-ways-to-add-parentheses/"/>
-    <hyperlink ref="C147" r:id="rId147" display="https://leetcode.com/problems/search-insert-position/"/>
-    <hyperlink ref="C148" r:id="rId148" display="https://leetcode.com/problems/binary-tree-longest-consecutive-sequence/"/>
-    <hyperlink ref="C149" r:id="rId149" display="https://leetcode.com/problems/gray-code/"/>
-    <hyperlink ref="C150" r:id="rId150" display="https://leetcode.com/problems/permutations/"/>
-    <hyperlink ref="C151" r:id="rId151" display="https://leetcode.com/problems/verify-preorder-sequence-in-binary-search-tree/"/>
-    <hyperlink ref="C152" r:id="rId152" display="https://leetcode.com/problems/unique-paths/"/>
-    <hyperlink ref="C153" r:id="rId153" display="https://leetcode.com/problems/maximum-subarray/"/>
-    <hyperlink ref="C154" r:id="rId154" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/"/>
-    <hyperlink ref="C155" r:id="rId155" display="https://leetcode.com/problems/factor-combinations/"/>
-    <hyperlink ref="C156" r:id="rId156" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node/"/>
-    <hyperlink ref="C157" r:id="rId157" display="https://leetcode.com/problems/binary-tree-right-side-view/"/>
-    <hyperlink ref="C158" r:id="rId158" display="https://leetcode.com/problems/valid-perfect-square/"/>
-    <hyperlink ref="C159" r:id="rId159" display="https://leetcode.com/problems/binary-search-tree-iterator/"/>
-    <hyperlink ref="C160" r:id="rId160" display="https://leetcode.com/problems/spiral-matrix-ii/"/>
-    <hyperlink ref="C161" r:id="rId161" display="https://leetcode.com/problems/meeting-rooms-ii/"/>
-    <hyperlink ref="C162" r:id="rId162" display="https://leetcode.com/problems/inorder-successor-in-bst/"/>
-    <hyperlink ref="C163" r:id="rId163" display="https://leetcode.com/problems/search-a-2d-matrix-ii/"/>
-    <hyperlink ref="C164" r:id="rId164" display="https://leetcode.com/problems/combinations/"/>
-    <hyperlink ref="C165" r:id="rId165" display="https://leetcode.com/problems/minimum-path-sum/"/>
-    <hyperlink ref="C166" r:id="rId166" display="https://leetcode.com/problems/increasing-triplet-subsequence/"/>
-    <hyperlink ref="C167" r:id="rId167" display="https://leetcode.com/problems/super-ugly-number/"/>
-    <hyperlink ref="C168" r:id="rId168" display="https://leetcode.com/problems/strobogrammatic-number-ii/"/>
-    <hyperlink ref="C169" r:id="rId169" display="https://leetcode.com/problems/rotate-image/"/>
-    <hyperlink ref="C170" r:id="rId170" display="https://leetcode.com/problems/longest-increasing-subsequence/"/>
-    <hyperlink ref="C171" r:id="rId171" display="https://leetcode.com/problems/bomb-enemy/"/>
-    <hyperlink ref="C172" r:id="rId172" display="https://leetcode.com/problems/flatten-2d-vector/"/>
-    <hyperlink ref="C173" r:id="rId173" display="https://leetcode.com/problems/sort-colors/"/>
-    <hyperlink ref="C174" r:id="rId174" display="https://leetcode.com/problems/game-of-life/"/>
-    <hyperlink ref="C175" r:id="rId175" display="https://leetcode.com/problems/container-with-most-water/"/>
-    <hyperlink ref="C176" r:id="rId176" display="https://leetcode.com/problems/find-the-celebrity/"/>
-    <hyperlink ref="C177" r:id="rId177" display="https://leetcode.com/problems/shortest-word-distance-ii/"/>
-    <hyperlink ref="C178" r:id="rId178" display="https://leetcode.com/problems/kth-largest-element-in-an-array/"/>
-    <hyperlink ref="C179" r:id="rId179" display="https://leetcode.com/problems/search-a-2d-matrix/"/>
-    <hyperlink ref="C180" r:id="rId180" display="https://leetcode.com/problems/peeking-iterator/"/>
-    <hyperlink ref="C181" r:id="rId181" display="https://leetcode.com/problems/set-matrix-zeroes/"/>
-    <hyperlink ref="C182" r:id="rId182" display="https://leetcode.com/problems/wiggle-subsequence/"/>
-    <hyperlink ref="C183" r:id="rId183" display="https://leetcode.com/problems/graph-valid-tree/"/>
-    <hyperlink ref="C184" r:id="rId184" display="https://leetcode.com/problems/find-peak-element/"/>
-    <hyperlink ref="C185" r:id="rId185" display="https://leetcode.com/problems/perfect-squares/"/>
-    <hyperlink ref="C186" r:id="rId186" display="https://leetcode.com/problems/flatten-nested-list-iterator/"/>
-    <hyperlink ref="C187" r:id="rId187" display="https://leetcode.com/problems/sum-root-to-leaf-numbers/"/>
-    <hyperlink ref="C188" r:id="rId188" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array-ii/"/>
-    <hyperlink ref="C189" r:id="rId189" display="https://leetcode.com/problems/subsets/"/>
-    <hyperlink ref="C190" r:id="rId190" display="https://leetcode.com/problems/verify-preorder-serialization-of-a-binary-tree/"/>
-    <hyperlink ref="C191" r:id="rId191" display="https://leetcode.com/problems/h-index-ii/"/>
-    <hyperlink ref="C192" r:id="rId192" display="https://leetcode.com/problems/combination-sum/"/>
-    <hyperlink ref="C193" r:id="rId193" display="https://leetcode.com/problems/binary-tree-vertical-order-traversal/"/>
-    <hyperlink ref="C194" r:id="rId194" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii/"/>
-    <hyperlink ref="C195" r:id="rId195" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list/"/>
-    <hyperlink ref="C196" r:id="rId196" display="https://leetcode.com/problems/house-robber-ii/"/>
-    <hyperlink ref="C197" r:id="rId197" display="https://leetcode.com/problems/bitwise-and-of-numbers-range/"/>
-    <hyperlink ref="C198" r:id="rId198" display="https://leetcode.com/problems/subsets-ii/"/>
-    <hyperlink ref="C199" r:id="rId199" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/"/>
-    <hyperlink ref="C200" r:id="rId200" display="https://leetcode.com/problems/largest-divisible-subset/"/>
-    <hyperlink ref="C201" r:id="rId201" display="https://leetcode.com/problems/linked-list-cycle-ii/"/>
-    <hyperlink ref="C202" r:id="rId202" display="https://leetcode.com/problems/triangle/"/>
-    <hyperlink ref="C203" r:id="rId203" display="https://leetcode.com/problems/super-pow/"/>
-    <hyperlink ref="C204" r:id="rId204" display="https://leetcode.com/problems/guess-number-higher-or-lower-ii/"/>
-    <hyperlink ref="C205" r:id="rId205" display="https://leetcode.com/problems/h-index/"/>
-    <hyperlink ref="C206" r:id="rId206" display="https://leetcode.com/problems/insertion-sort-list/"/>
-    <hyperlink ref="C207" r:id="rId207" display="https://leetcode.com/problems/partition-list/"/>
-    <hyperlink ref="C208" r:id="rId208" display="https://leetcode.com/problems/missing-ranges/"/>
-    <hyperlink ref="C209" r:id="rId209" display="https://leetcode.com/problems/letter-combinations-of-a-phone-number/"/>
-    <hyperlink ref="C210" r:id="rId210" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/"/>
-    <hyperlink ref="C211" r:id="rId211" display="https://leetcode.com/problems/unique-paths-ii/"/>
-    <hyperlink ref="C212" r:id="rId212" display="https://leetcode.com/problems/ugly-number-ii/"/>
-    <hyperlink ref="C213" r:id="rId213" display="https://leetcode.com/problems/search-for-a-range/"/>
-    <hyperlink ref="C214" r:id="rId214" display="https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/"/>
-    <hyperlink ref="C215" r:id="rId215" display="https://leetcode.com/problems/3sum-closest/"/>
-    <hyperlink ref="C216" r:id="rId216" display="https://leetcode.com/problems/number-of-islands/"/>
-    <hyperlink ref="C217" r:id="rId217" display="https://leetcode.com/problems/unique-binary-search-trees-ii/"/>
-    <hyperlink ref="C218" r:id="rId218" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/"/>
-    <hyperlink ref="C219" r:id="rId219" display="https://leetcode.com/problems/palindrome-permutation-ii/"/>
-    <hyperlink ref="C220" r:id="rId220" display="https://leetcode.com/problems/path-sum-ii/"/>
-    <hyperlink ref="C221" r:id="rId221" display="https://leetcode.com/problems/one-edit-distance/"/>
-    <hyperlink ref="C222" r:id="rId222" display="https://leetcode.com/problems/anagrams/"/>
-    <hyperlink ref="C223" r:id="rId223" display="https://leetcode.com/problems/permutations-ii/"/>
-    <hyperlink ref="C224" r:id="rId224" display="https://leetcode.com/problems/combination-sum-ii/"/>
+    <hyperlink ref="C138" r:id="rId135" display="https://leetcode.com/problems/combination-sum-iv/"/>
+    <hyperlink ref="C140" r:id="rId136" display="https://leetcode.com/problems/house-robber-iii/"/>
+    <hyperlink ref="C141" r:id="rId137" display="https://leetcode.com/problems/walls-and-gates/"/>
+    <hyperlink ref="C142" r:id="rId138" display="https://leetcode.com/problems/generate-parentheses/"/>
+    <hyperlink ref="C137" r:id="rId139" display="https://leetcode.com/problems/combination-sum-iii/"/>
+    <hyperlink ref="C143" r:id="rId140" display="https://leetcode.com/problems/single-number-ii/"/>
+    <hyperlink ref="C144" r:id="rId141" display="https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/"/>
+    <hyperlink ref="C145" r:id="rId142" display="https://leetcode.com/problems/unique-binary-search-trees/"/>
+    <hyperlink ref="C146" r:id="rId143" display="https://leetcode.com/problems/android-unlock-patterns/"/>
+    <hyperlink ref="C147" r:id="rId144" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/"/>
+    <hyperlink ref="C148" r:id="rId145" display="https://leetcode.com/problems/count-univalue-subtrees/"/>
+    <hyperlink ref="C149" r:id="rId146" display="https://leetcode.com/problems/different-ways-to-add-parentheses/"/>
+    <hyperlink ref="C150" r:id="rId147" display="https://leetcode.com/problems/search-insert-position/"/>
+    <hyperlink ref="C151" r:id="rId148" display="https://leetcode.com/problems/binary-tree-longest-consecutive-sequence/"/>
+    <hyperlink ref="C152" r:id="rId149" display="https://leetcode.com/problems/gray-code/"/>
+    <hyperlink ref="C153" r:id="rId150" display="https://leetcode.com/problems/permutations/"/>
+    <hyperlink ref="C154" r:id="rId151" display="https://leetcode.com/problems/verify-preorder-sequence-in-binary-search-tree/"/>
+    <hyperlink ref="C155" r:id="rId152" display="https://leetcode.com/problems/unique-paths/"/>
+    <hyperlink ref="C156" r:id="rId153" display="https://leetcode.com/problems/maximum-subarray/"/>
+    <hyperlink ref="C157" r:id="rId154" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/"/>
+    <hyperlink ref="C158" r:id="rId155" display="https://leetcode.com/problems/factor-combinations/"/>
+    <hyperlink ref="C159" r:id="rId156" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node/"/>
+    <hyperlink ref="C160" r:id="rId157" display="https://leetcode.com/problems/binary-tree-right-side-view/"/>
+    <hyperlink ref="C161" r:id="rId158" display="https://leetcode.com/problems/valid-perfect-square/"/>
+    <hyperlink ref="C162" r:id="rId159" display="https://leetcode.com/problems/binary-search-tree-iterator/"/>
+    <hyperlink ref="C163" r:id="rId160" display="https://leetcode.com/problems/spiral-matrix-ii/"/>
+    <hyperlink ref="C164" r:id="rId161" display="https://leetcode.com/problems/meeting-rooms-ii/"/>
+    <hyperlink ref="C165" r:id="rId162" display="https://leetcode.com/problems/inorder-successor-in-bst/"/>
+    <hyperlink ref="C166" r:id="rId163" display="https://leetcode.com/problems/search-a-2d-matrix-ii/"/>
+    <hyperlink ref="C167" r:id="rId164" display="https://leetcode.com/problems/combinations/"/>
+    <hyperlink ref="C168" r:id="rId165" display="https://leetcode.com/problems/minimum-path-sum/"/>
+    <hyperlink ref="C169" r:id="rId166" display="https://leetcode.com/problems/increasing-triplet-subsequence/"/>
+    <hyperlink ref="C170" r:id="rId167" display="https://leetcode.com/problems/super-ugly-number/"/>
+    <hyperlink ref="C171" r:id="rId168" display="https://leetcode.com/problems/strobogrammatic-number-ii/"/>
+    <hyperlink ref="C172" r:id="rId169" display="https://leetcode.com/problems/rotate-image/"/>
+    <hyperlink ref="C173" r:id="rId170" display="https://leetcode.com/problems/longest-increasing-subsequence/"/>
+    <hyperlink ref="C174" r:id="rId171" display="https://leetcode.com/problems/bomb-enemy/"/>
+    <hyperlink ref="C175" r:id="rId172" display="https://leetcode.com/problems/flatten-2d-vector/"/>
+    <hyperlink ref="C176" r:id="rId173" display="https://leetcode.com/problems/sort-colors/"/>
+    <hyperlink ref="C177" r:id="rId174" display="https://leetcode.com/problems/game-of-life/"/>
+    <hyperlink ref="C178" r:id="rId175" display="https://leetcode.com/problems/container-with-most-water/"/>
+    <hyperlink ref="C179" r:id="rId176" display="https://leetcode.com/problems/find-the-celebrity/"/>
+    <hyperlink ref="C180" r:id="rId177" display="https://leetcode.com/problems/shortest-word-distance-ii/"/>
+    <hyperlink ref="C181" r:id="rId178" display="https://leetcode.com/problems/kth-largest-element-in-an-array/"/>
+    <hyperlink ref="C182" r:id="rId179" display="https://leetcode.com/problems/search-a-2d-matrix/"/>
+    <hyperlink ref="C183" r:id="rId180" display="https://leetcode.com/problems/peeking-iterator/"/>
+    <hyperlink ref="C184" r:id="rId181" display="https://leetcode.com/problems/set-matrix-zeroes/"/>
+    <hyperlink ref="C185" r:id="rId182" display="https://leetcode.com/problems/wiggle-subsequence/"/>
+    <hyperlink ref="C186" r:id="rId183" display="https://leetcode.com/problems/graph-valid-tree/"/>
+    <hyperlink ref="C187" r:id="rId184" display="https://leetcode.com/problems/find-peak-element/"/>
+    <hyperlink ref="C188" r:id="rId185" display="https://leetcode.com/problems/perfect-squares/"/>
+    <hyperlink ref="C189" r:id="rId186" display="https://leetcode.com/problems/flatten-nested-list-iterator/"/>
+    <hyperlink ref="C190" r:id="rId187" display="https://leetcode.com/problems/sum-root-to-leaf-numbers/"/>
+    <hyperlink ref="C191" r:id="rId188" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array-ii/"/>
+    <hyperlink ref="C192" r:id="rId189" display="https://leetcode.com/problems/subsets/"/>
+    <hyperlink ref="C193" r:id="rId190" display="https://leetcode.com/problems/verify-preorder-serialization-of-a-binary-tree/"/>
+    <hyperlink ref="C194" r:id="rId191" display="https://leetcode.com/problems/h-index-ii/"/>
+    <hyperlink ref="C135" r:id="rId192" display="https://leetcode.com/problems/combination-sum/"/>
+    <hyperlink ref="C195" r:id="rId193" display="https://leetcode.com/problems/binary-tree-vertical-order-traversal/"/>
+    <hyperlink ref="C196" r:id="rId194" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii/"/>
+    <hyperlink ref="C197" r:id="rId195" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list/"/>
+    <hyperlink ref="C139" r:id="rId196" display="https://leetcode.com/problems/house-robber-ii/"/>
+    <hyperlink ref="C198" r:id="rId197" display="https://leetcode.com/problems/bitwise-and-of-numbers-range/"/>
+    <hyperlink ref="C199" r:id="rId198" display="https://leetcode.com/problems/subsets-ii/"/>
+    <hyperlink ref="C200" r:id="rId199" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/"/>
+    <hyperlink ref="C201" r:id="rId200" display="https://leetcode.com/problems/largest-divisible-subset/"/>
+    <hyperlink ref="C202" r:id="rId201" display="https://leetcode.com/problems/linked-list-cycle-ii/"/>
+    <hyperlink ref="C203" r:id="rId202" display="https://leetcode.com/problems/triangle/"/>
+    <hyperlink ref="C204" r:id="rId203" display="https://leetcode.com/problems/super-pow/"/>
+    <hyperlink ref="C205" r:id="rId204" display="https://leetcode.com/problems/guess-number-higher-or-lower-ii/"/>
+    <hyperlink ref="C206" r:id="rId205" display="https://leetcode.com/problems/h-index/"/>
+    <hyperlink ref="C207" r:id="rId206" display="https://leetcode.com/problems/insertion-sort-list/"/>
+    <hyperlink ref="C208" r:id="rId207" display="https://leetcode.com/problems/partition-list/"/>
+    <hyperlink ref="C209" r:id="rId208" display="https://leetcode.com/problems/missing-ranges/"/>
+    <hyperlink ref="C210" r:id="rId209" display="https://leetcode.com/problems/letter-combinations-of-a-phone-number/"/>
+    <hyperlink ref="C211" r:id="rId210" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/"/>
+    <hyperlink ref="C212" r:id="rId211" display="https://leetcode.com/problems/unique-paths-ii/"/>
+    <hyperlink ref="C213" r:id="rId212" display="https://leetcode.com/problems/ugly-number-ii/"/>
+    <hyperlink ref="C214" r:id="rId213" display="https://leetcode.com/problems/search-for-a-range/"/>
+    <hyperlink ref="C215" r:id="rId214" display="https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/"/>
+    <hyperlink ref="C216" r:id="rId215" display="https://leetcode.com/problems/3sum-closest/"/>
+    <hyperlink ref="C217" r:id="rId216" display="https://leetcode.com/problems/number-of-islands/"/>
+    <hyperlink ref="C218" r:id="rId217" display="https://leetcode.com/problems/unique-binary-search-trees-ii/"/>
+    <hyperlink ref="C219" r:id="rId218" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/"/>
+    <hyperlink ref="C220" r:id="rId219" display="https://leetcode.com/problems/palindrome-permutation-ii/"/>
+    <hyperlink ref="C221" r:id="rId220" display="https://leetcode.com/problems/path-sum-ii/"/>
+    <hyperlink ref="C222" r:id="rId221" display="https://leetcode.com/problems/one-edit-distance/"/>
+    <hyperlink ref="C223" r:id="rId222" display="https://leetcode.com/problems/anagrams/"/>
+    <hyperlink ref="C224" r:id="rId223" display="https://leetcode.com/problems/permutations-ii/"/>
+    <hyperlink ref="C136" r:id="rId224" display="https://leetcode.com/problems/combination-sum-ii/"/>
     <hyperlink ref="C225" r:id="rId225" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/"/>
     <hyperlink ref="C226" r:id="rId226" display="https://leetcode.com/problems/reverse-words-in-a-string-ii/"/>
     <hyperlink ref="C227" r:id="rId227" display="https://leetcode.com/problems/jump-game/"/>

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="739">
   <si>
     <t>420. Count and Say</t>
   </si>
@@ -2833,6 +2833,106 @@
 比如nums=[1,2,3], target=4。那么dp[4] = dp[4-1] + dp[4-2] + dp[4-3]。
 在初始化时，如果i为nums中的元素，那么dp[i]为1。</t>
     </r>
+  </si>
+  <si>
+    <t>Don't count last to find maximum a, then don't count first to find maximum b, finally maximum of a and b
+helper to computing two times
+need initial dp[start] and dp[start + 1]
+dp[start] = nums[start];dp[start + 1] = Math.max(dp[start], nums[start + 1]);
+loop i [start+2~end];dp[i] = Math.max(dp[i - 1], dp[i-2] + nums[i]);</t>
+  </si>
+  <si>
+    <t>D&amp;C recursive
+1. define int[2]: 0-Inclusive root, 1-exclusive root
+2. result[0]=root.val + left[1]+right[1]; result[1] = Max(left[0],left[1])+Max(right[0],right[1])</t>
+  </si>
+  <si>
+    <t>DFS
+1. left==0&amp;&amp;right==0 then result.add(s); return;
+2. dfs(result, s + "(", left - 1, right); dfs(result, s + ")", left, right - 1); when left and right &gt;0 respectively</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">如果我们把 第 ith  个位置上所有数字的和对3取余, 因此取余的结果就是那个 “Single Number”.
+对每一位的和做%3运算，来消去所有重复3次的数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if (((nums[j] &gt;&gt; i) &amp; 1) == 1) {count[i]++;}
+result |= ((count[i] % 3) &lt;&lt; i);
+easy readable
+for (int i = 31; i &gt;= 0; i--) {
+            int sum = 0;
+            int mask = 1 &lt;&lt; i;
+            for (int j = 0; j &lt; nums.length; j++) {
+                if ((nums[j] &amp; mask) != 0) {
+                    sum++;
+                }
+            }
+            result = (result &lt;&lt; 1) + (sum % 3);
+        }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DFS recursive: mid is root, start~mid -1 is left subtree; mid +1~end is right subtree
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exit: if (start &gt; end) return;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DP
+count[i] += count[j] * count[i - j - 1];
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以i为根节点的树，其左子树由[0, i-1]构成， 其右子树由[i+1, n]构成。
+Let count[i] be the number of unique binary search trees for i. The number of trees are determined by the number of subtrees which have different root node. 
+如以1为节点，则left subtree只能有0个节点，而right subtree有2, 3两个节点。所以left/right subtree一共的combination数量为：f(0) * f(2) = 2
+以2为节点，则left subtree只能为1，right subtree只能为2：f(1) * f(1) = 1
+以3为节点，则left subtree有1, 2两个节点，right subtree有0个节点：f(2)*f(0) = 2</t>
+    </r>
+  </si>
+  <si>
+    <t>DFS recursive: iterate start~end all is root to get List&lt;Node&gt; collection.
+exit: if (start &gt; end) return list.add(null);
+loop i:[start~end] 
+leftNodes = helper(start, i -1); rightNodes = helper(i+1,end)
+double loop to permutation all of possiblity of i is root, per leftnode and rightnode
+List&lt;TreeNode&gt; leftNodes = helper(start, i - 1);
+            List&lt;TreeNode&gt; rightNodes = helper(i + 1, end);
+            for (TreeNode lnode : leftNodes) {
+                for (TreeNode rnode : rightNodes) {
+                    TreeNode node = new TreeNode(i);
+                    node.left = lnode;
+                    node.right = rnode;
+                    result.add(node);
+                }
+            }</t>
   </si>
 </sst>
 </file>
@@ -3000,7 +3100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
@@ -3091,6 +3191,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7082,8 +7185,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7092,7 +7195,7 @@
     <col min="2" max="2" width="8" style="26" customWidth="1"/>
     <col min="3" max="3" width="55" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.140625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="95.85546875" style="34" customWidth="1"/>
     <col min="6" max="16384" width="37.5703125" style="26"/>
   </cols>
   <sheetData>
@@ -7111,7 +7214,7 @@
       </c>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -7128,7 +7231,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -7143,7 +7246,7 @@
       </c>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -7158,7 +7261,7 @@
       </c>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>4</v>
       </c>
@@ -7173,7 +7276,7 @@
       </c>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -7190,7 +7293,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>6</v>
       </c>
@@ -7205,7 +7308,7 @@
       </c>
       <c r="E7" s="33"/>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -7222,7 +7325,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>8</v>
       </c>
@@ -7237,7 +7340,7 @@
       </c>
       <c r="E9" s="33"/>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -7254,7 +7357,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>10</v>
       </c>
@@ -7271,7 +7374,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>11</v>
       </c>
@@ -7286,7 +7389,7 @@
       </c>
       <c r="E12" s="33"/>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>12</v>
       </c>
@@ -7303,7 +7406,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>13</v>
       </c>
@@ -7320,7 +7423,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>14</v>
       </c>
@@ -7337,7 +7440,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>15</v>
       </c>
@@ -7354,7 +7457,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>16</v>
       </c>
@@ -7371,7 +7474,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -7388,7 +7491,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>18</v>
       </c>
@@ -7405,7 +7508,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>19</v>
       </c>
@@ -7422,7 +7525,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>20</v>
       </c>
@@ -7437,7 +7540,7 @@
       </c>
       <c r="E21" s="33"/>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>21</v>
       </c>
@@ -7454,7 +7557,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>22</v>
       </c>
@@ -7471,7 +7574,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>23</v>
       </c>
@@ -7488,7 +7591,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>24</v>
       </c>
@@ -7505,7 +7608,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>25</v>
       </c>
@@ -7522,7 +7625,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>26</v>
       </c>
@@ -7539,7 +7642,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="35">
         <v>27</v>
       </c>
@@ -7556,7 +7659,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>28</v>
       </c>
@@ -7573,7 +7676,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>29</v>
       </c>
@@ -7590,7 +7693,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>30</v>
       </c>
@@ -7607,7 +7710,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>31</v>
       </c>
@@ -7624,7 +7727,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
         <v>32</v>
       </c>
@@ -7641,7 +7744,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="29">
         <v>33</v>
       </c>
@@ -7658,7 +7761,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
         <v>34</v>
       </c>
@@ -7673,7 +7776,7 @@
       </c>
       <c r="E35" s="33"/>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>35</v>
       </c>
@@ -7690,7 +7793,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
         <v>36</v>
       </c>
@@ -7707,7 +7810,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="29">
         <v>37</v>
       </c>
@@ -7722,7 +7825,7 @@
       </c>
       <c r="E38" s="33"/>
     </row>
-    <row r="39" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="29">
         <v>38</v>
       </c>
@@ -7739,7 +7842,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="29">
         <v>39</v>
       </c>
@@ -7756,7 +7859,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>40</v>
       </c>
@@ -7773,7 +7876,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="29">
         <v>41</v>
       </c>
@@ -7790,7 +7893,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="29">
         <v>42</v>
       </c>
@@ -7807,7 +7910,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="29">
         <v>43</v>
       </c>
@@ -7822,7 +7925,7 @@
       </c>
       <c r="E44" s="33"/>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="29">
         <v>44</v>
       </c>
@@ -7839,7 +7942,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
         <v>45</v>
       </c>
@@ -7856,7 +7959,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="29">
         <v>46</v>
       </c>
@@ -7873,7 +7976,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="29">
         <v>47</v>
       </c>
@@ -7890,7 +7993,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="29">
         <v>48</v>
       </c>
@@ -7907,7 +8010,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>49</v>
       </c>
@@ -7924,7 +8027,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="29">
         <v>50</v>
       </c>
@@ -7939,7 +8042,7 @@
       </c>
       <c r="E51" s="33"/>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="29">
         <v>51</v>
       </c>
@@ -7956,7 +8059,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="29">
         <v>52</v>
       </c>
@@ -7971,7 +8074,7 @@
       </c>
       <c r="E53" s="33"/>
     </row>
-    <row r="54" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="29">
         <v>53</v>
       </c>
@@ -7988,7 +8091,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="29">
         <v>54</v>
       </c>
@@ -8005,7 +8108,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="29">
         <v>55</v>
       </c>
@@ -8022,7 +8125,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="29">
         <v>56</v>
       </c>
@@ -8039,7 +8142,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="29">
         <v>57</v>
       </c>
@@ -8054,7 +8157,7 @@
       </c>
       <c r="E58" s="33"/>
     </row>
-    <row r="59" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="29">
         <v>58</v>
       </c>
@@ -8071,7 +8174,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="29">
         <v>59</v>
       </c>
@@ -8088,7 +8191,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="29">
         <v>60</v>
       </c>
@@ -8105,7 +8208,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="29">
         <v>61</v>
       </c>
@@ -8122,7 +8225,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="29">
         <v>62</v>
       </c>
@@ -8139,7 +8242,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="29">
         <v>63</v>
       </c>
@@ -8156,7 +8259,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="29">
         <v>64</v>
       </c>
@@ -8173,7 +8276,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="29">
         <v>65</v>
       </c>
@@ -8190,7 +8293,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="29">
         <v>66</v>
       </c>
@@ -8207,7 +8310,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="29">
         <v>67</v>
       </c>
@@ -8224,7 +8327,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="29">
         <v>68</v>
       </c>
@@ -8241,7 +8344,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="29">
         <v>69</v>
       </c>
@@ -8258,7 +8361,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="29">
         <v>70</v>
       </c>
@@ -8275,7 +8378,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="29">
         <v>71</v>
       </c>
@@ -8292,7 +8395,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="29">
         <v>72</v>
       </c>
@@ -8309,7 +8412,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="29">
         <v>73</v>
       </c>
@@ -8326,7 +8429,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="29">
         <v>74</v>
       </c>
@@ -8343,7 +8446,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="29">
         <v>75</v>
       </c>
@@ -8360,7 +8463,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="29">
         <v>76</v>
       </c>
@@ -8377,7 +8480,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="29">
         <v>77</v>
       </c>
@@ -8392,7 +8495,7 @@
       </c>
       <c r="E78" s="33"/>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="29">
         <v>78</v>
       </c>
@@ -8409,7 +8512,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="29">
         <v>79</v>
       </c>
@@ -8426,7 +8529,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="29">
         <v>80</v>
       </c>
@@ -8443,7 +8546,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="29">
         <v>81</v>
       </c>
@@ -8458,7 +8561,7 @@
       </c>
       <c r="E82" s="33"/>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="29">
         <v>82</v>
       </c>
@@ -8475,7 +8578,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="29">
         <v>83</v>
       </c>
@@ -8490,7 +8593,7 @@
       </c>
       <c r="E84" s="33"/>
     </row>
-    <row r="85" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="29">
         <v>84</v>
       </c>
@@ -8507,7 +8610,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="29">
         <v>85</v>
       </c>
@@ -8522,7 +8625,7 @@
       </c>
       <c r="E86" s="33"/>
     </row>
-    <row r="87" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
         <v>86</v>
       </c>
@@ -8539,7 +8642,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="29">
         <v>87</v>
       </c>
@@ -8556,7 +8659,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>88</v>
       </c>
@@ -8573,7 +8676,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="29">
         <v>89</v>
       </c>
@@ -8590,7 +8693,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="29">
         <v>90</v>
       </c>
@@ -8607,7 +8710,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="29">
         <v>91</v>
       </c>
@@ -8622,7 +8725,7 @@
       </c>
       <c r="E92" s="33"/>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="29">
         <v>92</v>
       </c>
@@ -8639,7 +8742,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="29">
         <v>93</v>
       </c>
@@ -8656,7 +8759,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="29">
         <v>94</v>
       </c>
@@ -8671,7 +8774,7 @@
       </c>
       <c r="E95" s="33"/>
     </row>
-    <row r="96" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A96" s="29">
         <v>95</v>
       </c>
@@ -8752,45 +8855,49 @@
         <v>708</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A101" s="20">
-        <v>5</v>
-      </c>
-      <c r="B101" s="24">
-        <v>370</v>
-      </c>
-      <c r="C101" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="D101" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E101" s="32"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="B101" s="22">
+        <v>137</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="D101" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E101" s="32" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B102" s="22">
-        <v>369</v>
+        <v>260</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="D102" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E102" s="32"/>
+        <v>494</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E102" s="32" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B103" s="24">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D103" s="30" t="s">
         <v>161</v>
@@ -8799,30 +8906,28 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B104" s="22">
-        <v>167</v>
+        <v>369</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="D104" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E104" s="32" t="s">
-        <v>709</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E104" s="32"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B105" s="24">
-        <v>311</v>
+        <v>362</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D105" s="30" t="s">
         <v>161</v>
@@ -8831,141 +8936,141 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B106" s="22">
-        <v>364</v>
+        <v>167</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>497</v>
-      </c>
-      <c r="D106" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E106" s="32"/>
+        <v>499</v>
+      </c>
+      <c r="D106" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E106" s="32" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="20">
+        <v>9</v>
+      </c>
+      <c r="B107" s="24">
+        <v>311</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="D107" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E107" s="32"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="20">
+        <v>10</v>
+      </c>
+      <c r="B108" s="22">
+        <v>364</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="D108" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E108" s="32"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="20">
         <v>11</v>
       </c>
-      <c r="B107" s="24">
+      <c r="B109" s="24">
         <v>245</v>
       </c>
-      <c r="C107" s="25" t="s">
+      <c r="C109" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="D107" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E107" s="32"/>
-    </row>
-    <row r="108" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="20">
-        <v>12</v>
-      </c>
-      <c r="B108" s="22">
-        <v>260</v>
-      </c>
-      <c r="C108" s="23" t="s">
-        <v>494</v>
-      </c>
-      <c r="D108" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E108" s="32" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A109" s="20">
+      <c r="D109" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E109" s="32"/>
+    </row>
+    <row r="110" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A110" s="20">
         <v>13</v>
       </c>
-      <c r="B109" s="24">
+      <c r="B110" s="24">
         <v>382</v>
       </c>
-      <c r="C109" s="25" t="s">
+      <c r="C110" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="D109" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E109" s="32" t="s">
+      <c r="D110" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E110" s="32" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="20">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="20">
         <v>14</v>
       </c>
-      <c r="B110" s="22">
+      <c r="B111" s="22">
         <v>281</v>
       </c>
-      <c r="C110" s="23" t="s">
+      <c r="C111" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="D110" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E110" s="32"/>
-    </row>
-    <row r="111" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="20">
-        <v>15</v>
-      </c>
-      <c r="B111" s="24">
-        <v>238</v>
-      </c>
-      <c r="C111" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="D111" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E111" s="32" t="s">
-        <v>712</v>
-      </c>
+      <c r="D111" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E111" s="32"/>
     </row>
     <row r="112" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="20">
+        <v>15</v>
+      </c>
+      <c r="B112" s="24">
+        <v>238</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D112" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E112" s="32" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="20">
         <v>16</v>
       </c>
-      <c r="B112" s="22">
+      <c r="B113" s="22">
         <v>384</v>
       </c>
-      <c r="C112" s="23" t="s">
+      <c r="C113" s="23" t="s">
         <v>493</v>
       </c>
-      <c r="D112" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E112" s="32" t="s">
+      <c r="D113" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E113" s="32" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="20">
-        <v>17</v>
-      </c>
-      <c r="B113" s="24">
-        <v>256</v>
-      </c>
-      <c r="C113" s="25" t="s">
-        <v>491</v>
-      </c>
-      <c r="D113" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E113" s="32"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="20">
-        <v>18</v>
-      </c>
-      <c r="B114" s="22">
-        <v>323</v>
-      </c>
-      <c r="C114" s="23" t="s">
-        <v>490</v>
+        <v>17</v>
+      </c>
+      <c r="B114" s="24">
+        <v>256</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>491</v>
       </c>
       <c r="D114" s="30" t="s">
         <v>161</v>
@@ -8974,474 +9079,480 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="20">
+        <v>18</v>
+      </c>
+      <c r="B115" s="22">
+        <v>323</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="D115" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E115" s="32"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="20">
         <v>19</v>
       </c>
-      <c r="B115" s="24">
+      <c r="B116" s="24">
         <v>348</v>
       </c>
-      <c r="C115" s="25" t="s">
+      <c r="C116" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="D115" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E115" s="32"/>
-    </row>
-    <row r="116" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A116" s="20">
+      <c r="D116" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E116" s="32"/>
+    </row>
+    <row r="117" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A117" s="20">
         <v>20</v>
       </c>
-      <c r="B116" s="22">
+      <c r="B117" s="22">
         <v>347</v>
       </c>
-      <c r="C116" s="23" t="s">
+      <c r="C117" s="23" t="s">
         <v>489</v>
       </c>
-      <c r="D116" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E116" s="32" t="s">
+      <c r="D117" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E117" s="32" t="s">
         <v>714</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="20">
-        <v>21</v>
-      </c>
-      <c r="B117" s="24">
-        <v>122</v>
-      </c>
-      <c r="C117" s="25" t="s">
-        <v>488</v>
-      </c>
-      <c r="D117" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E117" s="32" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="20">
-        <v>22</v>
-      </c>
-      <c r="B118" s="22">
-        <v>357</v>
-      </c>
-      <c r="C118" s="23" t="s">
-        <v>487</v>
+        <v>21</v>
+      </c>
+      <c r="B118" s="24">
+        <v>122</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>488</v>
       </c>
       <c r="D118" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E118" s="32" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="20">
-        <v>23</v>
-      </c>
-      <c r="B119" s="24">
-        <v>343</v>
-      </c>
-      <c r="C119" s="25" t="s">
-        <v>486</v>
+        <v>22</v>
+      </c>
+      <c r="B119" s="22">
+        <v>357</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>487</v>
       </c>
       <c r="D119" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E119" s="32" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="20">
-        <v>24</v>
-      </c>
-      <c r="B120" s="22">
-        <v>294</v>
-      </c>
-      <c r="C120" s="23" t="s">
-        <v>485</v>
-      </c>
-      <c r="D120" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E120" s="32"/>
+        <v>23</v>
+      </c>
+      <c r="B120" s="24">
+        <v>343</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="D120" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E120" s="32" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="20">
-        <v>25</v>
-      </c>
-      <c r="B121" s="24">
-        <v>268</v>
-      </c>
-      <c r="C121" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="D121" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E121" s="32" t="s">
-        <v>718</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B121" s="22">
+        <v>294</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="D121" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E121" s="32"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="20">
+        <v>25</v>
+      </c>
+      <c r="B122" s="24">
+        <v>268</v>
+      </c>
+      <c r="C122" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D122" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E122" s="32" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="20">
         <v>26</v>
       </c>
-      <c r="B122" s="22">
+      <c r="B123" s="22">
         <v>320</v>
       </c>
-      <c r="C122" s="23" t="s">
+      <c r="C123" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="D122" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E122" s="32"/>
-    </row>
-    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="20">
-        <v>27</v>
-      </c>
-      <c r="B123" s="24">
-        <v>94</v>
-      </c>
-      <c r="C123" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="D123" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E123" s="32" t="s">
-        <v>719</v>
-      </c>
+      <c r="D123" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E123" s="32"/>
     </row>
     <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="20">
+        <v>27</v>
+      </c>
+      <c r="B124" s="24">
+        <v>94</v>
+      </c>
+      <c r="C124" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D124" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E124" s="32" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="20">
         <v>28</v>
       </c>
-      <c r="B124" s="22">
+      <c r="B125" s="22">
         <v>144</v>
       </c>
-      <c r="C124" s="23" t="s">
+      <c r="C125" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="D124" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E124" s="32" t="s">
+      <c r="D125" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E125" s="32" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A125" s="20">
+    <row r="126" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A126" s="20">
         <v>29</v>
       </c>
-      <c r="B125" s="24">
+      <c r="B126" s="24">
         <v>319</v>
       </c>
-      <c r="C125" s="25" t="s">
+      <c r="C126" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="D125" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E125" s="32" t="s">
+      <c r="D126" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E126" s="32" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="20">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="20">
         <v>30</v>
       </c>
-      <c r="B126" s="22">
+      <c r="B127" s="22">
         <v>360</v>
       </c>
-      <c r="C126" s="23" t="s">
+      <c r="C127" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="D126" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E126" s="32"/>
-    </row>
-    <row r="127" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A127" s="20">
+      <c r="D127" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E127" s="32"/>
+    </row>
+    <row r="128" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A128" s="20">
         <v>31</v>
       </c>
-      <c r="B127" s="24">
+      <c r="B128" s="24">
         <v>378</v>
       </c>
-      <c r="C127" s="25" t="s">
+      <c r="C128" s="25" t="s">
         <v>481</v>
       </c>
-      <c r="D127" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E127" s="32" t="s">
+      <c r="D128" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E128" s="32" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A128" s="20">
+    <row r="129" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A129" s="20">
         <v>32</v>
       </c>
-      <c r="B128" s="22">
+      <c r="B129" s="22">
         <v>318</v>
       </c>
-      <c r="C128" s="23" t="s">
+      <c r="C129" s="23" t="s">
         <v>477</v>
       </c>
-      <c r="D128" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E128" s="32" t="s">
+      <c r="D129" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E129" s="32" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="20">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="20">
         <v>33</v>
       </c>
-      <c r="B129" s="24">
+      <c r="B130" s="24">
         <v>325</v>
       </c>
-      <c r="C129" s="25" t="s">
+      <c r="C130" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="D129" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E129" s="32"/>
-    </row>
-    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="20">
+      <c r="D130" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E130" s="32"/>
+    </row>
+    <row r="131" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="20">
         <v>34</v>
       </c>
-      <c r="B130" s="22">
+      <c r="B131" s="22">
         <v>12</v>
       </c>
-      <c r="C130" s="23" t="s">
+      <c r="C131" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="D130" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E130" s="32" t="s">
+      <c r="D131" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E131" s="32" t="s">
         <v>725</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="20">
-        <v>35</v>
-      </c>
-      <c r="B131" s="24">
-        <v>328</v>
-      </c>
-      <c r="C131" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="D131" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E131" s="32" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="20">
+        <v>35</v>
+      </c>
+      <c r="B132" s="24">
+        <v>328</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="D132" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E132" s="32" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="20">
         <v>36</v>
       </c>
-      <c r="B132" s="22">
+      <c r="B133" s="22">
         <v>156</v>
       </c>
-      <c r="C132" s="23" t="s">
+      <c r="C133" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="D132" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E132" s="32"/>
-    </row>
-    <row r="133" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A133" s="20">
+      <c r="D133" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E133" s="32"/>
+    </row>
+    <row r="134" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A134" s="20">
         <v>37</v>
       </c>
-      <c r="B133" s="24">
+      <c r="B134" s="24">
         <v>230</v>
       </c>
-      <c r="C133" s="25" t="s">
+      <c r="C134" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="D133" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E133" s="32" t="s">
+      <c r="D134" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E134" s="32" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="20">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="20">
         <v>38</v>
       </c>
-      <c r="B134" s="22">
+      <c r="B135" s="22">
         <v>259</v>
       </c>
-      <c r="C134" s="23" t="s">
+      <c r="C135" s="23" t="s">
         <v>471</v>
       </c>
-      <c r="D134" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E134" s="32"/>
-    </row>
-    <row r="135" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A135" s="20">
+      <c r="D135" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E135" s="32"/>
+    </row>
+    <row r="136" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A136" s="20">
         <v>96</v>
       </c>
-      <c r="B135" s="22">
+      <c r="B136" s="22">
         <v>39</v>
       </c>
-      <c r="C135" s="23" t="s">
+      <c r="C136" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="D135" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E135" s="32" t="s">
+      <c r="D136" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E136" s="32" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A136" s="20">
+    <row r="137" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A137" s="20">
         <v>128</v>
       </c>
-      <c r="B136" s="22">
+      <c r="B137" s="22">
         <v>40</v>
       </c>
-      <c r="C136" s="23" t="s">
+      <c r="C137" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="D136" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E136" s="32" t="s">
+      <c r="D137" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E137" s="32" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A137" s="20">
+    <row r="138" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A138" s="20">
         <v>43</v>
       </c>
-      <c r="B137" s="24">
+      <c r="B138" s="24">
         <v>216</v>
       </c>
-      <c r="C137" s="25" t="s">
+      <c r="C138" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="D137" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E137" s="32" t="s">
+      <c r="D138" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E138" s="32" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A138" s="20">
+    <row r="139" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A139" s="20">
         <v>39</v>
       </c>
-      <c r="B138" s="24">
+      <c r="B139" s="24">
         <v>377</v>
       </c>
-      <c r="C138" s="25" t="s">
+      <c r="C139" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="D138" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E138" s="32" t="s">
+      <c r="D139" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E139" s="32" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="20">
+    <row r="140" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A140" s="20">
         <v>100</v>
       </c>
-      <c r="B139" s="22">
+      <c r="B140" s="22">
         <v>213</v>
       </c>
-      <c r="C139" s="23" t="s">
+      <c r="C140" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="D139" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E139" s="32"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="20">
+      <c r="D140" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E140" s="38" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A141" s="20">
         <v>40</v>
       </c>
-      <c r="B140" s="22">
+      <c r="B141" s="22">
         <v>337</v>
       </c>
-      <c r="C140" s="23" t="s">
+      <c r="C141" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="D140" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E140" s="32"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="20">
-        <v>41</v>
-      </c>
-      <c r="B141" s="24">
-        <v>286</v>
-      </c>
-      <c r="C141" s="25" t="s">
-        <v>469</v>
-      </c>
-      <c r="D141" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E141" s="32"/>
+      <c r="D141" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E141" s="32" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="20">
+        <v>41</v>
+      </c>
+      <c r="B142" s="24">
+        <v>286</v>
+      </c>
+      <c r="C142" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="D142" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E142" s="32"/>
+    </row>
+    <row r="143" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="20">
         <v>42</v>
       </c>
-      <c r="B142" s="22">
-        <v>22</v>
-      </c>
-      <c r="C142" s="23" t="s">
+      <c r="B143" s="22">
+        <v>22</v>
+      </c>
+      <c r="C143" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="D142" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E142" s="32"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="20">
-        <v>44</v>
-      </c>
-      <c r="B143" s="22">
-        <v>137</v>
-      </c>
-      <c r="C143" s="23" t="s">
-        <v>468</v>
-      </c>
-      <c r="D143" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E143" s="32"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D143" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E143" s="32" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="20">
         <v>45</v>
       </c>
@@ -9451,12 +9562,14 @@
       <c r="C144" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="D144" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E144" s="32"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D144" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E144" s="32" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A145" s="20">
         <v>46</v>
       </c>
@@ -9466,757 +9579,761 @@
       <c r="C145" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="D145" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E145" s="32"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D145" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E145" s="32" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A146" s="20">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="B146" s="24">
-        <v>351</v>
+        <v>95</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="D146" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E146" s="32"/>
+        <v>403</v>
+      </c>
+      <c r="D146" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E146" s="32" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="20">
-        <v>48</v>
-      </c>
-      <c r="B147" s="22">
-        <v>309</v>
-      </c>
-      <c r="C147" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="D147" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B147" s="24">
+        <v>351</v>
+      </c>
+      <c r="C147" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="D147" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E147" s="32"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="20">
-        <v>49</v>
-      </c>
-      <c r="B148" s="24">
-        <v>250</v>
-      </c>
-      <c r="C148" s="25" t="s">
-        <v>464</v>
-      </c>
-      <c r="D148" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B148" s="22">
+        <v>309</v>
+      </c>
+      <c r="C148" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="D148" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E148" s="32"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="20">
-        <v>50</v>
-      </c>
-      <c r="B149" s="22">
-        <v>241</v>
-      </c>
-      <c r="C149" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="D149" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B149" s="24">
+        <v>250</v>
+      </c>
+      <c r="C149" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="D149" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E149" s="32"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="20">
-        <v>51</v>
-      </c>
-      <c r="B150" s="24">
-        <v>35</v>
-      </c>
-      <c r="C150" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="D150" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B150" s="22">
+        <v>241</v>
+      </c>
+      <c r="C150" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="D150" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E150" s="32"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="20">
-        <v>52</v>
-      </c>
-      <c r="B151" s="22">
-        <v>298</v>
-      </c>
-      <c r="C151" s="23" t="s">
-        <v>460</v>
-      </c>
-      <c r="D151" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B151" s="24">
+        <v>35</v>
+      </c>
+      <c r="C151" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="D151" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E151" s="32"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="20">
-        <v>53</v>
-      </c>
-      <c r="B152" s="24">
-        <v>89</v>
-      </c>
-      <c r="C152" s="25" t="s">
-        <v>458</v>
-      </c>
-      <c r="D152" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B152" s="22">
+        <v>298</v>
+      </c>
+      <c r="C152" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="D152" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E152" s="32"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="20">
-        <v>54</v>
-      </c>
-      <c r="B153" s="22">
-        <v>46</v>
-      </c>
-      <c r="C153" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="D153" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B153" s="24">
+        <v>89</v>
+      </c>
+      <c r="C153" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="D153" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E153" s="32"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="20">
-        <v>55</v>
-      </c>
-      <c r="B154" s="24">
-        <v>255</v>
-      </c>
-      <c r="C154" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="D154" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B154" s="22">
+        <v>46</v>
+      </c>
+      <c r="C154" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="D154" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E154" s="32"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="20">
-        <v>56</v>
-      </c>
-      <c r="B155" s="22">
-        <v>62</v>
-      </c>
-      <c r="C155" s="23" t="s">
-        <v>456</v>
-      </c>
-      <c r="D155" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B155" s="24">
+        <v>255</v>
+      </c>
+      <c r="C155" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="D155" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E155" s="32"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="20">
-        <v>57</v>
-      </c>
-      <c r="B156" s="24">
-        <v>53</v>
-      </c>
-      <c r="C156" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="D156" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B156" s="22">
+        <v>62</v>
+      </c>
+      <c r="C156" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="D156" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E156" s="32"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="20">
-        <v>58</v>
-      </c>
-      <c r="B157" s="22">
-        <v>153</v>
-      </c>
-      <c r="C157" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="D157" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B157" s="24">
+        <v>53</v>
+      </c>
+      <c r="C157" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="D157" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E157" s="32"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="20">
-        <v>59</v>
-      </c>
-      <c r="B158" s="24">
-        <v>254</v>
-      </c>
-      <c r="C158" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="D158" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B158" s="22">
+        <v>153</v>
+      </c>
+      <c r="C158" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="D158" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E158" s="32"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="20">
-        <v>60</v>
-      </c>
-      <c r="B159" s="22">
-        <v>116</v>
-      </c>
-      <c r="C159" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="D159" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B159" s="24">
+        <v>254</v>
+      </c>
+      <c r="C159" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="D159" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E159" s="32"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="20">
-        <v>61</v>
-      </c>
-      <c r="B160" s="24">
-        <v>199</v>
-      </c>
-      <c r="C160" s="25" t="s">
-        <v>453</v>
-      </c>
-      <c r="D160" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B160" s="22">
+        <v>116</v>
+      </c>
+      <c r="C160" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D160" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E160" s="32"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="20">
-        <v>62</v>
-      </c>
-      <c r="B161" s="22">
-        <v>367</v>
-      </c>
-      <c r="C161" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D161" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B161" s="24">
+        <v>199</v>
+      </c>
+      <c r="C161" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="D161" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E161" s="32"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="20">
-        <v>63</v>
-      </c>
-      <c r="B162" s="24">
-        <v>173</v>
-      </c>
-      <c r="C162" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="D162" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B162" s="22">
+        <v>367</v>
+      </c>
+      <c r="C162" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="D162" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E162" s="32"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="20">
-        <v>64</v>
-      </c>
-      <c r="B163" s="22">
-        <v>59</v>
-      </c>
-      <c r="C163" s="23" t="s">
-        <v>451</v>
-      </c>
-      <c r="D163" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B163" s="24">
+        <v>173</v>
+      </c>
+      <c r="C163" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D163" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E163" s="32"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="20">
-        <v>65</v>
-      </c>
-      <c r="B164" s="24">
-        <v>253</v>
-      </c>
-      <c r="C164" s="25" t="s">
-        <v>450</v>
-      </c>
-      <c r="D164" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B164" s="22">
+        <v>59</v>
+      </c>
+      <c r="C164" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="D164" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E164" s="32"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="20">
-        <v>66</v>
-      </c>
-      <c r="B165" s="22">
-        <v>285</v>
-      </c>
-      <c r="C165" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="D165" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B165" s="24">
+        <v>253</v>
+      </c>
+      <c r="C165" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="D165" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E165" s="32"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="20">
-        <v>67</v>
-      </c>
-      <c r="B166" s="24">
-        <v>240</v>
-      </c>
-      <c r="C166" s="25" t="s">
-        <v>449</v>
-      </c>
-      <c r="D166" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E166" s="32" t="s">
-        <v>722</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B166" s="22">
+        <v>285</v>
+      </c>
+      <c r="C166" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D166" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E166" s="32"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="20">
-        <v>68</v>
-      </c>
-      <c r="B167" s="22">
-        <v>77</v>
-      </c>
-      <c r="C167" s="23" t="s">
-        <v>448</v>
-      </c>
-      <c r="D167" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E167" s="32"/>
+        <v>67</v>
+      </c>
+      <c r="B167" s="24">
+        <v>240</v>
+      </c>
+      <c r="C167" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="D167" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E167" s="32" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="20">
-        <v>69</v>
-      </c>
-      <c r="B168" s="24">
-        <v>64</v>
-      </c>
-      <c r="C168" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="D168" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B168" s="22">
+        <v>77</v>
+      </c>
+      <c r="C168" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="D168" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E168" s="32"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="20">
-        <v>70</v>
-      </c>
-      <c r="B169" s="22">
-        <v>334</v>
-      </c>
-      <c r="C169" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="D169" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B169" s="24">
+        <v>64</v>
+      </c>
+      <c r="C169" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="D169" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E169" s="32"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="20">
-        <v>71</v>
-      </c>
-      <c r="B170" s="24">
-        <v>313</v>
-      </c>
-      <c r="C170" s="25" t="s">
-        <v>446</v>
-      </c>
-      <c r="D170" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B170" s="22">
+        <v>334</v>
+      </c>
+      <c r="C170" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="D170" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E170" s="32"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="20">
-        <v>72</v>
-      </c>
-      <c r="B171" s="22">
-        <v>247</v>
-      </c>
-      <c r="C171" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="D171" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B171" s="24">
+        <v>313</v>
+      </c>
+      <c r="C171" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="D171" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E171" s="32"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="20">
-        <v>73</v>
-      </c>
-      <c r="B172" s="24">
-        <v>48</v>
-      </c>
-      <c r="C172" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D172" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B172" s="22">
+        <v>247</v>
+      </c>
+      <c r="C172" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="D172" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E172" s="32"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="20">
-        <v>74</v>
-      </c>
-      <c r="B173" s="22">
-        <v>300</v>
-      </c>
-      <c r="C173" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="D173" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B173" s="24">
+        <v>48</v>
+      </c>
+      <c r="C173" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D173" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E173" s="32"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="20">
-        <v>75</v>
-      </c>
-      <c r="B174" s="24">
-        <v>361</v>
-      </c>
-      <c r="C174" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="D174" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B174" s="22">
+        <v>300</v>
+      </c>
+      <c r="C174" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="D174" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E174" s="32"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="20">
-        <v>76</v>
-      </c>
-      <c r="B175" s="22">
-        <v>251</v>
-      </c>
-      <c r="C175" s="23" t="s">
-        <v>444</v>
-      </c>
-      <c r="D175" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B175" s="24">
+        <v>361</v>
+      </c>
+      <c r="C175" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="D175" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E175" s="32"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="20">
-        <v>77</v>
-      </c>
-      <c r="B176" s="24">
-        <v>75</v>
-      </c>
-      <c r="C176" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="D176" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B176" s="22">
+        <v>251</v>
+      </c>
+      <c r="C176" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="D176" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E176" s="32"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="20">
-        <v>78</v>
-      </c>
-      <c r="B177" s="22">
-        <v>289</v>
-      </c>
-      <c r="C177" s="23" t="s">
-        <v>442</v>
-      </c>
-      <c r="D177" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B177" s="24">
+        <v>75</v>
+      </c>
+      <c r="C177" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="D177" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E177" s="32"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="20">
-        <v>79</v>
-      </c>
-      <c r="B178" s="24">
-        <v>11</v>
-      </c>
-      <c r="C178" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="D178" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B178" s="22">
+        <v>289</v>
+      </c>
+      <c r="C178" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="D178" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E178" s="32"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="20">
-        <v>80</v>
-      </c>
-      <c r="B179" s="22">
-        <v>277</v>
-      </c>
-      <c r="C179" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="D179" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B179" s="24">
+        <v>11</v>
+      </c>
+      <c r="C179" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="D179" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E179" s="32"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="20">
-        <v>81</v>
-      </c>
-      <c r="B180" s="24">
-        <v>244</v>
-      </c>
-      <c r="C180" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="D180" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B180" s="22">
+        <v>277</v>
+      </c>
+      <c r="C180" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="D180" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E180" s="32"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="20">
-        <v>82</v>
-      </c>
-      <c r="B181" s="22">
-        <v>215</v>
-      </c>
-      <c r="C181" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="D181" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B181" s="24">
+        <v>244</v>
+      </c>
+      <c r="C181" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="D181" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E181" s="32"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="20">
-        <v>83</v>
-      </c>
-      <c r="B182" s="24">
-        <v>74</v>
-      </c>
-      <c r="C182" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="D182" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B182" s="22">
+        <v>215</v>
+      </c>
+      <c r="C182" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D182" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E182" s="32"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="20">
-        <v>84</v>
-      </c>
-      <c r="B183" s="22">
-        <v>284</v>
-      </c>
-      <c r="C183" s="23" t="s">
-        <v>435</v>
-      </c>
-      <c r="D183" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B183" s="24">
+        <v>74</v>
+      </c>
+      <c r="C183" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="D183" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E183" s="32"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="20">
-        <v>85</v>
-      </c>
-      <c r="B184" s="24">
-        <v>73</v>
-      </c>
-      <c r="C184" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="D184" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B184" s="22">
+        <v>284</v>
+      </c>
+      <c r="C184" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="D184" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E184" s="32"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="20">
-        <v>86</v>
-      </c>
-      <c r="B185" s="22">
-        <v>376</v>
-      </c>
-      <c r="C185" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="D185" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B185" s="24">
+        <v>73</v>
+      </c>
+      <c r="C185" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D185" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E185" s="32"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="20">
-        <v>87</v>
-      </c>
-      <c r="B186" s="24">
-        <v>261</v>
-      </c>
-      <c r="C186" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="D186" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B186" s="22">
+        <v>376</v>
+      </c>
+      <c r="C186" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="D186" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E186" s="32"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="20">
-        <v>88</v>
-      </c>
-      <c r="B187" s="22">
-        <v>162</v>
-      </c>
-      <c r="C187" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="D187" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B187" s="24">
+        <v>261</v>
+      </c>
+      <c r="C187" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="D187" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E187" s="32"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="20">
-        <v>89</v>
-      </c>
-      <c r="B188" s="24">
-        <v>279</v>
-      </c>
-      <c r="C188" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="D188" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B188" s="22">
+        <v>162</v>
+      </c>
+      <c r="C188" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D188" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E188" s="32"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="20">
-        <v>90</v>
-      </c>
-      <c r="B189" s="22">
-        <v>341</v>
-      </c>
-      <c r="C189" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="D189" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B189" s="24">
+        <v>279</v>
+      </c>
+      <c r="C189" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="D189" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E189" s="32"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="20">
-        <v>91</v>
-      </c>
-      <c r="B190" s="24">
-        <v>129</v>
-      </c>
-      <c r="C190" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="D190" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B190" s="22">
+        <v>341</v>
+      </c>
+      <c r="C190" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="D190" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E190" s="32"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="20">
-        <v>92</v>
-      </c>
-      <c r="B191" s="22">
-        <v>80</v>
-      </c>
-      <c r="C191" s="23" t="s">
-        <v>429</v>
-      </c>
-      <c r="D191" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B191" s="24">
+        <v>129</v>
+      </c>
+      <c r="C191" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="D191" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E191" s="32"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="20">
-        <v>93</v>
-      </c>
-      <c r="B192" s="24">
-        <v>78</v>
-      </c>
-      <c r="C192" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="D192" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B192" s="22">
+        <v>80</v>
+      </c>
+      <c r="C192" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="D192" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E192" s="32"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="20">
-        <v>94</v>
-      </c>
-      <c r="B193" s="22">
-        <v>331</v>
-      </c>
-      <c r="C193" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="D193" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B193" s="24">
+        <v>78</v>
+      </c>
+      <c r="C193" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="D193" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E193" s="32"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="20">
-        <v>95</v>
-      </c>
-      <c r="B194" s="24">
-        <v>275</v>
-      </c>
-      <c r="C194" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="D194" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B194" s="22">
+        <v>331</v>
+      </c>
+      <c r="C194" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="D194" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E194" s="32"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="20">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B195" s="24">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="C195" s="25" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D195" s="24" t="s">
         <v>161</v>
@@ -10225,43 +10342,43 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="20">
-        <v>98</v>
-      </c>
-      <c r="B196" s="22">
-        <v>81</v>
-      </c>
-      <c r="C196" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="D196" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B196" s="24">
+        <v>314</v>
+      </c>
+      <c r="C196" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="D196" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E196" s="32"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="20">
-        <v>99</v>
-      </c>
-      <c r="B197" s="24">
-        <v>114</v>
-      </c>
-      <c r="C197" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="D197" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B197" s="22">
+        <v>81</v>
+      </c>
+      <c r="C197" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="D197" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E197" s="32"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="20">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B198" s="24">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="C198" s="25" t="s">
-        <v>421</v>
+        <v>237</v>
       </c>
       <c r="D198" s="24" t="s">
         <v>161</v>
@@ -10270,300 +10387,300 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="20">
-        <v>102</v>
-      </c>
-      <c r="B199" s="22">
-        <v>90</v>
-      </c>
-      <c r="C199" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="D199" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B199" s="24">
+        <v>201</v>
+      </c>
+      <c r="C199" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="D199" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E199" s="32"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="20">
-        <v>103</v>
-      </c>
-      <c r="B200" s="24">
-        <v>109</v>
-      </c>
-      <c r="C200" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="D200" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B200" s="22">
+        <v>90</v>
+      </c>
+      <c r="C200" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D200" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E200" s="32"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="20">
-        <v>104</v>
-      </c>
-      <c r="B201" s="22">
-        <v>368</v>
-      </c>
-      <c r="C201" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="D201" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B201" s="24">
+        <v>109</v>
+      </c>
+      <c r="C201" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="D201" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E201" s="32"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="20">
-        <v>105</v>
-      </c>
-      <c r="B202" s="24">
-        <v>142</v>
-      </c>
-      <c r="C202" s="25" t="s">
-        <v>417</v>
-      </c>
-      <c r="D202" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B202" s="22">
+        <v>368</v>
+      </c>
+      <c r="C202" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="D202" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E202" s="32"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="20">
-        <v>106</v>
-      </c>
-      <c r="B203" s="22">
-        <v>120</v>
-      </c>
-      <c r="C203" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="D203" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B203" s="24">
+        <v>142</v>
+      </c>
+      <c r="C203" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="D203" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E203" s="32"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="20">
-        <v>107</v>
-      </c>
-      <c r="B204" s="24">
-        <v>372</v>
-      </c>
-      <c r="C204" s="25" t="s">
-        <v>416</v>
-      </c>
-      <c r="D204" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B204" s="22">
+        <v>120</v>
+      </c>
+      <c r="C204" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="D204" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E204" s="32"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="20">
-        <v>108</v>
-      </c>
-      <c r="B205" s="22">
-        <v>375</v>
-      </c>
-      <c r="C205" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="D205" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B205" s="24">
+        <v>372</v>
+      </c>
+      <c r="C205" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="D205" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E205" s="32"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="20">
-        <v>109</v>
-      </c>
-      <c r="B206" s="24">
-        <v>274</v>
-      </c>
-      <c r="C206" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="D206" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B206" s="22">
+        <v>375</v>
+      </c>
+      <c r="C206" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="D206" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E206" s="32"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="20">
-        <v>110</v>
-      </c>
-      <c r="B207" s="22">
-        <v>147</v>
-      </c>
-      <c r="C207" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="D207" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B207" s="24">
+        <v>274</v>
+      </c>
+      <c r="C207" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="D207" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E207" s="32"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="20">
-        <v>111</v>
-      </c>
-      <c r="B208" s="24">
-        <v>86</v>
-      </c>
-      <c r="C208" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="D208" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B208" s="22">
+        <v>147</v>
+      </c>
+      <c r="C208" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="D208" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E208" s="32"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="20">
-        <v>112</v>
-      </c>
-      <c r="B209" s="22">
-        <v>163</v>
-      </c>
-      <c r="C209" s="23" t="s">
-        <v>411</v>
-      </c>
-      <c r="D209" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B209" s="24">
+        <v>86</v>
+      </c>
+      <c r="C209" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="D209" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E209" s="32"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="20">
-        <v>113</v>
-      </c>
-      <c r="B210" s="24">
-        <v>17</v>
-      </c>
-      <c r="C210" s="25" t="s">
-        <v>410</v>
-      </c>
-      <c r="D210" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B210" s="22">
+        <v>163</v>
+      </c>
+      <c r="C210" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="D210" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E210" s="32"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="20">
-        <v>114</v>
-      </c>
-      <c r="B211" s="22">
-        <v>103</v>
-      </c>
-      <c r="C211" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="D211" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B211" s="24">
+        <v>17</v>
+      </c>
+      <c r="C211" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="D211" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E211" s="32"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="20">
-        <v>115</v>
-      </c>
-      <c r="B212" s="24">
-        <v>63</v>
-      </c>
-      <c r="C212" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="D212" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B212" s="22">
+        <v>103</v>
+      </c>
+      <c r="C212" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D212" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E212" s="32"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="20">
-        <v>116</v>
-      </c>
-      <c r="B213" s="22">
-        <v>264</v>
-      </c>
-      <c r="C213" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="D213" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B213" s="24">
+        <v>63</v>
+      </c>
+      <c r="C213" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="D213" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E213" s="32"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="20">
-        <v>117</v>
-      </c>
-      <c r="B214" s="24">
-        <v>34</v>
-      </c>
-      <c r="C214" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="D214" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B214" s="22">
+        <v>264</v>
+      </c>
+      <c r="C214" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="D214" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E214" s="32"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="20">
-        <v>118</v>
-      </c>
-      <c r="B215" s="22">
-        <v>106</v>
-      </c>
-      <c r="C215" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="D215" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B215" s="24">
+        <v>34</v>
+      </c>
+      <c r="C215" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="D215" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E215" s="32"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="20">
-        <v>119</v>
-      </c>
-      <c r="B216" s="24">
-        <v>16</v>
-      </c>
-      <c r="C216" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="D216" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B216" s="22">
+        <v>106</v>
+      </c>
+      <c r="C216" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D216" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E216" s="32"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="20">
-        <v>120</v>
-      </c>
-      <c r="B217" s="22">
-        <v>200</v>
-      </c>
-      <c r="C217" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D217" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B217" s="24">
+        <v>16</v>
+      </c>
+      <c r="C217" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="D217" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E217" s="32"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="20">
-        <v>121</v>
-      </c>
-      <c r="B218" s="24">
-        <v>95</v>
-      </c>
-      <c r="C218" s="25" t="s">
-        <v>403</v>
-      </c>
-      <c r="D218" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B218" s="22">
+        <v>200</v>
+      </c>
+      <c r="C218" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D218" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E218" s="32"/>
@@ -11648,7 +11765,7 @@
       </c>
       <c r="E290" s="32"/>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="20">
         <v>1</v>
       </c>
@@ -11663,7 +11780,7 @@
       </c>
       <c r="E291" s="32"/>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="20">
         <v>2</v>
       </c>
@@ -11678,7 +11795,7 @@
       </c>
       <c r="E292" s="32"/>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="20">
         <v>3</v>
       </c>
@@ -11693,7 +11810,7 @@
       </c>
       <c r="E293" s="32"/>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="20">
         <v>4</v>
       </c>
@@ -11708,7 +11825,7 @@
       </c>
       <c r="E294" s="32"/>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="20">
         <v>5</v>
       </c>
@@ -11723,7 +11840,7 @@
       </c>
       <c r="E295" s="32"/>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="20">
         <v>6</v>
       </c>
@@ -11738,7 +11855,7 @@
       </c>
       <c r="E296" s="32"/>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="20">
         <v>7</v>
       </c>
@@ -11753,7 +11870,7 @@
       </c>
       <c r="E297" s="32"/>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="20">
         <v>8</v>
       </c>
@@ -11768,7 +11885,7 @@
       </c>
       <c r="E298" s="32"/>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="20">
         <v>9</v>
       </c>
@@ -11783,7 +11900,7 @@
       </c>
       <c r="E299" s="32"/>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="20">
         <v>10</v>
       </c>
@@ -11798,7 +11915,7 @@
       </c>
       <c r="E300" s="32"/>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="20">
         <v>11</v>
       </c>
@@ -11813,7 +11930,7 @@
       </c>
       <c r="E301" s="32"/>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="20">
         <v>12</v>
       </c>
@@ -11828,7 +11945,7 @@
       </c>
       <c r="E302" s="32"/>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="20">
         <v>13</v>
       </c>
@@ -11843,7 +11960,7 @@
       </c>
       <c r="E303" s="32"/>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="20">
         <v>14</v>
       </c>
@@ -11858,7 +11975,7 @@
       </c>
       <c r="E304" s="32"/>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="20">
         <v>15</v>
       </c>
@@ -11873,7 +11990,7 @@
       </c>
       <c r="E305" s="32"/>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="20">
         <v>16</v>
       </c>
@@ -11888,7 +12005,7 @@
       </c>
       <c r="E306" s="32"/>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="20">
         <v>17</v>
       </c>
@@ -11903,7 +12020,7 @@
       </c>
       <c r="E307" s="32"/>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="20">
         <v>18</v>
       </c>
@@ -11918,7 +12035,7 @@
       </c>
       <c r="E308" s="32"/>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="20">
         <v>19</v>
       </c>
@@ -11933,7 +12050,7 @@
       </c>
       <c r="E309" s="32"/>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="20">
         <v>20</v>
       </c>
@@ -11948,7 +12065,7 @@
       </c>
       <c r="E310" s="32"/>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="20">
         <v>21</v>
       </c>
@@ -11963,7 +12080,7 @@
       </c>
       <c r="E311" s="32"/>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="20">
         <v>22</v>
       </c>
@@ -11978,7 +12095,7 @@
       </c>
       <c r="E312" s="32"/>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="20">
         <v>23</v>
       </c>
@@ -11993,7 +12110,7 @@
       </c>
       <c r="E313" s="32"/>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="20">
         <v>24</v>
       </c>
@@ -12008,7 +12125,7 @@
       </c>
       <c r="E314" s="32"/>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="20">
         <v>25</v>
       </c>
@@ -12023,7 +12140,7 @@
       </c>
       <c r="E315" s="32"/>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="20">
         <v>26</v>
       </c>
@@ -12038,7 +12155,7 @@
       </c>
       <c r="E316" s="32"/>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="20">
         <v>27</v>
       </c>
@@ -12053,7 +12170,7 @@
       </c>
       <c r="E317" s="32"/>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="20">
         <v>28</v>
       </c>
@@ -12068,7 +12185,7 @@
       </c>
       <c r="E318" s="32"/>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="20">
         <v>29</v>
       </c>
@@ -12083,7 +12200,7 @@
       </c>
       <c r="E319" s="32"/>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="20">
         <v>30</v>
       </c>
@@ -12098,7 +12215,7 @@
       </c>
       <c r="E320" s="32"/>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="20">
         <v>31</v>
       </c>
@@ -12113,7 +12230,7 @@
       </c>
       <c r="E321" s="32"/>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="20">
         <v>32</v>
       </c>
@@ -12128,7 +12245,7 @@
       </c>
       <c r="E322" s="32"/>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="20">
         <v>33</v>
       </c>
@@ -12143,7 +12260,7 @@
       </c>
       <c r="E323" s="32"/>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="20">
         <v>34</v>
       </c>
@@ -12158,7 +12275,7 @@
       </c>
       <c r="E324" s="32"/>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="20">
         <v>35</v>
       </c>
@@ -12173,7 +12290,7 @@
       </c>
       <c r="E325" s="32"/>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="20">
         <v>36</v>
       </c>
@@ -12188,7 +12305,7 @@
       </c>
       <c r="E326" s="32"/>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="20">
         <v>37</v>
       </c>
@@ -12203,7 +12320,7 @@
       </c>
       <c r="E327" s="32"/>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="20">
         <v>38</v>
       </c>
@@ -12218,7 +12335,7 @@
       </c>
       <c r="E328" s="32"/>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="20">
         <v>39</v>
       </c>
@@ -12233,7 +12350,7 @@
       </c>
       <c r="E329" s="32"/>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="20">
         <v>40</v>
       </c>
@@ -12248,7 +12365,7 @@
       </c>
       <c r="E330" s="32"/>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="20">
         <v>41</v>
       </c>
@@ -12263,7 +12380,7 @@
       </c>
       <c r="E331" s="32"/>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="20">
         <v>42</v>
       </c>
@@ -12278,7 +12395,7 @@
       </c>
       <c r="E332" s="32"/>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="20">
         <v>43</v>
       </c>
@@ -12293,7 +12410,7 @@
       </c>
       <c r="E333" s="32"/>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="20">
         <v>44</v>
       </c>
@@ -12308,7 +12425,7 @@
       </c>
       <c r="E334" s="32"/>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="20">
         <v>45</v>
       </c>
@@ -12323,7 +12440,7 @@
       </c>
       <c r="E335" s="32"/>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="20">
         <v>46</v>
       </c>
@@ -12338,7 +12455,7 @@
       </c>
       <c r="E336" s="32"/>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="20">
         <v>47</v>
       </c>
@@ -12353,7 +12470,7 @@
       </c>
       <c r="E337" s="32"/>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="20">
         <v>48</v>
       </c>
@@ -12368,7 +12485,7 @@
       </c>
       <c r="E338" s="32"/>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="20">
         <v>49</v>
       </c>
@@ -12383,7 +12500,7 @@
       </c>
       <c r="E339" s="32"/>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="20">
         <v>50</v>
       </c>
@@ -12398,7 +12515,7 @@
       </c>
       <c r="E340" s="32"/>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="20">
         <v>51</v>
       </c>
@@ -12413,7 +12530,7 @@
       </c>
       <c r="E341" s="32"/>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="20">
         <v>52</v>
       </c>
@@ -12428,7 +12545,7 @@
       </c>
       <c r="E342" s="32"/>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="20">
         <v>53</v>
       </c>
@@ -12443,7 +12560,7 @@
       </c>
       <c r="E343" s="32"/>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="20">
         <v>54</v>
       </c>
@@ -12458,7 +12575,7 @@
       </c>
       <c r="E344" s="32"/>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="20">
         <v>55</v>
       </c>
@@ -12473,7 +12590,7 @@
       </c>
       <c r="E345" s="32"/>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="20">
         <v>56</v>
       </c>
@@ -12488,7 +12605,7 @@
       </c>
       <c r="E346" s="32"/>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="20">
         <v>57</v>
       </c>
@@ -12503,7 +12620,7 @@
       </c>
       <c r="E347" s="32"/>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="20">
         <v>58</v>
       </c>
@@ -12518,7 +12635,7 @@
       </c>
       <c r="E348" s="32"/>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="20">
         <v>59</v>
       </c>
@@ -12533,7 +12650,7 @@
       </c>
       <c r="E349" s="32"/>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="20">
         <v>60</v>
       </c>
@@ -12548,7 +12665,7 @@
       </c>
       <c r="E350" s="32"/>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="20">
         <v>61</v>
       </c>
@@ -12563,7 +12680,7 @@
       </c>
       <c r="E351" s="32"/>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="20">
         <v>62</v>
       </c>
@@ -12578,7 +12695,7 @@
       </c>
       <c r="E352" s="32"/>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="20">
         <v>63</v>
       </c>
@@ -12593,7 +12710,7 @@
       </c>
       <c r="E353" s="32"/>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="20">
         <v>64</v>
       </c>
@@ -12608,7 +12725,7 @@
       </c>
       <c r="E354" s="32"/>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="20">
         <v>65</v>
       </c>
@@ -12623,7 +12740,7 @@
       </c>
       <c r="E355" s="32"/>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="20">
         <v>66</v>
       </c>
@@ -12638,7 +12755,7 @@
       </c>
       <c r="E356" s="32"/>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="20">
         <v>67</v>
       </c>
@@ -12653,7 +12770,7 @@
       </c>
       <c r="E357" s="32"/>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="20">
         <v>68</v>
       </c>
@@ -12668,7 +12785,7 @@
       </c>
       <c r="E358" s="32"/>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="20">
         <v>69</v>
       </c>
@@ -12683,7 +12800,7 @@
       </c>
       <c r="E359" s="32"/>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="20">
         <v>70</v>
       </c>
@@ -12698,7 +12815,7 @@
       </c>
       <c r="E360" s="32"/>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="20">
         <v>71</v>
       </c>
@@ -12713,7 +12830,7 @@
       </c>
       <c r="E361" s="32"/>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="20">
         <v>72</v>
       </c>
@@ -12728,7 +12845,7 @@
       </c>
       <c r="E362" s="32"/>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="20">
         <v>73</v>
       </c>
@@ -12743,7 +12860,7 @@
       </c>
       <c r="E363" s="32"/>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="20">
         <v>74</v>
       </c>
@@ -12758,7 +12875,7 @@
       </c>
       <c r="E364" s="32"/>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="20">
         <v>75</v>
       </c>
@@ -12773,7 +12890,7 @@
       </c>
       <c r="E365" s="32"/>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="20">
         <v>76</v>
       </c>
@@ -12788,7 +12905,7 @@
       </c>
       <c r="E366" s="32"/>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="20">
         <v>77</v>
       </c>
@@ -12803,7 +12920,7 @@
       </c>
       <c r="E367" s="32"/>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="20">
         <v>78</v>
       </c>
@@ -12818,7 +12935,7 @@
       </c>
       <c r="E368" s="32"/>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="20">
         <v>79</v>
       </c>
@@ -12833,7 +12950,7 @@
       </c>
       <c r="E369" s="32"/>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="20">
         <v>80</v>
       </c>
@@ -12848,7 +12965,7 @@
       </c>
       <c r="E370" s="32"/>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="20">
         <v>81</v>
       </c>
@@ -12863,7 +12980,7 @@
       </c>
       <c r="E371" s="32"/>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="20">
         <v>82</v>
       </c>
@@ -12987,130 +13104,130 @@
     <hyperlink ref="C98" r:id="rId98" display="https://leetcode.com/problems/find-leaves-of-binary-tree/"/>
     <hyperlink ref="C99" r:id="rId99" display="https://leetcode.com/problems/wiggle-sort/"/>
     <hyperlink ref="C100" r:id="rId100" display="https://leetcode.com/problems/single-number/"/>
-    <hyperlink ref="C101" r:id="rId101" display="https://leetcode.com/problems/range-addition/"/>
-    <hyperlink ref="C102" r:id="rId102" display="https://leetcode.com/problems/plus-one-linked-list/"/>
-    <hyperlink ref="C103" r:id="rId103" display="https://leetcode.com/problems/design-hit-counter/"/>
-    <hyperlink ref="C104" r:id="rId104" display="https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/"/>
-    <hyperlink ref="C105" r:id="rId105" display="https://leetcode.com/problems/sparse-matrix-multiplication/"/>
-    <hyperlink ref="C106" r:id="rId106" display="https://leetcode.com/problems/nested-list-weight-sum-ii/"/>
-    <hyperlink ref="C107" r:id="rId107" display="https://leetcode.com/problems/shortest-word-distance-iii/"/>
-    <hyperlink ref="C108" r:id="rId108" display="https://leetcode.com/problems/single-number-iii/"/>
-    <hyperlink ref="C109" r:id="rId109" display="https://leetcode.com/problems/linked-list-random-node/"/>
-    <hyperlink ref="C110" r:id="rId110" display="https://leetcode.com/problems/zigzag-iterator/"/>
-    <hyperlink ref="C111" r:id="rId111" display="https://leetcode.com/problems/product-of-array-except-self/"/>
-    <hyperlink ref="C112" r:id="rId112" display="https://leetcode.com/problems/shuffle-an-array/"/>
-    <hyperlink ref="C113" r:id="rId113" display="https://leetcode.com/problems/paint-house/"/>
-    <hyperlink ref="C114" r:id="rId114" display="https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/"/>
-    <hyperlink ref="C115" r:id="rId115" display="https://leetcode.com/problems/design-tic-tac-toe/"/>
-    <hyperlink ref="C116" r:id="rId116" display="https://leetcode.com/problems/top-k-frequent-elements/"/>
-    <hyperlink ref="C117" r:id="rId117" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii/"/>
-    <hyperlink ref="C118" r:id="rId118" display="https://leetcode.com/problems/count-numbers-with-unique-digits/"/>
-    <hyperlink ref="C119" r:id="rId119" display="https://leetcode.com/problems/integer-break/"/>
-    <hyperlink ref="C120" r:id="rId120" display="https://leetcode.com/problems/flip-game-ii/"/>
-    <hyperlink ref="C121" r:id="rId121" display="https://leetcode.com/problems/missing-number/"/>
-    <hyperlink ref="C122" r:id="rId122" display="https://leetcode.com/problems/generalized-abbreviation/"/>
-    <hyperlink ref="C123" r:id="rId123" display="https://leetcode.com/problems/binary-tree-inorder-traversal/"/>
-    <hyperlink ref="C124" r:id="rId124" display="https://leetcode.com/problems/binary-tree-preorder-traversal/"/>
-    <hyperlink ref="C125" r:id="rId125" display="https://leetcode.com/problems/bulb-switcher/"/>
-    <hyperlink ref="C126" r:id="rId126" display="https://leetcode.com/problems/sort-transformed-array/"/>
-    <hyperlink ref="C127" r:id="rId127" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/"/>
-    <hyperlink ref="C128" r:id="rId128" display="https://leetcode.com/problems/maximum-product-of-word-lengths/"/>
-    <hyperlink ref="C129" r:id="rId129" display="https://leetcode.com/problems/maximum-size-subarray-sum-equals-k/"/>
-    <hyperlink ref="C130" r:id="rId130" display="https://leetcode.com/problems/integer-to-roman/"/>
-    <hyperlink ref="C131" r:id="rId131" display="https://leetcode.com/problems/odd-even-linked-list/"/>
-    <hyperlink ref="C132" r:id="rId132" display="https://leetcode.com/problems/binary-tree-upside-down/"/>
-    <hyperlink ref="C133" r:id="rId133" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst/"/>
-    <hyperlink ref="C134" r:id="rId134" display="https://leetcode.com/problems/3sum-smaller/"/>
-    <hyperlink ref="C138" r:id="rId135" display="https://leetcode.com/problems/combination-sum-iv/"/>
-    <hyperlink ref="C140" r:id="rId136" display="https://leetcode.com/problems/house-robber-iii/"/>
-    <hyperlink ref="C141" r:id="rId137" display="https://leetcode.com/problems/walls-and-gates/"/>
-    <hyperlink ref="C142" r:id="rId138" display="https://leetcode.com/problems/generate-parentheses/"/>
-    <hyperlink ref="C137" r:id="rId139" display="https://leetcode.com/problems/combination-sum-iii/"/>
-    <hyperlink ref="C143" r:id="rId140" display="https://leetcode.com/problems/single-number-ii/"/>
+    <hyperlink ref="C103" r:id="rId101" display="https://leetcode.com/problems/range-addition/"/>
+    <hyperlink ref="C104" r:id="rId102" display="https://leetcode.com/problems/plus-one-linked-list/"/>
+    <hyperlink ref="C105" r:id="rId103" display="https://leetcode.com/problems/design-hit-counter/"/>
+    <hyperlink ref="C106" r:id="rId104" display="https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/"/>
+    <hyperlink ref="C107" r:id="rId105" display="https://leetcode.com/problems/sparse-matrix-multiplication/"/>
+    <hyperlink ref="C108" r:id="rId106" display="https://leetcode.com/problems/nested-list-weight-sum-ii/"/>
+    <hyperlink ref="C109" r:id="rId107" display="https://leetcode.com/problems/shortest-word-distance-iii/"/>
+    <hyperlink ref="C102" r:id="rId108" display="https://leetcode.com/problems/single-number-iii/"/>
+    <hyperlink ref="C110" r:id="rId109" display="https://leetcode.com/problems/linked-list-random-node/"/>
+    <hyperlink ref="C111" r:id="rId110" display="https://leetcode.com/problems/zigzag-iterator/"/>
+    <hyperlink ref="C112" r:id="rId111" display="https://leetcode.com/problems/product-of-array-except-self/"/>
+    <hyperlink ref="C113" r:id="rId112" display="https://leetcode.com/problems/shuffle-an-array/"/>
+    <hyperlink ref="C114" r:id="rId113" display="https://leetcode.com/problems/paint-house/"/>
+    <hyperlink ref="C115" r:id="rId114" display="https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/"/>
+    <hyperlink ref="C116" r:id="rId115" display="https://leetcode.com/problems/design-tic-tac-toe/"/>
+    <hyperlink ref="C117" r:id="rId116" display="https://leetcode.com/problems/top-k-frequent-elements/"/>
+    <hyperlink ref="C118" r:id="rId117" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii/"/>
+    <hyperlink ref="C119" r:id="rId118" display="https://leetcode.com/problems/count-numbers-with-unique-digits/"/>
+    <hyperlink ref="C120" r:id="rId119" display="https://leetcode.com/problems/integer-break/"/>
+    <hyperlink ref="C121" r:id="rId120" display="https://leetcode.com/problems/flip-game-ii/"/>
+    <hyperlink ref="C122" r:id="rId121" display="https://leetcode.com/problems/missing-number/"/>
+    <hyperlink ref="C123" r:id="rId122" display="https://leetcode.com/problems/generalized-abbreviation/"/>
+    <hyperlink ref="C124" r:id="rId123" display="https://leetcode.com/problems/binary-tree-inorder-traversal/"/>
+    <hyperlink ref="C125" r:id="rId124" display="https://leetcode.com/problems/binary-tree-preorder-traversal/"/>
+    <hyperlink ref="C126" r:id="rId125" display="https://leetcode.com/problems/bulb-switcher/"/>
+    <hyperlink ref="C127" r:id="rId126" display="https://leetcode.com/problems/sort-transformed-array/"/>
+    <hyperlink ref="C128" r:id="rId127" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/"/>
+    <hyperlink ref="C129" r:id="rId128" display="https://leetcode.com/problems/maximum-product-of-word-lengths/"/>
+    <hyperlink ref="C130" r:id="rId129" display="https://leetcode.com/problems/maximum-size-subarray-sum-equals-k/"/>
+    <hyperlink ref="C131" r:id="rId130" display="https://leetcode.com/problems/integer-to-roman/"/>
+    <hyperlink ref="C132" r:id="rId131" display="https://leetcode.com/problems/odd-even-linked-list/"/>
+    <hyperlink ref="C133" r:id="rId132" display="https://leetcode.com/problems/binary-tree-upside-down/"/>
+    <hyperlink ref="C134" r:id="rId133" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst/"/>
+    <hyperlink ref="C135" r:id="rId134" display="https://leetcode.com/problems/3sum-smaller/"/>
+    <hyperlink ref="C139" r:id="rId135" display="https://leetcode.com/problems/combination-sum-iv/"/>
+    <hyperlink ref="C141" r:id="rId136" display="https://leetcode.com/problems/house-robber-iii/"/>
+    <hyperlink ref="C142" r:id="rId137" display="https://leetcode.com/problems/walls-and-gates/"/>
+    <hyperlink ref="C143" r:id="rId138" display="https://leetcode.com/problems/generate-parentheses/"/>
+    <hyperlink ref="C138" r:id="rId139" display="https://leetcode.com/problems/combination-sum-iii/"/>
+    <hyperlink ref="C101" r:id="rId140" display="https://leetcode.com/problems/single-number-ii/"/>
     <hyperlink ref="C144" r:id="rId141" display="https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/"/>
     <hyperlink ref="C145" r:id="rId142" display="https://leetcode.com/problems/unique-binary-search-trees/"/>
-    <hyperlink ref="C146" r:id="rId143" display="https://leetcode.com/problems/android-unlock-patterns/"/>
-    <hyperlink ref="C147" r:id="rId144" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/"/>
-    <hyperlink ref="C148" r:id="rId145" display="https://leetcode.com/problems/count-univalue-subtrees/"/>
-    <hyperlink ref="C149" r:id="rId146" display="https://leetcode.com/problems/different-ways-to-add-parentheses/"/>
-    <hyperlink ref="C150" r:id="rId147" display="https://leetcode.com/problems/search-insert-position/"/>
-    <hyperlink ref="C151" r:id="rId148" display="https://leetcode.com/problems/binary-tree-longest-consecutive-sequence/"/>
-    <hyperlink ref="C152" r:id="rId149" display="https://leetcode.com/problems/gray-code/"/>
-    <hyperlink ref="C153" r:id="rId150" display="https://leetcode.com/problems/permutations/"/>
-    <hyperlink ref="C154" r:id="rId151" display="https://leetcode.com/problems/verify-preorder-sequence-in-binary-search-tree/"/>
-    <hyperlink ref="C155" r:id="rId152" display="https://leetcode.com/problems/unique-paths/"/>
-    <hyperlink ref="C156" r:id="rId153" display="https://leetcode.com/problems/maximum-subarray/"/>
-    <hyperlink ref="C157" r:id="rId154" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/"/>
-    <hyperlink ref="C158" r:id="rId155" display="https://leetcode.com/problems/factor-combinations/"/>
-    <hyperlink ref="C159" r:id="rId156" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node/"/>
-    <hyperlink ref="C160" r:id="rId157" display="https://leetcode.com/problems/binary-tree-right-side-view/"/>
-    <hyperlink ref="C161" r:id="rId158" display="https://leetcode.com/problems/valid-perfect-square/"/>
-    <hyperlink ref="C162" r:id="rId159" display="https://leetcode.com/problems/binary-search-tree-iterator/"/>
-    <hyperlink ref="C163" r:id="rId160" display="https://leetcode.com/problems/spiral-matrix-ii/"/>
-    <hyperlink ref="C164" r:id="rId161" display="https://leetcode.com/problems/meeting-rooms-ii/"/>
-    <hyperlink ref="C165" r:id="rId162" display="https://leetcode.com/problems/inorder-successor-in-bst/"/>
-    <hyperlink ref="C166" r:id="rId163" display="https://leetcode.com/problems/search-a-2d-matrix-ii/"/>
-    <hyperlink ref="C167" r:id="rId164" display="https://leetcode.com/problems/combinations/"/>
-    <hyperlink ref="C168" r:id="rId165" display="https://leetcode.com/problems/minimum-path-sum/"/>
-    <hyperlink ref="C169" r:id="rId166" display="https://leetcode.com/problems/increasing-triplet-subsequence/"/>
-    <hyperlink ref="C170" r:id="rId167" display="https://leetcode.com/problems/super-ugly-number/"/>
-    <hyperlink ref="C171" r:id="rId168" display="https://leetcode.com/problems/strobogrammatic-number-ii/"/>
-    <hyperlink ref="C172" r:id="rId169" display="https://leetcode.com/problems/rotate-image/"/>
-    <hyperlink ref="C173" r:id="rId170" display="https://leetcode.com/problems/longest-increasing-subsequence/"/>
-    <hyperlink ref="C174" r:id="rId171" display="https://leetcode.com/problems/bomb-enemy/"/>
-    <hyperlink ref="C175" r:id="rId172" display="https://leetcode.com/problems/flatten-2d-vector/"/>
-    <hyperlink ref="C176" r:id="rId173" display="https://leetcode.com/problems/sort-colors/"/>
-    <hyperlink ref="C177" r:id="rId174" display="https://leetcode.com/problems/game-of-life/"/>
-    <hyperlink ref="C178" r:id="rId175" display="https://leetcode.com/problems/container-with-most-water/"/>
-    <hyperlink ref="C179" r:id="rId176" display="https://leetcode.com/problems/find-the-celebrity/"/>
-    <hyperlink ref="C180" r:id="rId177" display="https://leetcode.com/problems/shortest-word-distance-ii/"/>
-    <hyperlink ref="C181" r:id="rId178" display="https://leetcode.com/problems/kth-largest-element-in-an-array/"/>
-    <hyperlink ref="C182" r:id="rId179" display="https://leetcode.com/problems/search-a-2d-matrix/"/>
-    <hyperlink ref="C183" r:id="rId180" display="https://leetcode.com/problems/peeking-iterator/"/>
-    <hyperlink ref="C184" r:id="rId181" display="https://leetcode.com/problems/set-matrix-zeroes/"/>
-    <hyperlink ref="C185" r:id="rId182" display="https://leetcode.com/problems/wiggle-subsequence/"/>
-    <hyperlink ref="C186" r:id="rId183" display="https://leetcode.com/problems/graph-valid-tree/"/>
-    <hyperlink ref="C187" r:id="rId184" display="https://leetcode.com/problems/find-peak-element/"/>
-    <hyperlink ref="C188" r:id="rId185" display="https://leetcode.com/problems/perfect-squares/"/>
-    <hyperlink ref="C189" r:id="rId186" display="https://leetcode.com/problems/flatten-nested-list-iterator/"/>
-    <hyperlink ref="C190" r:id="rId187" display="https://leetcode.com/problems/sum-root-to-leaf-numbers/"/>
-    <hyperlink ref="C191" r:id="rId188" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array-ii/"/>
-    <hyperlink ref="C192" r:id="rId189" display="https://leetcode.com/problems/subsets/"/>
-    <hyperlink ref="C193" r:id="rId190" display="https://leetcode.com/problems/verify-preorder-serialization-of-a-binary-tree/"/>
-    <hyperlink ref="C194" r:id="rId191" display="https://leetcode.com/problems/h-index-ii/"/>
-    <hyperlink ref="C135" r:id="rId192" display="https://leetcode.com/problems/combination-sum/"/>
-    <hyperlink ref="C195" r:id="rId193" display="https://leetcode.com/problems/binary-tree-vertical-order-traversal/"/>
-    <hyperlink ref="C196" r:id="rId194" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii/"/>
-    <hyperlink ref="C197" r:id="rId195" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list/"/>
-    <hyperlink ref="C139" r:id="rId196" display="https://leetcode.com/problems/house-robber-ii/"/>
-    <hyperlink ref="C198" r:id="rId197" display="https://leetcode.com/problems/bitwise-and-of-numbers-range/"/>
-    <hyperlink ref="C199" r:id="rId198" display="https://leetcode.com/problems/subsets-ii/"/>
-    <hyperlink ref="C200" r:id="rId199" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/"/>
-    <hyperlink ref="C201" r:id="rId200" display="https://leetcode.com/problems/largest-divisible-subset/"/>
-    <hyperlink ref="C202" r:id="rId201" display="https://leetcode.com/problems/linked-list-cycle-ii/"/>
-    <hyperlink ref="C203" r:id="rId202" display="https://leetcode.com/problems/triangle/"/>
-    <hyperlink ref="C204" r:id="rId203" display="https://leetcode.com/problems/super-pow/"/>
-    <hyperlink ref="C205" r:id="rId204" display="https://leetcode.com/problems/guess-number-higher-or-lower-ii/"/>
-    <hyperlink ref="C206" r:id="rId205" display="https://leetcode.com/problems/h-index/"/>
-    <hyperlink ref="C207" r:id="rId206" display="https://leetcode.com/problems/insertion-sort-list/"/>
-    <hyperlink ref="C208" r:id="rId207" display="https://leetcode.com/problems/partition-list/"/>
-    <hyperlink ref="C209" r:id="rId208" display="https://leetcode.com/problems/missing-ranges/"/>
-    <hyperlink ref="C210" r:id="rId209" display="https://leetcode.com/problems/letter-combinations-of-a-phone-number/"/>
-    <hyperlink ref="C211" r:id="rId210" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/"/>
-    <hyperlink ref="C212" r:id="rId211" display="https://leetcode.com/problems/unique-paths-ii/"/>
-    <hyperlink ref="C213" r:id="rId212" display="https://leetcode.com/problems/ugly-number-ii/"/>
-    <hyperlink ref="C214" r:id="rId213" display="https://leetcode.com/problems/search-for-a-range/"/>
-    <hyperlink ref="C215" r:id="rId214" display="https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/"/>
-    <hyperlink ref="C216" r:id="rId215" display="https://leetcode.com/problems/3sum-closest/"/>
-    <hyperlink ref="C217" r:id="rId216" display="https://leetcode.com/problems/number-of-islands/"/>
-    <hyperlink ref="C218" r:id="rId217" display="https://leetcode.com/problems/unique-binary-search-trees-ii/"/>
+    <hyperlink ref="C147" r:id="rId143" display="https://leetcode.com/problems/android-unlock-patterns/"/>
+    <hyperlink ref="C148" r:id="rId144" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/"/>
+    <hyperlink ref="C149" r:id="rId145" display="https://leetcode.com/problems/count-univalue-subtrees/"/>
+    <hyperlink ref="C150" r:id="rId146" display="https://leetcode.com/problems/different-ways-to-add-parentheses/"/>
+    <hyperlink ref="C151" r:id="rId147" display="https://leetcode.com/problems/search-insert-position/"/>
+    <hyperlink ref="C152" r:id="rId148" display="https://leetcode.com/problems/binary-tree-longest-consecutive-sequence/"/>
+    <hyperlink ref="C153" r:id="rId149" display="https://leetcode.com/problems/gray-code/"/>
+    <hyperlink ref="C154" r:id="rId150" display="https://leetcode.com/problems/permutations/"/>
+    <hyperlink ref="C155" r:id="rId151" display="https://leetcode.com/problems/verify-preorder-sequence-in-binary-search-tree/"/>
+    <hyperlink ref="C156" r:id="rId152" display="https://leetcode.com/problems/unique-paths/"/>
+    <hyperlink ref="C157" r:id="rId153" display="https://leetcode.com/problems/maximum-subarray/"/>
+    <hyperlink ref="C158" r:id="rId154" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/"/>
+    <hyperlink ref="C159" r:id="rId155" display="https://leetcode.com/problems/factor-combinations/"/>
+    <hyperlink ref="C160" r:id="rId156" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node/"/>
+    <hyperlink ref="C161" r:id="rId157" display="https://leetcode.com/problems/binary-tree-right-side-view/"/>
+    <hyperlink ref="C162" r:id="rId158" display="https://leetcode.com/problems/valid-perfect-square/"/>
+    <hyperlink ref="C163" r:id="rId159" display="https://leetcode.com/problems/binary-search-tree-iterator/"/>
+    <hyperlink ref="C164" r:id="rId160" display="https://leetcode.com/problems/spiral-matrix-ii/"/>
+    <hyperlink ref="C165" r:id="rId161" display="https://leetcode.com/problems/meeting-rooms-ii/"/>
+    <hyperlink ref="C166" r:id="rId162" display="https://leetcode.com/problems/inorder-successor-in-bst/"/>
+    <hyperlink ref="C167" r:id="rId163" display="https://leetcode.com/problems/search-a-2d-matrix-ii/"/>
+    <hyperlink ref="C168" r:id="rId164" display="https://leetcode.com/problems/combinations/"/>
+    <hyperlink ref="C169" r:id="rId165" display="https://leetcode.com/problems/minimum-path-sum/"/>
+    <hyperlink ref="C170" r:id="rId166" display="https://leetcode.com/problems/increasing-triplet-subsequence/"/>
+    <hyperlink ref="C171" r:id="rId167" display="https://leetcode.com/problems/super-ugly-number/"/>
+    <hyperlink ref="C172" r:id="rId168" display="https://leetcode.com/problems/strobogrammatic-number-ii/"/>
+    <hyperlink ref="C173" r:id="rId169" display="https://leetcode.com/problems/rotate-image/"/>
+    <hyperlink ref="C174" r:id="rId170" display="https://leetcode.com/problems/longest-increasing-subsequence/"/>
+    <hyperlink ref="C175" r:id="rId171" display="https://leetcode.com/problems/bomb-enemy/"/>
+    <hyperlink ref="C176" r:id="rId172" display="https://leetcode.com/problems/flatten-2d-vector/"/>
+    <hyperlink ref="C177" r:id="rId173" display="https://leetcode.com/problems/sort-colors/"/>
+    <hyperlink ref="C178" r:id="rId174" display="https://leetcode.com/problems/game-of-life/"/>
+    <hyperlink ref="C179" r:id="rId175" display="https://leetcode.com/problems/container-with-most-water/"/>
+    <hyperlink ref="C180" r:id="rId176" display="https://leetcode.com/problems/find-the-celebrity/"/>
+    <hyperlink ref="C181" r:id="rId177" display="https://leetcode.com/problems/shortest-word-distance-ii/"/>
+    <hyperlink ref="C182" r:id="rId178" display="https://leetcode.com/problems/kth-largest-element-in-an-array/"/>
+    <hyperlink ref="C183" r:id="rId179" display="https://leetcode.com/problems/search-a-2d-matrix/"/>
+    <hyperlink ref="C184" r:id="rId180" display="https://leetcode.com/problems/peeking-iterator/"/>
+    <hyperlink ref="C185" r:id="rId181" display="https://leetcode.com/problems/set-matrix-zeroes/"/>
+    <hyperlink ref="C186" r:id="rId182" display="https://leetcode.com/problems/wiggle-subsequence/"/>
+    <hyperlink ref="C187" r:id="rId183" display="https://leetcode.com/problems/graph-valid-tree/"/>
+    <hyperlink ref="C188" r:id="rId184" display="https://leetcode.com/problems/find-peak-element/"/>
+    <hyperlink ref="C189" r:id="rId185" display="https://leetcode.com/problems/perfect-squares/"/>
+    <hyperlink ref="C190" r:id="rId186" display="https://leetcode.com/problems/flatten-nested-list-iterator/"/>
+    <hyperlink ref="C191" r:id="rId187" display="https://leetcode.com/problems/sum-root-to-leaf-numbers/"/>
+    <hyperlink ref="C192" r:id="rId188" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array-ii/"/>
+    <hyperlink ref="C193" r:id="rId189" display="https://leetcode.com/problems/subsets/"/>
+    <hyperlink ref="C194" r:id="rId190" display="https://leetcode.com/problems/verify-preorder-serialization-of-a-binary-tree/"/>
+    <hyperlink ref="C195" r:id="rId191" display="https://leetcode.com/problems/h-index-ii/"/>
+    <hyperlink ref="C136" r:id="rId192" display="https://leetcode.com/problems/combination-sum/"/>
+    <hyperlink ref="C196" r:id="rId193" display="https://leetcode.com/problems/binary-tree-vertical-order-traversal/"/>
+    <hyperlink ref="C197" r:id="rId194" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii/"/>
+    <hyperlink ref="C198" r:id="rId195" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list/"/>
+    <hyperlink ref="C140" r:id="rId196" display="https://leetcode.com/problems/house-robber-ii/"/>
+    <hyperlink ref="C199" r:id="rId197" display="https://leetcode.com/problems/bitwise-and-of-numbers-range/"/>
+    <hyperlink ref="C200" r:id="rId198" display="https://leetcode.com/problems/subsets-ii/"/>
+    <hyperlink ref="C201" r:id="rId199" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/"/>
+    <hyperlink ref="C202" r:id="rId200" display="https://leetcode.com/problems/largest-divisible-subset/"/>
+    <hyperlink ref="C203" r:id="rId201" display="https://leetcode.com/problems/linked-list-cycle-ii/"/>
+    <hyperlink ref="C204" r:id="rId202" display="https://leetcode.com/problems/triangle/"/>
+    <hyperlink ref="C205" r:id="rId203" display="https://leetcode.com/problems/super-pow/"/>
+    <hyperlink ref="C206" r:id="rId204" display="https://leetcode.com/problems/guess-number-higher-or-lower-ii/"/>
+    <hyperlink ref="C207" r:id="rId205" display="https://leetcode.com/problems/h-index/"/>
+    <hyperlink ref="C208" r:id="rId206" display="https://leetcode.com/problems/insertion-sort-list/"/>
+    <hyperlink ref="C209" r:id="rId207" display="https://leetcode.com/problems/partition-list/"/>
+    <hyperlink ref="C210" r:id="rId208" display="https://leetcode.com/problems/missing-ranges/"/>
+    <hyperlink ref="C211" r:id="rId209" display="https://leetcode.com/problems/letter-combinations-of-a-phone-number/"/>
+    <hyperlink ref="C212" r:id="rId210" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/"/>
+    <hyperlink ref="C213" r:id="rId211" display="https://leetcode.com/problems/unique-paths-ii/"/>
+    <hyperlink ref="C214" r:id="rId212" display="https://leetcode.com/problems/ugly-number-ii/"/>
+    <hyperlink ref="C215" r:id="rId213" display="https://leetcode.com/problems/search-for-a-range/"/>
+    <hyperlink ref="C216" r:id="rId214" display="https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/"/>
+    <hyperlink ref="C217" r:id="rId215" display="https://leetcode.com/problems/3sum-closest/"/>
+    <hyperlink ref="C218" r:id="rId216" display="https://leetcode.com/problems/number-of-islands/"/>
+    <hyperlink ref="C146" r:id="rId217" display="https://leetcode.com/problems/unique-binary-search-trees-ii/"/>
     <hyperlink ref="C219" r:id="rId218" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/"/>
     <hyperlink ref="C220" r:id="rId219" display="https://leetcode.com/problems/palindrome-permutation-ii/"/>
     <hyperlink ref="C221" r:id="rId220" display="https://leetcode.com/problems/path-sum-ii/"/>
     <hyperlink ref="C222" r:id="rId221" display="https://leetcode.com/problems/one-edit-distance/"/>
     <hyperlink ref="C223" r:id="rId222" display="https://leetcode.com/problems/anagrams/"/>
     <hyperlink ref="C224" r:id="rId223" display="https://leetcode.com/problems/permutations-ii/"/>
-    <hyperlink ref="C136" r:id="rId224" display="https://leetcode.com/problems/combination-sum-ii/"/>
+    <hyperlink ref="C137" r:id="rId224" display="https://leetcode.com/problems/combination-sum-ii/"/>
     <hyperlink ref="C225" r:id="rId225" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/"/>
     <hyperlink ref="C226" r:id="rId226" display="https://leetcode.com/problems/reverse-words-in-a-string-ii/"/>
     <hyperlink ref="C227" r:id="rId227" display="https://leetcode.com/problems/jump-game/"/>

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="757">
   <si>
     <t>420. Count and Say</t>
   </si>
@@ -2602,9 +2602,6 @@
   </si>
   <si>
     <t>对于第n个灯泡，只有当次数是n的因子的之后，才能改变灯泡的状态，即n能被当前次数整除，比如当n为36时，它的因数有(1,36), (2,18), (3,12), (4,9), (6,6), 可以看到前四个括号里成对出现的因数各不相同，括号中前面的数改变了灯泡状态，后面的数又变回去了，等于锁的状态没有发生变化，只有最后那个(6,6)，在次数6的时候改变了一次状态，没有对应其它的状态能将其变回去了，所以锁就一直是打开状态的。所以所有平方数都有这么一个相等的因数对，即所有平方数的灯泡都将会是打开的状态。</t>
-  </si>
-  <si>
-    <t>From Top-Right start search is easy readable</t>
   </si>
   <si>
     <t>Heap and visited array
@@ -2933,6 +2930,251 @@
                     result.add(node);
                 }
             }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DP ： Two state, profit of hold stock and unhold stock
+initial: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hold[0] = -prices[0]; unhold[0] = 0;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+loop i [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">~n)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unhold[i] = Math.max(unhold[i - 1], hold[i - 1] + prices[i]);
+hold[i] = Math.max(hold[i - 1], i &gt;= 2 ? unhold[i - 2] - prices[i] : -prices[i]);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Same with unique binary search tree
+for (int i = 0; i &lt; n; i++) {
+            char c = s.charAt(i);
+            if (c == '*' || c == '-' || c == '+') {
+               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> List&lt;Integer&gt; left = diffWaysToCompute(input.substring(0,i));
+                List&lt;Integer&gt; right = diffWaysToCompute(input.substring(i + 1));</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                for (int l : left) {
+                    for (int r : right) {
+                        if (c == '*') {
+                            result.add(l * r);
+                        } else if (c == '-') {
+                            result.add(l - r);
+                        } else if (c == '+') {
+                            result.add(l + r);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Finally, need check result has element, if no any element means input only has digit</t>
+    </r>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>n=k时的Gray Code，相当于n=k-1时的Gray Code的逆序 加上 1&lt;&lt;k。
+result = grayCode(n - 1);  int numAdd = 1 &lt;&lt; (n - 1); 
+for (int i = result.size() - 1; i &gt;= 0; i--) { result.add(numAdd + result.get(i)); }</t>
+  </si>
+  <si>
+    <t>DP coordinate type</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DFS recursive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!list.contains(i)</t>
+    </r>
+  </si>
+  <si>
+    <t>DP, minSum to detect previous sum + nums[i] and nums[i] which are greater, max is last result of subarray</t>
+  </si>
+  <si>
+    <t>Biary Search target = nums[end]</t>
+  </si>
+  <si>
+    <t>ONLY using node and node.left to traversal
+while (node!=null &amp;&amp; node.left != null){curt = node;while(curt !=null) {curt.left.next = curt.right; curt.right.next = curt.next== null?null:curt.next.left;curt =curt.next;} node = node.left}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">level order: queue, iterate size of queue(pre get size)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BUT add right at first</t>
+    </r>
+  </si>
+  <si>
+    <t>for (int i = 1; i &lt;= num / i; i++) {            if (i * i == num) {</t>
+  </si>
+  <si>
+    <t>level order</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int left = 0;        int right = n - 1;        int top = 0;        int bottom = m - 1;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>while (k &lt;= n * n) {
+left-&gt;right, top-&gt;bottom,right-&gt;left, bottom-&gt;top</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int left = 0;        int right = n - 1;        int top = 0;        int bottom = m - 1;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>while (result.size() &lt; m * n) {
+left-&gt;right, top-&gt;bottom,right-&gt;left, bottom-&gt;top</t>
+    </r>
+  </si>
+  <si>
+    <t>from nottom-left or top-right to find
+eg: bottom-left row =  m-1, col = 0;
+while (row&gt;= 0 &amp;&amp; col &lt; n)
+ if (row,col) &gt; target then row--;  if (row,col) &lt; target then col++</t>
+  </si>
+  <si>
+    <t>DFS: same with permutation, if list.size() == k then result.add(list)</t>
+  </si>
+  <si>
+    <t>reverse integer
+for (int i = len - 2; i &gt;= 0; i--) {            if (num[i + 1] &gt; num[i]) { swap ,reverse}
+reverse(0, n -1);</t>
+  </si>
+  <si>
+    <t>DFS
+int[] visited = new int[nums.length];
+...
+if (visited[i] == 1 || (i !=0 &amp;&amp; nums[i] == nums[i - 1] &amp;&amp; visited[i - 1] == 0)) {
+                continue;
+            }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有点复杂，节省时间没做，抄的九章</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+n个数的permutation总共有n阶乘个，基于这个性质我们可以得到某一位对应的数字是哪一个。思路是这样的，比如当前长度是n，我们知道每个相同的起始元素对应(n-1)!个permutation，也就是(n-1)!个permutation后会换一个起始元素。因此，只要当前的k进行(n-1)!取余，得到的数字就是当前剩余数组的index，如此就可以得到对应的元素。如此递推直到数组中没有元素结束。实现中我们要维护一个数组来记录当前的元素，每次得到一个元素加入结果数组，然后从剩余数组中移除，因此空间复杂度是O(n)。时间上总共需要n个回合，而每次删除元素如果是用数组需要O(n),所以总共是O(n^2)。这里如果不移除元素也需要对元素做标记，所以要判断第一个还是个线性的操作。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3100,7 +3342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
@@ -3195,6 +3437,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5822,8 +6070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H95"/>
   <sheetViews>
-    <sheetView topLeftCell="C50" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -7185,8 +7433,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7214,7 +7462,7 @@
       </c>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -7231,7 +7479,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -7246,7 +7494,7 @@
       </c>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -7261,7 +7509,7 @@
       </c>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>4</v>
       </c>
@@ -7276,7 +7524,7 @@
       </c>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -7293,7 +7541,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>6</v>
       </c>
@@ -7308,7 +7556,7 @@
       </c>
       <c r="E7" s="33"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -7325,7 +7573,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>8</v>
       </c>
@@ -7340,7 +7588,7 @@
       </c>
       <c r="E9" s="33"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -7357,7 +7605,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>10</v>
       </c>
@@ -7374,7 +7622,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>11</v>
       </c>
@@ -7389,7 +7637,7 @@
       </c>
       <c r="E12" s="33"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>12</v>
       </c>
@@ -7406,7 +7654,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>13</v>
       </c>
@@ -7423,7 +7671,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>14</v>
       </c>
@@ -7440,7 +7688,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>15</v>
       </c>
@@ -7457,7 +7705,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>16</v>
       </c>
@@ -7474,7 +7722,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -7491,7 +7739,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>18</v>
       </c>
@@ -7508,7 +7756,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>19</v>
       </c>
@@ -7525,7 +7773,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>20</v>
       </c>
@@ -7540,7 +7788,7 @@
       </c>
       <c r="E21" s="33"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>21</v>
       </c>
@@ -7557,7 +7805,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>22</v>
       </c>
@@ -7574,7 +7822,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>23</v>
       </c>
@@ -7591,7 +7839,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>24</v>
       </c>
@@ -7608,7 +7856,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>25</v>
       </c>
@@ -7625,7 +7873,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>26</v>
       </c>
@@ -7642,7 +7890,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35">
         <v>27</v>
       </c>
@@ -7659,7 +7907,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>28</v>
       </c>
@@ -7676,7 +7924,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>29</v>
       </c>
@@ -7693,7 +7941,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>30</v>
       </c>
@@ -7710,7 +7958,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>31</v>
       </c>
@@ -7727,7 +7975,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
         <v>32</v>
       </c>
@@ -7744,7 +7992,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29">
         <v>33</v>
       </c>
@@ -7761,7 +8009,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
         <v>34</v>
       </c>
@@ -7776,7 +8024,7 @@
       </c>
       <c r="E35" s="33"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>35</v>
       </c>
@@ -7793,7 +8041,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
         <v>36</v>
       </c>
@@ -7810,7 +8058,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29">
         <v>37</v>
       </c>
@@ -7825,7 +8073,7 @@
       </c>
       <c r="E38" s="33"/>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29">
         <v>38</v>
       </c>
@@ -7842,7 +8090,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29">
         <v>39</v>
       </c>
@@ -7859,7 +8107,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>40</v>
       </c>
@@ -7876,7 +8124,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29">
         <v>41</v>
       </c>
@@ -7893,7 +8141,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29">
         <v>42</v>
       </c>
@@ -7910,7 +8158,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29">
         <v>43</v>
       </c>
@@ -7925,7 +8173,7 @@
       </c>
       <c r="E44" s="33"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29">
         <v>44</v>
       </c>
@@ -7942,7 +8190,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
         <v>45</v>
       </c>
@@ -7959,7 +8207,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29">
         <v>46</v>
       </c>
@@ -7976,7 +8224,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29">
         <v>47</v>
       </c>
@@ -7993,7 +8241,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29">
         <v>48</v>
       </c>
@@ -8010,7 +8258,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>49</v>
       </c>
@@ -8027,7 +8275,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29">
         <v>50</v>
       </c>
@@ -8042,7 +8290,7 @@
       </c>
       <c r="E51" s="33"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29">
         <v>51</v>
       </c>
@@ -8059,7 +8307,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="29">
         <v>52</v>
       </c>
@@ -8074,7 +8322,7 @@
       </c>
       <c r="E53" s="33"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="29">
         <v>53</v>
       </c>
@@ -8091,7 +8339,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="29">
         <v>54</v>
       </c>
@@ -8108,7 +8356,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="29">
         <v>55</v>
       </c>
@@ -8125,7 +8373,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="29">
         <v>56</v>
       </c>
@@ -8142,7 +8390,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="29">
         <v>57</v>
       </c>
@@ -8157,7 +8405,7 @@
       </c>
       <c r="E58" s="33"/>
     </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="29">
         <v>58</v>
       </c>
@@ -8174,7 +8422,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="29">
         <v>59</v>
       </c>
@@ -8191,7 +8439,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="29">
         <v>60</v>
       </c>
@@ -8208,7 +8456,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="29">
         <v>61</v>
       </c>
@@ -8225,7 +8473,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="29">
         <v>62</v>
       </c>
@@ -8242,7 +8490,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="29">
         <v>63</v>
       </c>
@@ -8259,7 +8507,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="29">
         <v>64</v>
       </c>
@@ -8276,7 +8524,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="29">
         <v>65</v>
       </c>
@@ -8293,7 +8541,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="29">
         <v>66</v>
       </c>
@@ -8310,7 +8558,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="29">
         <v>67</v>
       </c>
@@ -8327,7 +8575,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="29">
         <v>68</v>
       </c>
@@ -8344,7 +8592,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="29">
         <v>69</v>
       </c>
@@ -8361,7 +8609,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="29">
         <v>70</v>
       </c>
@@ -8378,7 +8626,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="29">
         <v>71</v>
       </c>
@@ -8395,7 +8643,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="29">
         <v>72</v>
       </c>
@@ -8412,7 +8660,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="29">
         <v>73</v>
       </c>
@@ -8429,7 +8677,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="29">
         <v>74</v>
       </c>
@@ -8446,7 +8694,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="29">
         <v>75</v>
       </c>
@@ -8463,7 +8711,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="29">
         <v>76</v>
       </c>
@@ -8480,7 +8728,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="29">
         <v>77</v>
       </c>
@@ -8495,7 +8743,7 @@
       </c>
       <c r="E78" s="33"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="29">
         <v>78</v>
       </c>
@@ -8512,7 +8760,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="29">
         <v>79</v>
       </c>
@@ -8529,7 +8777,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="29">
         <v>80</v>
       </c>
@@ -8546,7 +8794,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="29">
         <v>81</v>
       </c>
@@ -8561,7 +8809,7 @@
       </c>
       <c r="E82" s="33"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="29">
         <v>82</v>
       </c>
@@ -8578,7 +8826,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="29">
         <v>83</v>
       </c>
@@ -8593,7 +8841,7 @@
       </c>
       <c r="E84" s="33"/>
     </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="29">
         <v>84</v>
       </c>
@@ -8610,7 +8858,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="29">
         <v>85</v>
       </c>
@@ -8625,7 +8873,7 @@
       </c>
       <c r="E86" s="33"/>
     </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
         <v>86</v>
       </c>
@@ -8642,7 +8890,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="29">
         <v>87</v>
       </c>
@@ -8659,7 +8907,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>88</v>
       </c>
@@ -8676,7 +8924,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="29">
         <v>89</v>
       </c>
@@ -8693,7 +8941,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="29">
         <v>90</v>
       </c>
@@ -8710,7 +8958,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="29">
         <v>91</v>
       </c>
@@ -8725,7 +8973,7 @@
       </c>
       <c r="E92" s="33"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="29">
         <v>92</v>
       </c>
@@ -8742,7 +8990,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="29">
         <v>93</v>
       </c>
@@ -8759,7 +9007,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="29">
         <v>94</v>
       </c>
@@ -8774,7 +9022,7 @@
       </c>
       <c r="E95" s="33"/>
     </row>
-    <row r="96" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="29">
         <v>95</v>
       </c>
@@ -8869,7 +9117,7 @@
         <v>161</v>
       </c>
       <c r="E101" s="32" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -9302,7 +9550,7 @@
         <v>161</v>
       </c>
       <c r="E128" s="32" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -9319,7 +9567,7 @@
         <v>161</v>
       </c>
       <c r="E129" s="32" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -9351,7 +9599,7 @@
         <v>161</v>
       </c>
       <c r="E131" s="32" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -9368,7 +9616,7 @@
         <v>161</v>
       </c>
       <c r="E132" s="32" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -9400,7 +9648,7 @@
         <v>161</v>
       </c>
       <c r="E134" s="32" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -9432,7 +9680,7 @@
         <v>161</v>
       </c>
       <c r="E136" s="32" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -9449,7 +9697,7 @@
         <v>161</v>
       </c>
       <c r="E137" s="32" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -9466,7 +9714,7 @@
         <v>161</v>
       </c>
       <c r="E138" s="32" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -9483,7 +9731,7 @@
         <v>161</v>
       </c>
       <c r="E139" s="32" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -9500,7 +9748,7 @@
         <v>161</v>
       </c>
       <c r="E140" s="38" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -9517,7 +9765,7 @@
         <v>161</v>
       </c>
       <c r="E141" s="32" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -9549,7 +9797,7 @@
         <v>161</v>
       </c>
       <c r="E143" s="32" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -9566,7 +9814,7 @@
         <v>161</v>
       </c>
       <c r="E144" s="32" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -9583,7 +9831,7 @@
         <v>161</v>
       </c>
       <c r="E145" s="32" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="225" x14ac:dyDescent="0.25">
@@ -9600,65 +9848,69 @@
         <v>161</v>
       </c>
       <c r="E146" s="32" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A147" s="20">
-        <v>47</v>
-      </c>
-      <c r="B147" s="24">
-        <v>351</v>
-      </c>
-      <c r="C147" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="D147" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E147" s="32"/>
+        <v>50</v>
+      </c>
+      <c r="B147" s="22">
+        <v>241</v>
+      </c>
+      <c r="C147" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="D147" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E147" s="32" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="20">
+        <v>47</v>
+      </c>
+      <c r="B148" s="24">
+        <v>351</v>
+      </c>
+      <c r="C148" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="D148" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E148" s="32"/>
+    </row>
+    <row r="149" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A149" s="20">
         <v>48</v>
       </c>
-      <c r="B148" s="22">
+      <c r="B149" s="22">
         <v>309</v>
       </c>
-      <c r="C148" s="23" t="s">
+      <c r="C149" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="D148" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E148" s="32"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="20">
-        <v>49</v>
-      </c>
-      <c r="B149" s="24">
-        <v>250</v>
-      </c>
-      <c r="C149" s="25" t="s">
-        <v>464</v>
-      </c>
-      <c r="D149" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E149" s="32"/>
+      <c r="D149" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E149" s="32" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="20">
-        <v>50</v>
-      </c>
-      <c r="B150" s="22">
-        <v>241</v>
-      </c>
-      <c r="C150" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="D150" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B150" s="24">
+        <v>250</v>
+      </c>
+      <c r="C150" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="D150" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E150" s="32"/>
@@ -9673,10 +9925,12 @@
       <c r="C151" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="D151" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E151" s="32"/>
+      <c r="D151" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E151" s="32" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="20">
@@ -9688,12 +9942,12 @@
       <c r="C152" s="23" t="s">
         <v>460</v>
       </c>
-      <c r="D152" s="22" t="s">
+      <c r="D152" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E152" s="32"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="20">
         <v>53</v>
       </c>
@@ -9703,10 +9957,12 @@
       <c r="C153" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="D153" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E153" s="32"/>
+      <c r="D153" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E153" s="32" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="20">
@@ -9718,367 +9974,399 @@
       <c r="C154" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="D154" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E154" s="32"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D154" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E154" s="32" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" s="20">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="B155" s="24">
-        <v>255</v>
+        <v>31</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="D155" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E155" s="32"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="D155" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E155" s="32" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A156" s="20">
-        <v>56</v>
-      </c>
-      <c r="B156" s="22">
-        <v>62</v>
-      </c>
-      <c r="C156" s="23" t="s">
-        <v>456</v>
-      </c>
-      <c r="D156" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E156" s="32"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="B156" s="24">
+        <v>47</v>
+      </c>
+      <c r="C156" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D156" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E156" s="32" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A157" s="20">
-        <v>57</v>
-      </c>
-      <c r="B157" s="24">
-        <v>53</v>
-      </c>
-      <c r="C157" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="D157" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E157" s="32"/>
+        <v>156</v>
+      </c>
+      <c r="B157" s="22">
+        <v>60</v>
+      </c>
+      <c r="C157" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="D157" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E157" s="32" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="20">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B158" s="22">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="C158" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="D158" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E158" s="32"/>
+        <v>448</v>
+      </c>
+      <c r="D158" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E158" s="32" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="20">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B159" s="24">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="D159" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="D159" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E159" s="32"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="20">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B160" s="22">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="C160" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="D160" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E160" s="32"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+      <c r="D160" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E160" s="32" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="20">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B161" s="24">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="C161" s="25" t="s">
-        <v>453</v>
-      </c>
-      <c r="D161" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E161" s="32"/>
+        <v>455</v>
+      </c>
+      <c r="D161" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E161" s="38" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="20">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B162" s="22">
-        <v>367</v>
+        <v>153</v>
       </c>
       <c r="C162" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D162" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E162" s="32"/>
+        <v>204</v>
+      </c>
+      <c r="D162" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E162" s="32" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="20">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B163" s="24">
-        <v>173</v>
+        <v>254</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="D163" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="D163" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E163" s="32"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="20">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B164" s="22">
-        <v>59</v>
-      </c>
-      <c r="C164" s="23" t="s">
-        <v>451</v>
-      </c>
-      <c r="D164" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E164" s="32"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="C164" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D164" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E164" s="40" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="20">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B165" s="24">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>450</v>
-      </c>
-      <c r="D165" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E165" s="32"/>
+        <v>453</v>
+      </c>
+      <c r="D165" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E165" s="32" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="20">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B166" s="22">
-        <v>285</v>
+        <v>367</v>
       </c>
       <c r="C166" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="D166" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E166" s="32"/>
+        <v>452</v>
+      </c>
+      <c r="D166" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E166" s="32" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="20">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B167" s="24">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="C167" s="25" t="s">
-        <v>449</v>
-      </c>
-      <c r="D167" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="D167" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E167" s="32" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="20">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="B168" s="22">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C168" s="23" t="s">
-        <v>448</v>
-      </c>
-      <c r="D168" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E168" s="32"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="D168" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E168" s="32" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="20">
-        <v>69</v>
-      </c>
-      <c r="B169" s="24">
         <v>64</v>
       </c>
-      <c r="C169" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="D169" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E169" s="32"/>
+      <c r="B169" s="22">
+        <v>59</v>
+      </c>
+      <c r="C169" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="D169" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E169" s="32" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="20">
-        <v>70</v>
-      </c>
-      <c r="B170" s="22">
-        <v>334</v>
-      </c>
-      <c r="C170" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="D170" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B170" s="24">
+        <v>253</v>
+      </c>
+      <c r="C170" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="D170" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E170" s="32"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="20">
-        <v>71</v>
-      </c>
-      <c r="B171" s="24">
-        <v>313</v>
-      </c>
-      <c r="C171" s="25" t="s">
-        <v>446</v>
-      </c>
-      <c r="D171" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B171" s="22">
+        <v>285</v>
+      </c>
+      <c r="C171" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D171" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E171" s="32"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="20">
-        <v>72</v>
-      </c>
-      <c r="B172" s="22">
-        <v>247</v>
-      </c>
-      <c r="C172" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="D172" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E172" s="32"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="B172" s="24">
+        <v>74</v>
+      </c>
+      <c r="C172" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="D172" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E172" s="32" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" s="20">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B173" s="24">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D173" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E173" s="32"/>
+        <v>449</v>
+      </c>
+      <c r="D173" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E173" s="32" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="20">
-        <v>74</v>
-      </c>
-      <c r="B174" s="22">
-        <v>300</v>
-      </c>
-      <c r="C174" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="D174" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E174" s="32"/>
+        <v>69</v>
+      </c>
+      <c r="B174" s="24">
+        <v>64</v>
+      </c>
+      <c r="C174" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="D174" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E174" s="32" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="20">
-        <v>75</v>
-      </c>
-      <c r="B175" s="24">
-        <v>361</v>
-      </c>
-      <c r="C175" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="D175" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B175" s="22">
+        <v>334</v>
+      </c>
+      <c r="C175" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="D175" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E175" s="32"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="20">
-        <v>76</v>
-      </c>
-      <c r="B176" s="22">
-        <v>251</v>
-      </c>
-      <c r="C176" s="23" t="s">
-        <v>444</v>
-      </c>
-      <c r="D176" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B176" s="24">
+        <v>313</v>
+      </c>
+      <c r="C176" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="D176" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E176" s="32"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="20">
-        <v>77</v>
-      </c>
-      <c r="B177" s="24">
-        <v>75</v>
-      </c>
-      <c r="C177" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="D177" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B177" s="22">
+        <v>264</v>
+      </c>
+      <c r="C177" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="D177" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E177" s="32"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="20">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B178" s="22">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="C178" s="23" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D178" s="22" t="s">
         <v>161</v>
@@ -10087,13 +10375,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="20">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B179" s="24">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C179" s="25" t="s">
-        <v>438</v>
+        <v>182</v>
       </c>
       <c r="D179" s="24" t="s">
         <v>161</v>
@@ -10102,13 +10390,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="20">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B180" s="22">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C180" s="23" t="s">
-        <v>439</v>
+        <v>239</v>
       </c>
       <c r="D180" s="22" t="s">
         <v>161</v>
@@ -10117,13 +10405,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="20">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B181" s="24">
-        <v>244</v>
+        <v>361</v>
       </c>
       <c r="C181" s="25" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D181" s="24" t="s">
         <v>161</v>
@@ -10132,13 +10420,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="20">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B182" s="22">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="C182" s="23" t="s">
-        <v>198</v>
+        <v>444</v>
       </c>
       <c r="D182" s="22" t="s">
         <v>161</v>
@@ -10147,13 +10435,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="20">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B183" s="24">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C183" s="25" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D183" s="24" t="s">
         <v>161</v>
@@ -10162,13 +10450,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="20">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B184" s="22">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C184" s="23" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D184" s="22" t="s">
         <v>161</v>
@@ -10177,13 +10465,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="20">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B185" s="24">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="C185" s="25" t="s">
-        <v>200</v>
+        <v>438</v>
       </c>
       <c r="D185" s="24" t="s">
         <v>161</v>
@@ -10192,13 +10480,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="20">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B186" s="22">
-        <v>376</v>
+        <v>277</v>
       </c>
       <c r="C186" s="23" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D186" s="22" t="s">
         <v>161</v>
@@ -10207,13 +10495,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="20">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B187" s="24">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C187" s="25" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D187" s="24" t="s">
         <v>161</v>
@@ -10222,13 +10510,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="20">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B188" s="22">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="C188" s="23" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="D188" s="22" t="s">
         <v>161</v>
@@ -10237,118 +10525,118 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="20">
-        <v>89</v>
-      </c>
-      <c r="B189" s="24">
-        <v>279</v>
-      </c>
-      <c r="C189" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="D189" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B189" s="22">
+        <v>284</v>
+      </c>
+      <c r="C189" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="D189" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E189" s="32"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="20">
-        <v>90</v>
-      </c>
-      <c r="B190" s="22">
-        <v>341</v>
-      </c>
-      <c r="C190" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="D190" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B190" s="24">
+        <v>73</v>
+      </c>
+      <c r="C190" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D190" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E190" s="32"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="20">
-        <v>91</v>
-      </c>
-      <c r="B191" s="24">
-        <v>129</v>
-      </c>
-      <c r="C191" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="D191" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B191" s="22">
+        <v>376</v>
+      </c>
+      <c r="C191" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="D191" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E191" s="32"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="20">
-        <v>92</v>
-      </c>
-      <c r="B192" s="22">
-        <v>80</v>
-      </c>
-      <c r="C192" s="23" t="s">
-        <v>429</v>
-      </c>
-      <c r="D192" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B192" s="24">
+        <v>261</v>
+      </c>
+      <c r="C192" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="D192" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E192" s="32"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="20">
-        <v>93</v>
-      </c>
-      <c r="B193" s="24">
-        <v>78</v>
-      </c>
-      <c r="C193" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="D193" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B193" s="22">
+        <v>162</v>
+      </c>
+      <c r="C193" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D193" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E193" s="32"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="20">
-        <v>94</v>
-      </c>
-      <c r="B194" s="22">
-        <v>331</v>
-      </c>
-      <c r="C194" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="D194" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B194" s="24">
+        <v>279</v>
+      </c>
+      <c r="C194" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="D194" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E194" s="32"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="20">
-        <v>95</v>
-      </c>
-      <c r="B195" s="24">
-        <v>275</v>
-      </c>
-      <c r="C195" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="D195" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B195" s="22">
+        <v>341</v>
+      </c>
+      <c r="C195" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="D195" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E195" s="32"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="20">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B196" s="24">
-        <v>314</v>
+        <v>129</v>
       </c>
       <c r="C196" s="25" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D196" s="24" t="s">
         <v>161</v>
@@ -10357,13 +10645,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="20">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B197" s="22">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C197" s="23" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D197" s="22" t="s">
         <v>161</v>
@@ -10372,13 +10660,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="20">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B198" s="24">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="C198" s="25" t="s">
-        <v>237</v>
+        <v>428</v>
       </c>
       <c r="D198" s="24" t="s">
         <v>161</v>
@@ -10387,43 +10675,43 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="20">
-        <v>101</v>
-      </c>
-      <c r="B199" s="24">
-        <v>201</v>
-      </c>
-      <c r="C199" s="25" t="s">
-        <v>421</v>
-      </c>
-      <c r="D199" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B199" s="22">
+        <v>331</v>
+      </c>
+      <c r="C199" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="D199" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E199" s="32"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="20">
-        <v>102</v>
-      </c>
-      <c r="B200" s="22">
-        <v>90</v>
-      </c>
-      <c r="C200" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="D200" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B200" s="24">
+        <v>275</v>
+      </c>
+      <c r="C200" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="D200" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E200" s="32"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="20">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B201" s="24">
-        <v>109</v>
+        <v>314</v>
       </c>
       <c r="C201" s="25" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D201" s="24" t="s">
         <v>161</v>
@@ -10432,13 +10720,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="20">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B202" s="22">
-        <v>368</v>
+        <v>81</v>
       </c>
       <c r="C202" s="23" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D202" s="22" t="s">
         <v>161</v>
@@ -10447,13 +10735,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="20">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B203" s="24">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="C203" s="25" t="s">
-        <v>417</v>
+        <v>237</v>
       </c>
       <c r="D203" s="24" t="s">
         <v>161</v>
@@ -10462,298 +10750,298 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="20">
-        <v>106</v>
-      </c>
-      <c r="B204" s="22">
-        <v>120</v>
-      </c>
-      <c r="C204" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="D204" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B204" s="24">
+        <v>201</v>
+      </c>
+      <c r="C204" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="D204" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E204" s="32"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="20">
-        <v>107</v>
-      </c>
-      <c r="B205" s="24">
-        <v>372</v>
-      </c>
-      <c r="C205" s="25" t="s">
-        <v>416</v>
-      </c>
-      <c r="D205" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B205" s="22">
+        <v>90</v>
+      </c>
+      <c r="C205" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D205" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E205" s="32"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="20">
-        <v>108</v>
-      </c>
-      <c r="B206" s="22">
-        <v>375</v>
-      </c>
-      <c r="C206" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="D206" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B206" s="24">
+        <v>109</v>
+      </c>
+      <c r="C206" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="D206" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E206" s="32"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="20">
-        <v>109</v>
-      </c>
-      <c r="B207" s="24">
-        <v>274</v>
-      </c>
-      <c r="C207" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="D207" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B207" s="22">
+        <v>368</v>
+      </c>
+      <c r="C207" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="D207" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E207" s="32"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="20">
-        <v>110</v>
-      </c>
-      <c r="B208" s="22">
-        <v>147</v>
-      </c>
-      <c r="C208" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="D208" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B208" s="24">
+        <v>142</v>
+      </c>
+      <c r="C208" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="D208" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E208" s="32"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="20">
-        <v>111</v>
-      </c>
-      <c r="B209" s="24">
-        <v>86</v>
-      </c>
-      <c r="C209" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="D209" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B209" s="22">
+        <v>120</v>
+      </c>
+      <c r="C209" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="D209" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E209" s="32"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="20">
-        <v>112</v>
-      </c>
-      <c r="B210" s="22">
-        <v>163</v>
-      </c>
-      <c r="C210" s="23" t="s">
-        <v>411</v>
-      </c>
-      <c r="D210" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B210" s="24">
+        <v>372</v>
+      </c>
+      <c r="C210" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="D210" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E210" s="32"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="20">
-        <v>113</v>
-      </c>
-      <c r="B211" s="24">
-        <v>17</v>
-      </c>
-      <c r="C211" s="25" t="s">
-        <v>410</v>
-      </c>
-      <c r="D211" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B211" s="22">
+        <v>375</v>
+      </c>
+      <c r="C211" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="D211" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E211" s="32"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="20">
-        <v>114</v>
-      </c>
-      <c r="B212" s="22">
-        <v>103</v>
-      </c>
-      <c r="C212" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="D212" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B212" s="24">
+        <v>274</v>
+      </c>
+      <c r="C212" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="D212" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E212" s="32"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="20">
-        <v>115</v>
-      </c>
-      <c r="B213" s="24">
-        <v>63</v>
-      </c>
-      <c r="C213" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="D213" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B213" s="22">
+        <v>147</v>
+      </c>
+      <c r="C213" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="D213" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E213" s="32"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="20">
-        <v>116</v>
-      </c>
-      <c r="B214" s="22">
-        <v>264</v>
-      </c>
-      <c r="C214" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="D214" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B214" s="24">
+        <v>86</v>
+      </c>
+      <c r="C214" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="D214" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E214" s="32"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="20">
-        <v>117</v>
-      </c>
-      <c r="B215" s="24">
-        <v>34</v>
-      </c>
-      <c r="C215" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="D215" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B215" s="22">
+        <v>163</v>
+      </c>
+      <c r="C215" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="D215" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E215" s="32"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="20">
-        <v>118</v>
-      </c>
-      <c r="B216" s="22">
-        <v>106</v>
-      </c>
-      <c r="C216" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="D216" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B216" s="24">
+        <v>17</v>
+      </c>
+      <c r="C216" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="D216" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E216" s="32"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="20">
-        <v>119</v>
-      </c>
-      <c r="B217" s="24">
-        <v>16</v>
-      </c>
-      <c r="C217" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="D217" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B217" s="22">
+        <v>103</v>
+      </c>
+      <c r="C217" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D217" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E217" s="32"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="20">
-        <v>120</v>
-      </c>
-      <c r="B218" s="22">
-        <v>200</v>
-      </c>
-      <c r="C218" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D218" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B218" s="24">
+        <v>63</v>
+      </c>
+      <c r="C218" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="D218" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E218" s="32"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="20">
-        <v>122</v>
-      </c>
-      <c r="B219" s="22">
-        <v>105</v>
-      </c>
-      <c r="C219" s="23" t="s">
-        <v>405</v>
-      </c>
-      <c r="D219" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B219" s="24">
+        <v>34</v>
+      </c>
+      <c r="C219" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="D219" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E219" s="32"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="20">
-        <v>123</v>
-      </c>
-      <c r="B220" s="24">
-        <v>267</v>
-      </c>
-      <c r="C220" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="D220" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B220" s="22">
+        <v>106</v>
+      </c>
+      <c r="C220" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D220" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E220" s="32"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="20">
-        <v>124</v>
-      </c>
-      <c r="B221" s="22">
-        <v>113</v>
-      </c>
-      <c r="C221" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="D221" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B221" s="24">
+        <v>16</v>
+      </c>
+      <c r="C221" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="D221" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E221" s="32"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="20">
-        <v>125</v>
-      </c>
-      <c r="B222" s="24">
-        <v>161</v>
-      </c>
-      <c r="C222" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="D222" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B222" s="22">
+        <v>200</v>
+      </c>
+      <c r="C222" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D222" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E222" s="32"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="20">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B223" s="22">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C223" s="23" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D223" s="22" t="s">
         <v>161</v>
@@ -10762,13 +11050,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="20">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B224" s="24">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="C224" s="25" t="s">
-        <v>231</v>
+        <v>402</v>
       </c>
       <c r="D224" s="24" t="s">
         <v>161</v>
@@ -10777,268 +11065,268 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="20">
-        <v>129</v>
-      </c>
-      <c r="B225" s="24">
-        <v>236</v>
-      </c>
-      <c r="C225" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="D225" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B225" s="22">
+        <v>113</v>
+      </c>
+      <c r="C225" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="D225" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E225" s="32"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="20">
-        <v>130</v>
-      </c>
-      <c r="B226" s="22">
-        <v>186</v>
-      </c>
-      <c r="C226" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="D226" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B226" s="24">
+        <v>161</v>
+      </c>
+      <c r="C226" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="D226" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E226" s="32"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="20">
-        <v>131</v>
-      </c>
-      <c r="B227" s="24">
-        <v>55</v>
-      </c>
-      <c r="C227" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="D227" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B227" s="22">
+        <v>49</v>
+      </c>
+      <c r="C227" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="D227" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E227" s="32"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="20">
-        <v>132</v>
-      </c>
-      <c r="B228" s="22">
-        <v>92</v>
-      </c>
-      <c r="C228" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="D228" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B228" s="24">
+        <v>236</v>
+      </c>
+      <c r="C228" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="D228" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E228" s="32"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="20">
-        <v>133</v>
-      </c>
-      <c r="B229" s="24">
-        <v>131</v>
-      </c>
-      <c r="C229" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="D229" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B229" s="22">
+        <v>186</v>
+      </c>
+      <c r="C229" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="D229" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E229" s="32"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="20">
-        <v>134</v>
-      </c>
-      <c r="B230" s="22">
-        <v>207</v>
-      </c>
-      <c r="C230" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="D230" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B230" s="24">
+        <v>55</v>
+      </c>
+      <c r="C230" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D230" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E230" s="32"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="20">
-        <v>135</v>
-      </c>
-      <c r="B231" s="24">
-        <v>356</v>
-      </c>
-      <c r="C231" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="D231" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B231" s="22">
+        <v>92</v>
+      </c>
+      <c r="C231" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="D231" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E231" s="32"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="20">
-        <v>136</v>
-      </c>
-      <c r="B232" s="22">
-        <v>333</v>
-      </c>
-      <c r="C232" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="D232" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B232" s="24">
+        <v>131</v>
+      </c>
+      <c r="C232" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="D232" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E232" s="32"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="20">
-        <v>137</v>
-      </c>
-      <c r="B233" s="24">
         <v>134</v>
       </c>
-      <c r="C233" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="D233" s="24" t="s">
+      <c r="B233" s="22">
+        <v>207</v>
+      </c>
+      <c r="C233" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="D233" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E233" s="32"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="20">
-        <v>138</v>
-      </c>
-      <c r="B234" s="22">
-        <v>82</v>
-      </c>
-      <c r="C234" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="D234" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B234" s="24">
+        <v>356</v>
+      </c>
+      <c r="C234" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="D234" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E234" s="32"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="20">
-        <v>139</v>
-      </c>
-      <c r="B235" s="24">
-        <v>209</v>
-      </c>
-      <c r="C235" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="D235" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B235" s="22">
+        <v>333</v>
+      </c>
+      <c r="C235" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D235" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E235" s="32"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="20">
-        <v>140</v>
-      </c>
-      <c r="B236" s="22">
-        <v>310</v>
-      </c>
-      <c r="C236" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="D236" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B236" s="24">
+        <v>134</v>
+      </c>
+      <c r="C236" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="D236" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E236" s="32"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="20">
-        <v>141</v>
-      </c>
-      <c r="B237" s="24">
-        <v>50</v>
-      </c>
-      <c r="C237" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="D237" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B237" s="22">
+        <v>82</v>
+      </c>
+      <c r="C237" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="D237" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E237" s="32"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="20">
-        <v>142</v>
-      </c>
-      <c r="B238" s="22">
-        <v>187</v>
-      </c>
-      <c r="C238" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="D238" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B238" s="24">
+        <v>209</v>
+      </c>
+      <c r="C238" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="D238" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E238" s="32"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="20">
-        <v>143</v>
-      </c>
-      <c r="B239" s="24">
-        <v>31</v>
-      </c>
-      <c r="C239" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="D239" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B239" s="22">
+        <v>310</v>
+      </c>
+      <c r="C239" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="D239" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E239" s="32"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="20">
-        <v>144</v>
-      </c>
-      <c r="B240" s="22">
-        <v>271</v>
-      </c>
-      <c r="C240" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="D240" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B240" s="24">
+        <v>50</v>
+      </c>
+      <c r="C240" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="D240" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E240" s="32"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="20">
-        <v>145</v>
-      </c>
-      <c r="B241" s="24">
-        <v>373</v>
-      </c>
-      <c r="C241" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="D241" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B241" s="22">
+        <v>187</v>
+      </c>
+      <c r="C241" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="D241" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E241" s="32"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="20">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B242" s="22">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="C242" s="23" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D242" s="22" t="s">
         <v>161</v>
@@ -11047,13 +11335,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="20">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B243" s="24">
-        <v>306</v>
+        <v>373</v>
       </c>
       <c r="C243" s="25" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D243" s="24" t="s">
         <v>161</v>
@@ -11062,13 +11350,13 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="20">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B244" s="22">
-        <v>385</v>
+        <v>229</v>
       </c>
       <c r="C244" s="23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D244" s="22" t="s">
         <v>161</v>
@@ -11077,13 +11365,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="20">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B245" s="24">
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="C245" s="25" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D245" s="24" t="s">
         <v>161</v>
@@ -11092,13 +11380,13 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="20">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B246" s="22">
-        <v>139</v>
+        <v>385</v>
       </c>
       <c r="C246" s="23" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D246" s="22" t="s">
         <v>161</v>
@@ -11107,13 +11395,13 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="20">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B247" s="24">
-        <v>386</v>
+        <v>227</v>
       </c>
       <c r="C247" s="25" t="s">
-        <v>633</v>
+        <v>381</v>
       </c>
       <c r="D247" s="24" t="s">
         <v>161</v>
@@ -11122,13 +11410,13 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="20">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B248" s="22">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="C248" s="23" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D248" s="22" t="s">
         <v>161</v>
@@ -11137,13 +11425,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="20">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B249" s="24">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="C249" s="25" t="s">
-        <v>379</v>
+        <v>633</v>
       </c>
       <c r="D249" s="24" t="s">
         <v>161</v>
@@ -11152,13 +11440,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="20">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B250" s="22">
-        <v>69</v>
+        <v>222</v>
       </c>
       <c r="C250" s="23" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D250" s="22" t="s">
         <v>161</v>
@@ -11167,13 +11455,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="20">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B251" s="24">
-        <v>148</v>
+        <v>332</v>
       </c>
       <c r="C251" s="25" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D251" s="24" t="s">
         <v>161</v>
@@ -11182,13 +11470,13 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="20">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B252" s="22">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C252" s="23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D252" s="22" t="s">
         <v>161</v>
@@ -11197,13 +11485,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="20">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B253" s="24">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="C253" s="25" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D253" s="24" t="s">
         <v>161</v>
@@ -11212,285 +11500,285 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="20">
-        <v>158</v>
-      </c>
-      <c r="B254" s="22">
-        <v>379</v>
-      </c>
-      <c r="C254" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="D254" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B254" s="24">
+        <v>228</v>
+      </c>
+      <c r="C254" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="D254" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E254" s="32"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="20">
-        <v>159</v>
-      </c>
-      <c r="B255" s="24">
-        <v>322</v>
-      </c>
-      <c r="C255" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="D255" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B255" s="22">
+        <v>379</v>
+      </c>
+      <c r="C255" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="D255" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E255" s="32"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="20">
-        <v>160</v>
-      </c>
-      <c r="B256" s="22">
-        <v>208</v>
-      </c>
-      <c r="C256" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D256" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B256" s="24">
+        <v>322</v>
+      </c>
+      <c r="C256" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="D256" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E256" s="32"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="20">
-        <v>161</v>
-      </c>
-      <c r="B257" s="24">
-        <v>221</v>
-      </c>
-      <c r="C257" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="D257" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B257" s="22">
+        <v>208</v>
+      </c>
+      <c r="C257" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="D257" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E257" s="32"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="20">
-        <v>162</v>
-      </c>
-      <c r="B258" s="22">
-        <v>133</v>
-      </c>
-      <c r="C258" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="D258" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B258" s="24">
+        <v>221</v>
+      </c>
+      <c r="C258" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="D258" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E258" s="32"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="20">
-        <v>163</v>
-      </c>
-      <c r="B259" s="24">
-        <v>388</v>
-      </c>
-      <c r="C259" s="25" t="s">
-        <v>634</v>
-      </c>
-      <c r="D259" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B259" s="22">
+        <v>133</v>
+      </c>
+      <c r="C259" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="D259" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E259" s="32"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="20">
-        <v>164</v>
-      </c>
-      <c r="B260" s="22">
-        <v>150</v>
-      </c>
-      <c r="C260" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="D260" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B260" s="24">
+        <v>388</v>
+      </c>
+      <c r="C260" s="25" t="s">
+        <v>634</v>
+      </c>
+      <c r="D260" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E260" s="32"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="20">
-        <v>165</v>
-      </c>
-      <c r="B261" s="24">
-        <v>18</v>
-      </c>
-      <c r="C261" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="D261" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B261" s="22">
+        <v>150</v>
+      </c>
+      <c r="C261" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="D261" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E261" s="32"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="20">
-        <v>166</v>
-      </c>
-      <c r="B262" s="22">
-        <v>93</v>
-      </c>
-      <c r="C262" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="D262" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B262" s="24">
+        <v>18</v>
+      </c>
+      <c r="C262" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="D262" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E262" s="32"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="20">
-        <v>167</v>
-      </c>
-      <c r="B263" s="24">
-        <v>43</v>
-      </c>
-      <c r="C263" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="D263" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B263" s="22">
+        <v>93</v>
+      </c>
+      <c r="C263" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="D263" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E263" s="32"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="20">
-        <v>168</v>
-      </c>
-      <c r="B264" s="22">
-        <v>2</v>
-      </c>
-      <c r="C264" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D264" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B264" s="24">
+        <v>43</v>
+      </c>
+      <c r="C264" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="D264" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E264" s="32"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="20">
-        <v>169</v>
-      </c>
-      <c r="B265" s="24">
-        <v>79</v>
-      </c>
-      <c r="C265" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="D265" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B265" s="22">
+        <v>2</v>
+      </c>
+      <c r="C265" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D265" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E265" s="32"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="20">
-        <v>170</v>
-      </c>
-      <c r="B266" s="22">
-        <v>353</v>
-      </c>
-      <c r="C266" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="D266" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B266" s="24">
+        <v>79</v>
+      </c>
+      <c r="C266" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D266" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E266" s="32"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="20">
-        <v>171</v>
-      </c>
-      <c r="B267" s="24">
-        <v>324</v>
-      </c>
-      <c r="C267" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="D267" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B267" s="22">
+        <v>353</v>
+      </c>
+      <c r="C267" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="D267" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E267" s="32"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="20">
-        <v>172</v>
-      </c>
-      <c r="B268" s="22">
-        <v>5</v>
-      </c>
-      <c r="C268" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="D268" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B268" s="24">
+        <v>324</v>
+      </c>
+      <c r="C268" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="D268" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E268" s="32"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="20">
-        <v>173</v>
-      </c>
-      <c r="B269" s="24">
-        <v>143</v>
-      </c>
-      <c r="C269" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="D269" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B269" s="22">
+        <v>5</v>
+      </c>
+      <c r="C269" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D269" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E269" s="32"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="20">
-        <v>174</v>
-      </c>
-      <c r="B270" s="22">
-        <v>61</v>
-      </c>
-      <c r="C270" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="D270" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B270" s="24">
+        <v>143</v>
+      </c>
+      <c r="C270" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D270" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E270" s="32"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="20">
-        <v>175</v>
-      </c>
-      <c r="B271" s="24">
-        <v>365</v>
-      </c>
-      <c r="C271" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="D271" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B271" s="22">
+        <v>61</v>
+      </c>
+      <c r="C271" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="D271" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E271" s="32"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="20">
-        <v>176</v>
-      </c>
-      <c r="B272" s="22">
-        <v>54</v>
-      </c>
-      <c r="C272" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="D272" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B272" s="24">
+        <v>365</v>
+      </c>
+      <c r="C272" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="D272" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E272" s="32"/>
@@ -11765,7 +12053,7 @@
       </c>
       <c r="E290" s="32"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="20">
         <v>1</v>
       </c>
@@ -11780,7 +12068,7 @@
       </c>
       <c r="E291" s="32"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="20">
         <v>2</v>
       </c>
@@ -11795,7 +12083,7 @@
       </c>
       <c r="E292" s="32"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="20">
         <v>3</v>
       </c>
@@ -11810,7 +12098,7 @@
       </c>
       <c r="E293" s="32"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="20">
         <v>4</v>
       </c>
@@ -11825,7 +12113,7 @@
       </c>
       <c r="E294" s="32"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="20">
         <v>5</v>
       </c>
@@ -11840,7 +12128,7 @@
       </c>
       <c r="E295" s="32"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="20">
         <v>6</v>
       </c>
@@ -11855,7 +12143,7 @@
       </c>
       <c r="E296" s="32"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="20">
         <v>7</v>
       </c>
@@ -11870,7 +12158,7 @@
       </c>
       <c r="E297" s="32"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="20">
         <v>8</v>
       </c>
@@ -11885,7 +12173,7 @@
       </c>
       <c r="E298" s="32"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="20">
         <v>9</v>
       </c>
@@ -11900,7 +12188,7 @@
       </c>
       <c r="E299" s="32"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="20">
         <v>10</v>
       </c>
@@ -11915,7 +12203,7 @@
       </c>
       <c r="E300" s="32"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="20">
         <v>11</v>
       </c>
@@ -11930,7 +12218,7 @@
       </c>
       <c r="E301" s="32"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="20">
         <v>12</v>
       </c>
@@ -11945,7 +12233,7 @@
       </c>
       <c r="E302" s="32"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="20">
         <v>13</v>
       </c>
@@ -11960,7 +12248,7 @@
       </c>
       <c r="E303" s="32"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="20">
         <v>14</v>
       </c>
@@ -11975,7 +12263,7 @@
       </c>
       <c r="E304" s="32"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="20">
         <v>15</v>
       </c>
@@ -11990,7 +12278,7 @@
       </c>
       <c r="E305" s="32"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="20">
         <v>16</v>
       </c>
@@ -12005,7 +12293,7 @@
       </c>
       <c r="E306" s="32"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="20">
         <v>17</v>
       </c>
@@ -12020,7 +12308,7 @@
       </c>
       <c r="E307" s="32"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="20">
         <v>18</v>
       </c>
@@ -12035,7 +12323,7 @@
       </c>
       <c r="E308" s="32"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="20">
         <v>19</v>
       </c>
@@ -12050,7 +12338,7 @@
       </c>
       <c r="E309" s="32"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="20">
         <v>20</v>
       </c>
@@ -12065,7 +12353,7 @@
       </c>
       <c r="E310" s="32"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="20">
         <v>21</v>
       </c>
@@ -12080,7 +12368,7 @@
       </c>
       <c r="E311" s="32"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="20">
         <v>22</v>
       </c>
@@ -12095,7 +12383,7 @@
       </c>
       <c r="E312" s="32"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="20">
         <v>23</v>
       </c>
@@ -12110,7 +12398,7 @@
       </c>
       <c r="E313" s="32"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="20">
         <v>24</v>
       </c>
@@ -12125,7 +12413,7 @@
       </c>
       <c r="E314" s="32"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="20">
         <v>25</v>
       </c>
@@ -12140,7 +12428,7 @@
       </c>
       <c r="E315" s="32"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="20">
         <v>26</v>
       </c>
@@ -12155,7 +12443,7 @@
       </c>
       <c r="E316" s="32"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="20">
         <v>27</v>
       </c>
@@ -12170,7 +12458,7 @@
       </c>
       <c r="E317" s="32"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="20">
         <v>28</v>
       </c>
@@ -12185,7 +12473,7 @@
       </c>
       <c r="E318" s="32"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="20">
         <v>29</v>
       </c>
@@ -12200,7 +12488,7 @@
       </c>
       <c r="E319" s="32"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="20">
         <v>30</v>
       </c>
@@ -12215,7 +12503,7 @@
       </c>
       <c r="E320" s="32"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="20">
         <v>31</v>
       </c>
@@ -12230,7 +12518,7 @@
       </c>
       <c r="E321" s="32"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="20">
         <v>32</v>
       </c>
@@ -12245,7 +12533,7 @@
       </c>
       <c r="E322" s="32"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="20">
         <v>33</v>
       </c>
@@ -12260,7 +12548,7 @@
       </c>
       <c r="E323" s="32"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="20">
         <v>34</v>
       </c>
@@ -12275,7 +12563,7 @@
       </c>
       <c r="E324" s="32"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="20">
         <v>35</v>
       </c>
@@ -12290,7 +12578,7 @@
       </c>
       <c r="E325" s="32"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="20">
         <v>36</v>
       </c>
@@ -12305,7 +12593,7 @@
       </c>
       <c r="E326" s="32"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="20">
         <v>37</v>
       </c>
@@ -12320,7 +12608,7 @@
       </c>
       <c r="E327" s="32"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="20">
         <v>38</v>
       </c>
@@ -12335,7 +12623,7 @@
       </c>
       <c r="E328" s="32"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="20">
         <v>39</v>
       </c>
@@ -12350,7 +12638,7 @@
       </c>
       <c r="E329" s="32"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="20">
         <v>40</v>
       </c>
@@ -12365,7 +12653,7 @@
       </c>
       <c r="E330" s="32"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="20">
         <v>41</v>
       </c>
@@ -12380,7 +12668,7 @@
       </c>
       <c r="E331" s="32"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="20">
         <v>42</v>
       </c>
@@ -12395,7 +12683,7 @@
       </c>
       <c r="E332" s="32"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="20">
         <v>43</v>
       </c>
@@ -12410,7 +12698,7 @@
       </c>
       <c r="E333" s="32"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="20">
         <v>44</v>
       </c>
@@ -12425,7 +12713,7 @@
       </c>
       <c r="E334" s="32"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="20">
         <v>45</v>
       </c>
@@ -12440,7 +12728,7 @@
       </c>
       <c r="E335" s="32"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="20">
         <v>46</v>
       </c>
@@ -12455,7 +12743,7 @@
       </c>
       <c r="E336" s="32"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="20">
         <v>47</v>
       </c>
@@ -12470,7 +12758,7 @@
       </c>
       <c r="E337" s="32"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="20">
         <v>48</v>
       </c>
@@ -12485,7 +12773,7 @@
       </c>
       <c r="E338" s="32"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="20">
         <v>49</v>
       </c>
@@ -12500,7 +12788,7 @@
       </c>
       <c r="E339" s="32"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="20">
         <v>50</v>
       </c>
@@ -12515,7 +12803,7 @@
       </c>
       <c r="E340" s="32"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="20">
         <v>51</v>
       </c>
@@ -12530,7 +12818,7 @@
       </c>
       <c r="E341" s="32"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="20">
         <v>52</v>
       </c>
@@ -12545,7 +12833,7 @@
       </c>
       <c r="E342" s="32"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="20">
         <v>53</v>
       </c>
@@ -12560,7 +12848,7 @@
       </c>
       <c r="E343" s="32"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="20">
         <v>54</v>
       </c>
@@ -12575,7 +12863,7 @@
       </c>
       <c r="E344" s="32"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="20">
         <v>55</v>
       </c>
@@ -12590,7 +12878,7 @@
       </c>
       <c r="E345" s="32"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="20">
         <v>56</v>
       </c>
@@ -12605,7 +12893,7 @@
       </c>
       <c r="E346" s="32"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="20">
         <v>57</v>
       </c>
@@ -12620,7 +12908,7 @@
       </c>
       <c r="E347" s="32"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="20">
         <v>58</v>
       </c>
@@ -12635,7 +12923,7 @@
       </c>
       <c r="E348" s="32"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="20">
         <v>59</v>
       </c>
@@ -12650,7 +12938,7 @@
       </c>
       <c r="E349" s="32"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="20">
         <v>60</v>
       </c>
@@ -12665,7 +12953,7 @@
       </c>
       <c r="E350" s="32"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="20">
         <v>61</v>
       </c>
@@ -12680,7 +12968,7 @@
       </c>
       <c r="E351" s="32"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="20">
         <v>62</v>
       </c>
@@ -12695,7 +12983,7 @@
       </c>
       <c r="E352" s="32"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="20">
         <v>63</v>
       </c>
@@ -12710,7 +12998,7 @@
       </c>
       <c r="E353" s="32"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="20">
         <v>64</v>
       </c>
@@ -12725,7 +13013,7 @@
       </c>
       <c r="E354" s="32"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="20">
         <v>65</v>
       </c>
@@ -12740,7 +13028,7 @@
       </c>
       <c r="E355" s="32"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="20">
         <v>66</v>
       </c>
@@ -12755,7 +13043,7 @@
       </c>
       <c r="E356" s="32"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="20">
         <v>67</v>
       </c>
@@ -12770,7 +13058,7 @@
       </c>
       <c r="E357" s="32"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="20">
         <v>68</v>
       </c>
@@ -12785,7 +13073,7 @@
       </c>
       <c r="E358" s="32"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="20">
         <v>69</v>
       </c>
@@ -12800,7 +13088,7 @@
       </c>
       <c r="E359" s="32"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="20">
         <v>70</v>
       </c>
@@ -12815,7 +13103,7 @@
       </c>
       <c r="E360" s="32"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="20">
         <v>71</v>
       </c>
@@ -12830,7 +13118,7 @@
       </c>
       <c r="E361" s="32"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="20">
         <v>72</v>
       </c>
@@ -12845,7 +13133,7 @@
       </c>
       <c r="E362" s="32"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="20">
         <v>73</v>
       </c>
@@ -12860,7 +13148,7 @@
       </c>
       <c r="E363" s="32"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="20">
         <v>74</v>
       </c>
@@ -12875,7 +13163,7 @@
       </c>
       <c r="E364" s="32"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="20">
         <v>75</v>
       </c>
@@ -12890,7 +13178,7 @@
       </c>
       <c r="E365" s="32"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="20">
         <v>76</v>
       </c>
@@ -12905,7 +13193,7 @@
       </c>
       <c r="E366" s="32"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="20">
         <v>77</v>
       </c>
@@ -12920,7 +13208,7 @@
       </c>
       <c r="E367" s="32"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="20">
         <v>78</v>
       </c>
@@ -12935,7 +13223,7 @@
       </c>
       <c r="E368" s="32"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="20">
         <v>79</v>
       </c>
@@ -12950,7 +13238,7 @@
       </c>
       <c r="E369" s="32"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="20">
         <v>80</v>
       </c>
@@ -12965,7 +13253,7 @@
       </c>
       <c r="E370" s="32"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="20">
         <v>81</v>
       </c>
@@ -12980,7 +13268,7 @@
       </c>
       <c r="E371" s="32"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="20">
         <v>82</v>
       </c>
@@ -13146,136 +13434,136 @@
     <hyperlink ref="C101" r:id="rId140" display="https://leetcode.com/problems/single-number-ii/"/>
     <hyperlink ref="C144" r:id="rId141" display="https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/"/>
     <hyperlink ref="C145" r:id="rId142" display="https://leetcode.com/problems/unique-binary-search-trees/"/>
-    <hyperlink ref="C147" r:id="rId143" display="https://leetcode.com/problems/android-unlock-patterns/"/>
-    <hyperlink ref="C148" r:id="rId144" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/"/>
-    <hyperlink ref="C149" r:id="rId145" display="https://leetcode.com/problems/count-univalue-subtrees/"/>
-    <hyperlink ref="C150" r:id="rId146" display="https://leetcode.com/problems/different-ways-to-add-parentheses/"/>
+    <hyperlink ref="C148" r:id="rId143" display="https://leetcode.com/problems/android-unlock-patterns/"/>
+    <hyperlink ref="C149" r:id="rId144" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/"/>
+    <hyperlink ref="C150" r:id="rId145" display="https://leetcode.com/problems/count-univalue-subtrees/"/>
+    <hyperlink ref="C147" r:id="rId146" display="https://leetcode.com/problems/different-ways-to-add-parentheses/"/>
     <hyperlink ref="C151" r:id="rId147" display="https://leetcode.com/problems/search-insert-position/"/>
     <hyperlink ref="C152" r:id="rId148" display="https://leetcode.com/problems/binary-tree-longest-consecutive-sequence/"/>
     <hyperlink ref="C153" r:id="rId149" display="https://leetcode.com/problems/gray-code/"/>
     <hyperlink ref="C154" r:id="rId150" display="https://leetcode.com/problems/permutations/"/>
-    <hyperlink ref="C155" r:id="rId151" display="https://leetcode.com/problems/verify-preorder-sequence-in-binary-search-tree/"/>
-    <hyperlink ref="C156" r:id="rId152" display="https://leetcode.com/problems/unique-paths/"/>
-    <hyperlink ref="C157" r:id="rId153" display="https://leetcode.com/problems/maximum-subarray/"/>
-    <hyperlink ref="C158" r:id="rId154" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/"/>
-    <hyperlink ref="C159" r:id="rId155" display="https://leetcode.com/problems/factor-combinations/"/>
-    <hyperlink ref="C160" r:id="rId156" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node/"/>
-    <hyperlink ref="C161" r:id="rId157" display="https://leetcode.com/problems/binary-tree-right-side-view/"/>
-    <hyperlink ref="C162" r:id="rId158" display="https://leetcode.com/problems/valid-perfect-square/"/>
-    <hyperlink ref="C163" r:id="rId159" display="https://leetcode.com/problems/binary-search-tree-iterator/"/>
-    <hyperlink ref="C164" r:id="rId160" display="https://leetcode.com/problems/spiral-matrix-ii/"/>
-    <hyperlink ref="C165" r:id="rId161" display="https://leetcode.com/problems/meeting-rooms-ii/"/>
-    <hyperlink ref="C166" r:id="rId162" display="https://leetcode.com/problems/inorder-successor-in-bst/"/>
-    <hyperlink ref="C167" r:id="rId163" display="https://leetcode.com/problems/search-a-2d-matrix-ii/"/>
-    <hyperlink ref="C168" r:id="rId164" display="https://leetcode.com/problems/combinations/"/>
-    <hyperlink ref="C169" r:id="rId165" display="https://leetcode.com/problems/minimum-path-sum/"/>
-    <hyperlink ref="C170" r:id="rId166" display="https://leetcode.com/problems/increasing-triplet-subsequence/"/>
-    <hyperlink ref="C171" r:id="rId167" display="https://leetcode.com/problems/super-ugly-number/"/>
-    <hyperlink ref="C172" r:id="rId168" display="https://leetcode.com/problems/strobogrammatic-number-ii/"/>
-    <hyperlink ref="C173" r:id="rId169" display="https://leetcode.com/problems/rotate-image/"/>
-    <hyperlink ref="C174" r:id="rId170" display="https://leetcode.com/problems/longest-increasing-subsequence/"/>
-    <hyperlink ref="C175" r:id="rId171" display="https://leetcode.com/problems/bomb-enemy/"/>
-    <hyperlink ref="C176" r:id="rId172" display="https://leetcode.com/problems/flatten-2d-vector/"/>
-    <hyperlink ref="C177" r:id="rId173" display="https://leetcode.com/problems/sort-colors/"/>
-    <hyperlink ref="C178" r:id="rId174" display="https://leetcode.com/problems/game-of-life/"/>
-    <hyperlink ref="C179" r:id="rId175" display="https://leetcode.com/problems/container-with-most-water/"/>
-    <hyperlink ref="C180" r:id="rId176" display="https://leetcode.com/problems/find-the-celebrity/"/>
-    <hyperlink ref="C181" r:id="rId177" display="https://leetcode.com/problems/shortest-word-distance-ii/"/>
-    <hyperlink ref="C182" r:id="rId178" display="https://leetcode.com/problems/kth-largest-element-in-an-array/"/>
-    <hyperlink ref="C183" r:id="rId179" display="https://leetcode.com/problems/search-a-2d-matrix/"/>
-    <hyperlink ref="C184" r:id="rId180" display="https://leetcode.com/problems/peeking-iterator/"/>
-    <hyperlink ref="C185" r:id="rId181" display="https://leetcode.com/problems/set-matrix-zeroes/"/>
-    <hyperlink ref="C186" r:id="rId182" display="https://leetcode.com/problems/wiggle-subsequence/"/>
-    <hyperlink ref="C187" r:id="rId183" display="https://leetcode.com/problems/graph-valid-tree/"/>
-    <hyperlink ref="C188" r:id="rId184" display="https://leetcode.com/problems/find-peak-element/"/>
-    <hyperlink ref="C189" r:id="rId185" display="https://leetcode.com/problems/perfect-squares/"/>
-    <hyperlink ref="C190" r:id="rId186" display="https://leetcode.com/problems/flatten-nested-list-iterator/"/>
-    <hyperlink ref="C191" r:id="rId187" display="https://leetcode.com/problems/sum-root-to-leaf-numbers/"/>
-    <hyperlink ref="C192" r:id="rId188" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array-ii/"/>
-    <hyperlink ref="C193" r:id="rId189" display="https://leetcode.com/problems/subsets/"/>
-    <hyperlink ref="C194" r:id="rId190" display="https://leetcode.com/problems/verify-preorder-serialization-of-a-binary-tree/"/>
-    <hyperlink ref="C195" r:id="rId191" display="https://leetcode.com/problems/h-index-ii/"/>
+    <hyperlink ref="C159" r:id="rId151" display="https://leetcode.com/problems/verify-preorder-sequence-in-binary-search-tree/"/>
+    <hyperlink ref="C160" r:id="rId152" display="https://leetcode.com/problems/unique-paths/"/>
+    <hyperlink ref="C161" r:id="rId153" display="https://leetcode.com/problems/maximum-subarray/"/>
+    <hyperlink ref="C162" r:id="rId154" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/"/>
+    <hyperlink ref="C163" r:id="rId155" display="https://leetcode.com/problems/factor-combinations/"/>
+    <hyperlink ref="C164" r:id="rId156" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node/"/>
+    <hyperlink ref="C165" r:id="rId157" display="https://leetcode.com/problems/binary-tree-right-side-view/"/>
+    <hyperlink ref="C166" r:id="rId158" display="https://leetcode.com/problems/valid-perfect-square/"/>
+    <hyperlink ref="C167" r:id="rId159" display="https://leetcode.com/problems/binary-search-tree-iterator/"/>
+    <hyperlink ref="C169" r:id="rId160" display="https://leetcode.com/problems/spiral-matrix-ii/"/>
+    <hyperlink ref="C170" r:id="rId161" display="https://leetcode.com/problems/meeting-rooms-ii/"/>
+    <hyperlink ref="C171" r:id="rId162" display="https://leetcode.com/problems/inorder-successor-in-bst/"/>
+    <hyperlink ref="C173" r:id="rId163" display="https://leetcode.com/problems/search-a-2d-matrix-ii/"/>
+    <hyperlink ref="C158" r:id="rId164" display="https://leetcode.com/problems/combinations/"/>
+    <hyperlink ref="C174" r:id="rId165" display="https://leetcode.com/problems/minimum-path-sum/"/>
+    <hyperlink ref="C175" r:id="rId166" display="https://leetcode.com/problems/increasing-triplet-subsequence/"/>
+    <hyperlink ref="C176" r:id="rId167" display="https://leetcode.com/problems/super-ugly-number/"/>
+    <hyperlink ref="C178" r:id="rId168" display="https://leetcode.com/problems/strobogrammatic-number-ii/"/>
+    <hyperlink ref="C179" r:id="rId169" display="https://leetcode.com/problems/rotate-image/"/>
+    <hyperlink ref="C180" r:id="rId170" display="https://leetcode.com/problems/longest-increasing-subsequence/"/>
+    <hyperlink ref="C181" r:id="rId171" display="https://leetcode.com/problems/bomb-enemy/"/>
+    <hyperlink ref="C182" r:id="rId172" display="https://leetcode.com/problems/flatten-2d-vector/"/>
+    <hyperlink ref="C183" r:id="rId173" display="https://leetcode.com/problems/sort-colors/"/>
+    <hyperlink ref="C184" r:id="rId174" display="https://leetcode.com/problems/game-of-life/"/>
+    <hyperlink ref="C185" r:id="rId175" display="https://leetcode.com/problems/container-with-most-water/"/>
+    <hyperlink ref="C186" r:id="rId176" display="https://leetcode.com/problems/find-the-celebrity/"/>
+    <hyperlink ref="C187" r:id="rId177" display="https://leetcode.com/problems/shortest-word-distance-ii/"/>
+    <hyperlink ref="C188" r:id="rId178" display="https://leetcode.com/problems/kth-largest-element-in-an-array/"/>
+    <hyperlink ref="C172" r:id="rId179" display="https://leetcode.com/problems/search-a-2d-matrix/"/>
+    <hyperlink ref="C189" r:id="rId180" display="https://leetcode.com/problems/peeking-iterator/"/>
+    <hyperlink ref="C190" r:id="rId181" display="https://leetcode.com/problems/set-matrix-zeroes/"/>
+    <hyperlink ref="C191" r:id="rId182" display="https://leetcode.com/problems/wiggle-subsequence/"/>
+    <hyperlink ref="C192" r:id="rId183" display="https://leetcode.com/problems/graph-valid-tree/"/>
+    <hyperlink ref="C193" r:id="rId184" display="https://leetcode.com/problems/find-peak-element/"/>
+    <hyperlink ref="C194" r:id="rId185" display="https://leetcode.com/problems/perfect-squares/"/>
+    <hyperlink ref="C195" r:id="rId186" display="https://leetcode.com/problems/flatten-nested-list-iterator/"/>
+    <hyperlink ref="C196" r:id="rId187" display="https://leetcode.com/problems/sum-root-to-leaf-numbers/"/>
+    <hyperlink ref="C197" r:id="rId188" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array-ii/"/>
+    <hyperlink ref="C198" r:id="rId189" display="https://leetcode.com/problems/subsets/"/>
+    <hyperlink ref="C199" r:id="rId190" display="https://leetcode.com/problems/verify-preorder-serialization-of-a-binary-tree/"/>
+    <hyperlink ref="C200" r:id="rId191" display="https://leetcode.com/problems/h-index-ii/"/>
     <hyperlink ref="C136" r:id="rId192" display="https://leetcode.com/problems/combination-sum/"/>
-    <hyperlink ref="C196" r:id="rId193" display="https://leetcode.com/problems/binary-tree-vertical-order-traversal/"/>
-    <hyperlink ref="C197" r:id="rId194" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii/"/>
-    <hyperlink ref="C198" r:id="rId195" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list/"/>
+    <hyperlink ref="C201" r:id="rId193" display="https://leetcode.com/problems/binary-tree-vertical-order-traversal/"/>
+    <hyperlink ref="C202" r:id="rId194" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii/"/>
+    <hyperlink ref="C203" r:id="rId195" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list/"/>
     <hyperlink ref="C140" r:id="rId196" display="https://leetcode.com/problems/house-robber-ii/"/>
-    <hyperlink ref="C199" r:id="rId197" display="https://leetcode.com/problems/bitwise-and-of-numbers-range/"/>
-    <hyperlink ref="C200" r:id="rId198" display="https://leetcode.com/problems/subsets-ii/"/>
-    <hyperlink ref="C201" r:id="rId199" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/"/>
-    <hyperlink ref="C202" r:id="rId200" display="https://leetcode.com/problems/largest-divisible-subset/"/>
-    <hyperlink ref="C203" r:id="rId201" display="https://leetcode.com/problems/linked-list-cycle-ii/"/>
-    <hyperlink ref="C204" r:id="rId202" display="https://leetcode.com/problems/triangle/"/>
-    <hyperlink ref="C205" r:id="rId203" display="https://leetcode.com/problems/super-pow/"/>
-    <hyperlink ref="C206" r:id="rId204" display="https://leetcode.com/problems/guess-number-higher-or-lower-ii/"/>
-    <hyperlink ref="C207" r:id="rId205" display="https://leetcode.com/problems/h-index/"/>
-    <hyperlink ref="C208" r:id="rId206" display="https://leetcode.com/problems/insertion-sort-list/"/>
-    <hyperlink ref="C209" r:id="rId207" display="https://leetcode.com/problems/partition-list/"/>
-    <hyperlink ref="C210" r:id="rId208" display="https://leetcode.com/problems/missing-ranges/"/>
-    <hyperlink ref="C211" r:id="rId209" display="https://leetcode.com/problems/letter-combinations-of-a-phone-number/"/>
-    <hyperlink ref="C212" r:id="rId210" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/"/>
-    <hyperlink ref="C213" r:id="rId211" display="https://leetcode.com/problems/unique-paths-ii/"/>
-    <hyperlink ref="C214" r:id="rId212" display="https://leetcode.com/problems/ugly-number-ii/"/>
-    <hyperlink ref="C215" r:id="rId213" display="https://leetcode.com/problems/search-for-a-range/"/>
-    <hyperlink ref="C216" r:id="rId214" display="https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/"/>
-    <hyperlink ref="C217" r:id="rId215" display="https://leetcode.com/problems/3sum-closest/"/>
-    <hyperlink ref="C218" r:id="rId216" display="https://leetcode.com/problems/number-of-islands/"/>
+    <hyperlink ref="C204" r:id="rId197" display="https://leetcode.com/problems/bitwise-and-of-numbers-range/"/>
+    <hyperlink ref="C205" r:id="rId198" display="https://leetcode.com/problems/subsets-ii/"/>
+    <hyperlink ref="C206" r:id="rId199" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/"/>
+    <hyperlink ref="C207" r:id="rId200" display="https://leetcode.com/problems/largest-divisible-subset/"/>
+    <hyperlink ref="C208" r:id="rId201" display="https://leetcode.com/problems/linked-list-cycle-ii/"/>
+    <hyperlink ref="C209" r:id="rId202" display="https://leetcode.com/problems/triangle/"/>
+    <hyperlink ref="C210" r:id="rId203" display="https://leetcode.com/problems/super-pow/"/>
+    <hyperlink ref="C211" r:id="rId204" display="https://leetcode.com/problems/guess-number-higher-or-lower-ii/"/>
+    <hyperlink ref="C212" r:id="rId205" display="https://leetcode.com/problems/h-index/"/>
+    <hyperlink ref="C213" r:id="rId206" display="https://leetcode.com/problems/insertion-sort-list/"/>
+    <hyperlink ref="C214" r:id="rId207" display="https://leetcode.com/problems/partition-list/"/>
+    <hyperlink ref="C215" r:id="rId208" display="https://leetcode.com/problems/missing-ranges/"/>
+    <hyperlink ref="C216" r:id="rId209" display="https://leetcode.com/problems/letter-combinations-of-a-phone-number/"/>
+    <hyperlink ref="C217" r:id="rId210" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/"/>
+    <hyperlink ref="C218" r:id="rId211" display="https://leetcode.com/problems/unique-paths-ii/"/>
+    <hyperlink ref="C177" r:id="rId212" display="https://leetcode.com/problems/ugly-number-ii/"/>
+    <hyperlink ref="C219" r:id="rId213" display="https://leetcode.com/problems/search-for-a-range/"/>
+    <hyperlink ref="C220" r:id="rId214" display="https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/"/>
+    <hyperlink ref="C221" r:id="rId215" display="https://leetcode.com/problems/3sum-closest/"/>
+    <hyperlink ref="C222" r:id="rId216" display="https://leetcode.com/problems/number-of-islands/"/>
     <hyperlink ref="C146" r:id="rId217" display="https://leetcode.com/problems/unique-binary-search-trees-ii/"/>
-    <hyperlink ref="C219" r:id="rId218" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/"/>
-    <hyperlink ref="C220" r:id="rId219" display="https://leetcode.com/problems/palindrome-permutation-ii/"/>
-    <hyperlink ref="C221" r:id="rId220" display="https://leetcode.com/problems/path-sum-ii/"/>
-    <hyperlink ref="C222" r:id="rId221" display="https://leetcode.com/problems/one-edit-distance/"/>
-    <hyperlink ref="C223" r:id="rId222" display="https://leetcode.com/problems/anagrams/"/>
-    <hyperlink ref="C224" r:id="rId223" display="https://leetcode.com/problems/permutations-ii/"/>
+    <hyperlink ref="C223" r:id="rId218" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/"/>
+    <hyperlink ref="C224" r:id="rId219" display="https://leetcode.com/problems/palindrome-permutation-ii/"/>
+    <hyperlink ref="C225" r:id="rId220" display="https://leetcode.com/problems/path-sum-ii/"/>
+    <hyperlink ref="C226" r:id="rId221" display="https://leetcode.com/problems/one-edit-distance/"/>
+    <hyperlink ref="C227" r:id="rId222" display="https://leetcode.com/problems/anagrams/"/>
+    <hyperlink ref="C156" r:id="rId223" display="https://leetcode.com/problems/permutations-ii/"/>
     <hyperlink ref="C137" r:id="rId224" display="https://leetcode.com/problems/combination-sum-ii/"/>
-    <hyperlink ref="C225" r:id="rId225" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/"/>
-    <hyperlink ref="C226" r:id="rId226" display="https://leetcode.com/problems/reverse-words-in-a-string-ii/"/>
-    <hyperlink ref="C227" r:id="rId227" display="https://leetcode.com/problems/jump-game/"/>
-    <hyperlink ref="C228" r:id="rId228" display="https://leetcode.com/problems/reverse-linked-list-ii/"/>
-    <hyperlink ref="C229" r:id="rId229" display="https://leetcode.com/problems/palindrome-partitioning/"/>
-    <hyperlink ref="C230" r:id="rId230" display="https://leetcode.com/problems/course-schedule/"/>
-    <hyperlink ref="C231" r:id="rId231" display="https://leetcode.com/problems/line-reflection/"/>
-    <hyperlink ref="C232" r:id="rId232" display="https://leetcode.com/problems/largest-bst-subtree/"/>
-    <hyperlink ref="C233" r:id="rId233" display="https://leetcode.com/problems/gas-station/"/>
-    <hyperlink ref="C234" r:id="rId234" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/"/>
-    <hyperlink ref="C235" r:id="rId235" display="https://leetcode.com/problems/minimum-size-subarray-sum/"/>
-    <hyperlink ref="C236" r:id="rId236" display="https://leetcode.com/problems/minimum-height-trees/"/>
-    <hyperlink ref="C237" r:id="rId237" display="https://leetcode.com/problems/powx-n/"/>
-    <hyperlink ref="C238" r:id="rId238" display="https://leetcode.com/problems/repeated-dna-sequences/"/>
-    <hyperlink ref="C239" r:id="rId239" display="https://leetcode.com/problems/next-permutation/"/>
-    <hyperlink ref="C240" r:id="rId240" display="https://leetcode.com/problems/encode-and-decode-strings/"/>
-    <hyperlink ref="C241" r:id="rId241" display="https://leetcode.com/problems/find-k-pairs-with-smallest-sums/"/>
-    <hyperlink ref="C242" r:id="rId242" display="https://leetcode.com/problems/majority-element-ii/"/>
-    <hyperlink ref="C243" r:id="rId243" display="https://leetcode.com/problems/additive-number/"/>
-    <hyperlink ref="C244" r:id="rId244" display="https://leetcode.com/problems/mini-parser/"/>
-    <hyperlink ref="C245" r:id="rId245" display="https://leetcode.com/problems/basic-calculator-ii/"/>
-    <hyperlink ref="C246" r:id="rId246" display="https://leetcode.com/problems/word-break/"/>
-    <hyperlink ref="C247" r:id="rId247" display="https://leetcode.com/problems/lexicographical-numbers/"/>
-    <hyperlink ref="C248" r:id="rId248" display="https://leetcode.com/problems/count-complete-tree-nodes/"/>
-    <hyperlink ref="C249" r:id="rId249" display="https://leetcode.com/problems/reconstruct-itinerary/"/>
-    <hyperlink ref="C250" r:id="rId250" display="https://leetcode.com/problems/sqrtx/"/>
-    <hyperlink ref="C251" r:id="rId251" display="https://leetcode.com/problems/sort-list/"/>
-    <hyperlink ref="C252" r:id="rId252" display="https://leetcode.com/problems/permutation-sequence/"/>
-    <hyperlink ref="C253" r:id="rId253" display="https://leetcode.com/problems/summary-ranges/"/>
-    <hyperlink ref="C254" r:id="rId254" display="https://leetcode.com/problems/design-phone-directory/"/>
-    <hyperlink ref="C255" r:id="rId255" display="https://leetcode.com/problems/coin-change/"/>
-    <hyperlink ref="C256" r:id="rId256" display="https://leetcode.com/problems/implement-trie-prefix-tree/"/>
-    <hyperlink ref="C257" r:id="rId257" display="https://leetcode.com/problems/maximal-square/"/>
-    <hyperlink ref="C258" r:id="rId258" display="https://leetcode.com/problems/clone-graph/"/>
-    <hyperlink ref="C259" r:id="rId259" display="https://leetcode.com/problems/longest-absolute-file-path/"/>
-    <hyperlink ref="C260" r:id="rId260" display="https://leetcode.com/problems/evaluate-reverse-polish-notation/"/>
-    <hyperlink ref="C261" r:id="rId261" display="https://leetcode.com/problems/4sum/"/>
-    <hyperlink ref="C262" r:id="rId262" display="https://leetcode.com/problems/restore-ip-addresses/"/>
-    <hyperlink ref="C263" r:id="rId263" display="https://leetcode.com/problems/multiply-strings/"/>
-    <hyperlink ref="C264" r:id="rId264" display="https://leetcode.com/problems/add-two-numbers/"/>
-    <hyperlink ref="C265" r:id="rId265" display="https://leetcode.com/problems/word-search/"/>
-    <hyperlink ref="C266" r:id="rId266" display="https://leetcode.com/problems/design-snake-game/"/>
-    <hyperlink ref="C267" r:id="rId267" display="https://leetcode.com/problems/wiggle-sort-ii/"/>
-    <hyperlink ref="C268" r:id="rId268" display="https://leetcode.com/problems/longest-palindromic-substring/"/>
-    <hyperlink ref="C269" r:id="rId269" display="https://leetcode.com/problems/reorder-list/"/>
-    <hyperlink ref="C270" r:id="rId270" display="https://leetcode.com/problems/rotate-list/"/>
-    <hyperlink ref="C271" r:id="rId271" display="https://leetcode.com/problems/water-and-jug-problem/"/>
-    <hyperlink ref="C272" r:id="rId272" display="https://leetcode.com/problems/spiral-matrix/"/>
+    <hyperlink ref="C228" r:id="rId225" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/"/>
+    <hyperlink ref="C229" r:id="rId226" display="https://leetcode.com/problems/reverse-words-in-a-string-ii/"/>
+    <hyperlink ref="C230" r:id="rId227" display="https://leetcode.com/problems/jump-game/"/>
+    <hyperlink ref="C231" r:id="rId228" display="https://leetcode.com/problems/reverse-linked-list-ii/"/>
+    <hyperlink ref="C232" r:id="rId229" display="https://leetcode.com/problems/palindrome-partitioning/"/>
+    <hyperlink ref="C233" r:id="rId230" display="https://leetcode.com/problems/course-schedule/"/>
+    <hyperlink ref="C234" r:id="rId231" display="https://leetcode.com/problems/line-reflection/"/>
+    <hyperlink ref="C235" r:id="rId232" display="https://leetcode.com/problems/largest-bst-subtree/"/>
+    <hyperlink ref="C236" r:id="rId233" display="https://leetcode.com/problems/gas-station/"/>
+    <hyperlink ref="C237" r:id="rId234" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/"/>
+    <hyperlink ref="C238" r:id="rId235" display="https://leetcode.com/problems/minimum-size-subarray-sum/"/>
+    <hyperlink ref="C239" r:id="rId236" display="https://leetcode.com/problems/minimum-height-trees/"/>
+    <hyperlink ref="C240" r:id="rId237" display="https://leetcode.com/problems/powx-n/"/>
+    <hyperlink ref="C241" r:id="rId238" display="https://leetcode.com/problems/repeated-dna-sequences/"/>
+    <hyperlink ref="C155" r:id="rId239" display="https://leetcode.com/problems/next-permutation/"/>
+    <hyperlink ref="C242" r:id="rId240" display="https://leetcode.com/problems/encode-and-decode-strings/"/>
+    <hyperlink ref="C243" r:id="rId241" display="https://leetcode.com/problems/find-k-pairs-with-smallest-sums/"/>
+    <hyperlink ref="C244" r:id="rId242" display="https://leetcode.com/problems/majority-element-ii/"/>
+    <hyperlink ref="C245" r:id="rId243" display="https://leetcode.com/problems/additive-number/"/>
+    <hyperlink ref="C246" r:id="rId244" display="https://leetcode.com/problems/mini-parser/"/>
+    <hyperlink ref="C247" r:id="rId245" display="https://leetcode.com/problems/basic-calculator-ii/"/>
+    <hyperlink ref="C248" r:id="rId246" display="https://leetcode.com/problems/word-break/"/>
+    <hyperlink ref="C249" r:id="rId247" display="https://leetcode.com/problems/lexicographical-numbers/"/>
+    <hyperlink ref="C250" r:id="rId248" display="https://leetcode.com/problems/count-complete-tree-nodes/"/>
+    <hyperlink ref="C251" r:id="rId249" display="https://leetcode.com/problems/reconstruct-itinerary/"/>
+    <hyperlink ref="C252" r:id="rId250" display="https://leetcode.com/problems/sqrtx/"/>
+    <hyperlink ref="C253" r:id="rId251" display="https://leetcode.com/problems/sort-list/"/>
+    <hyperlink ref="C157" r:id="rId252" display="https://leetcode.com/problems/permutation-sequence/"/>
+    <hyperlink ref="C254" r:id="rId253" display="https://leetcode.com/problems/summary-ranges/"/>
+    <hyperlink ref="C255" r:id="rId254" display="https://leetcode.com/problems/design-phone-directory/"/>
+    <hyperlink ref="C256" r:id="rId255" display="https://leetcode.com/problems/coin-change/"/>
+    <hyperlink ref="C257" r:id="rId256" display="https://leetcode.com/problems/implement-trie-prefix-tree/"/>
+    <hyperlink ref="C258" r:id="rId257" display="https://leetcode.com/problems/maximal-square/"/>
+    <hyperlink ref="C259" r:id="rId258" display="https://leetcode.com/problems/clone-graph/"/>
+    <hyperlink ref="C260" r:id="rId259" display="https://leetcode.com/problems/longest-absolute-file-path/"/>
+    <hyperlink ref="C261" r:id="rId260" display="https://leetcode.com/problems/evaluate-reverse-polish-notation/"/>
+    <hyperlink ref="C262" r:id="rId261" display="https://leetcode.com/problems/4sum/"/>
+    <hyperlink ref="C263" r:id="rId262" display="https://leetcode.com/problems/restore-ip-addresses/"/>
+    <hyperlink ref="C264" r:id="rId263" display="https://leetcode.com/problems/multiply-strings/"/>
+    <hyperlink ref="C265" r:id="rId264" display="https://leetcode.com/problems/add-two-numbers/"/>
+    <hyperlink ref="C266" r:id="rId265" display="https://leetcode.com/problems/word-search/"/>
+    <hyperlink ref="C267" r:id="rId266" display="https://leetcode.com/problems/design-snake-game/"/>
+    <hyperlink ref="C268" r:id="rId267" display="https://leetcode.com/problems/wiggle-sort-ii/"/>
+    <hyperlink ref="C269" r:id="rId268" display="https://leetcode.com/problems/longest-palindromic-substring/"/>
+    <hyperlink ref="C270" r:id="rId269" display="https://leetcode.com/problems/reorder-list/"/>
+    <hyperlink ref="C271" r:id="rId270" display="https://leetcode.com/problems/rotate-list/"/>
+    <hyperlink ref="C272" r:id="rId271" display="https://leetcode.com/problems/water-and-jug-problem/"/>
+    <hyperlink ref="C168" r:id="rId272" display="https://leetcode.com/problems/spiral-matrix/"/>
     <hyperlink ref="C273" r:id="rId273" display="https://leetcode.com/problems/maximum-product-subarray/"/>
     <hyperlink ref="C274" r:id="rId274" display="https://leetcode.com/problems/design-twitter/"/>
     <hyperlink ref="C275" r:id="rId275" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/"/>

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="767">
   <si>
     <t>420. Count and Say</t>
   </si>
@@ -3175,6 +3175,175 @@
       <t xml:space="preserve">
 n个数的permutation总共有n阶乘个，基于这个性质我们可以得到某一位对应的数字是哪一个。思路是这样的，比如当前长度是n，我们知道每个相同的起始元素对应(n-1)!个permutation，也就是(n-1)!个permutation后会换一个起始元素。因此，只要当前的k进行(n-1)!取余，得到的数字就是当前剩余数组的index，如此就可以得到对应的元素。如此递推直到数组中没有元素结束。实现中我们要维护一个数组来记录当前的元素，每次得到一个元素加入结果数组，然后从剩余数组中移除，因此空间复杂度是O(n)。时间上总共需要n个回合，而每次删除元素如果是用数组需要O(n),所以总共是O(n^2)。这里如果不移除元素也需要对元素做标记，所以要判断第一个还是个线性的操作。</t>
     </r>
+  </si>
+  <si>
+    <t>DP
+Find minimum of last SuperUgly number * primes[i] and last min
+update lastmin position of primes</t>
+  </si>
+  <si>
+    <t>find minimum previous ugly number multiply 2,3,5 by p2,p3,p5 which are count of 2,3,5
+            while (uglys[p2] * 2 &lt;= lastNumber) {
+                p2++;
+            }
+            while (uglys[p3] * 3 &lt;= lastNumber) {
+                p3++;
+            }
+            while (uglys[p5] * 5 &lt;= lastNumber) {
+                p5++;
+            }
+            uglys[i] = Math.min(uglys[p2] * 2, Math.min(uglys[p3] * 3, uglys[p5] * 5));</t>
+  </si>
+  <si>
+    <t>update biggest and senond bigger, if can't update means has triplet</t>
+  </si>
+  <si>
+    <r>
+      <t>DP : max[i] represent the length of the longest increasing subsequence so far. If any element before i is smaller than nums[i], then max[i] = max(max[i], max[j]+1).
+BS: using ArrayList to track increasing subsequence, when comes nums[i] &gt; last elem of list, directly put into list, otherwise binary search where is insert position in ArrayList by nums[i]; Finally return list.size is longest increasing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+while (start &lt; end) {
+...
+start = mid + 1;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>swap four corner of matrix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (which are in double loop of i&lt;n/2 and j &lt; (n+1)/2 )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                int temp = matrix[i][j];
+                matrix[i][j] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>matrix[n - j - 1][i]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; // need find rule from first column
+                matrix[n - j - 1][i] = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>matrix[n - i - 1][n - j - 1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+                matrix[n - i - 1][n - j - 1] = matrix[j][n - i - 1];
+                matrix[j][n - i - 1] = temp;</t>
+    </r>
+  </si>
+  <si>
+    <t>1. count three colors, then put color value into array by count respectively.
+2. swap
+int red = 0;        int blue = nums.length - 1;        int i = 0;
+red and i move to right, blue move to left. When element of nums equals 0 then swap i and red, when equals 2 then swap i and blue, otherwise just move i</t>
+  </si>
+  <si>
+    <t>1. /*
+                0 : 上一轮是0，这一轮过后还是0
+                1 : 上一轮是1，这一轮过后还是1
+                2 : 上一轮是1，这一轮过后变为0
+                3 : 上一轮是0，这一轮过后变为1
+                */
+2. count eight directions by above rules
+3. // 根据周边存活数量更新当前点，结果是0和1的情况不用更新
+                if (board[i][j] == 0 &amp;&amp; lives == 3) {
+                    board[i][j] = 3;
+                } else if (board[i][j] == 1 &amp;&amp; (lives &lt; 2 || lives &gt; 3)) {
+                    board[i][j] = 2;
+                }
+4. Finally, make board[i][j] % 2 to get last result</t>
+  </si>
+  <si>
+    <t>Two pointer left and right, make a loop while (left &lt; right)
+if (height[left] &lt; height[right]) left++, means lower height does not help increase area
+same with height[left] &gt; height[right], right--
+area = (right - left) * lower height</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">quickselect, finally, three division
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.start + k -1 &lt;=j: findkth(nums, start, j,k);
+2.start + k -1 &gt;=i: findkth(nums, i,end, k - (i - start));</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. nums[j+1] is kth</t>
+    </r>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -3342,7 +3511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
@@ -3443,6 +3612,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6070,8 +6242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H95"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="C29" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -7433,8 +7605,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="E176" sqref="E176"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10323,12 +10495,14 @@
       <c r="C175" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="D175" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E175" s="32"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D175" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E175" s="32" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="20">
         <v>71</v>
       </c>
@@ -10338,12 +10512,14 @@
       <c r="C176" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="D176" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E176" s="32"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D176" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E176" s="32" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A177" s="20">
         <v>116</v>
       </c>
@@ -10353,10 +10529,12 @@
       <c r="C177" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="D177" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E177" s="32"/>
+      <c r="D177" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E177" s="32" t="s">
+        <v>758</v>
+      </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="20">
@@ -10368,12 +10546,12 @@
       <c r="C178" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="D178" s="22" t="s">
+      <c r="D178" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E178" s="32"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A179" s="20">
         <v>73</v>
       </c>
@@ -10383,12 +10561,14 @@
       <c r="C179" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="D179" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E179" s="32"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D179" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E179" s="32" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A180" s="20">
         <v>74</v>
       </c>
@@ -10398,10 +10578,12 @@
       <c r="C180" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="D180" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E180" s="32"/>
+      <c r="D180" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E180" s="32" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="20">
@@ -10413,7 +10595,7 @@
       <c r="C181" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="D181" s="24" t="s">
+      <c r="D181" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E181" s="32"/>
@@ -10428,12 +10610,12 @@
       <c r="C182" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="D182" s="22" t="s">
+      <c r="D182" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E182" s="32"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="20">
         <v>77</v>
       </c>
@@ -10443,12 +10625,14 @@
       <c r="C183" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="D183" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E183" s="32"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D183" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E183" s="32" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A184" s="20">
         <v>78</v>
       </c>
@@ -10458,12 +10642,14 @@
       <c r="C184" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="D184" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E184" s="32"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D184" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E184" s="32" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A185" s="20">
         <v>79</v>
       </c>
@@ -10473,10 +10659,12 @@
       <c r="C185" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="D185" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E185" s="32"/>
+      <c r="D185" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E185" s="32" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="20">
@@ -10488,7 +10676,7 @@
       <c r="C186" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="D186" s="22" t="s">
+      <c r="D186" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E186" s="32"/>
@@ -10503,12 +10691,12 @@
       <c r="C187" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="D187" s="24" t="s">
+      <c r="D187" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E187" s="32"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A188" s="20">
         <v>82</v>
       </c>
@@ -10518,10 +10706,12 @@
       <c r="C188" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="D188" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E188" s="32"/>
+      <c r="D188" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E188" s="32" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="20">
@@ -10533,12 +10723,14 @@
       <c r="C189" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="D189" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E189" s="32"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D189" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E189" s="32" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A190" s="20">
         <v>85</v>
       </c>
@@ -10548,10 +10740,12 @@
       <c r="C190" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="D190" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E190" s="32"/>
+      <c r="D190" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E190" s="32" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="20">

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="770">
   <si>
     <t>420. Count and Say</t>
   </si>
@@ -3344,6 +3344,119 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Two array to track nums[i] greater or less than previous j (0~i-1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                if (nums[j] &gt; nums[i]) {
+                    n[i] = Math.max(n[i], p[j] + 1);
+                } else if (nums[j] &lt; nums[i]){
+                    p[i] = Math.max(p[i], n[j] + 1);
+                }
+Finally, choose maximum of two array last element; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>due to get length, result must plus 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if((mid == 0 || nums[mid] &gt; nums[mid - 1]) &amp;&amp; (mid == nums.length - 1 || nums[mid] &gt; nums[mid + 1]))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                return mid;}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> else if (A[mid] &lt; A[mid - 1]) {  end = mid;} else if (A[mid] &lt; A[mid + 1]) { start = mid; } else {end = mid;}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">一个数x可以表示为一个任意数a加上一个平方数b*b，也就是x=a+b*b
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dp[i + j * j] = Math.min(dp[i] + 1, dp[i + j * j]);
+dp[i] means i have least square number count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+initial: set all dp[i * i] = 1;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -7605,8 +7718,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="D190" sqref="D190"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="D194" sqref="D194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10747,7 +10860,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A191" s="20">
         <v>86</v>
       </c>
@@ -10757,10 +10870,12 @@
       <c r="C191" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="D191" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E191" s="32"/>
+      <c r="D191" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E191" s="32" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="20">
@@ -10772,12 +10887,12 @@
       <c r="C192" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="D192" s="24" t="s">
+      <c r="D192" s="30" t="s">
         <v>161</v>
       </c>
       <c r="E192" s="32"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="20">
         <v>88</v>
       </c>
@@ -10787,12 +10902,14 @@
       <c r="C193" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="D193" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E193" s="32"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D193" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E193" s="32" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A194" s="20">
         <v>89</v>
       </c>
@@ -10802,10 +10919,12 @@
       <c r="C194" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="D194" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E194" s="32"/>
+      <c r="D194" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E194" s="32" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="20">

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="772">
   <si>
     <t>420. Count and Say</t>
   </si>
@@ -3457,6 +3457,12 @@
       <t xml:space="preserve">
 initial: set all dp[i * i] = 1;</t>
     </r>
+  </si>
+  <si>
+    <t>flatten还是没弄清递归三要素，出口，定义，小问题</t>
+  </si>
+  <si>
+    <t>Recursive get all paths</t>
   </si>
 </sst>
 </file>
@@ -7719,7 +7725,7 @@
   <dimension ref="A1:E372"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="D194" sqref="D194"/>
+      <selection activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10936,10 +10942,12 @@
       <c r="C195" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="D195" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E195" s="32"/>
+      <c r="D195" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E195" s="32" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="20">
@@ -10951,10 +10959,12 @@
       <c r="C196" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="D196" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E196" s="32"/>
+      <c r="D196" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E196" s="32" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="20">
@@ -10966,7 +10976,7 @@
       <c r="C197" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="D197" s="22" t="s">
+      <c r="D197" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E197" s="32"/>
@@ -10981,7 +10991,7 @@
       <c r="C198" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="D198" s="24" t="s">
+      <c r="D198" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E198" s="32"/>

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="776">
   <si>
     <t>420. Count and Say</t>
   </si>
@@ -3463,6 +3463,43 @@
   </si>
   <si>
     <t>Recursive get all paths</t>
+  </si>
+  <si>
+    <t>prev=curt to switch
+traverse down
+traverse up</t>
+  </si>
+  <si>
+    <t>findmiddle, reverse, merge
+mid.next=null;</t>
+  </si>
+  <si>
+    <t>stack, if stack get three elements then detemine ##D format from top to bottom, if that, three pop(), push("#")
+Finally, check stack exist one element and exactly is"#"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>confusing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+int min = Math.min(citations[i], n - i);
+h = Math.max(h, min);</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6361,8 +6398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H95"/>
   <sheetViews>
-    <sheetView topLeftCell="C29" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -7721,11 +7758,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="D198" sqref="D198"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7753,7 +7789,7 @@
       </c>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -7770,7 +7806,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -7785,7 +7821,7 @@
       </c>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -7800,7 +7836,7 @@
       </c>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>4</v>
       </c>
@@ -7815,7 +7851,7 @@
       </c>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -7832,7 +7868,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>6</v>
       </c>
@@ -7847,7 +7883,7 @@
       </c>
       <c r="E7" s="33"/>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -7864,7 +7900,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>8</v>
       </c>
@@ -7879,7 +7915,7 @@
       </c>
       <c r="E9" s="33"/>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -7896,7 +7932,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>10</v>
       </c>
@@ -7913,7 +7949,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>11</v>
       </c>
@@ -7928,7 +7964,7 @@
       </c>
       <c r="E12" s="33"/>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>12</v>
       </c>
@@ -7945,7 +7981,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>13</v>
       </c>
@@ -7962,7 +7998,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>14</v>
       </c>
@@ -7979,7 +8015,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>15</v>
       </c>
@@ -7996,7 +8032,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>16</v>
       </c>
@@ -8013,7 +8049,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -8030,7 +8066,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>18</v>
       </c>
@@ -8047,7 +8083,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>19</v>
       </c>
@@ -8064,7 +8100,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>20</v>
       </c>
@@ -8079,7 +8115,7 @@
       </c>
       <c r="E21" s="33"/>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>21</v>
       </c>
@@ -8096,7 +8132,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>22</v>
       </c>
@@ -8113,7 +8149,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>23</v>
       </c>
@@ -8130,7 +8166,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>24</v>
       </c>
@@ -8147,7 +8183,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>25</v>
       </c>
@@ -8164,7 +8200,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>26</v>
       </c>
@@ -8181,7 +8217,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="35">
         <v>27</v>
       </c>
@@ -8198,7 +8234,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>28</v>
       </c>
@@ -8215,7 +8251,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>29</v>
       </c>
@@ -8232,7 +8268,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>30</v>
       </c>
@@ -8249,7 +8285,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>31</v>
       </c>
@@ -8266,7 +8302,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
         <v>32</v>
       </c>
@@ -8283,7 +8319,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="29">
         <v>33</v>
       </c>
@@ -8300,7 +8336,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
         <v>34</v>
       </c>
@@ -8315,7 +8351,7 @@
       </c>
       <c r="E35" s="33"/>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>35</v>
       </c>
@@ -8332,7 +8368,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
         <v>36</v>
       </c>
@@ -8349,7 +8385,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="29">
         <v>37</v>
       </c>
@@ -8364,7 +8400,7 @@
       </c>
       <c r="E38" s="33"/>
     </row>
-    <row r="39" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="29">
         <v>38</v>
       </c>
@@ -8381,7 +8417,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="29">
         <v>39</v>
       </c>
@@ -8398,7 +8434,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>40</v>
       </c>
@@ -8415,7 +8451,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="29">
         <v>41</v>
       </c>
@@ -8432,7 +8468,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="29">
         <v>42</v>
       </c>
@@ -8449,7 +8485,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="29">
         <v>43</v>
       </c>
@@ -8464,7 +8500,7 @@
       </c>
       <c r="E44" s="33"/>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="29">
         <v>44</v>
       </c>
@@ -8481,7 +8517,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
         <v>45</v>
       </c>
@@ -8498,7 +8534,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="29">
         <v>46</v>
       </c>
@@ -8515,7 +8551,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="29">
         <v>47</v>
       </c>
@@ -8532,7 +8568,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="29">
         <v>48</v>
       </c>
@@ -8549,7 +8585,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>49</v>
       </c>
@@ -8566,7 +8602,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="29">
         <v>50</v>
       </c>
@@ -8581,7 +8617,7 @@
       </c>
       <c r="E51" s="33"/>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="29">
         <v>51</v>
       </c>
@@ -8598,7 +8634,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="29">
         <v>52</v>
       </c>
@@ -8613,7 +8649,7 @@
       </c>
       <c r="E53" s="33"/>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="29">
         <v>53</v>
       </c>
@@ -8630,7 +8666,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="29">
         <v>54</v>
       </c>
@@ -8647,7 +8683,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="29">
         <v>55</v>
       </c>
@@ -8664,7 +8700,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="29">
         <v>56</v>
       </c>
@@ -8681,7 +8717,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="29">
         <v>57</v>
       </c>
@@ -8696,7 +8732,7 @@
       </c>
       <c r="E58" s="33"/>
     </row>
-    <row r="59" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="29">
         <v>58</v>
       </c>
@@ -8713,7 +8749,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="29">
         <v>59</v>
       </c>
@@ -8730,7 +8766,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="29">
         <v>60</v>
       </c>
@@ -8747,7 +8783,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="29">
         <v>61</v>
       </c>
@@ -8764,7 +8800,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="29">
         <v>62</v>
       </c>
@@ -8781,7 +8817,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="29">
         <v>63</v>
       </c>
@@ -8798,7 +8834,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="29">
         <v>64</v>
       </c>
@@ -8815,7 +8851,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="29">
         <v>65</v>
       </c>
@@ -8832,7 +8868,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="29">
         <v>66</v>
       </c>
@@ -8849,7 +8885,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="29">
         <v>67</v>
       </c>
@@ -8866,7 +8902,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="29">
         <v>68</v>
       </c>
@@ -8883,7 +8919,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="29">
         <v>69</v>
       </c>
@@ -8900,7 +8936,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="29">
         <v>70</v>
       </c>
@@ -8917,7 +8953,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="29">
         <v>71</v>
       </c>
@@ -8934,7 +8970,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="29">
         <v>72</v>
       </c>
@@ -8951,7 +8987,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="29">
         <v>73</v>
       </c>
@@ -8968,7 +9004,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="29">
         <v>74</v>
       </c>
@@ -8985,7 +9021,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="29">
         <v>75</v>
       </c>
@@ -9002,7 +9038,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="29">
         <v>76</v>
       </c>
@@ -9019,7 +9055,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="29">
         <v>77</v>
       </c>
@@ -9034,7 +9070,7 @@
       </c>
       <c r="E78" s="33"/>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="29">
         <v>78</v>
       </c>
@@ -9051,7 +9087,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="29">
         <v>79</v>
       </c>
@@ -9068,7 +9104,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="29">
         <v>80</v>
       </c>
@@ -9085,7 +9121,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="29">
         <v>81</v>
       </c>
@@ -9100,7 +9136,7 @@
       </c>
       <c r="E82" s="33"/>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="29">
         <v>82</v>
       </c>
@@ -9117,7 +9153,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="29">
         <v>83</v>
       </c>
@@ -9132,7 +9168,7 @@
       </c>
       <c r="E84" s="33"/>
     </row>
-    <row r="85" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="29">
         <v>84</v>
       </c>
@@ -9149,7 +9185,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="29">
         <v>85</v>
       </c>
@@ -9164,7 +9200,7 @@
       </c>
       <c r="E86" s="33"/>
     </row>
-    <row r="87" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
         <v>86</v>
       </c>
@@ -9181,7 +9217,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="29">
         <v>87</v>
       </c>
@@ -9198,7 +9234,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>88</v>
       </c>
@@ -9215,7 +9251,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="29">
         <v>89</v>
       </c>
@@ -9232,7 +9268,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="29">
         <v>90</v>
       </c>
@@ -9249,7 +9285,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="29">
         <v>91</v>
       </c>
@@ -9264,7 +9300,7 @@
       </c>
       <c r="E92" s="33"/>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="29">
         <v>92</v>
       </c>
@@ -9281,7 +9317,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="29">
         <v>93</v>
       </c>
@@ -9298,7 +9334,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="29">
         <v>94</v>
       </c>
@@ -9313,7 +9349,7 @@
       </c>
       <c r="E95" s="33"/>
     </row>
-    <row r="96" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A96" s="29">
         <v>95</v>
       </c>
@@ -10996,7 +11032,7 @@
       </c>
       <c r="E198" s="32"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="20">
         <v>94</v>
       </c>
@@ -11006,35 +11042,39 @@
       <c r="C199" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="D199" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E199" s="32"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D199" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E199" s="32" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="20">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B200" s="24">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C200" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="D200" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E200" s="32"/>
+        <v>415</v>
+      </c>
+      <c r="D200" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E200" s="32" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="20">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B201" s="24">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="C201" s="25" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D201" s="24" t="s">
         <v>161</v>
@@ -11043,43 +11083,43 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="20">
-        <v>98</v>
-      </c>
-      <c r="B202" s="22">
-        <v>81</v>
-      </c>
-      <c r="C202" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="D202" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B202" s="24">
+        <v>314</v>
+      </c>
+      <c r="C202" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="D202" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E202" s="32"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="20">
-        <v>99</v>
-      </c>
-      <c r="B203" s="24">
-        <v>114</v>
-      </c>
-      <c r="C203" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="D203" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B203" s="22">
+        <v>81</v>
+      </c>
+      <c r="C203" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="D203" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E203" s="32"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="20">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B204" s="24">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="C204" s="25" t="s">
-        <v>421</v>
+        <v>237</v>
       </c>
       <c r="D204" s="24" t="s">
         <v>161</v>
@@ -11088,120 +11128,120 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="20">
-        <v>102</v>
-      </c>
-      <c r="B205" s="22">
-        <v>90</v>
-      </c>
-      <c r="C205" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="D205" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B205" s="24">
+        <v>201</v>
+      </c>
+      <c r="C205" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="D205" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E205" s="32"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="20">
-        <v>103</v>
-      </c>
-      <c r="B206" s="24">
-        <v>109</v>
-      </c>
-      <c r="C206" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="D206" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B206" s="22">
+        <v>90</v>
+      </c>
+      <c r="C206" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D206" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E206" s="32"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="20">
-        <v>104</v>
-      </c>
-      <c r="B207" s="22">
-        <v>368</v>
-      </c>
-      <c r="C207" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="D207" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B207" s="24">
+        <v>109</v>
+      </c>
+      <c r="C207" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="D207" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E207" s="32"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="20">
-        <v>105</v>
-      </c>
-      <c r="B208" s="24">
-        <v>142</v>
-      </c>
-      <c r="C208" s="25" t="s">
-        <v>417</v>
-      </c>
-      <c r="D208" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B208" s="22">
+        <v>368</v>
+      </c>
+      <c r="C208" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="D208" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E208" s="32"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="20">
-        <v>106</v>
-      </c>
-      <c r="B209" s="22">
-        <v>120</v>
-      </c>
-      <c r="C209" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="D209" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B209" s="24">
+        <v>142</v>
+      </c>
+      <c r="C209" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="D209" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E209" s="32"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="20">
-        <v>107</v>
-      </c>
-      <c r="B210" s="24">
-        <v>372</v>
-      </c>
-      <c r="C210" s="25" t="s">
-        <v>416</v>
-      </c>
-      <c r="D210" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B210" s="22">
+        <v>120</v>
+      </c>
+      <c r="C210" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="D210" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E210" s="32"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="20">
-        <v>108</v>
-      </c>
-      <c r="B211" s="22">
-        <v>375</v>
-      </c>
-      <c r="C211" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="D211" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B211" s="24">
+        <v>372</v>
+      </c>
+      <c r="C211" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="D211" s="24" t="s">
         <v>161</v>
       </c>
       <c r="E211" s="32"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="20">
-        <v>109</v>
-      </c>
-      <c r="B212" s="24">
-        <v>274</v>
-      </c>
-      <c r="C212" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="D212" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B212" s="22">
+        <v>375</v>
+      </c>
+      <c r="C212" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="D212" s="22" t="s">
         <v>161</v>
       </c>
       <c r="E212" s="32"/>
@@ -12061,7 +12101,7 @@
       </c>
       <c r="E269" s="32"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="20">
         <v>173</v>
       </c>
@@ -12071,10 +12111,12 @@
       <c r="C270" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="D270" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E270" s="32"/>
+      <c r="D270" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E270" s="32" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="20">
@@ -12376,7 +12418,7 @@
       </c>
       <c r="E290" s="32"/>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="20">
         <v>1</v>
       </c>
@@ -12391,7 +12433,7 @@
       </c>
       <c r="E291" s="32"/>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="20">
         <v>2</v>
       </c>
@@ -12406,7 +12448,7 @@
       </c>
       <c r="E292" s="32"/>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="20">
         <v>3</v>
       </c>
@@ -12421,7 +12463,7 @@
       </c>
       <c r="E293" s="32"/>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="20">
         <v>4</v>
       </c>
@@ -12436,7 +12478,7 @@
       </c>
       <c r="E294" s="32"/>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="20">
         <v>5</v>
       </c>
@@ -12451,7 +12493,7 @@
       </c>
       <c r="E295" s="32"/>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="20">
         <v>6</v>
       </c>
@@ -12466,7 +12508,7 @@
       </c>
       <c r="E296" s="32"/>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="20">
         <v>7</v>
       </c>
@@ -12481,7 +12523,7 @@
       </c>
       <c r="E297" s="32"/>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="20">
         <v>8</v>
       </c>
@@ -12496,7 +12538,7 @@
       </c>
       <c r="E298" s="32"/>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A299" s="20">
         <v>9</v>
       </c>
@@ -12506,12 +12548,14 @@
       <c r="C299" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="D299" s="24" t="s">
+      <c r="D299" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="E299" s="32"/>
-    </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E299" s="32" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="20">
         <v>10</v>
       </c>
@@ -12526,7 +12570,7 @@
       </c>
       <c r="E300" s="32"/>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="20">
         <v>11</v>
       </c>
@@ -12541,7 +12585,7 @@
       </c>
       <c r="E301" s="32"/>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="20">
         <v>12</v>
       </c>
@@ -12556,7 +12600,7 @@
       </c>
       <c r="E302" s="32"/>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="20">
         <v>13</v>
       </c>
@@ -12571,7 +12615,7 @@
       </c>
       <c r="E303" s="32"/>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="20">
         <v>14</v>
       </c>
@@ -12586,7 +12630,7 @@
       </c>
       <c r="E304" s="32"/>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="20">
         <v>15</v>
       </c>
@@ -12601,7 +12645,7 @@
       </c>
       <c r="E305" s="32"/>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="20">
         <v>16</v>
       </c>
@@ -12616,7 +12660,7 @@
       </c>
       <c r="E306" s="32"/>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="20">
         <v>17</v>
       </c>
@@ -12631,7 +12675,7 @@
       </c>
       <c r="E307" s="32"/>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="20">
         <v>18</v>
       </c>
@@ -12646,7 +12690,7 @@
       </c>
       <c r="E308" s="32"/>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="20">
         <v>19</v>
       </c>
@@ -12661,7 +12705,7 @@
       </c>
       <c r="E309" s="32"/>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="20">
         <v>20</v>
       </c>
@@ -12676,7 +12720,7 @@
       </c>
       <c r="E310" s="32"/>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="20">
         <v>21</v>
       </c>
@@ -12691,7 +12735,7 @@
       </c>
       <c r="E311" s="32"/>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="20">
         <v>22</v>
       </c>
@@ -12706,7 +12750,7 @@
       </c>
       <c r="E312" s="32"/>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="20">
         <v>23</v>
       </c>
@@ -12721,7 +12765,7 @@
       </c>
       <c r="E313" s="32"/>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="20">
         <v>24</v>
       </c>
@@ -12736,7 +12780,7 @@
       </c>
       <c r="E314" s="32"/>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="20">
         <v>25</v>
       </c>
@@ -12751,7 +12795,7 @@
       </c>
       <c r="E315" s="32"/>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="20">
         <v>26</v>
       </c>
@@ -12766,7 +12810,7 @@
       </c>
       <c r="E316" s="32"/>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="20">
         <v>27</v>
       </c>
@@ -12781,7 +12825,7 @@
       </c>
       <c r="E317" s="32"/>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="20">
         <v>28</v>
       </c>
@@ -12796,7 +12840,7 @@
       </c>
       <c r="E318" s="32"/>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="20">
         <v>29</v>
       </c>
@@ -12811,7 +12855,7 @@
       </c>
       <c r="E319" s="32"/>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="20">
         <v>30</v>
       </c>
@@ -12826,7 +12870,7 @@
       </c>
       <c r="E320" s="32"/>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="20">
         <v>31</v>
       </c>
@@ -12841,7 +12885,7 @@
       </c>
       <c r="E321" s="32"/>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="20">
         <v>32</v>
       </c>
@@ -12856,7 +12900,7 @@
       </c>
       <c r="E322" s="32"/>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="20">
         <v>33</v>
       </c>
@@ -12871,7 +12915,7 @@
       </c>
       <c r="E323" s="32"/>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="20">
         <v>34</v>
       </c>
@@ -12886,7 +12930,7 @@
       </c>
       <c r="E324" s="32"/>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="20">
         <v>35</v>
       </c>
@@ -12901,7 +12945,7 @@
       </c>
       <c r="E325" s="32"/>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="20">
         <v>36</v>
       </c>
@@ -12916,7 +12960,7 @@
       </c>
       <c r="E326" s="32"/>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="20">
         <v>37</v>
       </c>
@@ -12931,7 +12975,7 @@
       </c>
       <c r="E327" s="32"/>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="20">
         <v>38</v>
       </c>
@@ -12946,7 +12990,7 @@
       </c>
       <c r="E328" s="32"/>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="20">
         <v>39</v>
       </c>
@@ -12961,7 +13005,7 @@
       </c>
       <c r="E329" s="32"/>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="20">
         <v>40</v>
       </c>
@@ -12976,7 +13020,7 @@
       </c>
       <c r="E330" s="32"/>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="20">
         <v>41</v>
       </c>
@@ -12991,7 +13035,7 @@
       </c>
       <c r="E331" s="32"/>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="20">
         <v>42</v>
       </c>
@@ -13006,7 +13050,7 @@
       </c>
       <c r="E332" s="32"/>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="20">
         <v>43</v>
       </c>
@@ -13021,7 +13065,7 @@
       </c>
       <c r="E333" s="32"/>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="20">
         <v>44</v>
       </c>
@@ -13036,7 +13080,7 @@
       </c>
       <c r="E334" s="32"/>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="20">
         <v>45</v>
       </c>
@@ -13051,7 +13095,7 @@
       </c>
       <c r="E335" s="32"/>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="20">
         <v>46</v>
       </c>
@@ -13066,7 +13110,7 @@
       </c>
       <c r="E336" s="32"/>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="20">
         <v>47</v>
       </c>
@@ -13081,7 +13125,7 @@
       </c>
       <c r="E337" s="32"/>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="20">
         <v>48</v>
       </c>
@@ -13096,7 +13140,7 @@
       </c>
       <c r="E338" s="32"/>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="20">
         <v>49</v>
       </c>
@@ -13111,7 +13155,7 @@
       </c>
       <c r="E339" s="32"/>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="20">
         <v>50</v>
       </c>
@@ -13126,7 +13170,7 @@
       </c>
       <c r="E340" s="32"/>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="20">
         <v>51</v>
       </c>
@@ -13141,7 +13185,7 @@
       </c>
       <c r="E341" s="32"/>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="20">
         <v>52</v>
       </c>
@@ -13156,7 +13200,7 @@
       </c>
       <c r="E342" s="32"/>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="20">
         <v>53</v>
       </c>
@@ -13171,7 +13215,7 @@
       </c>
       <c r="E343" s="32"/>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="20">
         <v>54</v>
       </c>
@@ -13186,7 +13230,7 @@
       </c>
       <c r="E344" s="32"/>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="20">
         <v>55</v>
       </c>
@@ -13201,7 +13245,7 @@
       </c>
       <c r="E345" s="32"/>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="20">
         <v>56</v>
       </c>
@@ -13216,7 +13260,7 @@
       </c>
       <c r="E346" s="32"/>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="20">
         <v>57</v>
       </c>
@@ -13231,7 +13275,7 @@
       </c>
       <c r="E347" s="32"/>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="20">
         <v>58</v>
       </c>
@@ -13246,7 +13290,7 @@
       </c>
       <c r="E348" s="32"/>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="20">
         <v>59</v>
       </c>
@@ -13261,7 +13305,7 @@
       </c>
       <c r="E349" s="32"/>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="20">
         <v>60</v>
       </c>
@@ -13276,7 +13320,7 @@
       </c>
       <c r="E350" s="32"/>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="20">
         <v>61</v>
       </c>
@@ -13291,7 +13335,7 @@
       </c>
       <c r="E351" s="32"/>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="20">
         <v>62</v>
       </c>
@@ -13306,7 +13350,7 @@
       </c>
       <c r="E352" s="32"/>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="20">
         <v>63</v>
       </c>
@@ -13321,7 +13365,7 @@
       </c>
       <c r="E353" s="32"/>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="20">
         <v>64</v>
       </c>
@@ -13336,7 +13380,7 @@
       </c>
       <c r="E354" s="32"/>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="20">
         <v>65</v>
       </c>
@@ -13351,7 +13395,7 @@
       </c>
       <c r="E355" s="32"/>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="20">
         <v>66</v>
       </c>
@@ -13366,7 +13410,7 @@
       </c>
       <c r="E356" s="32"/>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="20">
         <v>67</v>
       </c>
@@ -13381,7 +13425,7 @@
       </c>
       <c r="E357" s="32"/>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="20">
         <v>68</v>
       </c>
@@ -13396,7 +13440,7 @@
       </c>
       <c r="E358" s="32"/>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="20">
         <v>69</v>
       </c>
@@ -13411,7 +13455,7 @@
       </c>
       <c r="E359" s="32"/>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="20">
         <v>70</v>
       </c>
@@ -13426,7 +13470,7 @@
       </c>
       <c r="E360" s="32"/>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="20">
         <v>71</v>
       </c>
@@ -13441,7 +13485,7 @@
       </c>
       <c r="E361" s="32"/>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="20">
         <v>72</v>
       </c>
@@ -13456,7 +13500,7 @@
       </c>
       <c r="E362" s="32"/>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="20">
         <v>73</v>
       </c>
@@ -13471,7 +13515,7 @@
       </c>
       <c r="E363" s="32"/>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="20">
         <v>74</v>
       </c>
@@ -13486,7 +13530,7 @@
       </c>
       <c r="E364" s="32"/>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="20">
         <v>75</v>
       </c>
@@ -13501,7 +13545,7 @@
       </c>
       <c r="E365" s="32"/>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="20">
         <v>76</v>
       </c>
@@ -13516,7 +13560,7 @@
       </c>
       <c r="E366" s="32"/>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="20">
         <v>77</v>
       </c>
@@ -13531,7 +13575,7 @@
       </c>
       <c r="E367" s="32"/>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="20">
         <v>78</v>
       </c>
@@ -13546,7 +13590,7 @@
       </c>
       <c r="E368" s="32"/>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="20">
         <v>79</v>
       </c>
@@ -13561,7 +13605,7 @@
       </c>
       <c r="E369" s="32"/>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="20">
         <v>80</v>
       </c>
@@ -13576,7 +13620,7 @@
       </c>
       <c r="E370" s="32"/>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="20">
         <v>81</v>
       </c>
@@ -13591,7 +13635,7 @@
       </c>
       <c r="E371" s="32"/>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="20">
         <v>82</v>
       </c>
@@ -13607,13 +13651,7 @@
       <c r="E372" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E372">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Medium"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E372"/>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://leetcode.com/problemset/algorithms/"/>
     <hyperlink ref="C2" r:id="rId2" display="https://leetcode.com/problems/reverse-string/"/>
@@ -13805,21 +13843,21 @@
     <hyperlink ref="C197" r:id="rId188" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array-ii/"/>
     <hyperlink ref="C198" r:id="rId189" display="https://leetcode.com/problems/subsets/"/>
     <hyperlink ref="C199" r:id="rId190" display="https://leetcode.com/problems/verify-preorder-serialization-of-a-binary-tree/"/>
-    <hyperlink ref="C200" r:id="rId191" display="https://leetcode.com/problems/h-index-ii/"/>
+    <hyperlink ref="C201" r:id="rId191" display="https://leetcode.com/problems/h-index-ii/"/>
     <hyperlink ref="C136" r:id="rId192" display="https://leetcode.com/problems/combination-sum/"/>
-    <hyperlink ref="C201" r:id="rId193" display="https://leetcode.com/problems/binary-tree-vertical-order-traversal/"/>
-    <hyperlink ref="C202" r:id="rId194" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii/"/>
-    <hyperlink ref="C203" r:id="rId195" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list/"/>
+    <hyperlink ref="C202" r:id="rId193" display="https://leetcode.com/problems/binary-tree-vertical-order-traversal/"/>
+    <hyperlink ref="C203" r:id="rId194" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii/"/>
+    <hyperlink ref="C204" r:id="rId195" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list/"/>
     <hyperlink ref="C140" r:id="rId196" display="https://leetcode.com/problems/house-robber-ii/"/>
-    <hyperlink ref="C204" r:id="rId197" display="https://leetcode.com/problems/bitwise-and-of-numbers-range/"/>
-    <hyperlink ref="C205" r:id="rId198" display="https://leetcode.com/problems/subsets-ii/"/>
-    <hyperlink ref="C206" r:id="rId199" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/"/>
-    <hyperlink ref="C207" r:id="rId200" display="https://leetcode.com/problems/largest-divisible-subset/"/>
-    <hyperlink ref="C208" r:id="rId201" display="https://leetcode.com/problems/linked-list-cycle-ii/"/>
-    <hyperlink ref="C209" r:id="rId202" display="https://leetcode.com/problems/triangle/"/>
-    <hyperlink ref="C210" r:id="rId203" display="https://leetcode.com/problems/super-pow/"/>
-    <hyperlink ref="C211" r:id="rId204" display="https://leetcode.com/problems/guess-number-higher-or-lower-ii/"/>
-    <hyperlink ref="C212" r:id="rId205" display="https://leetcode.com/problems/h-index/"/>
+    <hyperlink ref="C205" r:id="rId197" display="https://leetcode.com/problems/bitwise-and-of-numbers-range/"/>
+    <hyperlink ref="C206" r:id="rId198" display="https://leetcode.com/problems/subsets-ii/"/>
+    <hyperlink ref="C207" r:id="rId199" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree/"/>
+    <hyperlink ref="C208" r:id="rId200" display="https://leetcode.com/problems/largest-divisible-subset/"/>
+    <hyperlink ref="C209" r:id="rId201" display="https://leetcode.com/problems/linked-list-cycle-ii/"/>
+    <hyperlink ref="C210" r:id="rId202" display="https://leetcode.com/problems/triangle/"/>
+    <hyperlink ref="C211" r:id="rId203" display="https://leetcode.com/problems/super-pow/"/>
+    <hyperlink ref="C212" r:id="rId204" display="https://leetcode.com/problems/guess-number-higher-or-lower-ii/"/>
+    <hyperlink ref="C200" r:id="rId205" display="https://leetcode.com/problems/h-index/"/>
     <hyperlink ref="C213" r:id="rId206" display="https://leetcode.com/problems/insertion-sort-list/"/>
     <hyperlink ref="C214" r:id="rId207" display="https://leetcode.com/problems/partition-list/"/>
     <hyperlink ref="C215" r:id="rId208" display="https://leetcode.com/problems/missing-ranges/"/>

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11835" tabRatio="561" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11835" tabRatio="561" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="datelist" sheetId="2" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="777">
   <si>
     <t>420. Count and Say</t>
   </si>
@@ -3500,6 +3500,11 @@
 int min = Math.min(citations[i], n - i);
 h = Math.max(h, min);</t>
     </r>
+  </si>
+  <si>
+    <t>copyNode
+copyRandom
+return split</t>
   </si>
 </sst>
 </file>
@@ -6398,8 +6403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H95"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F81"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -6472,7 +6477,7 @@
       </c>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="C6" s="9">
         <v>138</v>
       </c>
@@ -6483,7 +6488,9 @@
       <c r="F6" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="13" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="7" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C7" s="9">
@@ -7760,7 +7767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+    <sheetView topLeftCell="A191" workbookViewId="0">
       <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11835" tabRatio="561" firstSheet="4" activeTab="6"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28560" windowHeight="11835" tabRatio="561" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="datelist" sheetId="2" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="778">
   <si>
     <t>420. Count and Say</t>
   </si>
@@ -808,10 +808,6 @@
   <si>
     <t>1. recursion: if no parent nodes
 2. add path into list, compare two paths</t>
-  </si>
-  <si>
-    <t>MAP; LinkedList for store last access;
-remove and sethead</t>
   </si>
   <si>
     <t>from left to right, from right to bottom, for right to left, from bottom to top;
@@ -828,9 +824,6 @@
 3.using "" to fill align position</t>
   </si>
   <si>
-    <t>dfs: left--,right add "(", left, right-- add ")"</t>
-  </si>
-  <si>
     <t>需要练习</t>
   </si>
   <si>
@@ -840,9 +833,6 @@
   <si>
     <t>ADDING PRE TO TRACKING FIRST NOT OF EVERY LEVEL
 Level iterate by node = dumm.next, means next level from first node of current level;</t>
-  </si>
-  <si>
-    <t>curr for set next of two children, loop by curr = curr.next;</t>
   </si>
   <si>
     <t>dummy</t>
@@ -3505,6 +3495,19 @@
     <t>copyNode
 copyRandom
 return split</t>
+  </si>
+  <si>
+    <t>MAP; Doubly LinkedList for store last access;
+remove and sethead</t>
+  </si>
+  <si>
+    <t>stack check</t>
+  </si>
+  <si>
+    <t>node.next ?= null, just set node.val = node.next.val</t>
+  </si>
+  <si>
+    <t>loop by parent = parent.left; curr = parent for set next of two children, loop by curr = curr.next;</t>
   </si>
 </sst>
 </file>
@@ -4188,10 +4191,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -4199,10 +4202,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D3" t="s">
         <v>588</v>
-      </c>
-      <c r="D3" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -4210,10 +4213,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>586</v>
+      </c>
+      <c r="D4" t="s">
         <v>589</v>
-      </c>
-      <c r="D4" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -4221,10 +4224,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>587</v>
+      </c>
+      <c r="D5" t="s">
         <v>590</v>
-      </c>
-      <c r="D5" t="s">
-        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -4309,12 +4312,12 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -6372,26 +6375,26 @@
   <sheetData>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>591</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>594</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -6403,8 +6406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -6446,7 +6449,7 @@
         <v>22</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -6461,7 +6464,7 @@
         <v>161</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -6489,7 +6492,7 @@
         <v>164</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -6500,7 +6503,7 @@
         <v>165</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>22</v>
@@ -6515,13 +6518,13 @@
         <v>166</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" spans="3:7" ht="81" x14ac:dyDescent="0.25">
@@ -6536,7 +6539,7 @@
         <v>161</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="10" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -6616,7 +6619,7 @@
         <v>173</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>164</v>
@@ -6665,7 +6668,7 @@
         <v>164</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>257</v>
+        <v>774</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="60.75" x14ac:dyDescent="0.25">
@@ -6680,7 +6683,7 @@
         <v>161</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
@@ -6695,7 +6698,7 @@
         <v>161</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -6709,7 +6712,9 @@
       <c r="F21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="G21" s="13" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="22" spans="3:7" ht="81" x14ac:dyDescent="0.25">
       <c r="C22" s="9">
@@ -6723,7 +6728,7 @@
         <v>164</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -6738,7 +6743,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>261</v>
+        <v>775</v>
       </c>
     </row>
     <row r="24" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
@@ -6753,10 +6758,10 @@
         <v>161</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="C25" s="9">
         <v>116</v>
       </c>
@@ -6768,7 +6773,7 @@
         <v>161</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>265</v>
+        <v>777</v>
       </c>
     </row>
     <row r="26" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
@@ -6813,7 +6818,7 @@
         <v>164</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -6828,7 +6833,7 @@
         <v>22</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="3:7" ht="30" x14ac:dyDescent="0.25">
@@ -6843,7 +6848,7 @@
         <v>22</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -6858,7 +6863,7 @@
         <v>22</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -6873,7 +6878,7 @@
         <v>22</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -6901,7 +6906,7 @@
         <v>22</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -6916,7 +6921,7 @@
         <v>161</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -6931,7 +6936,7 @@
         <v>22</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -6946,7 +6951,7 @@
         <v>164</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -6961,7 +6966,7 @@
         <v>164</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
@@ -6976,7 +6981,7 @@
         <v>161</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -6991,7 +6996,7 @@
         <v>161</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
@@ -7006,7 +7011,7 @@
         <v>161</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="3:7" ht="81" x14ac:dyDescent="0.25">
@@ -7021,7 +7026,7 @@
         <v>161</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
@@ -7036,7 +7041,7 @@
         <v>22</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="44" spans="3:7" ht="60.75" x14ac:dyDescent="0.25">
@@ -7051,7 +7056,7 @@
         <v>22</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="45" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -7066,7 +7071,7 @@
         <v>22</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="46" spans="3:7" ht="30" x14ac:dyDescent="0.25">
@@ -7081,7 +7086,7 @@
         <v>161</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="47" spans="3:7" ht="121.5" x14ac:dyDescent="0.25">
@@ -7096,7 +7101,7 @@
         <v>161</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="48" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
@@ -7111,7 +7116,7 @@
         <v>164</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="49" spans="3:7" ht="202.5" x14ac:dyDescent="0.25">
@@ -7126,7 +7131,7 @@
         <v>164</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="50" spans="3:7" ht="60.75" x14ac:dyDescent="0.25">
@@ -7141,7 +7146,7 @@
         <v>161</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="51" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -7156,7 +7161,7 @@
         <v>164</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="52" spans="3:7" ht="101.25" x14ac:dyDescent="0.25">
@@ -7171,7 +7176,7 @@
         <v>164</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="53" spans="3:7" ht="162" x14ac:dyDescent="0.25">
@@ -7186,7 +7191,7 @@
         <v>161</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="54" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
@@ -7201,7 +7206,7 @@
         <v>22</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="55" spans="3:7" ht="60.75" x14ac:dyDescent="0.25">
@@ -7216,7 +7221,7 @@
         <v>22</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="56" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
@@ -7231,7 +7236,7 @@
         <v>161</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="57" spans="3:7" ht="182.25" x14ac:dyDescent="0.25">
@@ -7246,7 +7251,7 @@
         <v>161</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="58" spans="3:7" ht="60.75" x14ac:dyDescent="0.25">
@@ -7261,7 +7266,7 @@
         <v>161</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="59" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -7276,7 +7281,7 @@
         <v>22</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="60" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -7291,7 +7296,7 @@
         <v>22</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="61" spans="3:7" ht="81" x14ac:dyDescent="0.25">
@@ -7306,7 +7311,7 @@
         <v>164</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="62" spans="3:7" ht="121.5" x14ac:dyDescent="0.25">
@@ -7321,7 +7326,7 @@
         <v>161</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="63" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -7336,7 +7341,7 @@
         <v>161</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="64" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
@@ -7351,7 +7356,7 @@
         <v>22</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="65" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -7366,7 +7371,7 @@
         <v>161</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="66" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
@@ -7381,7 +7386,7 @@
         <v>22</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="67" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -7396,7 +7401,7 @@
         <v>161</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="68" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
@@ -7408,10 +7413,10 @@
       </c>
       <c r="E68" s="11"/>
       <c r="F68" s="9" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="69" spans="3:7" ht="81" x14ac:dyDescent="0.25">
@@ -7426,7 +7431,7 @@
         <v>22</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="70" spans="3:7" ht="141.75" x14ac:dyDescent="0.25">
@@ -7441,7 +7446,7 @@
         <v>164</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="71" spans="3:7" ht="121.5" x14ac:dyDescent="0.25">
@@ -7456,7 +7461,7 @@
         <v>164</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="72" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -7471,7 +7476,7 @@
         <v>161</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="73" spans="3:7" ht="60.75" x14ac:dyDescent="0.25">
@@ -7486,7 +7491,7 @@
         <v>161</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="74" spans="3:7" ht="101.25" x14ac:dyDescent="0.25">
@@ -7501,7 +7506,7 @@
         <v>161</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="75" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
@@ -7516,7 +7521,7 @@
         <v>161</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="76" spans="3:7" ht="40.5" x14ac:dyDescent="0.25">
@@ -7531,7 +7536,7 @@
         <v>22</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="77" spans="3:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -7572,7 +7577,7 @@
         <v>161</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="80" spans="3:7" ht="101.25" x14ac:dyDescent="0.25">
@@ -7587,7 +7592,7 @@
         <v>161</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="126" x14ac:dyDescent="0.25">
@@ -7602,10 +7607,10 @@
         <v>161</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
@@ -7613,7 +7618,7 @@
         <v>240</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
@@ -7668,10 +7673,10 @@
     </row>
     <row r="95" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -7767,8 +7772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E372"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="D200" sqref="D200"/>
+    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="C364" sqref="C364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7783,7 +7788,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>155</v>
@@ -7804,13 +7809,13 @@
         <v>344</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7821,7 +7826,7 @@
         <v>339</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>22</v>
@@ -7836,7 +7841,7 @@
         <v>359</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>22</v>
@@ -7851,7 +7856,7 @@
         <v>346</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>22</v>
@@ -7866,13 +7871,13 @@
         <v>292</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7883,7 +7888,7 @@
         <v>266</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>22</v>
@@ -7898,13 +7903,13 @@
         <v>371</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -7915,7 +7920,7 @@
         <v>293</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>22</v>
@@ -7936,7 +7941,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -7947,13 +7952,13 @@
         <v>104</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7964,7 +7969,7 @@
         <v>243</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>22</v>
@@ -7979,13 +7984,13 @@
         <v>226</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -7996,13 +8001,13 @@
         <v>283</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -8013,13 +8018,13 @@
         <v>349</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -8036,7 +8041,7 @@
         <v>22</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -8047,13 +8052,13 @@
         <v>100</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -8064,13 +8069,13 @@
         <v>383</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -8087,7 +8092,7 @@
         <v>22</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -8098,13 +8103,13 @@
         <v>242</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -8115,7 +8120,7 @@
         <v>252</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>22</v>
@@ -8130,13 +8135,13 @@
         <v>169</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -8147,13 +8152,13 @@
         <v>217</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D23" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -8164,13 +8169,13 @@
         <v>387</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D24" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -8181,13 +8186,13 @@
         <v>350</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D25" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -8204,7 +8209,7 @@
         <v>22</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -8221,7 +8226,7 @@
         <v>22</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -8232,13 +8237,13 @@
         <v>231</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D28" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -8249,13 +8254,13 @@
         <v>326</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -8266,13 +8271,13 @@
         <v>202</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D30" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -8289,7 +8294,7 @@
         <v>22</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -8300,13 +8305,13 @@
         <v>263</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -8317,13 +8322,13 @@
         <v>83</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D33" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -8340,7 +8345,7 @@
         <v>22</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -8351,7 +8356,7 @@
         <v>246</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D35" s="30" t="s">
         <v>22</v>
@@ -8366,13 +8371,13 @@
         <v>70</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D36" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -8389,7 +8394,7 @@
         <v>22</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -8421,7 +8426,7 @@
         <v>22</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -8432,13 +8437,13 @@
         <v>345</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -8455,7 +8460,7 @@
         <v>22</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -8466,13 +8471,13 @@
         <v>342</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -8483,13 +8488,13 @@
         <v>198</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -8515,13 +8520,13 @@
         <v>107</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -8532,13 +8537,13 @@
         <v>27</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D46" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -8549,13 +8554,13 @@
         <v>66</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -8572,7 +8577,7 @@
         <v>22</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -8583,13 +8588,13 @@
         <v>110</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D49" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -8600,13 +8605,13 @@
         <v>118</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D50" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -8638,7 +8643,7 @@
         <v>22</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -8649,7 +8654,7 @@
         <v>249</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D53" s="30" t="s">
         <v>22</v>
@@ -8670,7 +8675,7 @@
         <v>22</v>
       </c>
       <c r="E54" s="36" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -8681,13 +8686,13 @@
         <v>172</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D55" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -8698,13 +8703,13 @@
         <v>119</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D56" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -8715,13 +8720,13 @@
         <v>9</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D57" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -8732,7 +8737,7 @@
         <v>276</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D58" s="30" t="s">
         <v>22</v>
@@ -8747,13 +8752,13 @@
         <v>36</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D59" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -8770,7 +8775,7 @@
         <v>22</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -8781,13 +8786,13 @@
         <v>299</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D61" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -8798,13 +8803,13 @@
         <v>111</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D62" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -8815,13 +8820,13 @@
         <v>257</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D63" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -8832,13 +8837,13 @@
         <v>374</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D64" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -8849,13 +8854,13 @@
         <v>205</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D65" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -8866,13 +8871,13 @@
         <v>223</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D66" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -8883,13 +8888,13 @@
         <v>225</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D67" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -8900,13 +8905,13 @@
         <v>19</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D68" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -8917,13 +8922,13 @@
         <v>290</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D69" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E69" s="33" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -8934,13 +8939,13 @@
         <v>38</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D70" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -8957,7 +8962,7 @@
         <v>22</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -8974,7 +8979,7 @@
         <v>22</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -8991,7 +8996,7 @@
         <v>22</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -9002,13 +9007,13 @@
         <v>219</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D74" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -9019,13 +9024,13 @@
         <v>58</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D75" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -9036,13 +9041,13 @@
         <v>234</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D76" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -9053,13 +9058,13 @@
         <v>203</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D77" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -9070,7 +9075,7 @@
         <v>157</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D78" s="30" t="s">
         <v>22</v>
@@ -9085,13 +9090,13 @@
         <v>190</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D79" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -9102,13 +9107,13 @@
         <v>14</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D80" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -9119,13 +9124,13 @@
         <v>67</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D81" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -9151,13 +9156,13 @@
         <v>303</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D83" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E83" s="33" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -9189,7 +9194,7 @@
         <v>22</v>
       </c>
       <c r="E85" s="33" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -9200,7 +9205,7 @@
         <v>6</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D86" s="31" t="s">
         <v>22</v>
@@ -9221,7 +9226,7 @@
         <v>22</v>
       </c>
       <c r="E87" s="33" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -9232,13 +9237,13 @@
         <v>155</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D88" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E88" s="33" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -9249,13 +9254,13 @@
         <v>7</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D89" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E89" s="33" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -9266,13 +9271,13 @@
         <v>278</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D90" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -9289,7 +9294,7 @@
         <v>22</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -9300,7 +9305,7 @@
         <v>170</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D92" s="30" t="s">
         <v>22</v>
@@ -9321,7 +9326,7 @@
         <v>22</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -9338,7 +9343,7 @@
         <v>22</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -9349,7 +9354,7 @@
         <v>288</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D95" s="30" t="s">
         <v>22</v>
@@ -9370,7 +9375,7 @@
         <v>22</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -9381,13 +9386,13 @@
         <v>338</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D97" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E97" s="32" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -9398,7 +9403,7 @@
         <v>366</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D98" s="30" t="s">
         <v>161</v>
@@ -9413,7 +9418,7 @@
         <v>280</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D99" s="30" t="s">
         <v>161</v>
@@ -9428,13 +9433,13 @@
         <v>136</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D100" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E100" s="32" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="240" x14ac:dyDescent="0.25">
@@ -9445,13 +9450,13 @@
         <v>137</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D101" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E101" s="32" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -9462,13 +9467,13 @@
         <v>260</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D102" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E102" s="32" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -9479,7 +9484,7 @@
         <v>370</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D103" s="30" t="s">
         <v>161</v>
@@ -9494,7 +9499,7 @@
         <v>369</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D104" s="30" t="s">
         <v>161</v>
@@ -9509,7 +9514,7 @@
         <v>362</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D105" s="30" t="s">
         <v>161</v>
@@ -9524,13 +9529,13 @@
         <v>167</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D106" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E106" s="32" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -9541,7 +9546,7 @@
         <v>311</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D107" s="30" t="s">
         <v>161</v>
@@ -9556,7 +9561,7 @@
         <v>364</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D108" s="30" t="s">
         <v>161</v>
@@ -9571,7 +9576,7 @@
         <v>245</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D109" s="30" t="s">
         <v>161</v>
@@ -9586,13 +9591,13 @@
         <v>382</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D110" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E110" s="32" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -9603,7 +9608,7 @@
         <v>281</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D111" s="30" t="s">
         <v>161</v>
@@ -9624,7 +9629,7 @@
         <v>161</v>
       </c>
       <c r="E112" s="32" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -9635,13 +9640,13 @@
         <v>384</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D113" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E113" s="32" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -9652,7 +9657,7 @@
         <v>256</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D114" s="30" t="s">
         <v>161</v>
@@ -9667,7 +9672,7 @@
         <v>323</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D115" s="30" t="s">
         <v>161</v>
@@ -9697,13 +9702,13 @@
         <v>347</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D117" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E117" s="32" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -9714,13 +9719,13 @@
         <v>122</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D118" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E118" s="32" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -9731,13 +9736,13 @@
         <v>357</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D119" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E119" s="32" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -9748,13 +9753,13 @@
         <v>343</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D120" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E120" s="32" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -9765,7 +9770,7 @@
         <v>294</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D121" s="30" t="s">
         <v>161</v>
@@ -9786,7 +9791,7 @@
         <v>161</v>
       </c>
       <c r="E122" s="32" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -9797,7 +9802,7 @@
         <v>320</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D123" s="30" t="s">
         <v>161</v>
@@ -9818,7 +9823,7 @@
         <v>161</v>
       </c>
       <c r="E124" s="32" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -9829,13 +9834,13 @@
         <v>144</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D125" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E125" s="32" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -9846,13 +9851,13 @@
         <v>319</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D126" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E126" s="32" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -9863,7 +9868,7 @@
         <v>360</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D127" s="30" t="s">
         <v>161</v>
@@ -9878,13 +9883,13 @@
         <v>378</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D128" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E128" s="32" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -9895,13 +9900,13 @@
         <v>318</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D129" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E129" s="32" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -9912,7 +9917,7 @@
         <v>325</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D130" s="30" t="s">
         <v>161</v>
@@ -9927,13 +9932,13 @@
         <v>12</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D131" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E131" s="32" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -9944,13 +9949,13 @@
         <v>328</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D132" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E132" s="32" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -9961,7 +9966,7 @@
         <v>156</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D133" s="30" t="s">
         <v>161</v>
@@ -9976,13 +9981,13 @@
         <v>230</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D134" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E134" s="32" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -9993,7 +9998,7 @@
         <v>259</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D135" s="30" t="s">
         <v>161</v>
@@ -10008,13 +10013,13 @@
         <v>39</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D136" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E136" s="32" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -10025,13 +10030,13 @@
         <v>40</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D137" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E137" s="32" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -10042,13 +10047,13 @@
         <v>216</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D138" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E138" s="32" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -10059,13 +10064,13 @@
         <v>377</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D139" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E139" s="32" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -10082,7 +10087,7 @@
         <v>161</v>
       </c>
       <c r="E140" s="38" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -10093,13 +10098,13 @@
         <v>337</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D141" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E141" s="32" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -10110,7 +10115,7 @@
         <v>286</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D142" s="30" t="s">
         <v>161</v>
@@ -10125,13 +10130,13 @@
         <v>22</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D143" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E143" s="32" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -10142,13 +10147,13 @@
         <v>108</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D144" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E144" s="32" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -10159,13 +10164,13 @@
         <v>96</v>
       </c>
       <c r="C145" s="23" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D145" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E145" s="32" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="225" x14ac:dyDescent="0.25">
@@ -10176,13 +10181,13 @@
         <v>95</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D146" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E146" s="32" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="240" x14ac:dyDescent="0.25">
@@ -10193,13 +10198,13 @@
         <v>241</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D147" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E147" s="32" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -10210,7 +10215,7 @@
         <v>351</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D148" s="30" t="s">
         <v>161</v>
@@ -10225,13 +10230,13 @@
         <v>309</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D149" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E149" s="32" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -10242,7 +10247,7 @@
         <v>250</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D150" s="30" t="s">
         <v>161</v>
@@ -10257,13 +10262,13 @@
         <v>35</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D151" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E151" s="32" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -10274,7 +10279,7 @@
         <v>298</v>
       </c>
       <c r="C152" s="23" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D152" s="30" t="s">
         <v>161</v>
@@ -10289,13 +10294,13 @@
         <v>89</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D153" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E153" s="32" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -10312,7 +10317,7 @@
         <v>161</v>
       </c>
       <c r="E154" s="32" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -10323,13 +10328,13 @@
         <v>31</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D155" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E155" s="32" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -10346,7 +10351,7 @@
         <v>161</v>
       </c>
       <c r="E156" s="32" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -10357,13 +10362,13 @@
         <v>60</v>
       </c>
       <c r="C157" s="23" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D157" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E157" s="32" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -10374,13 +10379,13 @@
         <v>77</v>
       </c>
       <c r="C158" s="23" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D158" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E158" s="32" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -10391,7 +10396,7 @@
         <v>255</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D159" s="30" t="s">
         <v>161</v>
@@ -10406,13 +10411,13 @@
         <v>62</v>
       </c>
       <c r="C160" s="23" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D160" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E160" s="32" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -10423,13 +10428,13 @@
         <v>53</v>
       </c>
       <c r="C161" s="25" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D161" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E161" s="38" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -10446,7 +10451,7 @@
         <v>161</v>
       </c>
       <c r="E162" s="32" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -10457,7 +10462,7 @@
         <v>254</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D163" s="30" t="s">
         <v>161</v>
@@ -10478,7 +10483,7 @@
         <v>161</v>
       </c>
       <c r="E164" s="40" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -10489,13 +10494,13 @@
         <v>199</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D165" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E165" s="32" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -10506,13 +10511,13 @@
         <v>367</v>
       </c>
       <c r="C166" s="23" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D166" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E166" s="32" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -10529,7 +10534,7 @@
         <v>161</v>
       </c>
       <c r="E167" s="32" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -10546,7 +10551,7 @@
         <v>161</v>
       </c>
       <c r="E168" s="32" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -10557,13 +10562,13 @@
         <v>59</v>
       </c>
       <c r="C169" s="23" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D169" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E169" s="32" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -10574,7 +10579,7 @@
         <v>253</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D170" s="30" t="s">
         <v>161</v>
@@ -10604,13 +10609,13 @@
         <v>74</v>
       </c>
       <c r="C172" s="25" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D172" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E172" s="32" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -10621,13 +10626,13 @@
         <v>240</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D173" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E173" s="32" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -10638,13 +10643,13 @@
         <v>64</v>
       </c>
       <c r="C174" s="25" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D174" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E174" s="32" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -10655,13 +10660,13 @@
         <v>334</v>
       </c>
       <c r="C175" s="23" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D175" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E175" s="32" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -10672,13 +10677,13 @@
         <v>313</v>
       </c>
       <c r="C176" s="25" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D176" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E176" s="32" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -10689,13 +10694,13 @@
         <v>264</v>
       </c>
       <c r="C177" s="23" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D177" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E177" s="32" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -10706,7 +10711,7 @@
         <v>247</v>
       </c>
       <c r="C178" s="23" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D178" s="30" t="s">
         <v>161</v>
@@ -10727,7 +10732,7 @@
         <v>161</v>
       </c>
       <c r="E179" s="32" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -10744,7 +10749,7 @@
         <v>161</v>
       </c>
       <c r="E180" s="32" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -10755,7 +10760,7 @@
         <v>361</v>
       </c>
       <c r="C181" s="25" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D181" s="30" t="s">
         <v>161</v>
@@ -10770,7 +10775,7 @@
         <v>251</v>
       </c>
       <c r="C182" s="23" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D182" s="30" t="s">
         <v>161</v>
@@ -10785,13 +10790,13 @@
         <v>75</v>
       </c>
       <c r="C183" s="25" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D183" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E183" s="32" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="210" x14ac:dyDescent="0.25">
@@ -10802,13 +10807,13 @@
         <v>289</v>
       </c>
       <c r="C184" s="23" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D184" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E184" s="32" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -10819,13 +10824,13 @@
         <v>11</v>
       </c>
       <c r="C185" s="25" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D185" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E185" s="32" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -10836,7 +10841,7 @@
         <v>277</v>
       </c>
       <c r="C186" s="23" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D186" s="30" t="s">
         <v>161</v>
@@ -10851,7 +10856,7 @@
         <v>244</v>
       </c>
       <c r="C187" s="25" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D187" s="30" t="s">
         <v>161</v>
@@ -10872,7 +10877,7 @@
         <v>161</v>
       </c>
       <c r="E188" s="32" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -10883,13 +10888,13 @@
         <v>284</v>
       </c>
       <c r="C189" s="23" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D189" s="41" t="s">
         <v>161</v>
       </c>
       <c r="E189" s="32" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -10906,7 +10911,7 @@
         <v>161</v>
       </c>
       <c r="E190" s="32" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -10917,13 +10922,13 @@
         <v>376</v>
       </c>
       <c r="C191" s="23" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D191" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E191" s="32" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -10934,7 +10939,7 @@
         <v>261</v>
       </c>
       <c r="C192" s="25" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D192" s="30" t="s">
         <v>161</v>
@@ -10955,7 +10960,7 @@
         <v>161</v>
       </c>
       <c r="E193" s="32" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -10966,13 +10971,13 @@
         <v>279</v>
       </c>
       <c r="C194" s="25" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D194" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E194" s="32" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -10983,13 +10988,13 @@
         <v>341</v>
       </c>
       <c r="C195" s="23" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D195" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E195" s="32" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -11000,13 +11005,13 @@
         <v>129</v>
       </c>
       <c r="C196" s="25" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D196" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E196" s="32" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -11017,7 +11022,7 @@
         <v>80</v>
       </c>
       <c r="C197" s="23" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D197" s="31" t="s">
         <v>161</v>
@@ -11032,7 +11037,7 @@
         <v>78</v>
       </c>
       <c r="C198" s="25" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D198" s="31" t="s">
         <v>161</v>
@@ -11047,13 +11052,13 @@
         <v>331</v>
       </c>
       <c r="C199" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D199" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E199" s="32" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -11064,13 +11069,13 @@
         <v>274</v>
       </c>
       <c r="C200" s="25" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D200" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E200" s="32" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -11081,7 +11086,7 @@
         <v>275</v>
       </c>
       <c r="C201" s="25" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D201" s="24" t="s">
         <v>161</v>
@@ -11096,7 +11101,7 @@
         <v>314</v>
       </c>
       <c r="C202" s="25" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D202" s="24" t="s">
         <v>161</v>
@@ -11111,7 +11116,7 @@
         <v>81</v>
       </c>
       <c r="C203" s="23" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D203" s="22" t="s">
         <v>161</v>
@@ -11141,7 +11146,7 @@
         <v>201</v>
       </c>
       <c r="C205" s="25" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D205" s="24" t="s">
         <v>161</v>
@@ -11156,7 +11161,7 @@
         <v>90</v>
       </c>
       <c r="C206" s="23" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D206" s="22" t="s">
         <v>161</v>
@@ -11171,7 +11176,7 @@
         <v>109</v>
       </c>
       <c r="C207" s="25" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D207" s="24" t="s">
         <v>161</v>
@@ -11186,7 +11191,7 @@
         <v>368</v>
       </c>
       <c r="C208" s="23" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D208" s="22" t="s">
         <v>161</v>
@@ -11201,7 +11206,7 @@
         <v>142</v>
       </c>
       <c r="C209" s="25" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D209" s="24" t="s">
         <v>161</v>
@@ -11216,7 +11221,7 @@
         <v>120</v>
       </c>
       <c r="C210" s="23" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D210" s="22" t="s">
         <v>161</v>
@@ -11231,7 +11236,7 @@
         <v>372</v>
       </c>
       <c r="C211" s="25" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D211" s="24" t="s">
         <v>161</v>
@@ -11246,7 +11251,7 @@
         <v>375</v>
       </c>
       <c r="C212" s="23" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D212" s="22" t="s">
         <v>161</v>
@@ -11261,7 +11266,7 @@
         <v>147</v>
       </c>
       <c r="C213" s="23" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D213" s="22" t="s">
         <v>161</v>
@@ -11276,7 +11281,7 @@
         <v>86</v>
       </c>
       <c r="C214" s="25" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D214" s="24" t="s">
         <v>161</v>
@@ -11291,7 +11296,7 @@
         <v>163</v>
       </c>
       <c r="C215" s="23" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D215" s="22" t="s">
         <v>161</v>
@@ -11306,7 +11311,7 @@
         <v>17</v>
       </c>
       <c r="C216" s="25" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D216" s="24" t="s">
         <v>161</v>
@@ -11336,7 +11341,7 @@
         <v>63</v>
       </c>
       <c r="C218" s="25" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D218" s="24" t="s">
         <v>161</v>
@@ -11351,7 +11356,7 @@
         <v>34</v>
       </c>
       <c r="C219" s="25" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D219" s="24" t="s">
         <v>161</v>
@@ -11381,7 +11386,7 @@
         <v>16</v>
       </c>
       <c r="C221" s="25" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D221" s="24" t="s">
         <v>161</v>
@@ -11411,7 +11416,7 @@
         <v>105</v>
       </c>
       <c r="C223" s="23" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D223" s="22" t="s">
         <v>161</v>
@@ -11426,7 +11431,7 @@
         <v>267</v>
       </c>
       <c r="C224" s="25" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D224" s="24" t="s">
         <v>161</v>
@@ -11441,7 +11446,7 @@
         <v>113</v>
       </c>
       <c r="C225" s="23" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D225" s="22" t="s">
         <v>161</v>
@@ -11456,7 +11461,7 @@
         <v>161</v>
       </c>
       <c r="C226" s="25" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D226" s="24" t="s">
         <v>161</v>
@@ -11471,7 +11476,7 @@
         <v>49</v>
       </c>
       <c r="C227" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D227" s="22" t="s">
         <v>161</v>
@@ -11486,7 +11491,7 @@
         <v>236</v>
       </c>
       <c r="C228" s="25" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D228" s="24" t="s">
         <v>161</v>
@@ -11531,7 +11536,7 @@
         <v>92</v>
       </c>
       <c r="C231" s="23" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D231" s="22" t="s">
         <v>161</v>
@@ -11546,7 +11551,7 @@
         <v>131</v>
       </c>
       <c r="C232" s="25" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D232" s="24" t="s">
         <v>161</v>
@@ -11561,7 +11566,7 @@
         <v>207</v>
       </c>
       <c r="C233" s="23" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D233" s="22" t="s">
         <v>161</v>
@@ -11576,7 +11581,7 @@
         <v>356</v>
       </c>
       <c r="C234" s="25" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D234" s="24" t="s">
         <v>161</v>
@@ -11606,7 +11611,7 @@
         <v>134</v>
       </c>
       <c r="C236" s="25" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D236" s="24" t="s">
         <v>161</v>
@@ -11621,7 +11626,7 @@
         <v>82</v>
       </c>
       <c r="C237" s="23" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D237" s="22" t="s">
         <v>161</v>
@@ -11636,7 +11641,7 @@
         <v>209</v>
       </c>
       <c r="C238" s="25" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D238" s="24" t="s">
         <v>161</v>
@@ -11651,7 +11656,7 @@
         <v>310</v>
       </c>
       <c r="C239" s="23" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D239" s="22" t="s">
         <v>161</v>
@@ -11666,7 +11671,7 @@
         <v>50</v>
       </c>
       <c r="C240" s="25" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D240" s="24" t="s">
         <v>161</v>
@@ -11681,7 +11686,7 @@
         <v>187</v>
       </c>
       <c r="C241" s="23" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D241" s="22" t="s">
         <v>161</v>
@@ -11696,7 +11701,7 @@
         <v>271</v>
       </c>
       <c r="C242" s="23" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D242" s="22" t="s">
         <v>161</v>
@@ -11711,7 +11716,7 @@
         <v>373</v>
       </c>
       <c r="C243" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D243" s="24" t="s">
         <v>161</v>
@@ -11726,7 +11731,7 @@
         <v>229</v>
       </c>
       <c r="C244" s="23" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D244" s="22" t="s">
         <v>161</v>
@@ -11741,7 +11746,7 @@
         <v>306</v>
       </c>
       <c r="C245" s="25" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D245" s="24" t="s">
         <v>161</v>
@@ -11756,7 +11761,7 @@
         <v>385</v>
       </c>
       <c r="C246" s="23" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D246" s="22" t="s">
         <v>161</v>
@@ -11771,7 +11776,7 @@
         <v>227</v>
       </c>
       <c r="C247" s="25" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D247" s="24" t="s">
         <v>161</v>
@@ -11786,7 +11791,7 @@
         <v>139</v>
       </c>
       <c r="C248" s="23" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D248" s="22" t="s">
         <v>161</v>
@@ -11801,7 +11806,7 @@
         <v>386</v>
       </c>
       <c r="C249" s="25" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D249" s="24" t="s">
         <v>161</v>
@@ -11816,7 +11821,7 @@
         <v>222</v>
       </c>
       <c r="C250" s="23" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D250" s="22" t="s">
         <v>161</v>
@@ -11831,7 +11836,7 @@
         <v>332</v>
       </c>
       <c r="C251" s="25" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D251" s="24" t="s">
         <v>161</v>
@@ -11846,7 +11851,7 @@
         <v>69</v>
       </c>
       <c r="C252" s="23" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D252" s="22" t="s">
         <v>161</v>
@@ -11861,7 +11866,7 @@
         <v>148</v>
       </c>
       <c r="C253" s="25" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D253" s="24" t="s">
         <v>161</v>
@@ -11876,7 +11881,7 @@
         <v>228</v>
       </c>
       <c r="C254" s="25" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D254" s="24" t="s">
         <v>161</v>
@@ -11891,7 +11896,7 @@
         <v>379</v>
       </c>
       <c r="C255" s="23" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D255" s="22" t="s">
         <v>161</v>
@@ -11906,7 +11911,7 @@
         <v>322</v>
       </c>
       <c r="C256" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D256" s="24" t="s">
         <v>161</v>
@@ -11936,7 +11941,7 @@
         <v>221</v>
       </c>
       <c r="C258" s="25" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D258" s="24" t="s">
         <v>161</v>
@@ -11951,7 +11956,7 @@
         <v>133</v>
       </c>
       <c r="C259" s="23" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D259" s="22" t="s">
         <v>161</v>
@@ -11966,7 +11971,7 @@
         <v>388</v>
       </c>
       <c r="C260" s="25" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D260" s="24" t="s">
         <v>161</v>
@@ -11981,7 +11986,7 @@
         <v>150</v>
       </c>
       <c r="C261" s="23" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D261" s="22" t="s">
         <v>161</v>
@@ -11996,7 +12001,7 @@
         <v>18</v>
       </c>
       <c r="C262" s="25" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D262" s="24" t="s">
         <v>161</v>
@@ -12011,7 +12016,7 @@
         <v>93</v>
       </c>
       <c r="C263" s="23" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D263" s="22" t="s">
         <v>161</v>
@@ -12026,7 +12031,7 @@
         <v>43</v>
       </c>
       <c r="C264" s="25" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D264" s="24" t="s">
         <v>161</v>
@@ -12071,7 +12076,7 @@
         <v>353</v>
       </c>
       <c r="C267" s="23" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D267" s="22" t="s">
         <v>161</v>
@@ -12086,7 +12091,7 @@
         <v>324</v>
       </c>
       <c r="C268" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D268" s="24" t="s">
         <v>161</v>
@@ -12116,13 +12121,13 @@
         <v>143</v>
       </c>
       <c r="C270" s="25" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D270" s="31" t="s">
         <v>161</v>
       </c>
       <c r="E270" s="32" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -12133,7 +12138,7 @@
         <v>61</v>
       </c>
       <c r="C271" s="23" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D271" s="22" t="s">
         <v>161</v>
@@ -12163,7 +12168,7 @@
         <v>152</v>
       </c>
       <c r="C273" s="25" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D273" s="24" t="s">
         <v>161</v>
@@ -12178,7 +12183,7 @@
         <v>355</v>
       </c>
       <c r="C274" s="23" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D274" s="22" t="s">
         <v>161</v>
@@ -12193,7 +12198,7 @@
         <v>3</v>
       </c>
       <c r="C275" s="25" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D275" s="24" t="s">
         <v>161</v>
@@ -12223,7 +12228,7 @@
         <v>210</v>
       </c>
       <c r="C277" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D277" s="24" t="s">
         <v>161</v>
@@ -12238,7 +12243,7 @@
         <v>304</v>
       </c>
       <c r="C278" s="23" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D278" s="22" t="s">
         <v>161</v>
@@ -12268,7 +12273,7 @@
         <v>179</v>
       </c>
       <c r="C280" s="23" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D280" s="22" t="s">
         <v>161</v>
@@ -12283,7 +12288,7 @@
         <v>211</v>
       </c>
       <c r="C281" s="25" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D281" s="24" t="s">
         <v>161</v>
@@ -12313,7 +12318,7 @@
         <v>127</v>
       </c>
       <c r="C283" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D283" s="24" t="s">
         <v>161</v>
@@ -12328,7 +12333,7 @@
         <v>220</v>
       </c>
       <c r="C284" s="23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D284" s="22" t="s">
         <v>161</v>
@@ -12343,7 +12348,7 @@
         <v>307</v>
       </c>
       <c r="C285" s="25" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D285" s="24" t="s">
         <v>161</v>
@@ -12358,7 +12363,7 @@
         <v>91</v>
       </c>
       <c r="C286" s="23" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D286" s="22" t="s">
         <v>161</v>
@@ -12373,7 +12378,7 @@
         <v>130</v>
       </c>
       <c r="C287" s="25" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D287" s="24" t="s">
         <v>161</v>
@@ -12388,7 +12393,7 @@
         <v>166</v>
       </c>
       <c r="C288" s="23" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D288" s="22" t="s">
         <v>161</v>
@@ -12403,7 +12408,7 @@
         <v>29</v>
       </c>
       <c r="C289" s="25" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D289" s="24" t="s">
         <v>161</v>
@@ -12433,7 +12438,7 @@
         <v>296</v>
       </c>
       <c r="C291" s="25" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D291" s="24" t="s">
         <v>164</v>
@@ -12448,7 +12453,7 @@
         <v>302</v>
       </c>
       <c r="C292" s="23" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D292" s="22" t="s">
         <v>164</v>
@@ -12463,7 +12468,7 @@
         <v>52</v>
       </c>
       <c r="C293" s="25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D293" s="24" t="s">
         <v>164</v>
@@ -12478,7 +12483,7 @@
         <v>287</v>
       </c>
       <c r="C294" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D294" s="22" t="s">
         <v>164</v>
@@ -12493,7 +12498,7 @@
         <v>312</v>
       </c>
       <c r="C295" s="25" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D295" s="24" t="s">
         <v>164</v>
@@ -12508,7 +12513,7 @@
         <v>340</v>
       </c>
       <c r="C296" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D296" s="22" t="s">
         <v>164</v>
@@ -12523,7 +12528,7 @@
         <v>352</v>
       </c>
       <c r="C297" s="25" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D297" s="24" t="s">
         <v>164</v>
@@ -12538,7 +12543,7 @@
         <v>159</v>
       </c>
       <c r="C298" s="23" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D298" s="22" t="s">
         <v>164</v>
@@ -12553,13 +12558,13 @@
         <v>145</v>
       </c>
       <c r="C299" s="25" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D299" s="31" t="s">
         <v>164</v>
       </c>
       <c r="E299" s="32" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -12570,7 +12575,7 @@
         <v>265</v>
       </c>
       <c r="C300" s="23" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D300" s="22" t="s">
         <v>164</v>
@@ -12585,7 +12590,7 @@
         <v>291</v>
       </c>
       <c r="C301" s="25" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D301" s="24" t="s">
         <v>164</v>
@@ -12600,7 +12605,7 @@
         <v>305</v>
       </c>
       <c r="C302" s="23" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D302" s="22" t="s">
         <v>164</v>
@@ -12615,7 +12620,7 @@
         <v>272</v>
       </c>
       <c r="C303" s="25" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D303" s="24" t="s">
         <v>164</v>
@@ -12630,7 +12635,7 @@
         <v>154</v>
       </c>
       <c r="C304" s="23" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D304" s="22" t="s">
         <v>164</v>
@@ -12645,7 +12650,7 @@
         <v>380</v>
       </c>
       <c r="C305" s="25" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D305" s="24" t="s">
         <v>164</v>
@@ -12660,7 +12665,7 @@
         <v>128</v>
       </c>
       <c r="C306" s="23" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D306" s="22" t="s">
         <v>164</v>
@@ -12675,7 +12680,7 @@
         <v>42</v>
       </c>
       <c r="C307" s="25" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D307" s="24" t="s">
         <v>164</v>
@@ -12690,7 +12695,7 @@
         <v>329</v>
       </c>
       <c r="C308" s="23" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D308" s="22" t="s">
         <v>164</v>
@@ -12705,7 +12710,7 @@
         <v>301</v>
       </c>
       <c r="C309" s="25" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D309" s="24" t="s">
         <v>164</v>
@@ -12735,7 +12740,7 @@
         <v>317</v>
       </c>
       <c r="C311" s="25" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D311" s="24" t="s">
         <v>164</v>
@@ -12750,7 +12755,7 @@
         <v>315</v>
       </c>
       <c r="C312" s="23" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D312" s="22" t="s">
         <v>164</v>
@@ -12780,7 +12785,7 @@
         <v>330</v>
       </c>
       <c r="C314" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D314" s="22" t="s">
         <v>164</v>
@@ -12795,7 +12800,7 @@
         <v>363</v>
       </c>
       <c r="C315" s="25" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D315" s="24" t="s">
         <v>164</v>
@@ -12810,7 +12815,7 @@
         <v>354</v>
       </c>
       <c r="C316" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D316" s="22" t="s">
         <v>164</v>
@@ -12825,7 +12830,7 @@
         <v>115</v>
       </c>
       <c r="C317" s="25" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D317" s="24" t="s">
         <v>164</v>
@@ -12840,7 +12845,7 @@
         <v>72</v>
       </c>
       <c r="C318" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D318" s="22" t="s">
         <v>164</v>
@@ -12870,7 +12875,7 @@
         <v>381</v>
       </c>
       <c r="C320" s="23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D320" s="22" t="s">
         <v>164</v>
@@ -12885,7 +12890,7 @@
         <v>358</v>
       </c>
       <c r="C321" s="25" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D321" s="24" t="s">
         <v>164</v>
@@ -12900,7 +12905,7 @@
         <v>239</v>
       </c>
       <c r="C322" s="23" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D322" s="22" t="s">
         <v>164</v>
@@ -12915,7 +12920,7 @@
         <v>248</v>
       </c>
       <c r="C323" s="25" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D323" s="24" t="s">
         <v>164</v>
@@ -12945,7 +12950,7 @@
         <v>164</v>
       </c>
       <c r="C325" s="25" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D325" s="24" t="s">
         <v>164</v>
@@ -12960,7 +12965,7 @@
         <v>99</v>
       </c>
       <c r="C326" s="23" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D326" s="22" t="s">
         <v>164</v>
@@ -12975,7 +12980,7 @@
         <v>87</v>
       </c>
       <c r="C327" s="25" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D327" s="24" t="s">
         <v>164</v>
@@ -12990,7 +12995,7 @@
         <v>123</v>
       </c>
       <c r="C328" s="23" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D328" s="22" t="s">
         <v>164</v>
@@ -13005,7 +13010,7 @@
         <v>51</v>
       </c>
       <c r="C329" s="25" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D329" s="24" t="s">
         <v>164</v>
@@ -13020,7 +13025,7 @@
         <v>327</v>
       </c>
       <c r="C330" s="23" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D330" s="22" t="s">
         <v>164</v>
@@ -13035,7 +13040,7 @@
         <v>316</v>
       </c>
       <c r="C331" s="25" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D331" s="24" t="s">
         <v>164</v>
@@ -13065,7 +13070,7 @@
         <v>282</v>
       </c>
       <c r="C333" s="25" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D333" s="24" t="s">
         <v>164</v>
@@ -13080,7 +13085,7 @@
         <v>37</v>
       </c>
       <c r="C334" s="23" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D334" s="22" t="s">
         <v>164</v>
@@ -13110,7 +13115,7 @@
         <v>233</v>
       </c>
       <c r="C336" s="23" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D336" s="22" t="s">
         <v>164</v>
@@ -13125,7 +13130,7 @@
         <v>45</v>
       </c>
       <c r="C337" s="25" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D337" s="24" t="s">
         <v>164</v>
@@ -13140,7 +13145,7 @@
         <v>84</v>
       </c>
       <c r="C338" s="23" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D338" s="22" t="s">
         <v>164</v>
@@ -13155,7 +13160,7 @@
         <v>57</v>
       </c>
       <c r="C339" s="25" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D339" s="24" t="s">
         <v>164</v>
@@ -13170,7 +13175,7 @@
         <v>269</v>
       </c>
       <c r="C340" s="23" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D340" s="22" t="s">
         <v>164</v>
@@ -13185,7 +13190,7 @@
         <v>85</v>
       </c>
       <c r="C341" s="25" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D341" s="24" t="s">
         <v>164</v>
@@ -13215,7 +13220,7 @@
         <v>41</v>
       </c>
       <c r="C343" s="25" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D343" s="24" t="s">
         <v>164</v>
@@ -13245,7 +13250,7 @@
         <v>158</v>
       </c>
       <c r="C345" s="25" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D345" s="24" t="s">
         <v>164</v>
@@ -13275,7 +13280,7 @@
         <v>224</v>
       </c>
       <c r="C347" s="25" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D347" s="24" t="s">
         <v>164</v>
@@ -13290,7 +13295,7 @@
         <v>97</v>
       </c>
       <c r="C348" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D348" s="22" t="s">
         <v>164</v>
@@ -13305,7 +13310,7 @@
         <v>135</v>
       </c>
       <c r="C349" s="25" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D349" s="24" t="s">
         <v>164</v>
@@ -13320,7 +13325,7 @@
         <v>188</v>
       </c>
       <c r="C350" s="23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D350" s="22" t="s">
         <v>164</v>
@@ -13335,7 +13340,7 @@
         <v>32</v>
       </c>
       <c r="C351" s="25" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D351" s="24" t="s">
         <v>164</v>
@@ -13350,7 +13355,7 @@
         <v>10</v>
       </c>
       <c r="C352" s="23" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D352" s="22" t="s">
         <v>164</v>
@@ -13365,7 +13370,7 @@
         <v>295</v>
       </c>
       <c r="C353" s="25" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D353" s="24" t="s">
         <v>164</v>
@@ -13380,7 +13385,7 @@
         <v>132</v>
       </c>
       <c r="C354" s="23" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D354" s="22" t="s">
         <v>164</v>
@@ -13395,7 +13400,7 @@
         <v>321</v>
       </c>
       <c r="C355" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D355" s="24" t="s">
         <v>164</v>
@@ -13410,7 +13415,7 @@
         <v>76</v>
       </c>
       <c r="C356" s="23" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D356" s="22" t="s">
         <v>164</v>
@@ -13425,7 +13430,7 @@
         <v>335</v>
       </c>
       <c r="C357" s="25" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D357" s="24" t="s">
         <v>164</v>
@@ -13440,7 +13445,7 @@
         <v>336</v>
       </c>
       <c r="C358" s="23" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D358" s="22" t="s">
         <v>164</v>
@@ -13470,7 +13475,7 @@
         <v>30</v>
       </c>
       <c r="C360" s="23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D360" s="22" t="s">
         <v>164</v>
@@ -13485,7 +13490,7 @@
         <v>214</v>
       </c>
       <c r="C361" s="25" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D361" s="24" t="s">
         <v>164</v>
@@ -13500,7 +13505,7 @@
         <v>308</v>
       </c>
       <c r="C362" s="23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D362" s="22" t="s">
         <v>164</v>
@@ -13530,7 +13535,7 @@
         <v>140</v>
       </c>
       <c r="C364" s="23" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D364" s="22" t="s">
         <v>164</v>
@@ -13575,7 +13580,7 @@
         <v>44</v>
       </c>
       <c r="C367" s="25" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D367" s="24" t="s">
         <v>164</v>
@@ -13590,7 +13595,7 @@
         <v>68</v>
       </c>
       <c r="C368" s="23" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D368" s="22" t="s">
         <v>164</v>
@@ -13620,7 +13625,7 @@
         <v>149</v>
       </c>
       <c r="C370" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D370" s="22" t="s">
         <v>164</v>
@@ -13635,7 +13640,7 @@
         <v>126</v>
       </c>
       <c r="C371" s="25" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D371" s="24" t="s">
         <v>164</v>
@@ -13650,7 +13655,7 @@
         <v>65</v>
       </c>
       <c r="C372" s="23" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D372" s="22" t="s">
         <v>164</v>
